--- a/Stats/Monte_Carlo.xlsx
+++ b/Stats/Monte_Carlo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b613b08383af307f/Documents/Data Science/_Reference/Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{7C76E573-C53E-45E5-BA29-1B27AA4BBC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BF41C0B-98F6-4B2D-AAF1-E02FC57D3F74}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{7C76E573-C53E-45E5-BA29-1B27AA4BBC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F8293DE-BA05-43A0-9859-5BEA7956D3F5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{1FC90EF6-C303-43BA-92A2-492D1B9B880A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{1FC90EF6-C303-43BA-92A2-492D1B9B880A}"/>
   </bookViews>
   <sheets>
     <sheet name="FV with Certainty" sheetId="1" r:id="rId1"/>
+    <sheet name="Monte Carlo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>PV</t>
   </si>
@@ -57,6 +58,51 @@
   </si>
   <si>
     <t>FV (total)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>End Value</t>
+  </si>
+  <si>
+    <t>Current Savings</t>
+  </si>
+  <si>
+    <t>Avg Return</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Saving/yr</t>
+  </si>
+  <si>
+    <t>Replication 1</t>
+  </si>
+  <si>
+    <t>Percentile</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Replication</t>
+  </si>
+  <si>
+    <t>Port Value</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>MED</t>
   </si>
 </sst>
 </file>
@@ -113,6 +159,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0A23D2-2B47-45C6-9D7B-C1F2D7349986}">
   <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>25000</v>
+        <v>-25000</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -456,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>10000</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -481,7 +531,7 @@
       </c>
       <c r="C7" s="1">
         <f>FV(C4,C5,0,C2)</f>
-        <v>-1131481.3892044018</v>
+        <v>1131481.3892044018</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -490,7 +540,7 @@
       </c>
       <c r="C8" s="1">
         <f>FV(C4,C5,C3,0)</f>
-        <v>-4425925.556817607</v>
+        <v>4425925.556817607</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -499,7 +549,8589 @@
       </c>
       <c r="C9" s="1">
         <f>FV(C4,C5,C3,C2,)</f>
-        <v>-5557406.9460220085</v>
+        <v>5557406.9460220085</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BA00F8-A183-4D0F-9126-F2E9ACBCEB27}">
+  <dimension ref="B2:H1013"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>25000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <f ca="1">AVERAGE(H13:H1013)</f>
+        <v>5470051.2162935305</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1">
+        <f ca="1">MEDIAN(H13:H1013)</f>
+        <v>4642185.5383146023</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>0.12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="1">
+        <f ca="1">_xlfn.PERCENTILE.INC(H13:H1013,E5)</f>
+        <v>2346741.6547303507</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <f ca="1">D53</f>
+        <v>4225406.5565429023</v>
+      </c>
+      <c r="E6">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="1">
+        <f ca="1">_xlfn.PERCENTILE.INC(H13:H1013,E6)</f>
+        <v>3205304.2739896919</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
+        <f ca="1">MIN(H13:H1013)</f>
+        <v>801127.89643769455</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1">
+        <f ca="1">MAX(H13:H1013)</f>
+        <v>29972440.208785515</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1">
+        <f ca="1">C6</f>
+        <v>4225406.5565429023</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f ca="1">NORMINV(RAND(),$C$3,$C$4)</f>
+        <v>7.9278761329375155E-2</v>
+      </c>
+      <c r="D14">
+        <f ca="1">C2*(1+C14)+C5</f>
+        <v>36981.969033234374</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="dataTable" ref="H14:H1013" dt2D="0" dtr="0" r1="G11" ca="1"/>
+        <v>5418981.5825324487</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:C53" ca="1" si="0">NORMINV(RAND(),$C$3,$C$4)</f>
+        <v>5.8216741040069464E-2</v>
+      </c>
+      <c r="D15">
+        <f ca="1">D14*(1+C15)+C$5</f>
+        <v>49134.938747594053</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5831075.2608330268</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.5220830108130807E-2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D53" ca="1" si="1">D15*(1+C16)+C$5</f>
+        <v>63322.259014976175</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3523327.6123237903</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19440359547778915</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="1"/>
+        <v>85632.333841263389</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6103363.6949311029</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.2867161558364989E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
+        <v>100159.4722690693</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4896225.142326436</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13425284824753189</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="1"/>
+        <v>123606.16670016153</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5230691.4263270833</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30429323953207366</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="1"/>
+        <v>171218.6875914952</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1">
+        <v>10666961.293964382</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17652693845903195</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="1"/>
+        <v>211443.39831899529</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3888527.060357572</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11879659960916704</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="1"/>
+        <v>246562.1550490986</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1590587.1502769187</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7.9437154816274169E-2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="1"/>
+        <v>236975.95896662914</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3665893.1402846044</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.11026209042618965</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="1"/>
+        <v>220846.49435021769</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24" s="1">
+        <v>10201690.916981414</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20607004093787346</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="1"/>
+        <v>276356.34048195288</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4127750.7041245229</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26439746532624275</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="1"/>
+        <v>359424.25643221731</v>
+      </c>
+      <c r="G26">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3104720.4157108278</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.3693266724920244E-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="1"/>
+        <v>364502.56422148482</v>
+      </c>
+      <c r="G27">
+        <v>14</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2745803.8449752317</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24521066720260101</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="1"/>
+        <v>463882.48119129409</v>
+      </c>
+      <c r="G28">
+        <v>15</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5316241.1530502047</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7.4929421346383196E-2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="1"/>
+        <v>439124.03530290595</v>
+      </c>
+      <c r="G29">
+        <v>16</v>
+      </c>
+      <c r="H29" s="1">
+        <v>4069698.3559967945</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.11714460446003946</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="1"/>
+        <v>397683.02387845062</v>
+      </c>
+      <c r="G30">
+        <v>17</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3752089.8255756763</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15640031191238593</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="1"/>
+        <v>469880.77285530115</v>
+      </c>
+      <c r="G31">
+        <v>18</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3540580.6393011883</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.6950884681780066E-2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="1"/>
+        <v>462518.26260333922</v>
+      </c>
+      <c r="G32">
+        <v>19</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1823927.3595613232</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.0757825600029428E-2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="1"/>
+        <v>467542.57179742388</v>
+      </c>
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="H33" s="1">
+        <v>4338525.42535289</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>21</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.108853869025344</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="1"/>
+        <v>528436.38967163314</v>
+      </c>
+      <c r="G34">
+        <v>21</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2024805.8281325793</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>22</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.14307092939310162</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="1"/>
+        <v>462832.50427617738</v>
+      </c>
+      <c r="G35">
+        <v>22</v>
+      </c>
+      <c r="H35" s="1">
+        <v>6117110.2172644967</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7789983093123035E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="1"/>
+        <v>504207.91191600723</v>
+      </c>
+      <c r="G36">
+        <v>23</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2546331.4245125614</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.7778870343557405E-2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="1"/>
+        <v>553424.63372311811</v>
+      </c>
+      <c r="G37">
+        <v>24</v>
+      </c>
+      <c r="H37" s="1">
+        <v>9643034.9833879862</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24029006330071614</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="1"/>
+        <v>696407.07399262174</v>
+      </c>
+      <c r="G38">
+        <v>25</v>
+      </c>
+      <c r="H38" s="1">
+        <v>7569653.7066494562</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>26</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19897527059711489</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="1"/>
+        <v>844974.85998604866</v>
+      </c>
+      <c r="G39">
+        <v>26</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2813099.1015599426</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>27</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.7756367321862358E-2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="1"/>
+        <v>929126.78417672357</v>
+      </c>
+      <c r="G40">
+        <v>27</v>
+      </c>
+      <c r="H40" s="1">
+        <v>8363756.2411572775</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>28</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6.5058894029522391E-2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="1"/>
+        <v>878678.82318497926</v>
+      </c>
+      <c r="G41">
+        <v>28</v>
+      </c>
+      <c r="H41" s="1">
+        <v>13342811.781611191</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>29</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14770037048654883</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="1"/>
+        <v>1018460.0109080855</v>
+      </c>
+      <c r="G42">
+        <v>29</v>
+      </c>
+      <c r="H42" s="1">
+        <v>7090411.8311126884</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6698682512362022E-2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="1"/>
+        <v>1126943.7521544234</v>
+      </c>
+      <c r="G43">
+        <v>30</v>
+      </c>
+      <c r="H43" s="1">
+        <v>6183951.7693425715</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>31</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.1588228431671448E-2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="1"/>
+        <v>1195080.7838702109</v>
+      </c>
+      <c r="G44">
+        <v>31</v>
+      </c>
+      <c r="H44" s="1">
+        <v>5145499.3223713394</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>32</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3912996563524436E-2</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="1"/>
+        <v>1245609.5543867354</v>
+      </c>
+      <c r="G45">
+        <v>32</v>
+      </c>
+      <c r="H45" s="1">
+        <v>7725168.283021709</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18022594823139623</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="1"/>
+        <v>1480100.7174521717</v>
+      </c>
+      <c r="G46">
+        <v>33</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1714745.3053070654</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>34</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18499708915835586</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="1"/>
+        <v>1763915.0418420176</v>
+      </c>
+      <c r="G47">
+        <v>34</v>
+      </c>
+      <c r="H47" s="1">
+        <v>5888340.0223599523</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25534391119961297</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="1"/>
+        <v>2224320.0076497872</v>
+      </c>
+      <c r="G48">
+        <v>35</v>
+      </c>
+      <c r="H48" s="1">
+        <v>8249980.4371770639</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>36</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3351754738345845E-2</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="1"/>
+        <v>2286261.7829280207</v>
+      </c>
+      <c r="G49">
+        <v>36</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2346097.2969661891</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>37</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18777168333435823</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="1"/>
+        <v>2725557.0064514261</v>
+      </c>
+      <c r="G50">
+        <v>37</v>
+      </c>
+      <c r="H50" s="1">
+        <v>3715580.3769381214</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>38</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15802031108765377</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="1"/>
+        <v>3166250.3724980145</v>
+      </c>
+      <c r="G51">
+        <v>38</v>
+      </c>
+      <c r="H51" s="1">
+        <v>4524105.9645378217</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>39</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28752391432360946</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="1"/>
+        <v>4086623.0733272303</v>
+      </c>
+      <c r="G52">
+        <v>39</v>
+      </c>
+      <c r="H52" s="1">
+        <v>8135836.5270460909</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>40</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1513423407267968E-2</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="1"/>
+        <v>4225406.5565429023</v>
+      </c>
+      <c r="G53">
+        <v>40</v>
+      </c>
+      <c r="H53" s="1">
+        <v>8308159.9684494212</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>41</v>
+      </c>
+      <c r="H54" s="1">
+        <v>12929121.471942406</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>42</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1692654.2817856004</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>43</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2984786.4860916235</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>44</v>
+      </c>
+      <c r="H57" s="1">
+        <v>9123838.48595188</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>45</v>
+      </c>
+      <c r="H58" s="1">
+        <v>2920314.5800058711</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>46</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2785179.7518383628</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>47</v>
+      </c>
+      <c r="H60" s="1">
+        <v>4998656.6083711721</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>48</v>
+      </c>
+      <c r="H61" s="1">
+        <v>5385258.1009854116</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>49</v>
+      </c>
+      <c r="H62" s="1">
+        <v>2786766.8804731267</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>50</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1766935.2367475014</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>51</v>
+      </c>
+      <c r="H64" s="1">
+        <v>5194549.5746140061</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>52</v>
+      </c>
+      <c r="H65" s="1">
+        <v>7670284.1704096403</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>53</v>
+      </c>
+      <c r="H66" s="1">
+        <v>2300202.639338796</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>54</v>
+      </c>
+      <c r="H67" s="1">
+        <v>8702090.5989411119</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>55</v>
+      </c>
+      <c r="H68" s="1">
+        <v>4787715.9370164946</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>56</v>
+      </c>
+      <c r="H69" s="1">
+        <v>6959451.3960028654</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>57</v>
+      </c>
+      <c r="H70" s="1">
+        <v>12515845.44063109</v>
+      </c>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>58</v>
+      </c>
+      <c r="H71" s="1">
+        <v>8325791.1301853256</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>59</v>
+      </c>
+      <c r="H72" s="1">
+        <v>5527408.4450546391</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>60</v>
+      </c>
+      <c r="H73" s="1">
+        <v>4907891.5317710936</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>61</v>
+      </c>
+      <c r="H74" s="1">
+        <v>12638037.566576447</v>
+      </c>
+    </row>
+    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>62</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1006315.1847979622</v>
+      </c>
+    </row>
+    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>63</v>
+      </c>
+      <c r="H76" s="1">
+        <v>7076750.9078975329</v>
+      </c>
+    </row>
+    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>64</v>
+      </c>
+      <c r="H77" s="1">
+        <v>5773422.9321499551</v>
+      </c>
+    </row>
+    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>65</v>
+      </c>
+      <c r="H78" s="1">
+        <v>4156874.4953455757</v>
+      </c>
+    </row>
+    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>66</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1715326.7705655093</v>
+      </c>
+    </row>
+    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>67</v>
+      </c>
+      <c r="H80" s="1">
+        <v>8295650.1371479658</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>68</v>
+      </c>
+      <c r="H81" s="1">
+        <v>3065837.7930585174</v>
+      </c>
+    </row>
+    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>69</v>
+      </c>
+      <c r="H82" s="1">
+        <v>2769242.6917284336</v>
+      </c>
+    </row>
+    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>70</v>
+      </c>
+      <c r="H83" s="1">
+        <v>5604695.3371072486</v>
+      </c>
+    </row>
+    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>71</v>
+      </c>
+      <c r="H84" s="1">
+        <v>1489664.2124481709</v>
+      </c>
+    </row>
+    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>72</v>
+      </c>
+      <c r="H85" s="1">
+        <v>15036105.986414509</v>
+      </c>
+    </row>
+    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>73</v>
+      </c>
+      <c r="H86" s="1">
+        <v>13929705.016968491</v>
+      </c>
+    </row>
+    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>74</v>
+      </c>
+      <c r="H87" s="1">
+        <v>1945348.164569848</v>
+      </c>
+    </row>
+    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>75</v>
+      </c>
+      <c r="H88" s="1">
+        <v>8380928.8081003018</v>
+      </c>
+    </row>
+    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>76</v>
+      </c>
+      <c r="H89" s="1">
+        <v>4912961.2278009634</v>
+      </c>
+    </row>
+    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>77</v>
+      </c>
+      <c r="H90" s="1">
+        <v>6374108.2213804377</v>
+      </c>
+    </row>
+    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>78</v>
+      </c>
+      <c r="H91" s="1">
+        <v>8158889.730592601</v>
+      </c>
+    </row>
+    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>79</v>
+      </c>
+      <c r="H92" s="1">
+        <v>869527.35594037524</v>
+      </c>
+    </row>
+    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>80</v>
+      </c>
+      <c r="H93" s="1">
+        <v>6109885.6658607749</v>
+      </c>
+    </row>
+    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>81</v>
+      </c>
+      <c r="H94" s="1">
+        <v>2834779.616084523</v>
+      </c>
+    </row>
+    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>82</v>
+      </c>
+      <c r="H95" s="1">
+        <v>5030070.9376715831</v>
+      </c>
+    </row>
+    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <v>83</v>
+      </c>
+      <c r="H96" s="1">
+        <v>8970516.1442742273</v>
+      </c>
+    </row>
+    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>84</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1764389.3214517804</v>
+      </c>
+    </row>
+    <row r="98" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <v>85</v>
+      </c>
+      <c r="H98" s="1">
+        <v>8581456.4187235273</v>
+      </c>
+    </row>
+    <row r="99" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <v>86</v>
+      </c>
+      <c r="H99" s="1">
+        <v>3998803.3242578185</v>
+      </c>
+    </row>
+    <row r="100" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <v>87</v>
+      </c>
+      <c r="H100" s="1">
+        <v>7332432.3438883042</v>
+      </c>
+    </row>
+    <row r="101" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>88</v>
+      </c>
+      <c r="H101" s="1">
+        <v>10599709.329698507</v>
+      </c>
+    </row>
+    <row r="102" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <v>89</v>
+      </c>
+      <c r="H102" s="1">
+        <v>2857329.5554093816</v>
+      </c>
+    </row>
+    <row r="103" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <v>90</v>
+      </c>
+      <c r="H103" s="1">
+        <v>2861371.4379215427</v>
+      </c>
+    </row>
+    <row r="104" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <v>91</v>
+      </c>
+      <c r="H104" s="1">
+        <v>3398433.4428459224</v>
+      </c>
+    </row>
+    <row r="105" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <v>92</v>
+      </c>
+      <c r="H105" s="1">
+        <v>2291579.7333787717</v>
+      </c>
+    </row>
+    <row r="106" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <v>93</v>
+      </c>
+      <c r="H106" s="1">
+        <v>1905493.2559896375</v>
+      </c>
+    </row>
+    <row r="107" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <v>94</v>
+      </c>
+      <c r="H107" s="1">
+        <v>3385958.4275630121</v>
+      </c>
+    </row>
+    <row r="108" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <v>95</v>
+      </c>
+      <c r="H108" s="1">
+        <v>14708294.298798569</v>
+      </c>
+    </row>
+    <row r="109" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <v>96</v>
+      </c>
+      <c r="H109" s="1">
+        <v>7675777.2575687403</v>
+      </c>
+    </row>
+    <row r="110" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <v>97</v>
+      </c>
+      <c r="H110" s="1">
+        <v>4008501.9377006679</v>
+      </c>
+    </row>
+    <row r="111" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <v>98</v>
+      </c>
+      <c r="H111" s="1">
+        <v>7107482.6909523439</v>
+      </c>
+    </row>
+    <row r="112" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <v>99</v>
+      </c>
+      <c r="H112" s="1">
+        <v>1898828.8943266594</v>
+      </c>
+    </row>
+    <row r="113" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <v>100</v>
+      </c>
+      <c r="H113" s="1">
+        <v>3425591.4841364473</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G114">
+        <v>101</v>
+      </c>
+      <c r="H114" s="1">
+        <v>10178243.684543964</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G115">
+        <v>102</v>
+      </c>
+      <c r="H115" s="1">
+        <v>4083848.339708982</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G116">
+        <v>103</v>
+      </c>
+      <c r="H116" s="1">
+        <v>1862955.2273323147</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G117">
+        <v>104</v>
+      </c>
+      <c r="H117" s="1">
+        <v>2457529.2193857231</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G118">
+        <v>105</v>
+      </c>
+      <c r="H118" s="1">
+        <v>5041337.0658103079</v>
+      </c>
+    </row>
+    <row r="119" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <v>106</v>
+      </c>
+      <c r="H119" s="1">
+        <v>4063356.3243752886</v>
+      </c>
+    </row>
+    <row r="120" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <v>107</v>
+      </c>
+      <c r="H120" s="1">
+        <v>5042144.342059616</v>
+      </c>
+    </row>
+    <row r="121" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G121">
+        <v>108</v>
+      </c>
+      <c r="H121" s="1">
+        <v>3707145.4251386332</v>
+      </c>
+    </row>
+    <row r="122" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <v>109</v>
+      </c>
+      <c r="H122" s="1">
+        <v>2786291.5074073528</v>
+      </c>
+    </row>
+    <row r="123" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G123">
+        <v>110</v>
+      </c>
+      <c r="H123" s="1">
+        <v>4236208.9175719824</v>
+      </c>
+    </row>
+    <row r="124" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G124">
+        <v>111</v>
+      </c>
+      <c r="H124" s="1">
+        <v>3238848.9059839365</v>
+      </c>
+    </row>
+    <row r="125" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <v>112</v>
+      </c>
+      <c r="H125" s="1">
+        <v>3789244.7932313867</v>
+      </c>
+    </row>
+    <row r="126" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G126">
+        <v>113</v>
+      </c>
+      <c r="H126" s="1">
+        <v>10304512.819080867</v>
+      </c>
+    </row>
+    <row r="127" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <v>114</v>
+      </c>
+      <c r="H127" s="1">
+        <v>5715998.351204481</v>
+      </c>
+    </row>
+    <row r="128" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <v>115</v>
+      </c>
+      <c r="H128" s="1">
+        <v>4454917.1124223219</v>
+      </c>
+    </row>
+    <row r="129" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <v>116</v>
+      </c>
+      <c r="H129" s="1">
+        <v>2940547.1183257224</v>
+      </c>
+    </row>
+    <row r="130" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G130">
+        <v>117</v>
+      </c>
+      <c r="H130" s="1">
+        <v>5696582.6107640043</v>
+      </c>
+    </row>
+    <row r="131" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <v>118</v>
+      </c>
+      <c r="H131" s="1">
+        <v>5576381.1944174208</v>
+      </c>
+    </row>
+    <row r="132" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G132">
+        <v>119</v>
+      </c>
+      <c r="H132" s="1">
+        <v>8998601.8647029139</v>
+      </c>
+    </row>
+    <row r="133" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <v>120</v>
+      </c>
+      <c r="H133" s="1">
+        <v>23790961.246289603</v>
+      </c>
+    </row>
+    <row r="134" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <v>121</v>
+      </c>
+      <c r="H134" s="1">
+        <v>2879605.7297083633</v>
+      </c>
+    </row>
+    <row r="135" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <v>122</v>
+      </c>
+      <c r="H135" s="1">
+        <v>4888018.0881627565</v>
+      </c>
+    </row>
+    <row r="136" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <v>123</v>
+      </c>
+      <c r="H136" s="1">
+        <v>3637123.2220075526</v>
+      </c>
+    </row>
+    <row r="137" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <v>124</v>
+      </c>
+      <c r="H137" s="1">
+        <v>4116418.479948693</v>
+      </c>
+    </row>
+    <row r="138" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <v>125</v>
+      </c>
+      <c r="H138" s="1">
+        <v>3273317.6680689971</v>
+      </c>
+    </row>
+    <row r="139" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <v>126</v>
+      </c>
+      <c r="H139" s="1">
+        <v>3927951.1213128576</v>
+      </c>
+    </row>
+    <row r="140" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G140">
+        <v>127</v>
+      </c>
+      <c r="H140" s="1">
+        <v>9588354.8445084356</v>
+      </c>
+    </row>
+    <row r="141" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G141">
+        <v>128</v>
+      </c>
+      <c r="H141" s="1">
+        <v>4790877.4556049751</v>
+      </c>
+    </row>
+    <row r="142" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <v>129</v>
+      </c>
+      <c r="H142" s="1">
+        <v>3350504.3188129812</v>
+      </c>
+    </row>
+    <row r="143" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G143">
+        <v>130</v>
+      </c>
+      <c r="H143" s="1">
+        <v>2397376.476086759</v>
+      </c>
+    </row>
+    <row r="144" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <v>131</v>
+      </c>
+      <c r="H144" s="1">
+        <v>14033758.09330361</v>
+      </c>
+    </row>
+    <row r="145" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G145">
+        <v>132</v>
+      </c>
+      <c r="H145" s="1">
+        <v>5051881.1413299683</v>
+      </c>
+    </row>
+    <row r="146" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G146">
+        <v>133</v>
+      </c>
+      <c r="H146" s="1">
+        <v>2698778.0507536135</v>
+      </c>
+    </row>
+    <row r="147" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G147">
+        <v>134</v>
+      </c>
+      <c r="H147" s="1">
+        <v>1917863.6573619188</v>
+      </c>
+    </row>
+    <row r="148" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <v>135</v>
+      </c>
+      <c r="H148" s="1">
+        <v>5494963.9945990583</v>
+      </c>
+    </row>
+    <row r="149" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <v>136</v>
+      </c>
+      <c r="H149" s="1">
+        <v>7082855.1893114178</v>
+      </c>
+    </row>
+    <row r="150" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G150">
+        <v>137</v>
+      </c>
+      <c r="H150" s="1">
+        <v>7156821.8346124748</v>
+      </c>
+    </row>
+    <row r="151" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <v>138</v>
+      </c>
+      <c r="H151" s="1">
+        <v>7538404.1445250856</v>
+      </c>
+    </row>
+    <row r="152" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <v>139</v>
+      </c>
+      <c r="H152" s="1">
+        <v>4609114.0954829957</v>
+      </c>
+    </row>
+    <row r="153" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <v>140</v>
+      </c>
+      <c r="H153" s="1">
+        <v>6053903.3513719831</v>
+      </c>
+    </row>
+    <row r="154" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <v>141</v>
+      </c>
+      <c r="H154" s="1">
+        <v>11779189.571991215</v>
+      </c>
+    </row>
+    <row r="155" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <v>142</v>
+      </c>
+      <c r="H155" s="1">
+        <v>9743384.0496226344</v>
+      </c>
+    </row>
+    <row r="156" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G156">
+        <v>143</v>
+      </c>
+      <c r="H156" s="1">
+        <v>1792735.6534120981</v>
+      </c>
+    </row>
+    <row r="157" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <v>144</v>
+      </c>
+      <c r="H157" s="1">
+        <v>4342497.3162088357</v>
+      </c>
+    </row>
+    <row r="158" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <v>145</v>
+      </c>
+      <c r="H158" s="1">
+        <v>3147517.1899316134</v>
+      </c>
+    </row>
+    <row r="159" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <v>146</v>
+      </c>
+      <c r="H159" s="1">
+        <v>3205304.2739896919</v>
+      </c>
+    </row>
+    <row r="160" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <v>147</v>
+      </c>
+      <c r="H160" s="1">
+        <v>3823998.0823169434</v>
+      </c>
+    </row>
+    <row r="161" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <v>148</v>
+      </c>
+      <c r="H161" s="1">
+        <v>2316318.113168661</v>
+      </c>
+    </row>
+    <row r="162" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <v>149</v>
+      </c>
+      <c r="H162" s="1">
+        <v>8669709.8678795509</v>
+      </c>
+    </row>
+    <row r="163" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <v>150</v>
+      </c>
+      <c r="H163" s="1">
+        <v>8757020.5474385489</v>
+      </c>
+    </row>
+    <row r="164" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <v>151</v>
+      </c>
+      <c r="H164" s="1">
+        <v>4757487.2759543052</v>
+      </c>
+    </row>
+    <row r="165" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <v>152</v>
+      </c>
+      <c r="H165" s="1">
+        <v>5735075.5771477129</v>
+      </c>
+    </row>
+    <row r="166" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G166">
+        <v>153</v>
+      </c>
+      <c r="H166" s="1">
+        <v>4055573.700938317</v>
+      </c>
+    </row>
+    <row r="167" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <v>154</v>
+      </c>
+      <c r="H167" s="1">
+        <v>4354842.765309453</v>
+      </c>
+    </row>
+    <row r="168" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <v>155</v>
+      </c>
+      <c r="H168" s="1">
+        <v>9125348.825160319</v>
+      </c>
+    </row>
+    <row r="169" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <v>156</v>
+      </c>
+      <c r="H169" s="1">
+        <v>6263257.1648348616</v>
+      </c>
+    </row>
+    <row r="170" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <v>157</v>
+      </c>
+      <c r="H170" s="1">
+        <v>3267480.6950021731</v>
+      </c>
+    </row>
+    <row r="171" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G171">
+        <v>158</v>
+      </c>
+      <c r="H171" s="1">
+        <v>6819493.4879371859</v>
+      </c>
+    </row>
+    <row r="172" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <v>159</v>
+      </c>
+      <c r="H172" s="1">
+        <v>2965527.0515130511</v>
+      </c>
+    </row>
+    <row r="173" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <v>160</v>
+      </c>
+      <c r="H173" s="1">
+        <v>2651843.4673015829</v>
+      </c>
+    </row>
+    <row r="174" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <v>161</v>
+      </c>
+      <c r="H174" s="1">
+        <v>4404077.2047967343</v>
+      </c>
+    </row>
+    <row r="175" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <v>162</v>
+      </c>
+      <c r="H175" s="1">
+        <v>3641299.6265579467</v>
+      </c>
+    </row>
+    <row r="176" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G176">
+        <v>163</v>
+      </c>
+      <c r="H176" s="1">
+        <v>8529796.1150488369</v>
+      </c>
+    </row>
+    <row r="177" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G177">
+        <v>164</v>
+      </c>
+      <c r="H177" s="1">
+        <v>12502041.720749933</v>
+      </c>
+    </row>
+    <row r="178" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G178">
+        <v>165</v>
+      </c>
+      <c r="H178" s="1">
+        <v>8677773.865542639</v>
+      </c>
+    </row>
+    <row r="179" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G179">
+        <v>166</v>
+      </c>
+      <c r="H179" s="1">
+        <v>8298106.1537810173</v>
+      </c>
+    </row>
+    <row r="180" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G180">
+        <v>167</v>
+      </c>
+      <c r="H180" s="1">
+        <v>5247396.2618583553</v>
+      </c>
+    </row>
+    <row r="181" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G181">
+        <v>168</v>
+      </c>
+      <c r="H181" s="1">
+        <v>2626204.8997006682</v>
+      </c>
+    </row>
+    <row r="182" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G182">
+        <v>169</v>
+      </c>
+      <c r="H182" s="1">
+        <v>6205811.3362079002</v>
+      </c>
+    </row>
+    <row r="183" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G183">
+        <v>170</v>
+      </c>
+      <c r="H183" s="1">
+        <v>2439357.8552740398</v>
+      </c>
+    </row>
+    <row r="184" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G184">
+        <v>171</v>
+      </c>
+      <c r="H184" s="1">
+        <v>3641397.5074681616</v>
+      </c>
+    </row>
+    <row r="185" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G185">
+        <v>172</v>
+      </c>
+      <c r="H185" s="1">
+        <v>3471941.5716220741</v>
+      </c>
+    </row>
+    <row r="186" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G186">
+        <v>173</v>
+      </c>
+      <c r="H186" s="1">
+        <v>2340320.110057639</v>
+      </c>
+    </row>
+    <row r="187" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G187">
+        <v>174</v>
+      </c>
+      <c r="H187" s="1">
+        <v>2990598.9036018029</v>
+      </c>
+    </row>
+    <row r="188" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G188">
+        <v>175</v>
+      </c>
+      <c r="H188" s="1">
+        <v>1847049.3147774169</v>
+      </c>
+    </row>
+    <row r="189" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G189">
+        <v>176</v>
+      </c>
+      <c r="H189" s="1">
+        <v>2769803.5110533326</v>
+      </c>
+    </row>
+    <row r="190" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G190">
+        <v>177</v>
+      </c>
+      <c r="H190" s="1">
+        <v>10228370.791823318</v>
+      </c>
+    </row>
+    <row r="191" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G191">
+        <v>178</v>
+      </c>
+      <c r="H191" s="1">
+        <v>6212225.6328671575</v>
+      </c>
+    </row>
+    <row r="192" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G192">
+        <v>179</v>
+      </c>
+      <c r="H192" s="1">
+        <v>4890212.9077120526</v>
+      </c>
+    </row>
+    <row r="193" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G193">
+        <v>180</v>
+      </c>
+      <c r="H193" s="1">
+        <v>7046487.2970584258</v>
+      </c>
+    </row>
+    <row r="194" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G194">
+        <v>181</v>
+      </c>
+      <c r="H194" s="1">
+        <v>4038168.7416669428</v>
+      </c>
+    </row>
+    <row r="195" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G195">
+        <v>182</v>
+      </c>
+      <c r="H195" s="1">
+        <v>8241702.7409287421</v>
+      </c>
+    </row>
+    <row r="196" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G196">
+        <v>183</v>
+      </c>
+      <c r="H196" s="1">
+        <v>4313889.3210499203</v>
+      </c>
+    </row>
+    <row r="197" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G197">
+        <v>184</v>
+      </c>
+      <c r="H197" s="1">
+        <v>3008480.5648579122</v>
+      </c>
+    </row>
+    <row r="198" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G198">
+        <v>185</v>
+      </c>
+      <c r="H198" s="1">
+        <v>2163361.4862320814</v>
+      </c>
+    </row>
+    <row r="199" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G199">
+        <v>186</v>
+      </c>
+      <c r="H199" s="1">
+        <v>3984935.5235802447</v>
+      </c>
+    </row>
+    <row r="200" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G200">
+        <v>187</v>
+      </c>
+      <c r="H200" s="1">
+        <v>4615047.1906953324</v>
+      </c>
+    </row>
+    <row r="201" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G201">
+        <v>188</v>
+      </c>
+      <c r="H201" s="1">
+        <v>4629304.2947662259</v>
+      </c>
+    </row>
+    <row r="202" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G202">
+        <v>189</v>
+      </c>
+      <c r="H202" s="1">
+        <v>6631799.7235006951</v>
+      </c>
+    </row>
+    <row r="203" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G203">
+        <v>190</v>
+      </c>
+      <c r="H203" s="1">
+        <v>6398383.2368267355</v>
+      </c>
+    </row>
+    <row r="204" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G204">
+        <v>191</v>
+      </c>
+      <c r="H204" s="1">
+        <v>5329547.13939304</v>
+      </c>
+    </row>
+    <row r="205" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G205">
+        <v>192</v>
+      </c>
+      <c r="H205" s="1">
+        <v>7430103.4898118069</v>
+      </c>
+    </row>
+    <row r="206" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G206">
+        <v>193</v>
+      </c>
+      <c r="H206" s="1">
+        <v>7589867.0776081849</v>
+      </c>
+    </row>
+    <row r="207" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G207">
+        <v>194</v>
+      </c>
+      <c r="H207" s="1">
+        <v>2286791.7542617256</v>
+      </c>
+    </row>
+    <row r="208" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G208">
+        <v>195</v>
+      </c>
+      <c r="H208" s="1">
+        <v>4522845.1780959405</v>
+      </c>
+    </row>
+    <row r="209" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G209">
+        <v>196</v>
+      </c>
+      <c r="H209" s="1">
+        <v>7929350.5178533215</v>
+      </c>
+    </row>
+    <row r="210" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G210">
+        <v>197</v>
+      </c>
+      <c r="H210" s="1">
+        <v>2346741.6547303507</v>
+      </c>
+    </row>
+    <row r="211" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G211">
+        <v>198</v>
+      </c>
+      <c r="H211" s="1">
+        <v>7779584.5044818064</v>
+      </c>
+    </row>
+    <row r="212" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G212">
+        <v>199</v>
+      </c>
+      <c r="H212" s="1">
+        <v>2786764.2602933939</v>
+      </c>
+    </row>
+    <row r="213" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G213">
+        <v>200</v>
+      </c>
+      <c r="H213" s="1">
+        <v>1696313.2652381184</v>
+      </c>
+    </row>
+    <row r="214" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G214">
+        <v>201</v>
+      </c>
+      <c r="H214" s="1">
+        <v>2565614.6928101568</v>
+      </c>
+    </row>
+    <row r="215" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G215">
+        <v>202</v>
+      </c>
+      <c r="H215" s="1">
+        <v>9862610.038127806</v>
+      </c>
+    </row>
+    <row r="216" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G216">
+        <v>203</v>
+      </c>
+      <c r="H216" s="1">
+        <v>2991423.2160511003</v>
+      </c>
+    </row>
+    <row r="217" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G217">
+        <v>204</v>
+      </c>
+      <c r="H217" s="1">
+        <v>2849642.5291585042</v>
+      </c>
+    </row>
+    <row r="218" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G218">
+        <v>205</v>
+      </c>
+      <c r="H218" s="1">
+        <v>3667255.4169297032</v>
+      </c>
+    </row>
+    <row r="219" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G219">
+        <v>206</v>
+      </c>
+      <c r="H219" s="1">
+        <v>7550468.1115769725</v>
+      </c>
+    </row>
+    <row r="220" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G220">
+        <v>207</v>
+      </c>
+      <c r="H220" s="1">
+        <v>12335245.136243781</v>
+      </c>
+    </row>
+    <row r="221" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G221">
+        <v>208</v>
+      </c>
+      <c r="H221" s="1">
+        <v>3442958.4735349282</v>
+      </c>
+    </row>
+    <row r="222" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G222">
+        <v>209</v>
+      </c>
+      <c r="H222" s="1">
+        <v>4601403.4142703274</v>
+      </c>
+    </row>
+    <row r="223" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G223">
+        <v>210</v>
+      </c>
+      <c r="H223" s="1">
+        <v>5989528.8984188214</v>
+      </c>
+    </row>
+    <row r="224" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G224">
+        <v>211</v>
+      </c>
+      <c r="H224" s="1">
+        <v>7602802.7547811931</v>
+      </c>
+    </row>
+    <row r="225" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G225">
+        <v>212</v>
+      </c>
+      <c r="H225" s="1">
+        <v>12380243.463231148</v>
+      </c>
+    </row>
+    <row r="226" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G226">
+        <v>213</v>
+      </c>
+      <c r="H226" s="1">
+        <v>5146550.5570635917</v>
+      </c>
+    </row>
+    <row r="227" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G227">
+        <v>214</v>
+      </c>
+      <c r="H227" s="1">
+        <v>3370433.8458300759</v>
+      </c>
+    </row>
+    <row r="228" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G228">
+        <v>215</v>
+      </c>
+      <c r="H228" s="1">
+        <v>6259065.8380421074</v>
+      </c>
+    </row>
+    <row r="229" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G229">
+        <v>216</v>
+      </c>
+      <c r="H229" s="1">
+        <v>3860632.347467389</v>
+      </c>
+    </row>
+    <row r="230" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G230">
+        <v>217</v>
+      </c>
+      <c r="H230" s="1">
+        <v>7381891.6513524186</v>
+      </c>
+    </row>
+    <row r="231" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G231">
+        <v>218</v>
+      </c>
+      <c r="H231" s="1">
+        <v>11741967.689392939</v>
+      </c>
+    </row>
+    <row r="232" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G232">
+        <v>219</v>
+      </c>
+      <c r="H232" s="1">
+        <v>6097189.6345854383</v>
+      </c>
+    </row>
+    <row r="233" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G233">
+        <v>220</v>
+      </c>
+      <c r="H233" s="1">
+        <v>2739384.5545957042</v>
+      </c>
+    </row>
+    <row r="234" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G234">
+        <v>221</v>
+      </c>
+      <c r="H234" s="1">
+        <v>20133295.503790561</v>
+      </c>
+    </row>
+    <row r="235" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G235">
+        <v>222</v>
+      </c>
+      <c r="H235" s="1">
+        <v>3962444.2122522271</v>
+      </c>
+    </row>
+    <row r="236" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G236">
+        <v>223</v>
+      </c>
+      <c r="H236" s="1">
+        <v>2559847.6083927173</v>
+      </c>
+    </row>
+    <row r="237" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G237">
+        <v>224</v>
+      </c>
+      <c r="H237" s="1">
+        <v>4826071.3540222207</v>
+      </c>
+    </row>
+    <row r="238" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G238">
+        <v>225</v>
+      </c>
+      <c r="H238" s="1">
+        <v>10704159.587255323</v>
+      </c>
+    </row>
+    <row r="239" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G239">
+        <v>226</v>
+      </c>
+      <c r="H239" s="1">
+        <v>3765012.9671025467</v>
+      </c>
+    </row>
+    <row r="240" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G240">
+        <v>227</v>
+      </c>
+      <c r="H240" s="1">
+        <v>3419308.6615947089</v>
+      </c>
+    </row>
+    <row r="241" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G241">
+        <v>228</v>
+      </c>
+      <c r="H241" s="1">
+        <v>6351746.9587288694</v>
+      </c>
+    </row>
+    <row r="242" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G242">
+        <v>229</v>
+      </c>
+      <c r="H242" s="1">
+        <v>2775943.7620769776</v>
+      </c>
+    </row>
+    <row r="243" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G243">
+        <v>230</v>
+      </c>
+      <c r="H243" s="1">
+        <v>6548487.8762540296</v>
+      </c>
+    </row>
+    <row r="244" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G244">
+        <v>231</v>
+      </c>
+      <c r="H244" s="1">
+        <v>6585298.4127547191</v>
+      </c>
+    </row>
+    <row r="245" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G245">
+        <v>232</v>
+      </c>
+      <c r="H245" s="1">
+        <v>4524710.6800165987</v>
+      </c>
+    </row>
+    <row r="246" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G246">
+        <v>233</v>
+      </c>
+      <c r="H246" s="1">
+        <v>4925278.9045849368</v>
+      </c>
+    </row>
+    <row r="247" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G247">
+        <v>234</v>
+      </c>
+      <c r="H247" s="1">
+        <v>15695925.734828906</v>
+      </c>
+    </row>
+    <row r="248" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G248">
+        <v>235</v>
+      </c>
+      <c r="H248" s="1">
+        <v>18885750.824320424</v>
+      </c>
+    </row>
+    <row r="249" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G249">
+        <v>236</v>
+      </c>
+      <c r="H249" s="1">
+        <v>1236047.3840501497</v>
+      </c>
+    </row>
+    <row r="250" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G250">
+        <v>237</v>
+      </c>
+      <c r="H250" s="1">
+        <v>3751712.1924859527</v>
+      </c>
+    </row>
+    <row r="251" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G251">
+        <v>238</v>
+      </c>
+      <c r="H251" s="1">
+        <v>10156959.937454045</v>
+      </c>
+    </row>
+    <row r="252" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G252">
+        <v>239</v>
+      </c>
+      <c r="H252" s="1">
+        <v>4408449.9307691073</v>
+      </c>
+    </row>
+    <row r="253" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G253">
+        <v>240</v>
+      </c>
+      <c r="H253" s="1">
+        <v>4836462.903704307</v>
+      </c>
+    </row>
+    <row r="254" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G254">
+        <v>241</v>
+      </c>
+      <c r="H254" s="1">
+        <v>5619913.3560730238</v>
+      </c>
+    </row>
+    <row r="255" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G255">
+        <v>242</v>
+      </c>
+      <c r="H255" s="1">
+        <v>2832046.2043355242</v>
+      </c>
+    </row>
+    <row r="256" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G256">
+        <v>243</v>
+      </c>
+      <c r="H256" s="1">
+        <v>14041110.447855711</v>
+      </c>
+    </row>
+    <row r="257" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G257">
+        <v>244</v>
+      </c>
+      <c r="H257" s="1">
+        <v>3394216.5138832871</v>
+      </c>
+    </row>
+    <row r="258" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G258">
+        <v>245</v>
+      </c>
+      <c r="H258" s="1">
+        <v>4650169.6129402602</v>
+      </c>
+    </row>
+    <row r="259" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G259">
+        <v>246</v>
+      </c>
+      <c r="H259" s="1">
+        <v>8273753.6759573864</v>
+      </c>
+    </row>
+    <row r="260" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G260">
+        <v>247</v>
+      </c>
+      <c r="H260" s="1">
+        <v>3877996.7789195613</v>
+      </c>
+    </row>
+    <row r="261" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G261">
+        <v>248</v>
+      </c>
+      <c r="H261" s="1">
+        <v>4901581.78271282</v>
+      </c>
+    </row>
+    <row r="262" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G262">
+        <v>249</v>
+      </c>
+      <c r="H262" s="1">
+        <v>15317427.783627756</v>
+      </c>
+    </row>
+    <row r="263" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G263">
+        <v>250</v>
+      </c>
+      <c r="H263" s="1">
+        <v>2647369.060433323</v>
+      </c>
+    </row>
+    <row r="264" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G264">
+        <v>251</v>
+      </c>
+      <c r="H264" s="1">
+        <v>7315958.1774621885</v>
+      </c>
+    </row>
+    <row r="265" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G265">
+        <v>252</v>
+      </c>
+      <c r="H265" s="1">
+        <v>4522958.703091789</v>
+      </c>
+    </row>
+    <row r="266" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G266">
+        <v>253</v>
+      </c>
+      <c r="H266" s="1">
+        <v>5402769.1069618538</v>
+      </c>
+    </row>
+    <row r="267" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G267">
+        <v>254</v>
+      </c>
+      <c r="H267" s="1">
+        <v>4000008.8441192843</v>
+      </c>
+    </row>
+    <row r="268" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G268">
+        <v>255</v>
+      </c>
+      <c r="H268" s="1">
+        <v>2197061.2336361036</v>
+      </c>
+    </row>
+    <row r="269" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G269">
+        <v>256</v>
+      </c>
+      <c r="H269" s="1">
+        <v>6216181.1982604712</v>
+      </c>
+    </row>
+    <row r="270" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G270">
+        <v>257</v>
+      </c>
+      <c r="H270" s="1">
+        <v>3396068.3213078561</v>
+      </c>
+    </row>
+    <row r="271" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G271">
+        <v>258</v>
+      </c>
+      <c r="H271" s="1">
+        <v>5578782.7704712786</v>
+      </c>
+    </row>
+    <row r="272" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G272">
+        <v>259</v>
+      </c>
+      <c r="H272" s="1">
+        <v>2501868.53564151</v>
+      </c>
+    </row>
+    <row r="273" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G273">
+        <v>260</v>
+      </c>
+      <c r="H273" s="1">
+        <v>9012022.5089272279</v>
+      </c>
+    </row>
+    <row r="274" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G274">
+        <v>261</v>
+      </c>
+      <c r="H274" s="1">
+        <v>4776367.2617469085</v>
+      </c>
+    </row>
+    <row r="275" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G275">
+        <v>262</v>
+      </c>
+      <c r="H275" s="1">
+        <v>7352390.273903585</v>
+      </c>
+    </row>
+    <row r="276" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G276">
+        <v>263</v>
+      </c>
+      <c r="H276" s="1">
+        <v>7601457.721907815</v>
+      </c>
+    </row>
+    <row r="277" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G277">
+        <v>264</v>
+      </c>
+      <c r="H277" s="1">
+        <v>5654443.6672634194</v>
+      </c>
+    </row>
+    <row r="278" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G278">
+        <v>265</v>
+      </c>
+      <c r="H278" s="1">
+        <v>9696566.2837588266</v>
+      </c>
+    </row>
+    <row r="279" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G279">
+        <v>266</v>
+      </c>
+      <c r="H279" s="1">
+        <v>3937285.9165846989</v>
+      </c>
+    </row>
+    <row r="280" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G280">
+        <v>267</v>
+      </c>
+      <c r="H280" s="1">
+        <v>5617128.4069382548</v>
+      </c>
+    </row>
+    <row r="281" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G281">
+        <v>268</v>
+      </c>
+      <c r="H281" s="1">
+        <v>10916568.918062348</v>
+      </c>
+    </row>
+    <row r="282" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G282">
+        <v>269</v>
+      </c>
+      <c r="H282" s="1">
+        <v>7067180.6353329401</v>
+      </c>
+    </row>
+    <row r="283" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G283">
+        <v>270</v>
+      </c>
+      <c r="H283" s="1">
+        <v>5357027.8226791853</v>
+      </c>
+    </row>
+    <row r="284" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G284">
+        <v>271</v>
+      </c>
+      <c r="H284" s="1">
+        <v>5447351.320869864</v>
+      </c>
+    </row>
+    <row r="285" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G285">
+        <v>272</v>
+      </c>
+      <c r="H285" s="1">
+        <v>2494707.0917664263</v>
+      </c>
+    </row>
+    <row r="286" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G286">
+        <v>273</v>
+      </c>
+      <c r="H286" s="1">
+        <v>1965850.2332056987</v>
+      </c>
+    </row>
+    <row r="287" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G287">
+        <v>274</v>
+      </c>
+      <c r="H287" s="1">
+        <v>3299302.7396809617</v>
+      </c>
+    </row>
+    <row r="288" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G288">
+        <v>275</v>
+      </c>
+      <c r="H288" s="1">
+        <v>2094428.5011384604</v>
+      </c>
+    </row>
+    <row r="289" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G289">
+        <v>276</v>
+      </c>
+      <c r="H289" s="1">
+        <v>11252065.681990873</v>
+      </c>
+    </row>
+    <row r="290" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G290">
+        <v>277</v>
+      </c>
+      <c r="H290" s="1">
+        <v>2284592.571486772</v>
+      </c>
+    </row>
+    <row r="291" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G291">
+        <v>278</v>
+      </c>
+      <c r="H291" s="1">
+        <v>7618204.2551185722</v>
+      </c>
+    </row>
+    <row r="292" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G292">
+        <v>279</v>
+      </c>
+      <c r="H292" s="1">
+        <v>4650523.3406193377</v>
+      </c>
+    </row>
+    <row r="293" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G293">
+        <v>280</v>
+      </c>
+      <c r="H293" s="1">
+        <v>2458363.7509568506</v>
+      </c>
+    </row>
+    <row r="294" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G294">
+        <v>281</v>
+      </c>
+      <c r="H294" s="1">
+        <v>2854202.1625792426</v>
+      </c>
+    </row>
+    <row r="295" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G295">
+        <v>282</v>
+      </c>
+      <c r="H295" s="1">
+        <v>2593035.2611115412</v>
+      </c>
+    </row>
+    <row r="296" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G296">
+        <v>283</v>
+      </c>
+      <c r="H296" s="1">
+        <v>5943864.7839857731</v>
+      </c>
+    </row>
+    <row r="297" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G297">
+        <v>284</v>
+      </c>
+      <c r="H297" s="1">
+        <v>1272645.6111525234</v>
+      </c>
+    </row>
+    <row r="298" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G298">
+        <v>285</v>
+      </c>
+      <c r="H298" s="1">
+        <v>7546726.9198013218</v>
+      </c>
+    </row>
+    <row r="299" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G299">
+        <v>286</v>
+      </c>
+      <c r="H299" s="1">
+        <v>4202116.8800395299</v>
+      </c>
+    </row>
+    <row r="300" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G300">
+        <v>287</v>
+      </c>
+      <c r="H300" s="1">
+        <v>3940912.1533505437</v>
+      </c>
+    </row>
+    <row r="301" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G301">
+        <v>288</v>
+      </c>
+      <c r="H301" s="1">
+        <v>5469203.7173256576</v>
+      </c>
+    </row>
+    <row r="302" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G302">
+        <v>289</v>
+      </c>
+      <c r="H302" s="1">
+        <v>2640353.7793747936</v>
+      </c>
+    </row>
+    <row r="303" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G303">
+        <v>290</v>
+      </c>
+      <c r="H303" s="1">
+        <v>3413327.7543691434</v>
+      </c>
+    </row>
+    <row r="304" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G304">
+        <v>291</v>
+      </c>
+      <c r="H304" s="1">
+        <v>5190426.2387214238</v>
+      </c>
+    </row>
+    <row r="305" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G305">
+        <v>292</v>
+      </c>
+      <c r="H305" s="1">
+        <v>2490177.6816838528</v>
+      </c>
+    </row>
+    <row r="306" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G306">
+        <v>293</v>
+      </c>
+      <c r="H306" s="1">
+        <v>3857014.8638036111</v>
+      </c>
+    </row>
+    <row r="307" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G307">
+        <v>294</v>
+      </c>
+      <c r="H307" s="1">
+        <v>3676230.3129170607</v>
+      </c>
+    </row>
+    <row r="308" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G308">
+        <v>295</v>
+      </c>
+      <c r="H308" s="1">
+        <v>8003103.1402953174</v>
+      </c>
+    </row>
+    <row r="309" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G309">
+        <v>296</v>
+      </c>
+      <c r="H309" s="1">
+        <v>4193318.1449390016</v>
+      </c>
+    </row>
+    <row r="310" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G310">
+        <v>297</v>
+      </c>
+      <c r="H310" s="1">
+        <v>5961699.5927549182</v>
+      </c>
+    </row>
+    <row r="311" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G311">
+        <v>298</v>
+      </c>
+      <c r="H311" s="1">
+        <v>3602066.0655531567</v>
+      </c>
+    </row>
+    <row r="312" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G312">
+        <v>299</v>
+      </c>
+      <c r="H312" s="1">
+        <v>6711164.7703413814</v>
+      </c>
+    </row>
+    <row r="313" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G313">
+        <v>300</v>
+      </c>
+      <c r="H313" s="1">
+        <v>4225274.4619011972</v>
+      </c>
+    </row>
+    <row r="314" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G314">
+        <v>301</v>
+      </c>
+      <c r="H314" s="1">
+        <v>3388055.2328796778</v>
+      </c>
+    </row>
+    <row r="315" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G315">
+        <v>302</v>
+      </c>
+      <c r="H315" s="1">
+        <v>2145342.7907757377</v>
+      </c>
+    </row>
+    <row r="316" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G316">
+        <v>303</v>
+      </c>
+      <c r="H316" s="1">
+        <v>3055809.6466988362</v>
+      </c>
+    </row>
+    <row r="317" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G317">
+        <v>304</v>
+      </c>
+      <c r="H317" s="1">
+        <v>5213953.6365858549</v>
+      </c>
+    </row>
+    <row r="318" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G318">
+        <v>305</v>
+      </c>
+      <c r="H318" s="1">
+        <v>6704215.6797072096</v>
+      </c>
+    </row>
+    <row r="319" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G319">
+        <v>306</v>
+      </c>
+      <c r="H319" s="1">
+        <v>4009318.1286822832</v>
+      </c>
+    </row>
+    <row r="320" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G320">
+        <v>307</v>
+      </c>
+      <c r="H320" s="1">
+        <v>5026119.2694638204</v>
+      </c>
+    </row>
+    <row r="321" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G321">
+        <v>308</v>
+      </c>
+      <c r="H321" s="1">
+        <v>7293078.6856107423</v>
+      </c>
+    </row>
+    <row r="322" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G322">
+        <v>309</v>
+      </c>
+      <c r="H322" s="1">
+        <v>7782240.3490053723</v>
+      </c>
+    </row>
+    <row r="323" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G323">
+        <v>310</v>
+      </c>
+      <c r="H323" s="1">
+        <v>10007889.143126346</v>
+      </c>
+    </row>
+    <row r="324" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G324">
+        <v>311</v>
+      </c>
+      <c r="H324" s="1">
+        <v>12230256.958497858</v>
+      </c>
+    </row>
+    <row r="325" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G325">
+        <v>312</v>
+      </c>
+      <c r="H325" s="1">
+        <v>5186878.4040035093</v>
+      </c>
+    </row>
+    <row r="326" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G326">
+        <v>313</v>
+      </c>
+      <c r="H326" s="1">
+        <v>10061640.630255502</v>
+      </c>
+    </row>
+    <row r="327" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G327">
+        <v>314</v>
+      </c>
+      <c r="H327" s="1">
+        <v>2097130.1161305152</v>
+      </c>
+    </row>
+    <row r="328" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G328">
+        <v>315</v>
+      </c>
+      <c r="H328" s="1">
+        <v>4653277.0797182862</v>
+      </c>
+    </row>
+    <row r="329" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G329">
+        <v>316</v>
+      </c>
+      <c r="H329" s="1">
+        <v>16688433.671857694</v>
+      </c>
+    </row>
+    <row r="330" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G330">
+        <v>317</v>
+      </c>
+      <c r="H330" s="1">
+        <v>4309174.5780693172</v>
+      </c>
+    </row>
+    <row r="331" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G331">
+        <v>318</v>
+      </c>
+      <c r="H331" s="1">
+        <v>6839867.7772787046</v>
+      </c>
+    </row>
+    <row r="332" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G332">
+        <v>319</v>
+      </c>
+      <c r="H332" s="1">
+        <v>9977709.8761630673</v>
+      </c>
+    </row>
+    <row r="333" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G333">
+        <v>320</v>
+      </c>
+      <c r="H333" s="1">
+        <v>4789950.7829897236</v>
+      </c>
+    </row>
+    <row r="334" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G334">
+        <v>321</v>
+      </c>
+      <c r="H334" s="1">
+        <v>5239267.8837563396</v>
+      </c>
+    </row>
+    <row r="335" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G335">
+        <v>322</v>
+      </c>
+      <c r="H335" s="1">
+        <v>3805108.0015689288</v>
+      </c>
+    </row>
+    <row r="336" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G336">
+        <v>323</v>
+      </c>
+      <c r="H336" s="1">
+        <v>9542636.63684237</v>
+      </c>
+    </row>
+    <row r="337" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G337">
+        <v>324</v>
+      </c>
+      <c r="H337" s="1">
+        <v>1643934.1119972458</v>
+      </c>
+    </row>
+    <row r="338" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G338">
+        <v>325</v>
+      </c>
+      <c r="H338" s="1">
+        <v>14541734.257020263</v>
+      </c>
+    </row>
+    <row r="339" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G339">
+        <v>326</v>
+      </c>
+      <c r="H339" s="1">
+        <v>5022331.8721888084</v>
+      </c>
+    </row>
+    <row r="340" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G340">
+        <v>327</v>
+      </c>
+      <c r="H340" s="1">
+        <v>2386970.4853056897</v>
+      </c>
+    </row>
+    <row r="341" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G341">
+        <v>328</v>
+      </c>
+      <c r="H341" s="1">
+        <v>11046575.734009076</v>
+      </c>
+    </row>
+    <row r="342" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G342">
+        <v>329</v>
+      </c>
+      <c r="H342" s="1">
+        <v>2693492.3612712286</v>
+      </c>
+    </row>
+    <row r="343" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G343">
+        <v>330</v>
+      </c>
+      <c r="H343" s="1">
+        <v>3175112.3118058173</v>
+      </c>
+    </row>
+    <row r="344" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G344">
+        <v>331</v>
+      </c>
+      <c r="H344" s="1">
+        <v>6533043.8046621764</v>
+      </c>
+    </row>
+    <row r="345" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G345">
+        <v>332</v>
+      </c>
+      <c r="H345" s="1">
+        <v>6363632.9733018251</v>
+      </c>
+    </row>
+    <row r="346" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G346">
+        <v>333</v>
+      </c>
+      <c r="H346" s="1">
+        <v>7143663.6164632086</v>
+      </c>
+    </row>
+    <row r="347" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G347">
+        <v>334</v>
+      </c>
+      <c r="H347" s="1">
+        <v>1483844.9586252719</v>
+      </c>
+    </row>
+    <row r="348" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G348">
+        <v>335</v>
+      </c>
+      <c r="H348" s="1">
+        <v>1752570.4352569769</v>
+      </c>
+    </row>
+    <row r="349" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G349">
+        <v>336</v>
+      </c>
+      <c r="H349" s="1">
+        <v>2338819.504653804</v>
+      </c>
+    </row>
+    <row r="350" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G350">
+        <v>337</v>
+      </c>
+      <c r="H350" s="1">
+        <v>5866053.5937807979</v>
+      </c>
+    </row>
+    <row r="351" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G351">
+        <v>338</v>
+      </c>
+      <c r="H351" s="1">
+        <v>4106942.0470428029</v>
+      </c>
+    </row>
+    <row r="352" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G352">
+        <v>339</v>
+      </c>
+      <c r="H352" s="1">
+        <v>5925045.8290151544</v>
+      </c>
+    </row>
+    <row r="353" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G353">
+        <v>340</v>
+      </c>
+      <c r="H353" s="1">
+        <v>5042802.7878239192</v>
+      </c>
+    </row>
+    <row r="354" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G354">
+        <v>341</v>
+      </c>
+      <c r="H354" s="1">
+        <v>3516337.5193993282</v>
+      </c>
+    </row>
+    <row r="355" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G355">
+        <v>342</v>
+      </c>
+      <c r="H355" s="1">
+        <v>6187804.7059825258</v>
+      </c>
+    </row>
+    <row r="356" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G356">
+        <v>343</v>
+      </c>
+      <c r="H356" s="1">
+        <v>2235059.55852145</v>
+      </c>
+    </row>
+    <row r="357" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G357">
+        <v>344</v>
+      </c>
+      <c r="H357" s="1">
+        <v>3152376.4702021074</v>
+      </c>
+    </row>
+    <row r="358" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G358">
+        <v>345</v>
+      </c>
+      <c r="H358" s="1">
+        <v>4217407.0455075651</v>
+      </c>
+    </row>
+    <row r="359" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G359">
+        <v>346</v>
+      </c>
+      <c r="H359" s="1">
+        <v>11017484.748656096</v>
+      </c>
+    </row>
+    <row r="360" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G360">
+        <v>347</v>
+      </c>
+      <c r="H360" s="1">
+        <v>11779637.520093076</v>
+      </c>
+    </row>
+    <row r="361" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G361">
+        <v>348</v>
+      </c>
+      <c r="H361" s="1">
+        <v>6961466.6148658823</v>
+      </c>
+    </row>
+    <row r="362" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G362">
+        <v>349</v>
+      </c>
+      <c r="H362" s="1">
+        <v>3273827.4521248387</v>
+      </c>
+    </row>
+    <row r="363" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G363">
+        <v>350</v>
+      </c>
+      <c r="H363" s="1">
+        <v>1115507.268641135</v>
+      </c>
+    </row>
+    <row r="364" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G364">
+        <v>351</v>
+      </c>
+      <c r="H364" s="1">
+        <v>4846265.7927626874</v>
+      </c>
+    </row>
+    <row r="365" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G365">
+        <v>352</v>
+      </c>
+      <c r="H365" s="1">
+        <v>816910.61163476028</v>
+      </c>
+    </row>
+    <row r="366" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G366">
+        <v>353</v>
+      </c>
+      <c r="H366" s="1">
+        <v>2180582.4629684091</v>
+      </c>
+    </row>
+    <row r="367" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G367">
+        <v>354</v>
+      </c>
+      <c r="H367" s="1">
+        <v>7039666.9647964891</v>
+      </c>
+    </row>
+    <row r="368" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G368">
+        <v>355</v>
+      </c>
+      <c r="H368" s="1">
+        <v>9916261.6728020217</v>
+      </c>
+    </row>
+    <row r="369" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G369">
+        <v>356</v>
+      </c>
+      <c r="H369" s="1">
+        <v>3896376.7240109388</v>
+      </c>
+    </row>
+    <row r="370" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G370">
+        <v>357</v>
+      </c>
+      <c r="H370" s="1">
+        <v>4748123.3427808136</v>
+      </c>
+    </row>
+    <row r="371" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G371">
+        <v>358</v>
+      </c>
+      <c r="H371" s="1">
+        <v>8226431.8813313311</v>
+      </c>
+    </row>
+    <row r="372" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G372">
+        <v>359</v>
+      </c>
+      <c r="H372" s="1">
+        <v>3603890.9493802269</v>
+      </c>
+    </row>
+    <row r="373" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G373">
+        <v>360</v>
+      </c>
+      <c r="H373" s="1">
+        <v>3924073.3668227922</v>
+      </c>
+    </row>
+    <row r="374" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G374">
+        <v>361</v>
+      </c>
+      <c r="H374" s="1">
+        <v>13714340.643856632</v>
+      </c>
+    </row>
+    <row r="375" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G375">
+        <v>362</v>
+      </c>
+      <c r="H375" s="1">
+        <v>6444790.2530221678</v>
+      </c>
+    </row>
+    <row r="376" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G376">
+        <v>363</v>
+      </c>
+      <c r="H376" s="1">
+        <v>8993275.9162650816</v>
+      </c>
+    </row>
+    <row r="377" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G377">
+        <v>364</v>
+      </c>
+      <c r="H377" s="1">
+        <v>2876545.6304190587</v>
+      </c>
+    </row>
+    <row r="378" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G378">
+        <v>365</v>
+      </c>
+      <c r="H378" s="1">
+        <v>4530832.8821387514</v>
+      </c>
+    </row>
+    <row r="379" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G379">
+        <v>366</v>
+      </c>
+      <c r="H379" s="1">
+        <v>4996481.7229639413</v>
+      </c>
+    </row>
+    <row r="380" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G380">
+        <v>367</v>
+      </c>
+      <c r="H380" s="1">
+        <v>2352712.559917652</v>
+      </c>
+    </row>
+    <row r="381" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G381">
+        <v>368</v>
+      </c>
+      <c r="H381" s="1">
+        <v>3334065.9433857603</v>
+      </c>
+    </row>
+    <row r="382" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G382">
+        <v>369</v>
+      </c>
+      <c r="H382" s="1">
+        <v>4777000.9435778372</v>
+      </c>
+    </row>
+    <row r="383" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G383">
+        <v>370</v>
+      </c>
+      <c r="H383" s="1">
+        <v>5851027.4179102117</v>
+      </c>
+    </row>
+    <row r="384" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G384">
+        <v>371</v>
+      </c>
+      <c r="H384" s="1">
+        <v>6653319.5691301627</v>
+      </c>
+    </row>
+    <row r="385" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G385">
+        <v>372</v>
+      </c>
+      <c r="H385" s="1">
+        <v>6085303.2514968254</v>
+      </c>
+    </row>
+    <row r="386" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G386">
+        <v>373</v>
+      </c>
+      <c r="H386" s="1">
+        <v>2863965.9579940396</v>
+      </c>
+    </row>
+    <row r="387" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G387">
+        <v>374</v>
+      </c>
+      <c r="H387" s="1">
+        <v>6232435.2809991259</v>
+      </c>
+    </row>
+    <row r="388" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G388">
+        <v>375</v>
+      </c>
+      <c r="H388" s="1">
+        <v>3613449.052597431</v>
+      </c>
+    </row>
+    <row r="389" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G389">
+        <v>376</v>
+      </c>
+      <c r="H389" s="1">
+        <v>1947460.1744720563</v>
+      </c>
+    </row>
+    <row r="390" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G390">
+        <v>377</v>
+      </c>
+      <c r="H390" s="1">
+        <v>4968232.2811196698</v>
+      </c>
+    </row>
+    <row r="391" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G391">
+        <v>378</v>
+      </c>
+      <c r="H391" s="1">
+        <v>6810010.2585117584</v>
+      </c>
+    </row>
+    <row r="392" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G392">
+        <v>379</v>
+      </c>
+      <c r="H392" s="1">
+        <v>5370537.9883954758</v>
+      </c>
+    </row>
+    <row r="393" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G393">
+        <v>380</v>
+      </c>
+      <c r="H393" s="1">
+        <v>1546514.3380224085</v>
+      </c>
+    </row>
+    <row r="394" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G394">
+        <v>381</v>
+      </c>
+      <c r="H394" s="1">
+        <v>11710504.793957779</v>
+      </c>
+    </row>
+    <row r="395" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G395">
+        <v>382</v>
+      </c>
+      <c r="H395" s="1">
+        <v>2131336.5415561805</v>
+      </c>
+    </row>
+    <row r="396" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G396">
+        <v>383</v>
+      </c>
+      <c r="H396" s="1">
+        <v>4045576.8628055141</v>
+      </c>
+    </row>
+    <row r="397" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G397">
+        <v>384</v>
+      </c>
+      <c r="H397" s="1">
+        <v>2921563.9997208854</v>
+      </c>
+    </row>
+    <row r="398" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G398">
+        <v>385</v>
+      </c>
+      <c r="H398" s="1">
+        <v>6772412.1923812041</v>
+      </c>
+    </row>
+    <row r="399" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G399">
+        <v>386</v>
+      </c>
+      <c r="H399" s="1">
+        <v>3817411.3371555689</v>
+      </c>
+    </row>
+    <row r="400" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G400">
+        <v>387</v>
+      </c>
+      <c r="H400" s="1">
+        <v>5159007.6665629558</v>
+      </c>
+    </row>
+    <row r="401" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G401">
+        <v>388</v>
+      </c>
+      <c r="H401" s="1">
+        <v>8514260.4155521393</v>
+      </c>
+    </row>
+    <row r="402" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G402">
+        <v>389</v>
+      </c>
+      <c r="H402" s="1">
+        <v>3405842.8503286177</v>
+      </c>
+    </row>
+    <row r="403" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G403">
+        <v>390</v>
+      </c>
+      <c r="H403" s="1">
+        <v>5090291.3770154705</v>
+      </c>
+    </row>
+    <row r="404" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G404">
+        <v>391</v>
+      </c>
+      <c r="H404" s="1">
+        <v>2604334.0114408508</v>
+      </c>
+    </row>
+    <row r="405" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G405">
+        <v>392</v>
+      </c>
+      <c r="H405" s="1">
+        <v>5789592.1979623958</v>
+      </c>
+    </row>
+    <row r="406" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G406">
+        <v>393</v>
+      </c>
+      <c r="H406" s="1">
+        <v>4512186.5534682199</v>
+      </c>
+    </row>
+    <row r="407" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G407">
+        <v>394</v>
+      </c>
+      <c r="H407" s="1">
+        <v>6573698.6356912954</v>
+      </c>
+    </row>
+    <row r="408" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G408">
+        <v>395</v>
+      </c>
+      <c r="H408" s="1">
+        <v>8972892.6779523287</v>
+      </c>
+    </row>
+    <row r="409" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G409">
+        <v>396</v>
+      </c>
+      <c r="H409" s="1">
+        <v>7796684.7827532962</v>
+      </c>
+    </row>
+    <row r="410" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G410">
+        <v>397</v>
+      </c>
+      <c r="H410" s="1">
+        <v>3796679.4672389594</v>
+      </c>
+    </row>
+    <row r="411" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G411">
+        <v>398</v>
+      </c>
+      <c r="H411" s="1">
+        <v>6611328.0776861077</v>
+      </c>
+    </row>
+    <row r="412" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G412">
+        <v>399</v>
+      </c>
+      <c r="H412" s="1">
+        <v>2731630.1172282123</v>
+      </c>
+    </row>
+    <row r="413" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G413">
+        <v>400</v>
+      </c>
+      <c r="H413" s="1">
+        <v>2097312.2453577588</v>
+      </c>
+    </row>
+    <row r="414" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G414">
+        <v>401</v>
+      </c>
+      <c r="H414" s="1">
+        <v>12973690.472643638</v>
+      </c>
+    </row>
+    <row r="415" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G415">
+        <v>402</v>
+      </c>
+      <c r="H415" s="1">
+        <v>3767170.9965680074</v>
+      </c>
+    </row>
+    <row r="416" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G416">
+        <v>403</v>
+      </c>
+      <c r="H416" s="1">
+        <v>1058621.7583428433</v>
+      </c>
+    </row>
+    <row r="417" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G417">
+        <v>404</v>
+      </c>
+      <c r="H417" s="1">
+        <v>4176565.1569124111</v>
+      </c>
+    </row>
+    <row r="418" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G418">
+        <v>405</v>
+      </c>
+      <c r="H418" s="1">
+        <v>3268881.9746384118</v>
+      </c>
+    </row>
+    <row r="419" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G419">
+        <v>406</v>
+      </c>
+      <c r="H419" s="1">
+        <v>2066531.8648929643</v>
+      </c>
+    </row>
+    <row r="420" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G420">
+        <v>407</v>
+      </c>
+      <c r="H420" s="1">
+        <v>6089440.0035371855</v>
+      </c>
+    </row>
+    <row r="421" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G421">
+        <v>408</v>
+      </c>
+      <c r="H421" s="1">
+        <v>5546621.6432598121</v>
+      </c>
+    </row>
+    <row r="422" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G422">
+        <v>409</v>
+      </c>
+      <c r="H422" s="1">
+        <v>3400386.7508156528</v>
+      </c>
+    </row>
+    <row r="423" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G423">
+        <v>410</v>
+      </c>
+      <c r="H423" s="1">
+        <v>2700070.4624814149</v>
+      </c>
+    </row>
+    <row r="424" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G424">
+        <v>411</v>
+      </c>
+      <c r="H424" s="1">
+        <v>7268069.4220506949</v>
+      </c>
+    </row>
+    <row r="425" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G425">
+        <v>412</v>
+      </c>
+      <c r="H425" s="1">
+        <v>6344084.2935075872</v>
+      </c>
+    </row>
+    <row r="426" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G426">
+        <v>413</v>
+      </c>
+      <c r="H426" s="1">
+        <v>3830959.1288784291</v>
+      </c>
+    </row>
+    <row r="427" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G427">
+        <v>414</v>
+      </c>
+      <c r="H427" s="1">
+        <v>6385021.3412303906</v>
+      </c>
+    </row>
+    <row r="428" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G428">
+        <v>415</v>
+      </c>
+      <c r="H428" s="1">
+        <v>4378131.8605302814</v>
+      </c>
+    </row>
+    <row r="429" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G429">
+        <v>416</v>
+      </c>
+      <c r="H429" s="1">
+        <v>2588978.094982455</v>
+      </c>
+    </row>
+    <row r="430" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G430">
+        <v>417</v>
+      </c>
+      <c r="H430" s="1">
+        <v>1771183.3985367098</v>
+      </c>
+    </row>
+    <row r="431" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G431">
+        <v>418</v>
+      </c>
+      <c r="H431" s="1">
+        <v>4947427.444224474</v>
+      </c>
+    </row>
+    <row r="432" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G432">
+        <v>419</v>
+      </c>
+      <c r="H432" s="1">
+        <v>8675854.2992956452</v>
+      </c>
+    </row>
+    <row r="433" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G433">
+        <v>420</v>
+      </c>
+      <c r="H433" s="1">
+        <v>5429337.1313473517</v>
+      </c>
+    </row>
+    <row r="434" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G434">
+        <v>421</v>
+      </c>
+      <c r="H434" s="1">
+        <v>3096008.9476781329</v>
+      </c>
+    </row>
+    <row r="435" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G435">
+        <v>422</v>
+      </c>
+      <c r="H435" s="1">
+        <v>6880010.5880921092</v>
+      </c>
+    </row>
+    <row r="436" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G436">
+        <v>423</v>
+      </c>
+      <c r="H436" s="1">
+        <v>5290192.9239448886</v>
+      </c>
+    </row>
+    <row r="437" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G437">
+        <v>424</v>
+      </c>
+      <c r="H437" s="1">
+        <v>4754717.7008871697</v>
+      </c>
+    </row>
+    <row r="438" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G438">
+        <v>425</v>
+      </c>
+      <c r="H438" s="1">
+        <v>5512647.7545324014</v>
+      </c>
+    </row>
+    <row r="439" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G439">
+        <v>426</v>
+      </c>
+      <c r="H439" s="1">
+        <v>16676774.328191044</v>
+      </c>
+    </row>
+    <row r="440" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G440">
+        <v>427</v>
+      </c>
+      <c r="H440" s="1">
+        <v>2593321.5681411908</v>
+      </c>
+    </row>
+    <row r="441" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G441">
+        <v>428</v>
+      </c>
+      <c r="H441" s="1">
+        <v>1894350.4204053206</v>
+      </c>
+    </row>
+    <row r="442" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G442">
+        <v>429</v>
+      </c>
+      <c r="H442" s="1">
+        <v>10581528.819625536</v>
+      </c>
+    </row>
+    <row r="443" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G443">
+        <v>430</v>
+      </c>
+      <c r="H443" s="1">
+        <v>5501137.4375907443</v>
+      </c>
+    </row>
+    <row r="444" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G444">
+        <v>431</v>
+      </c>
+      <c r="H444" s="1">
+        <v>5206804.7844699724</v>
+      </c>
+    </row>
+    <row r="445" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G445">
+        <v>432</v>
+      </c>
+      <c r="H445" s="1">
+        <v>8783762.2118766941</v>
+      </c>
+    </row>
+    <row r="446" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G446">
+        <v>433</v>
+      </c>
+      <c r="H446" s="1">
+        <v>4119911.2643124484</v>
+      </c>
+    </row>
+    <row r="447" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G447">
+        <v>434</v>
+      </c>
+      <c r="H447" s="1">
+        <v>3689469.5898151621</v>
+      </c>
+    </row>
+    <row r="448" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G448">
+        <v>435</v>
+      </c>
+      <c r="H448" s="1">
+        <v>24085280.188715771</v>
+      </c>
+    </row>
+    <row r="449" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G449">
+        <v>436</v>
+      </c>
+      <c r="H449" s="1">
+        <v>4834724.3813057709</v>
+      </c>
+    </row>
+    <row r="450" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G450">
+        <v>437</v>
+      </c>
+      <c r="H450" s="1">
+        <v>7346545.4626852525</v>
+      </c>
+    </row>
+    <row r="451" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G451">
+        <v>438</v>
+      </c>
+      <c r="H451" s="1">
+        <v>4298244.7113117315</v>
+      </c>
+    </row>
+    <row r="452" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G452">
+        <v>439</v>
+      </c>
+      <c r="H452" s="1">
+        <v>8941688.1698628198</v>
+      </c>
+    </row>
+    <row r="453" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G453">
+        <v>440</v>
+      </c>
+      <c r="H453" s="1">
+        <v>1548247.777153865</v>
+      </c>
+    </row>
+    <row r="454" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G454">
+        <v>441</v>
+      </c>
+      <c r="H454" s="1">
+        <v>7734913.8919093497</v>
+      </c>
+    </row>
+    <row r="455" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G455">
+        <v>442</v>
+      </c>
+      <c r="H455" s="1">
+        <v>6861933.6135599809</v>
+      </c>
+    </row>
+    <row r="456" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G456">
+        <v>443</v>
+      </c>
+      <c r="H456" s="1">
+        <v>1268006.8363172098</v>
+      </c>
+    </row>
+    <row r="457" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G457">
+        <v>444</v>
+      </c>
+      <c r="H457" s="1">
+        <v>2862088.2662131218</v>
+      </c>
+    </row>
+    <row r="458" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G458">
+        <v>445</v>
+      </c>
+      <c r="H458" s="1">
+        <v>8668666.5864650998</v>
+      </c>
+    </row>
+    <row r="459" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G459">
+        <v>446</v>
+      </c>
+      <c r="H459" s="1">
+        <v>5764046.2805867558</v>
+      </c>
+    </row>
+    <row r="460" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G460">
+        <v>447</v>
+      </c>
+      <c r="H460" s="1">
+        <v>3593720.5811814214</v>
+      </c>
+    </row>
+    <row r="461" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G461">
+        <v>448</v>
+      </c>
+      <c r="H461" s="1">
+        <v>3952962.0088824243</v>
+      </c>
+    </row>
+    <row r="462" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G462">
+        <v>449</v>
+      </c>
+      <c r="H462" s="1">
+        <v>4508023.2485332675</v>
+      </c>
+    </row>
+    <row r="463" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G463">
+        <v>450</v>
+      </c>
+      <c r="H463" s="1">
+        <v>3217311.1099901707</v>
+      </c>
+    </row>
+    <row r="464" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G464">
+        <v>451</v>
+      </c>
+      <c r="H464" s="1">
+        <v>12099171.870166255</v>
+      </c>
+    </row>
+    <row r="465" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G465">
+        <v>452</v>
+      </c>
+      <c r="H465" s="1">
+        <v>4801113.2586460244</v>
+      </c>
+    </row>
+    <row r="466" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G466">
+        <v>453</v>
+      </c>
+      <c r="H466" s="1">
+        <v>8999146.4497352839</v>
+      </c>
+    </row>
+    <row r="467" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G467">
+        <v>454</v>
+      </c>
+      <c r="H467" s="1">
+        <v>1432222.9881481822</v>
+      </c>
+    </row>
+    <row r="468" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G468">
+        <v>455</v>
+      </c>
+      <c r="H468" s="1">
+        <v>8732202.9741323404</v>
+      </c>
+    </row>
+    <row r="469" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G469">
+        <v>456</v>
+      </c>
+      <c r="H469" s="1">
+        <v>1540078.8157488252</v>
+      </c>
+    </row>
+    <row r="470" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G470">
+        <v>457</v>
+      </c>
+      <c r="H470" s="1">
+        <v>4810109.4680324094</v>
+      </c>
+    </row>
+    <row r="471" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G471">
+        <v>458</v>
+      </c>
+      <c r="H471" s="1">
+        <v>5076800.341361112</v>
+      </c>
+    </row>
+    <row r="472" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G472">
+        <v>459</v>
+      </c>
+      <c r="H472" s="1">
+        <v>2756082.3883126094</v>
+      </c>
+    </row>
+    <row r="473" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G473">
+        <v>460</v>
+      </c>
+      <c r="H473" s="1">
+        <v>3805233.6707115951</v>
+      </c>
+    </row>
+    <row r="474" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G474">
+        <v>461</v>
+      </c>
+      <c r="H474" s="1">
+        <v>7059505.3100933433</v>
+      </c>
+    </row>
+    <row r="475" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G475">
+        <v>462</v>
+      </c>
+      <c r="H475" s="1">
+        <v>4440959.150025758</v>
+      </c>
+    </row>
+    <row r="476" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G476">
+        <v>463</v>
+      </c>
+      <c r="H476" s="1">
+        <v>1065564.0227902622</v>
+      </c>
+    </row>
+    <row r="477" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G477">
+        <v>464</v>
+      </c>
+      <c r="H477" s="1">
+        <v>3465491.6946901968</v>
+      </c>
+    </row>
+    <row r="478" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G478">
+        <v>465</v>
+      </c>
+      <c r="H478" s="1">
+        <v>2884144.5646296139</v>
+      </c>
+    </row>
+    <row r="479" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G479">
+        <v>466</v>
+      </c>
+      <c r="H479" s="1">
+        <v>4955007.7418760611</v>
+      </c>
+    </row>
+    <row r="480" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G480">
+        <v>467</v>
+      </c>
+      <c r="H480" s="1">
+        <v>2590776.3251944673</v>
+      </c>
+    </row>
+    <row r="481" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G481">
+        <v>468</v>
+      </c>
+      <c r="H481" s="1">
+        <v>4731705.0399341257</v>
+      </c>
+    </row>
+    <row r="482" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G482">
+        <v>469</v>
+      </c>
+      <c r="H482" s="1">
+        <v>4560893.8838505177</v>
+      </c>
+    </row>
+    <row r="483" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G483">
+        <v>470</v>
+      </c>
+      <c r="H483" s="1">
+        <v>2075464.8443451573</v>
+      </c>
+    </row>
+    <row r="484" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G484">
+        <v>471</v>
+      </c>
+      <c r="H484" s="1">
+        <v>3655036.6694196607</v>
+      </c>
+    </row>
+    <row r="485" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G485">
+        <v>472</v>
+      </c>
+      <c r="H485" s="1">
+        <v>3707793.1035054922</v>
+      </c>
+    </row>
+    <row r="486" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G486">
+        <v>473</v>
+      </c>
+      <c r="H486" s="1">
+        <v>9094668.3253607135</v>
+      </c>
+    </row>
+    <row r="487" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G487">
+        <v>474</v>
+      </c>
+      <c r="H487" s="1">
+        <v>6749937.0234798035</v>
+      </c>
+    </row>
+    <row r="488" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G488">
+        <v>475</v>
+      </c>
+      <c r="H488" s="1">
+        <v>5483609.2333261184</v>
+      </c>
+    </row>
+    <row r="489" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G489">
+        <v>476</v>
+      </c>
+      <c r="H489" s="1">
+        <v>2472893.7036338439</v>
+      </c>
+    </row>
+    <row r="490" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G490">
+        <v>477</v>
+      </c>
+      <c r="H490" s="1">
+        <v>7803937.3474644786</v>
+      </c>
+    </row>
+    <row r="491" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G491">
+        <v>478</v>
+      </c>
+      <c r="H491" s="1">
+        <v>2429886.8979708077</v>
+      </c>
+    </row>
+    <row r="492" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G492">
+        <v>479</v>
+      </c>
+      <c r="H492" s="1">
+        <v>8457930.8458558563</v>
+      </c>
+    </row>
+    <row r="493" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G493">
+        <v>480</v>
+      </c>
+      <c r="H493" s="1">
+        <v>5847945.6038284404</v>
+      </c>
+    </row>
+    <row r="494" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G494">
+        <v>481</v>
+      </c>
+      <c r="H494" s="1">
+        <v>9950112.4987520389</v>
+      </c>
+    </row>
+    <row r="495" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G495">
+        <v>482</v>
+      </c>
+      <c r="H495" s="1">
+        <v>5313129.3992068591</v>
+      </c>
+    </row>
+    <row r="496" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G496">
+        <v>483</v>
+      </c>
+      <c r="H496" s="1">
+        <v>4509448.0424408391</v>
+      </c>
+    </row>
+    <row r="497" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G497">
+        <v>484</v>
+      </c>
+      <c r="H497" s="1">
+        <v>8532086.7775341067</v>
+      </c>
+    </row>
+    <row r="498" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G498">
+        <v>485</v>
+      </c>
+      <c r="H498" s="1">
+        <v>2875305.5509844404</v>
+      </c>
+    </row>
+    <row r="499" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G499">
+        <v>486</v>
+      </c>
+      <c r="H499" s="1">
+        <v>4065832.4913226608</v>
+      </c>
+    </row>
+    <row r="500" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G500">
+        <v>487</v>
+      </c>
+      <c r="H500" s="1">
+        <v>4219351.1606788281</v>
+      </c>
+    </row>
+    <row r="501" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G501">
+        <v>488</v>
+      </c>
+      <c r="H501" s="1">
+        <v>2457771.836358876</v>
+      </c>
+    </row>
+    <row r="502" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G502">
+        <v>489</v>
+      </c>
+      <c r="H502" s="1">
+        <v>7341886.1462949524</v>
+      </c>
+    </row>
+    <row r="503" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G503">
+        <v>490</v>
+      </c>
+      <c r="H503" s="1">
+        <v>1170546.4397392527</v>
+      </c>
+    </row>
+    <row r="504" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G504">
+        <v>491</v>
+      </c>
+      <c r="H504" s="1">
+        <v>2498488.6590156197</v>
+      </c>
+    </row>
+    <row r="505" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G505">
+        <v>492</v>
+      </c>
+      <c r="H505" s="1">
+        <v>8246688.838887901</v>
+      </c>
+    </row>
+    <row r="506" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G506">
+        <v>493</v>
+      </c>
+      <c r="H506" s="1">
+        <v>3234989.7475845949</v>
+      </c>
+    </row>
+    <row r="507" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G507">
+        <v>494</v>
+      </c>
+      <c r="H507" s="1">
+        <v>3175847.2600493152</v>
+      </c>
+    </row>
+    <row r="508" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G508">
+        <v>495</v>
+      </c>
+      <c r="H508" s="1">
+        <v>9677429.1623665038</v>
+      </c>
+    </row>
+    <row r="509" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G509">
+        <v>496</v>
+      </c>
+      <c r="H509" s="1">
+        <v>5980328.3169126734</v>
+      </c>
+    </row>
+    <row r="510" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G510">
+        <v>497</v>
+      </c>
+      <c r="H510" s="1">
+        <v>2937513.1371576893</v>
+      </c>
+    </row>
+    <row r="511" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G511">
+        <v>498</v>
+      </c>
+      <c r="H511" s="1">
+        <v>6530146.3097021617</v>
+      </c>
+    </row>
+    <row r="512" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G512">
+        <v>499</v>
+      </c>
+      <c r="H512" s="1">
+        <v>5993721.988789483</v>
+      </c>
+    </row>
+    <row r="513" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G513">
+        <v>500</v>
+      </c>
+      <c r="H513" s="1">
+        <v>5328063.6846330054</v>
+      </c>
+    </row>
+    <row r="514" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G514">
+        <v>501</v>
+      </c>
+      <c r="H514" s="1">
+        <v>7022156.880067138</v>
+      </c>
+    </row>
+    <row r="515" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G515">
+        <v>502</v>
+      </c>
+      <c r="H515" s="1">
+        <v>3769914.107277473</v>
+      </c>
+    </row>
+    <row r="516" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G516">
+        <v>503</v>
+      </c>
+      <c r="H516" s="1">
+        <v>7791561.5431691203</v>
+      </c>
+    </row>
+    <row r="517" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G517">
+        <v>504</v>
+      </c>
+      <c r="H517" s="1">
+        <v>3871845.646579457</v>
+      </c>
+    </row>
+    <row r="518" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G518">
+        <v>505</v>
+      </c>
+      <c r="H518" s="1">
+        <v>13180865.332818285</v>
+      </c>
+    </row>
+    <row r="519" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G519">
+        <v>506</v>
+      </c>
+      <c r="H519" s="1">
+        <v>3751336.8683431451</v>
+      </c>
+    </row>
+    <row r="520" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G520">
+        <v>507</v>
+      </c>
+      <c r="H520" s="1">
+        <v>6580480.974649176</v>
+      </c>
+    </row>
+    <row r="521" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G521">
+        <v>508</v>
+      </c>
+      <c r="H521" s="1">
+        <v>3571725.7145859404</v>
+      </c>
+    </row>
+    <row r="522" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G522">
+        <v>509</v>
+      </c>
+      <c r="H522" s="1">
+        <v>2249918.6588598741</v>
+      </c>
+    </row>
+    <row r="523" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G523">
+        <v>510</v>
+      </c>
+      <c r="H523" s="1">
+        <v>8137534.8002153067</v>
+      </c>
+    </row>
+    <row r="524" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G524">
+        <v>511</v>
+      </c>
+      <c r="H524" s="1">
+        <v>5770802.2282376001</v>
+      </c>
+    </row>
+    <row r="525" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G525">
+        <v>512</v>
+      </c>
+      <c r="H525" s="1">
+        <v>3726826.6200665347</v>
+      </c>
+    </row>
+    <row r="526" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G526">
+        <v>513</v>
+      </c>
+      <c r="H526" s="1">
+        <v>2889008.5586291743</v>
+      </c>
+    </row>
+    <row r="527" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G527">
+        <v>514</v>
+      </c>
+      <c r="H527" s="1">
+        <v>2963939.9221614241</v>
+      </c>
+    </row>
+    <row r="528" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G528">
+        <v>515</v>
+      </c>
+      <c r="H528" s="1">
+        <v>2405809.5317889545</v>
+      </c>
+    </row>
+    <row r="529" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G529">
+        <v>516</v>
+      </c>
+      <c r="H529" s="1">
+        <v>3448560.0390424435</v>
+      </c>
+    </row>
+    <row r="530" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G530">
+        <v>517</v>
+      </c>
+      <c r="H530" s="1">
+        <v>4085406.218760117</v>
+      </c>
+    </row>
+    <row r="531" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G531">
+        <v>518</v>
+      </c>
+      <c r="H531" s="1">
+        <v>4822252.3022503154</v>
+      </c>
+    </row>
+    <row r="532" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G532">
+        <v>519</v>
+      </c>
+      <c r="H532" s="1">
+        <v>5517140.046375799</v>
+      </c>
+    </row>
+    <row r="533" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G533">
+        <v>520</v>
+      </c>
+      <c r="H533" s="1">
+        <v>3558763.05631191</v>
+      </c>
+    </row>
+    <row r="534" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G534">
+        <v>521</v>
+      </c>
+      <c r="H534" s="1">
+        <v>2847646.9360352545</v>
+      </c>
+    </row>
+    <row r="535" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G535">
+        <v>522</v>
+      </c>
+      <c r="H535" s="1">
+        <v>6599201.80682356</v>
+      </c>
+    </row>
+    <row r="536" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G536">
+        <v>523</v>
+      </c>
+      <c r="H536" s="1">
+        <v>13829555.70596271</v>
+      </c>
+    </row>
+    <row r="537" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G537">
+        <v>524</v>
+      </c>
+      <c r="H537" s="1">
+        <v>5215963.4654373294</v>
+      </c>
+    </row>
+    <row r="538" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G538">
+        <v>525</v>
+      </c>
+      <c r="H538" s="1">
+        <v>3383645.6946615628</v>
+      </c>
+    </row>
+    <row r="539" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G539">
+        <v>526</v>
+      </c>
+      <c r="H539" s="1">
+        <v>5642332.1524938801</v>
+      </c>
+    </row>
+    <row r="540" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G540">
+        <v>527</v>
+      </c>
+      <c r="H540" s="1">
+        <v>3765479.480305247</v>
+      </c>
+    </row>
+    <row r="541" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G541">
+        <v>528</v>
+      </c>
+      <c r="H541" s="1">
+        <v>4707619.9255395867</v>
+      </c>
+    </row>
+    <row r="542" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G542">
+        <v>529</v>
+      </c>
+      <c r="H542" s="1">
+        <v>2568711.5485950001</v>
+      </c>
+    </row>
+    <row r="543" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G543">
+        <v>530</v>
+      </c>
+      <c r="H543" s="1">
+        <v>8988327.5748122372</v>
+      </c>
+    </row>
+    <row r="544" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G544">
+        <v>531</v>
+      </c>
+      <c r="H544" s="1">
+        <v>12472536.641391853</v>
+      </c>
+    </row>
+    <row r="545" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G545">
+        <v>532</v>
+      </c>
+      <c r="H545" s="1">
+        <v>2905644.1644366547</v>
+      </c>
+    </row>
+    <row r="546" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G546">
+        <v>533</v>
+      </c>
+      <c r="H546" s="1">
+        <v>3084761.2193646352</v>
+      </c>
+    </row>
+    <row r="547" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G547">
+        <v>534</v>
+      </c>
+      <c r="H547" s="1">
+        <v>5607145.6385183865</v>
+      </c>
+    </row>
+    <row r="548" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G548">
+        <v>535</v>
+      </c>
+      <c r="H548" s="1">
+        <v>8620849.0890421215</v>
+      </c>
+    </row>
+    <row r="549" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G549">
+        <v>536</v>
+      </c>
+      <c r="H549" s="1">
+        <v>7646780.6904754508</v>
+      </c>
+    </row>
+    <row r="550" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G550">
+        <v>537</v>
+      </c>
+      <c r="H550" s="1">
+        <v>4951841.9884358104</v>
+      </c>
+    </row>
+    <row r="551" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G551">
+        <v>538</v>
+      </c>
+      <c r="H551" s="1">
+        <v>15840902.215113712</v>
+      </c>
+    </row>
+    <row r="552" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G552">
+        <v>539</v>
+      </c>
+      <c r="H552" s="1">
+        <v>5244341.5346233025</v>
+      </c>
+    </row>
+    <row r="553" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G553">
+        <v>540</v>
+      </c>
+      <c r="H553" s="1">
+        <v>5568175.2429771805</v>
+      </c>
+    </row>
+    <row r="554" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G554">
+        <v>541</v>
+      </c>
+      <c r="H554" s="1">
+        <v>5688838.6872067805</v>
+      </c>
+    </row>
+    <row r="555" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G555">
+        <v>542</v>
+      </c>
+      <c r="H555" s="1">
+        <v>3860281.2778053908</v>
+      </c>
+    </row>
+    <row r="556" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G556">
+        <v>543</v>
+      </c>
+      <c r="H556" s="1">
+        <v>5985590.0090728952</v>
+      </c>
+    </row>
+    <row r="557" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G557">
+        <v>544</v>
+      </c>
+      <c r="H557" s="1">
+        <v>6404617.098177271</v>
+      </c>
+    </row>
+    <row r="558" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G558">
+        <v>545</v>
+      </c>
+      <c r="H558" s="1">
+        <v>3647689.3324998291</v>
+      </c>
+    </row>
+    <row r="559" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G559">
+        <v>546</v>
+      </c>
+      <c r="H559" s="1">
+        <v>3013329.1995885046</v>
+      </c>
+    </row>
+    <row r="560" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G560">
+        <v>547</v>
+      </c>
+      <c r="H560" s="1">
+        <v>7544782.735923592</v>
+      </c>
+    </row>
+    <row r="561" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G561">
+        <v>548</v>
+      </c>
+      <c r="H561" s="1">
+        <v>5756478.297458888</v>
+      </c>
+    </row>
+    <row r="562" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G562">
+        <v>549</v>
+      </c>
+      <c r="H562" s="1">
+        <v>13662681.898613557</v>
+      </c>
+    </row>
+    <row r="563" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G563">
+        <v>550</v>
+      </c>
+      <c r="H563" s="1">
+        <v>5649872.7325234702</v>
+      </c>
+    </row>
+    <row r="564" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G564">
+        <v>551</v>
+      </c>
+      <c r="H564" s="1">
+        <v>3832693.2247037501</v>
+      </c>
+    </row>
+    <row r="565" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G565">
+        <v>552</v>
+      </c>
+      <c r="H565" s="1">
+        <v>4449764.6339241341</v>
+      </c>
+    </row>
+    <row r="566" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G566">
+        <v>553</v>
+      </c>
+      <c r="H566" s="1">
+        <v>2975805.7370444979</v>
+      </c>
+    </row>
+    <row r="567" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G567">
+        <v>554</v>
+      </c>
+      <c r="H567" s="1">
+        <v>4005291.2744764122</v>
+      </c>
+    </row>
+    <row r="568" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G568">
+        <v>555</v>
+      </c>
+      <c r="H568" s="1">
+        <v>2558168.7683420894</v>
+      </c>
+    </row>
+    <row r="569" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G569">
+        <v>556</v>
+      </c>
+      <c r="H569" s="1">
+        <v>3242832.1717706574</v>
+      </c>
+    </row>
+    <row r="570" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G570">
+        <v>557</v>
+      </c>
+      <c r="H570" s="1">
+        <v>10221815.026202599</v>
+      </c>
+    </row>
+    <row r="571" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G571">
+        <v>558</v>
+      </c>
+      <c r="H571" s="1">
+        <v>2532307.1361110257</v>
+      </c>
+    </row>
+    <row r="572" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G572">
+        <v>559</v>
+      </c>
+      <c r="H572" s="1">
+        <v>7773568.3707694439</v>
+      </c>
+    </row>
+    <row r="573" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G573">
+        <v>560</v>
+      </c>
+      <c r="H573" s="1">
+        <v>5380387.7235299386</v>
+      </c>
+    </row>
+    <row r="574" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G574">
+        <v>561</v>
+      </c>
+      <c r="H574" s="1">
+        <v>12268646.564972093</v>
+      </c>
+    </row>
+    <row r="575" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G575">
+        <v>562</v>
+      </c>
+      <c r="H575" s="1">
+        <v>6529868.1610696232</v>
+      </c>
+    </row>
+    <row r="576" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G576">
+        <v>563</v>
+      </c>
+      <c r="H576" s="1">
+        <v>5524331.9565955466</v>
+      </c>
+    </row>
+    <row r="577" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G577">
+        <v>564</v>
+      </c>
+      <c r="H577" s="1">
+        <v>5805425.7658365369</v>
+      </c>
+    </row>
+    <row r="578" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G578">
+        <v>565</v>
+      </c>
+      <c r="H578" s="1">
+        <v>11913088.471508045</v>
+      </c>
+    </row>
+    <row r="579" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G579">
+        <v>566</v>
+      </c>
+      <c r="H579" s="1">
+        <v>3636079.6863859212</v>
+      </c>
+    </row>
+    <row r="580" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G580">
+        <v>567</v>
+      </c>
+      <c r="H580" s="1">
+        <v>2212735.0718511455</v>
+      </c>
+    </row>
+    <row r="581" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G581">
+        <v>568</v>
+      </c>
+      <c r="H581" s="1">
+        <v>4576451.1066346876</v>
+      </c>
+    </row>
+    <row r="582" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G582">
+        <v>569</v>
+      </c>
+      <c r="H582" s="1">
+        <v>3618076.7013582755</v>
+      </c>
+    </row>
+    <row r="583" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G583">
+        <v>570</v>
+      </c>
+      <c r="H583" s="1">
+        <v>9584994.9751813896</v>
+      </c>
+    </row>
+    <row r="584" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G584">
+        <v>571</v>
+      </c>
+      <c r="H584" s="1">
+        <v>5539960.6354679465</v>
+      </c>
+    </row>
+    <row r="585" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G585">
+        <v>572</v>
+      </c>
+      <c r="H585" s="1">
+        <v>2630793.1693805442</v>
+      </c>
+    </row>
+    <row r="586" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G586">
+        <v>573</v>
+      </c>
+      <c r="H586" s="1">
+        <v>4817742.325145171</v>
+      </c>
+    </row>
+    <row r="587" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G587">
+        <v>574</v>
+      </c>
+      <c r="H587" s="1">
+        <v>2773262.9370936542</v>
+      </c>
+    </row>
+    <row r="588" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G588">
+        <v>575</v>
+      </c>
+      <c r="H588" s="1">
+        <v>3769795.6290779472</v>
+      </c>
+    </row>
+    <row r="589" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G589">
+        <v>576</v>
+      </c>
+      <c r="H589" s="1">
+        <v>4485981.7210934479</v>
+      </c>
+    </row>
+    <row r="590" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G590">
+        <v>577</v>
+      </c>
+      <c r="H590" s="1">
+        <v>5634352.3498824183</v>
+      </c>
+    </row>
+    <row r="591" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G591">
+        <v>578</v>
+      </c>
+      <c r="H591" s="1">
+        <v>1993636.7984034466</v>
+      </c>
+    </row>
+    <row r="592" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G592">
+        <v>579</v>
+      </c>
+      <c r="H592" s="1">
+        <v>10579111.973124478</v>
+      </c>
+    </row>
+    <row r="593" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G593">
+        <v>580</v>
+      </c>
+      <c r="H593" s="1">
+        <v>7110985.1740168687</v>
+      </c>
+    </row>
+    <row r="594" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G594">
+        <v>581</v>
+      </c>
+      <c r="H594" s="1">
+        <v>5282347.4229859496</v>
+      </c>
+    </row>
+    <row r="595" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G595">
+        <v>582</v>
+      </c>
+      <c r="H595" s="1">
+        <v>4502205.0434203492</v>
+      </c>
+    </row>
+    <row r="596" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G596">
+        <v>583</v>
+      </c>
+      <c r="H596" s="1">
+        <v>4510487.6675896877</v>
+      </c>
+    </row>
+    <row r="597" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G597">
+        <v>584</v>
+      </c>
+      <c r="H597" s="1">
+        <v>3946347.6178890127</v>
+      </c>
+    </row>
+    <row r="598" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G598">
+        <v>585</v>
+      </c>
+      <c r="H598" s="1">
+        <v>1769396.5407031658</v>
+      </c>
+    </row>
+    <row r="599" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G599">
+        <v>586</v>
+      </c>
+      <c r="H599" s="1">
+        <v>6382691.7300338624</v>
+      </c>
+    </row>
+    <row r="600" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G600">
+        <v>587</v>
+      </c>
+      <c r="H600" s="1">
+        <v>7981095.1947265193</v>
+      </c>
+    </row>
+    <row r="601" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G601">
+        <v>588</v>
+      </c>
+      <c r="H601" s="1">
+        <v>3754547.3330218405</v>
+      </c>
+    </row>
+    <row r="602" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G602">
+        <v>589</v>
+      </c>
+      <c r="H602" s="1">
+        <v>10608478.55921939</v>
+      </c>
+    </row>
+    <row r="603" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G603">
+        <v>590</v>
+      </c>
+      <c r="H603" s="1">
+        <v>2751593.7332569021</v>
+      </c>
+    </row>
+    <row r="604" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G604">
+        <v>591</v>
+      </c>
+      <c r="H604" s="1">
+        <v>2186465.5942834923</v>
+      </c>
+    </row>
+    <row r="605" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G605">
+        <v>592</v>
+      </c>
+      <c r="H605" s="1">
+        <v>5074116.6852816707</v>
+      </c>
+    </row>
+    <row r="606" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G606">
+        <v>593</v>
+      </c>
+      <c r="H606" s="1">
+        <v>3433789.5428338903</v>
+      </c>
+    </row>
+    <row r="607" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G607">
+        <v>594</v>
+      </c>
+      <c r="H607" s="1">
+        <v>7636171.1267347829</v>
+      </c>
+    </row>
+    <row r="608" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G608">
+        <v>595</v>
+      </c>
+      <c r="H608" s="1">
+        <v>3680243.1735522542</v>
+      </c>
+    </row>
+    <row r="609" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G609">
+        <v>596</v>
+      </c>
+      <c r="H609" s="1">
+        <v>5184740.9079864547</v>
+      </c>
+    </row>
+    <row r="610" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G610">
+        <v>597</v>
+      </c>
+      <c r="H610" s="1">
+        <v>3738945.8691130113</v>
+      </c>
+    </row>
+    <row r="611" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G611">
+        <v>598</v>
+      </c>
+      <c r="H611" s="1">
+        <v>6125134.6477381792</v>
+      </c>
+    </row>
+    <row r="612" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G612">
+        <v>599</v>
+      </c>
+      <c r="H612" s="1">
+        <v>2787900.0305071343</v>
+      </c>
+    </row>
+    <row r="613" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G613">
+        <v>600</v>
+      </c>
+      <c r="H613" s="1">
+        <v>2240670.4438753617</v>
+      </c>
+    </row>
+    <row r="614" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G614">
+        <v>601</v>
+      </c>
+      <c r="H614" s="1">
+        <v>6601051.7287766878</v>
+      </c>
+    </row>
+    <row r="615" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G615">
+        <v>602</v>
+      </c>
+      <c r="H615" s="1">
+        <v>4014401.8370233611</v>
+      </c>
+    </row>
+    <row r="616" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G616">
+        <v>603</v>
+      </c>
+      <c r="H616" s="1">
+        <v>6160875.8084687702</v>
+      </c>
+    </row>
+    <row r="617" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G617">
+        <v>604</v>
+      </c>
+      <c r="H617" s="1">
+        <v>3257960.5145738064</v>
+      </c>
+    </row>
+    <row r="618" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G618">
+        <v>605</v>
+      </c>
+      <c r="H618" s="1">
+        <v>9253458.0232163314</v>
+      </c>
+    </row>
+    <row r="619" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G619">
+        <v>606</v>
+      </c>
+      <c r="H619" s="1">
+        <v>4054995.5205819146</v>
+      </c>
+    </row>
+    <row r="620" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G620">
+        <v>607</v>
+      </c>
+      <c r="H620" s="1">
+        <v>3475975.2723564859</v>
+      </c>
+    </row>
+    <row r="621" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G621">
+        <v>608</v>
+      </c>
+      <c r="H621" s="1">
+        <v>3567756.0376866702</v>
+      </c>
+    </row>
+    <row r="622" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G622">
+        <v>609</v>
+      </c>
+      <c r="H622" s="1">
+        <v>3580328.2109847558</v>
+      </c>
+    </row>
+    <row r="623" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G623">
+        <v>610</v>
+      </c>
+      <c r="H623" s="1">
+        <v>1658834.8467871302</v>
+      </c>
+    </row>
+    <row r="624" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G624">
+        <v>611</v>
+      </c>
+      <c r="H624" s="1">
+        <v>3656783.2120891502</v>
+      </c>
+    </row>
+    <row r="625" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G625">
+        <v>612</v>
+      </c>
+      <c r="H625" s="1">
+        <v>3139949.356799731</v>
+      </c>
+    </row>
+    <row r="626" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G626">
+        <v>613</v>
+      </c>
+      <c r="H626" s="1">
+        <v>3945834.1344355503</v>
+      </c>
+    </row>
+    <row r="627" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G627">
+        <v>614</v>
+      </c>
+      <c r="H627" s="1">
+        <v>4765332.0269881543</v>
+      </c>
+    </row>
+    <row r="628" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G628">
+        <v>615</v>
+      </c>
+      <c r="H628" s="1">
+        <v>11938955.343016732</v>
+      </c>
+    </row>
+    <row r="629" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G629">
+        <v>616</v>
+      </c>
+      <c r="H629" s="1">
+        <v>3923650.1486235093</v>
+      </c>
+    </row>
+    <row r="630" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G630">
+        <v>617</v>
+      </c>
+      <c r="H630" s="1">
+        <v>5092766.9230118608</v>
+      </c>
+    </row>
+    <row r="631" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G631">
+        <v>618</v>
+      </c>
+      <c r="H631" s="1">
+        <v>5624182.1584992092</v>
+      </c>
+    </row>
+    <row r="632" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G632">
+        <v>619</v>
+      </c>
+      <c r="H632" s="1">
+        <v>1778692.6127197316</v>
+      </c>
+    </row>
+    <row r="633" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G633">
+        <v>620</v>
+      </c>
+      <c r="H633" s="1">
+        <v>3196824.8054875233</v>
+      </c>
+    </row>
+    <row r="634" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G634">
+        <v>621</v>
+      </c>
+      <c r="H634" s="1">
+        <v>2362846.3388999547</v>
+      </c>
+    </row>
+    <row r="635" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G635">
+        <v>622</v>
+      </c>
+      <c r="H635" s="1">
+        <v>8375037.9269048944</v>
+      </c>
+    </row>
+    <row r="636" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G636">
+        <v>623</v>
+      </c>
+      <c r="H636" s="1">
+        <v>10309431.988507455</v>
+      </c>
+    </row>
+    <row r="637" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G637">
+        <v>624</v>
+      </c>
+      <c r="H637" s="1">
+        <v>4860314.3895290373</v>
+      </c>
+    </row>
+    <row r="638" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G638">
+        <v>625</v>
+      </c>
+      <c r="H638" s="1">
+        <v>5815225.9749422427</v>
+      </c>
+    </row>
+    <row r="639" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G639">
+        <v>626</v>
+      </c>
+      <c r="H639" s="1">
+        <v>7105215.2587471036</v>
+      </c>
+    </row>
+    <row r="640" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G640">
+        <v>627</v>
+      </c>
+      <c r="H640" s="1">
+        <v>7748545.5646347301</v>
+      </c>
+    </row>
+    <row r="641" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G641">
+        <v>628</v>
+      </c>
+      <c r="H641" s="1">
+        <v>1859255.2186770057</v>
+      </c>
+    </row>
+    <row r="642" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G642">
+        <v>629</v>
+      </c>
+      <c r="H642" s="1">
+        <v>2440592.6113304649</v>
+      </c>
+    </row>
+    <row r="643" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G643">
+        <v>630</v>
+      </c>
+      <c r="H643" s="1">
+        <v>5003113.5556188775</v>
+      </c>
+    </row>
+    <row r="644" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G644">
+        <v>631</v>
+      </c>
+      <c r="H644" s="1">
+        <v>5951246.5748641705</v>
+      </c>
+    </row>
+    <row r="645" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G645">
+        <v>632</v>
+      </c>
+      <c r="H645" s="1">
+        <v>3795520.4118971764</v>
+      </c>
+    </row>
+    <row r="646" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G646">
+        <v>633</v>
+      </c>
+      <c r="H646" s="1">
+        <v>5388974.2557640895</v>
+      </c>
+    </row>
+    <row r="647" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G647">
+        <v>634</v>
+      </c>
+      <c r="H647" s="1">
+        <v>4714775.6476213681</v>
+      </c>
+    </row>
+    <row r="648" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G648">
+        <v>635</v>
+      </c>
+      <c r="H648" s="1">
+        <v>2009223.6845094056</v>
+      </c>
+    </row>
+    <row r="649" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G649">
+        <v>636</v>
+      </c>
+      <c r="H649" s="1">
+        <v>5342881.5603590729</v>
+      </c>
+    </row>
+    <row r="650" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G650">
+        <v>637</v>
+      </c>
+      <c r="H650" s="1">
+        <v>4154057.1202736893</v>
+      </c>
+    </row>
+    <row r="651" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G651">
+        <v>638</v>
+      </c>
+      <c r="H651" s="1">
+        <v>8863087.841520166</v>
+      </c>
+    </row>
+    <row r="652" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G652">
+        <v>639</v>
+      </c>
+      <c r="H652" s="1">
+        <v>7341007.8811785625</v>
+      </c>
+    </row>
+    <row r="653" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G653">
+        <v>640</v>
+      </c>
+      <c r="H653" s="1">
+        <v>13952110.317185454</v>
+      </c>
+    </row>
+    <row r="654" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G654">
+        <v>641</v>
+      </c>
+      <c r="H654" s="1">
+        <v>2691465.6334750145</v>
+      </c>
+    </row>
+    <row r="655" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G655">
+        <v>642</v>
+      </c>
+      <c r="H655" s="1">
+        <v>12328881.849901969</v>
+      </c>
+    </row>
+    <row r="656" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G656">
+        <v>643</v>
+      </c>
+      <c r="H656" s="1">
+        <v>5286648.3185308333</v>
+      </c>
+    </row>
+    <row r="657" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G657">
+        <v>644</v>
+      </c>
+      <c r="H657" s="1">
+        <v>2639340.6370555833</v>
+      </c>
+    </row>
+    <row r="658" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G658">
+        <v>645</v>
+      </c>
+      <c r="H658" s="1">
+        <v>13168996.36595637</v>
+      </c>
+    </row>
+    <row r="659" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G659">
+        <v>646</v>
+      </c>
+      <c r="H659" s="1">
+        <v>3112144.3891665326</v>
+      </c>
+    </row>
+    <row r="660" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G660">
+        <v>647</v>
+      </c>
+      <c r="H660" s="1">
+        <v>2797900.7121601044</v>
+      </c>
+    </row>
+    <row r="661" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G661">
+        <v>648</v>
+      </c>
+      <c r="H661" s="1">
+        <v>2924567.4597320189</v>
+      </c>
+    </row>
+    <row r="662" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G662">
+        <v>649</v>
+      </c>
+      <c r="H662" s="1">
+        <v>5775203.0609567193</v>
+      </c>
+    </row>
+    <row r="663" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G663">
+        <v>650</v>
+      </c>
+      <c r="H663" s="1">
+        <v>1687227.8393751308</v>
+      </c>
+    </row>
+    <row r="664" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G664">
+        <v>651</v>
+      </c>
+      <c r="H664" s="1">
+        <v>3775325.2285849992</v>
+      </c>
+    </row>
+    <row r="665" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G665">
+        <v>652</v>
+      </c>
+      <c r="H665" s="1">
+        <v>801127.89643769455</v>
+      </c>
+    </row>
+    <row r="666" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G666">
+        <v>653</v>
+      </c>
+      <c r="H666" s="1">
+        <v>6850208.2227160027</v>
+      </c>
+    </row>
+    <row r="667" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G667">
+        <v>654</v>
+      </c>
+      <c r="H667" s="1">
+        <v>1750064.4696088585</v>
+      </c>
+    </row>
+    <row r="668" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G668">
+        <v>655</v>
+      </c>
+      <c r="H668" s="1">
+        <v>9158861.5884099137</v>
+      </c>
+    </row>
+    <row r="669" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G669">
+        <v>656</v>
+      </c>
+      <c r="H669" s="1">
+        <v>3560132.381155639</v>
+      </c>
+    </row>
+    <row r="670" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G670">
+        <v>657</v>
+      </c>
+      <c r="H670" s="1">
+        <v>2641754.5713399574</v>
+      </c>
+    </row>
+    <row r="671" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G671">
+        <v>658</v>
+      </c>
+      <c r="H671" s="1">
+        <v>7802115.3445959147</v>
+      </c>
+    </row>
+    <row r="672" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G672">
+        <v>659</v>
+      </c>
+      <c r="H672" s="1">
+        <v>8809763.2638596036</v>
+      </c>
+    </row>
+    <row r="673" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G673">
+        <v>660</v>
+      </c>
+      <c r="H673" s="1">
+        <v>5083850.0913358452</v>
+      </c>
+    </row>
+    <row r="674" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G674">
+        <v>661</v>
+      </c>
+      <c r="H674" s="1">
+        <v>2901612.7255049585</v>
+      </c>
+    </row>
+    <row r="675" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G675">
+        <v>662</v>
+      </c>
+      <c r="H675" s="1">
+        <v>3448715.4237497407</v>
+      </c>
+    </row>
+    <row r="676" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G676">
+        <v>663</v>
+      </c>
+      <c r="H676" s="1">
+        <v>19235257.317898791</v>
+      </c>
+    </row>
+    <row r="677" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G677">
+        <v>664</v>
+      </c>
+      <c r="H677" s="1">
+        <v>3625669.5089014024</v>
+      </c>
+    </row>
+    <row r="678" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G678">
+        <v>665</v>
+      </c>
+      <c r="H678" s="1">
+        <v>2651175.662779429</v>
+      </c>
+    </row>
+    <row r="679" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G679">
+        <v>666</v>
+      </c>
+      <c r="H679" s="1">
+        <v>5966360.726719196</v>
+      </c>
+    </row>
+    <row r="680" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G680">
+        <v>667</v>
+      </c>
+      <c r="H680" s="1">
+        <v>6486614.7383177374</v>
+      </c>
+    </row>
+    <row r="681" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G681">
+        <v>668</v>
+      </c>
+      <c r="H681" s="1">
+        <v>2414615.8677714621</v>
+      </c>
+    </row>
+    <row r="682" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G682">
+        <v>669</v>
+      </c>
+      <c r="H682" s="1">
+        <v>12198561.397934208</v>
+      </c>
+    </row>
+    <row r="683" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G683">
+        <v>670</v>
+      </c>
+      <c r="H683" s="1">
+        <v>9105767.2867312208</v>
+      </c>
+    </row>
+    <row r="684" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G684">
+        <v>671</v>
+      </c>
+      <c r="H684" s="1">
+        <v>6755374.9091628492</v>
+      </c>
+    </row>
+    <row r="685" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G685">
+        <v>672</v>
+      </c>
+      <c r="H685" s="1">
+        <v>13864210.686807115</v>
+      </c>
+    </row>
+    <row r="686" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G686">
+        <v>673</v>
+      </c>
+      <c r="H686" s="1">
+        <v>4756320.3981077</v>
+      </c>
+    </row>
+    <row r="687" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G687">
+        <v>674</v>
+      </c>
+      <c r="H687" s="1">
+        <v>9842816.8304686844</v>
+      </c>
+    </row>
+    <row r="688" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G688">
+        <v>675</v>
+      </c>
+      <c r="H688" s="1">
+        <v>5369007.5193735659</v>
+      </c>
+    </row>
+    <row r="689" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G689">
+        <v>676</v>
+      </c>
+      <c r="H689" s="1">
+        <v>5256695.2462559678</v>
+      </c>
+    </row>
+    <row r="690" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G690">
+        <v>677</v>
+      </c>
+      <c r="H690" s="1">
+        <v>4609231.3941153437</v>
+      </c>
+    </row>
+    <row r="691" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G691">
+        <v>678</v>
+      </c>
+      <c r="H691" s="1">
+        <v>1918503.5037431628</v>
+      </c>
+    </row>
+    <row r="692" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G692">
+        <v>679</v>
+      </c>
+      <c r="H692" s="1">
+        <v>1100780.9243504633</v>
+      </c>
+    </row>
+    <row r="693" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G693">
+        <v>680</v>
+      </c>
+      <c r="H693" s="1">
+        <v>3078502.5530093089</v>
+      </c>
+    </row>
+    <row r="694" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G694">
+        <v>681</v>
+      </c>
+      <c r="H694" s="1">
+        <v>4749976.7714504246</v>
+      </c>
+    </row>
+    <row r="695" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G695">
+        <v>682</v>
+      </c>
+      <c r="H695" s="1">
+        <v>5686493.4100397546</v>
+      </c>
+    </row>
+    <row r="696" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G696">
+        <v>683</v>
+      </c>
+      <c r="H696" s="1">
+        <v>2792532.7293901672</v>
+      </c>
+    </row>
+    <row r="697" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G697">
+        <v>684</v>
+      </c>
+      <c r="H697" s="1">
+        <v>4657776.4381694291</v>
+      </c>
+    </row>
+    <row r="698" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G698">
+        <v>685</v>
+      </c>
+      <c r="H698" s="1">
+        <v>4570649.0569091067</v>
+      </c>
+    </row>
+    <row r="699" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G699">
+        <v>686</v>
+      </c>
+      <c r="H699" s="1">
+        <v>5542137.4536279254</v>
+      </c>
+    </row>
+    <row r="700" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G700">
+        <v>687</v>
+      </c>
+      <c r="H700" s="1">
+        <v>6494320.6364885112</v>
+      </c>
+    </row>
+    <row r="701" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G701">
+        <v>688</v>
+      </c>
+      <c r="H701" s="1">
+        <v>4090516.3254633499</v>
+      </c>
+    </row>
+    <row r="702" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G702">
+        <v>689</v>
+      </c>
+      <c r="H702" s="1">
+        <v>4680069.9486182304</v>
+      </c>
+    </row>
+    <row r="703" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G703">
+        <v>690</v>
+      </c>
+      <c r="H703" s="1">
+        <v>6204109.2602620525</v>
+      </c>
+    </row>
+    <row r="704" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G704">
+        <v>691</v>
+      </c>
+      <c r="H704" s="1">
+        <v>11764149.163121443</v>
+      </c>
+    </row>
+    <row r="705" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G705">
+        <v>692</v>
+      </c>
+      <c r="H705" s="1">
+        <v>2961392.2149701864</v>
+      </c>
+    </row>
+    <row r="706" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G706">
+        <v>693</v>
+      </c>
+      <c r="H706" s="1">
+        <v>3828351.3655129429</v>
+      </c>
+    </row>
+    <row r="707" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G707">
+        <v>694</v>
+      </c>
+      <c r="H707" s="1">
+        <v>9663047.7954693865</v>
+      </c>
+    </row>
+    <row r="708" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G708">
+        <v>695</v>
+      </c>
+      <c r="H708" s="1">
+        <v>4503440.9799953103</v>
+      </c>
+    </row>
+    <row r="709" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G709">
+        <v>696</v>
+      </c>
+      <c r="H709" s="1">
+        <v>3005610.6748037841</v>
+      </c>
+    </row>
+    <row r="710" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G710">
+        <v>697</v>
+      </c>
+      <c r="H710" s="1">
+        <v>4652702.7541147051</v>
+      </c>
+    </row>
+    <row r="711" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G711">
+        <v>698</v>
+      </c>
+      <c r="H711" s="1">
+        <v>2988094.5940710893</v>
+      </c>
+    </row>
+    <row r="712" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G712">
+        <v>699</v>
+      </c>
+      <c r="H712" s="1">
+        <v>5171154.0303158555</v>
+      </c>
+    </row>
+    <row r="713" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G713">
+        <v>700</v>
+      </c>
+      <c r="H713" s="1">
+        <v>5465019.7943263697</v>
+      </c>
+    </row>
+    <row r="714" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G714">
+        <v>701</v>
+      </c>
+      <c r="H714" s="1">
+        <v>2635615.7376456168</v>
+      </c>
+    </row>
+    <row r="715" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G715">
+        <v>702</v>
+      </c>
+      <c r="H715" s="1">
+        <v>2151989.990099092</v>
+      </c>
+    </row>
+    <row r="716" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G716">
+        <v>703</v>
+      </c>
+      <c r="H716" s="1">
+        <v>4929066.6784915794</v>
+      </c>
+    </row>
+    <row r="717" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G717">
+        <v>704</v>
+      </c>
+      <c r="H717" s="1">
+        <v>4066503.7865507095</v>
+      </c>
+    </row>
+    <row r="718" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G718">
+        <v>705</v>
+      </c>
+      <c r="H718" s="1">
+        <v>11602412.678253097</v>
+      </c>
+    </row>
+    <row r="719" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G719">
+        <v>706</v>
+      </c>
+      <c r="H719" s="1">
+        <v>2714024.2254011999</v>
+      </c>
+    </row>
+    <row r="720" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G720">
+        <v>707</v>
+      </c>
+      <c r="H720" s="1">
+        <v>4949132.8724914575</v>
+      </c>
+    </row>
+    <row r="721" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G721">
+        <v>708</v>
+      </c>
+      <c r="H721" s="1">
+        <v>1972764.1158776947</v>
+      </c>
+    </row>
+    <row r="722" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G722">
+        <v>709</v>
+      </c>
+      <c r="H722" s="1">
+        <v>5814027.8502475498</v>
+      </c>
+    </row>
+    <row r="723" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G723">
+        <v>710</v>
+      </c>
+      <c r="H723" s="1">
+        <v>7245011.0848201988</v>
+      </c>
+    </row>
+    <row r="724" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G724">
+        <v>711</v>
+      </c>
+      <c r="H724" s="1">
+        <v>2542618.1670863358</v>
+      </c>
+    </row>
+    <row r="725" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G725">
+        <v>712</v>
+      </c>
+      <c r="H725" s="1">
+        <v>8104560.6000064621</v>
+      </c>
+    </row>
+    <row r="726" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G726">
+        <v>713</v>
+      </c>
+      <c r="H726" s="1">
+        <v>3233440.1238723602</v>
+      </c>
+    </row>
+    <row r="727" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G727">
+        <v>714</v>
+      </c>
+      <c r="H727" s="1">
+        <v>4098969.4017819217</v>
+      </c>
+    </row>
+    <row r="728" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G728">
+        <v>715</v>
+      </c>
+      <c r="H728" s="1">
+        <v>6007659.0896436945</v>
+      </c>
+    </row>
+    <row r="729" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G729">
+        <v>716</v>
+      </c>
+      <c r="H729" s="1">
+        <v>3813589.998516724</v>
+      </c>
+    </row>
+    <row r="730" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G730">
+        <v>717</v>
+      </c>
+      <c r="H730" s="1">
+        <v>6295656.9618461542</v>
+      </c>
+    </row>
+    <row r="731" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G731">
+        <v>718</v>
+      </c>
+      <c r="H731" s="1">
+        <v>3641140.5191718154</v>
+      </c>
+    </row>
+    <row r="732" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G732">
+        <v>719</v>
+      </c>
+      <c r="H732" s="1">
+        <v>3039336.4489360284</v>
+      </c>
+    </row>
+    <row r="733" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G733">
+        <v>720</v>
+      </c>
+      <c r="H733" s="1">
+        <v>8596639.8821530975</v>
+      </c>
+    </row>
+    <row r="734" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G734">
+        <v>721</v>
+      </c>
+      <c r="H734" s="1">
+        <v>7778847.2123302249</v>
+      </c>
+    </row>
+    <row r="735" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G735">
+        <v>722</v>
+      </c>
+      <c r="H735" s="1">
+        <v>6251514.7778036715</v>
+      </c>
+    </row>
+    <row r="736" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G736">
+        <v>723</v>
+      </c>
+      <c r="H736" s="1">
+        <v>4928626.2945422502</v>
+      </c>
+    </row>
+    <row r="737" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G737">
+        <v>724</v>
+      </c>
+      <c r="H737" s="1">
+        <v>1481129.4341699709</v>
+      </c>
+    </row>
+    <row r="738" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G738">
+        <v>725</v>
+      </c>
+      <c r="H738" s="1">
+        <v>14416571.522489598</v>
+      </c>
+    </row>
+    <row r="739" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G739">
+        <v>726</v>
+      </c>
+      <c r="H739" s="1">
+        <v>3478421.7585846963</v>
+      </c>
+    </row>
+    <row r="740" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G740">
+        <v>727</v>
+      </c>
+      <c r="H740" s="1">
+        <v>990044.12507581979</v>
+      </c>
+    </row>
+    <row r="741" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G741">
+        <v>728</v>
+      </c>
+      <c r="H741" s="1">
+        <v>4505273.6285437811</v>
+      </c>
+    </row>
+    <row r="742" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G742">
+        <v>729</v>
+      </c>
+      <c r="H742" s="1">
+        <v>10157351.915812617</v>
+      </c>
+    </row>
+    <row r="743" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G743">
+        <v>730</v>
+      </c>
+      <c r="H743" s="1">
+        <v>2829964.1642368296</v>
+      </c>
+    </row>
+    <row r="744" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G744">
+        <v>731</v>
+      </c>
+      <c r="H744" s="1">
+        <v>3318579.627668879</v>
+      </c>
+    </row>
+    <row r="745" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G745">
+        <v>732</v>
+      </c>
+      <c r="H745" s="1">
+        <v>3180703.5504295323</v>
+      </c>
+    </row>
+    <row r="746" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G746">
+        <v>733</v>
+      </c>
+      <c r="H746" s="1">
+        <v>4497489.645363451</v>
+      </c>
+    </row>
+    <row r="747" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G747">
+        <v>734</v>
+      </c>
+      <c r="H747" s="1">
+        <v>2303538.0224861102</v>
+      </c>
+    </row>
+    <row r="748" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G748">
+        <v>735</v>
+      </c>
+      <c r="H748" s="1">
+        <v>7270245.3263009218</v>
+      </c>
+    </row>
+    <row r="749" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G749">
+        <v>736</v>
+      </c>
+      <c r="H749" s="1">
+        <v>6982653.3130634204</v>
+      </c>
+    </row>
+    <row r="750" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G750">
+        <v>737</v>
+      </c>
+      <c r="H750" s="1">
+        <v>1951032.4716577304</v>
+      </c>
+    </row>
+    <row r="751" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G751">
+        <v>738</v>
+      </c>
+      <c r="H751" s="1">
+        <v>5088885.2062091427</v>
+      </c>
+    </row>
+    <row r="752" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G752">
+        <v>739</v>
+      </c>
+      <c r="H752" s="1">
+        <v>1235852.9325552536</v>
+      </c>
+    </row>
+    <row r="753" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G753">
+        <v>740</v>
+      </c>
+      <c r="H753" s="1">
+        <v>8279931.5885101808</v>
+      </c>
+    </row>
+    <row r="754" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G754">
+        <v>741</v>
+      </c>
+      <c r="H754" s="1">
+        <v>2564032.8224010472</v>
+      </c>
+    </row>
+    <row r="755" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G755">
+        <v>742</v>
+      </c>
+      <c r="H755" s="1">
+        <v>2709158.4396805381</v>
+      </c>
+    </row>
+    <row r="756" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G756">
+        <v>743</v>
+      </c>
+      <c r="H756" s="1">
+        <v>5879915.3755224766</v>
+      </c>
+    </row>
+    <row r="757" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G757">
+        <v>744</v>
+      </c>
+      <c r="H757" s="1">
+        <v>10013980.365117284</v>
+      </c>
+    </row>
+    <row r="758" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G758">
+        <v>745</v>
+      </c>
+      <c r="H758" s="1">
+        <v>5060449.9510519858</v>
+      </c>
+    </row>
+    <row r="759" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G759">
+        <v>746</v>
+      </c>
+      <c r="H759" s="1">
+        <v>4062516.0268178047</v>
+      </c>
+    </row>
+    <row r="760" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G760">
+        <v>747</v>
+      </c>
+      <c r="H760" s="1">
+        <v>7260323.4858890017</v>
+      </c>
+    </row>
+    <row r="761" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G761">
+        <v>748</v>
+      </c>
+      <c r="H761" s="1">
+        <v>2640858.4301940459</v>
+      </c>
+    </row>
+    <row r="762" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G762">
+        <v>749</v>
+      </c>
+      <c r="H762" s="1">
+        <v>4509461.0072102891</v>
+      </c>
+    </row>
+    <row r="763" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G763">
+        <v>750</v>
+      </c>
+      <c r="H763" s="1">
+        <v>8089825.4795748582</v>
+      </c>
+    </row>
+    <row r="764" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G764">
+        <v>751</v>
+      </c>
+      <c r="H764" s="1">
+        <v>4404480.3634114303</v>
+      </c>
+    </row>
+    <row r="765" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G765">
+        <v>752</v>
+      </c>
+      <c r="H765" s="1">
+        <v>3904848.9683558908</v>
+      </c>
+    </row>
+    <row r="766" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G766">
+        <v>753</v>
+      </c>
+      <c r="H766" s="1">
+        <v>8176057.9559208825</v>
+      </c>
+    </row>
+    <row r="767" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G767">
+        <v>754</v>
+      </c>
+      <c r="H767" s="1">
+        <v>3012183.2798699653</v>
+      </c>
+    </row>
+    <row r="768" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G768">
+        <v>755</v>
+      </c>
+      <c r="H768" s="1">
+        <v>5545989.4838161208</v>
+      </c>
+    </row>
+    <row r="769" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G769">
+        <v>756</v>
+      </c>
+      <c r="H769" s="1">
+        <v>3687750.5579911158</v>
+      </c>
+    </row>
+    <row r="770" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G770">
+        <v>757</v>
+      </c>
+      <c r="H770" s="1">
+        <v>1302842.0530135371</v>
+      </c>
+    </row>
+    <row r="771" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G771">
+        <v>758</v>
+      </c>
+      <c r="H771" s="1">
+        <v>4666903.9850087846</v>
+      </c>
+    </row>
+    <row r="772" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G772">
+        <v>759</v>
+      </c>
+      <c r="H772" s="1">
+        <v>2548874.3779334347</v>
+      </c>
+    </row>
+    <row r="773" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G773">
+        <v>760</v>
+      </c>
+      <c r="H773" s="1">
+        <v>5150392.5464929705</v>
+      </c>
+    </row>
+    <row r="774" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G774">
+        <v>761</v>
+      </c>
+      <c r="H774" s="1">
+        <v>5322522.6703219227</v>
+      </c>
+    </row>
+    <row r="775" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G775">
+        <v>762</v>
+      </c>
+      <c r="H775" s="1">
+        <v>5930509.4332687417</v>
+      </c>
+    </row>
+    <row r="776" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G776">
+        <v>763</v>
+      </c>
+      <c r="H776" s="1">
+        <v>7859654.4956086036</v>
+      </c>
+    </row>
+    <row r="777" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G777">
+        <v>764</v>
+      </c>
+      <c r="H777" s="1">
+        <v>16574092.76985139</v>
+      </c>
+    </row>
+    <row r="778" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G778">
+        <v>765</v>
+      </c>
+      <c r="H778" s="1">
+        <v>1384807.1738468092</v>
+      </c>
+    </row>
+    <row r="779" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G779">
+        <v>766</v>
+      </c>
+      <c r="H779" s="1">
+        <v>5676672.9148284383</v>
+      </c>
+    </row>
+    <row r="780" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G780">
+        <v>767</v>
+      </c>
+      <c r="H780" s="1">
+        <v>1793051.2507798909</v>
+      </c>
+    </row>
+    <row r="781" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G781">
+        <v>768</v>
+      </c>
+      <c r="H781" s="1">
+        <v>2462518.4073106949</v>
+      </c>
+    </row>
+    <row r="782" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G782">
+        <v>769</v>
+      </c>
+      <c r="H782" s="1">
+        <v>3235916.280860886</v>
+      </c>
+    </row>
+    <row r="783" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G783">
+        <v>770</v>
+      </c>
+      <c r="H783" s="1">
+        <v>13359277.74991346</v>
+      </c>
+    </row>
+    <row r="784" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G784">
+        <v>771</v>
+      </c>
+      <c r="H784" s="1">
+        <v>2541158.7616758286</v>
+      </c>
+    </row>
+    <row r="785" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G785">
+        <v>772</v>
+      </c>
+      <c r="H785" s="1">
+        <v>4400133.4803983299</v>
+      </c>
+    </row>
+    <row r="786" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G786">
+        <v>773</v>
+      </c>
+      <c r="H786" s="1">
+        <v>2859074.7247132817</v>
+      </c>
+    </row>
+    <row r="787" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G787">
+        <v>774</v>
+      </c>
+      <c r="H787" s="1">
+        <v>2193733.1847406602</v>
+      </c>
+    </row>
+    <row r="788" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G788">
+        <v>775</v>
+      </c>
+      <c r="H788" s="1">
+        <v>10776058.409581179</v>
+      </c>
+    </row>
+    <row r="789" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G789">
+        <v>776</v>
+      </c>
+      <c r="H789" s="1">
+        <v>2982956.3597542564</v>
+      </c>
+    </row>
+    <row r="790" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G790">
+        <v>777</v>
+      </c>
+      <c r="H790" s="1">
+        <v>3722761.6542912461</v>
+      </c>
+    </row>
+    <row r="791" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G791">
+        <v>778</v>
+      </c>
+      <c r="H791" s="1">
+        <v>4346756.5549092377</v>
+      </c>
+    </row>
+    <row r="792" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G792">
+        <v>779</v>
+      </c>
+      <c r="H792" s="1">
+        <v>5758123.3874459015</v>
+      </c>
+    </row>
+    <row r="793" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G793">
+        <v>780</v>
+      </c>
+      <c r="H793" s="1">
+        <v>4258633.3746307278</v>
+      </c>
+    </row>
+    <row r="794" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G794">
+        <v>781</v>
+      </c>
+      <c r="H794" s="1">
+        <v>14076759.291851817</v>
+      </c>
+    </row>
+    <row r="795" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G795">
+        <v>782</v>
+      </c>
+      <c r="H795" s="1">
+        <v>4086792.9937366736</v>
+      </c>
+    </row>
+    <row r="796" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G796">
+        <v>783</v>
+      </c>
+      <c r="H796" s="1">
+        <v>4039413.6305627185</v>
+      </c>
+    </row>
+    <row r="797" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G797">
+        <v>784</v>
+      </c>
+      <c r="H797" s="1">
+        <v>2165835.4208217203</v>
+      </c>
+    </row>
+    <row r="798" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G798">
+        <v>785</v>
+      </c>
+      <c r="H798" s="1">
+        <v>3885870.1819579569</v>
+      </c>
+    </row>
+    <row r="799" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G799">
+        <v>786</v>
+      </c>
+      <c r="H799" s="1">
+        <v>1882321.0123563269</v>
+      </c>
+    </row>
+    <row r="800" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G800">
+        <v>787</v>
+      </c>
+      <c r="H800" s="1">
+        <v>4090274.5790557936</v>
+      </c>
+    </row>
+    <row r="801" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G801">
+        <v>788</v>
+      </c>
+      <c r="H801" s="1">
+        <v>5434854.2949625589</v>
+      </c>
+    </row>
+    <row r="802" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G802">
+        <v>789</v>
+      </c>
+      <c r="H802" s="1">
+        <v>17956703.923501316</v>
+      </c>
+    </row>
+    <row r="803" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G803">
+        <v>790</v>
+      </c>
+      <c r="H803" s="1">
+        <v>3539409.8029735559</v>
+      </c>
+    </row>
+    <row r="804" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G804">
+        <v>791</v>
+      </c>
+      <c r="H804" s="1">
+        <v>3511336.4640459744</v>
+      </c>
+    </row>
+    <row r="805" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G805">
+        <v>792</v>
+      </c>
+      <c r="H805" s="1">
+        <v>8814820.2370992061</v>
+      </c>
+    </row>
+    <row r="806" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G806">
+        <v>793</v>
+      </c>
+      <c r="H806" s="1">
+        <v>4890269.3197401576</v>
+      </c>
+    </row>
+    <row r="807" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G807">
+        <v>794</v>
+      </c>
+      <c r="H807" s="1">
+        <v>8430961.2395529505</v>
+      </c>
+    </row>
+    <row r="808" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G808">
+        <v>795</v>
+      </c>
+      <c r="H808" s="1">
+        <v>3652214.2370495889</v>
+      </c>
+    </row>
+    <row r="809" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G809">
+        <v>796</v>
+      </c>
+      <c r="H809" s="1">
+        <v>4442818.2126419563</v>
+      </c>
+    </row>
+    <row r="810" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G810">
+        <v>797</v>
+      </c>
+      <c r="H810" s="1">
+        <v>5805478.1500195432</v>
+      </c>
+    </row>
+    <row r="811" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G811">
+        <v>798</v>
+      </c>
+      <c r="H811" s="1">
+        <v>4663672.7683650805</v>
+      </c>
+    </row>
+    <row r="812" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G812">
+        <v>799</v>
+      </c>
+      <c r="H812" s="1">
+        <v>6874408.1517145773</v>
+      </c>
+    </row>
+    <row r="813" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G813">
+        <v>800</v>
+      </c>
+      <c r="H813" s="1">
+        <v>2454753.8980899584</v>
+      </c>
+    </row>
+    <row r="814" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G814">
+        <v>801</v>
+      </c>
+      <c r="H814" s="1">
+        <v>2556334.0268098963</v>
+      </c>
+    </row>
+    <row r="815" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G815">
+        <v>802</v>
+      </c>
+      <c r="H815" s="1">
+        <v>3677264.9214560366</v>
+      </c>
+    </row>
+    <row r="816" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G816">
+        <v>803</v>
+      </c>
+      <c r="H816" s="1">
+        <v>7960288.2268784791</v>
+      </c>
+    </row>
+    <row r="817" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G817">
+        <v>804</v>
+      </c>
+      <c r="H817" s="1">
+        <v>4565569.9813460475</v>
+      </c>
+    </row>
+    <row r="818" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G818">
+        <v>805</v>
+      </c>
+      <c r="H818" s="1">
+        <v>1869315.1243332485</v>
+      </c>
+    </row>
+    <row r="819" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G819">
+        <v>806</v>
+      </c>
+      <c r="H819" s="1">
+        <v>3017571.5107368035</v>
+      </c>
+    </row>
+    <row r="820" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G820">
+        <v>807</v>
+      </c>
+      <c r="H820" s="1">
+        <v>7030811.0763062062</v>
+      </c>
+    </row>
+    <row r="821" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G821">
+        <v>808</v>
+      </c>
+      <c r="H821" s="1">
+        <v>29972440.208785515</v>
+      </c>
+    </row>
+    <row r="822" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G822">
+        <v>809</v>
+      </c>
+      <c r="H822" s="1">
+        <v>4073857.0923011047</v>
+      </c>
+    </row>
+    <row r="823" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G823">
+        <v>810</v>
+      </c>
+      <c r="H823" s="1">
+        <v>6690940.3390718494</v>
+      </c>
+    </row>
+    <row r="824" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G824">
+        <v>811</v>
+      </c>
+      <c r="H824" s="1">
+        <v>3528597.4950250476</v>
+      </c>
+    </row>
+    <row r="825" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G825">
+        <v>812</v>
+      </c>
+      <c r="H825" s="1">
+        <v>3028625.688596033</v>
+      </c>
+    </row>
+    <row r="826" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G826">
+        <v>813</v>
+      </c>
+      <c r="H826" s="1">
+        <v>2542372.9796434026</v>
+      </c>
+    </row>
+    <row r="827" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G827">
+        <v>814</v>
+      </c>
+      <c r="H827" s="1">
+        <v>16383320.437145</v>
+      </c>
+    </row>
+    <row r="828" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G828">
+        <v>815</v>
+      </c>
+      <c r="H828" s="1">
+        <v>3840561.5613831668</v>
+      </c>
+    </row>
+    <row r="829" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G829">
+        <v>816</v>
+      </c>
+      <c r="H829" s="1">
+        <v>8793541.8318686541</v>
+      </c>
+    </row>
+    <row r="830" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G830">
+        <v>817</v>
+      </c>
+      <c r="H830" s="1">
+        <v>5743381.0403287066</v>
+      </c>
+    </row>
+    <row r="831" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G831">
+        <v>818</v>
+      </c>
+      <c r="H831" s="1">
+        <v>7013029.3292378252</v>
+      </c>
+    </row>
+    <row r="832" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G832">
+        <v>819</v>
+      </c>
+      <c r="H832" s="1">
+        <v>4135443.2034203163</v>
+      </c>
+    </row>
+    <row r="833" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G833">
+        <v>820</v>
+      </c>
+      <c r="H833" s="1">
+        <v>4611475.9163434124</v>
+      </c>
+    </row>
+    <row r="834" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G834">
+        <v>821</v>
+      </c>
+      <c r="H834" s="1">
+        <v>2254336.309470674</v>
+      </c>
+    </row>
+    <row r="835" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G835">
+        <v>822</v>
+      </c>
+      <c r="H835" s="1">
+        <v>5436385.414382684</v>
+      </c>
+    </row>
+    <row r="836" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G836">
+        <v>823</v>
+      </c>
+      <c r="H836" s="1">
+        <v>9637403.7778577302</v>
+      </c>
+    </row>
+    <row r="837" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G837">
+        <v>824</v>
+      </c>
+      <c r="H837" s="1">
+        <v>3664456.507293561</v>
+      </c>
+    </row>
+    <row r="838" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G838">
+        <v>825</v>
+      </c>
+      <c r="H838" s="1">
+        <v>11434860.418409759</v>
+      </c>
+    </row>
+    <row r="839" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G839">
+        <v>826</v>
+      </c>
+      <c r="H839" s="1">
+        <v>9685051.3130066693</v>
+      </c>
+    </row>
+    <row r="840" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G840">
+        <v>827</v>
+      </c>
+      <c r="H840" s="1">
+        <v>2067604.8257859931</v>
+      </c>
+    </row>
+    <row r="841" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G841">
+        <v>828</v>
+      </c>
+      <c r="H841" s="1">
+        <v>2938273.9035493778</v>
+      </c>
+    </row>
+    <row r="842" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G842">
+        <v>829</v>
+      </c>
+      <c r="H842" s="1">
+        <v>5146574.4117963519</v>
+      </c>
+    </row>
+    <row r="843" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G843">
+        <v>830</v>
+      </c>
+      <c r="H843" s="1">
+        <v>6275722.7909568828</v>
+      </c>
+    </row>
+    <row r="844" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G844">
+        <v>831</v>
+      </c>
+      <c r="H844" s="1">
+        <v>5430576.9312461093</v>
+      </c>
+    </row>
+    <row r="845" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G845">
+        <v>832</v>
+      </c>
+      <c r="H845" s="1">
+        <v>4456809.0474863565</v>
+      </c>
+    </row>
+    <row r="846" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G846">
+        <v>833</v>
+      </c>
+      <c r="H846" s="1">
+        <v>7224226.5505301086</v>
+      </c>
+    </row>
+    <row r="847" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G847">
+        <v>834</v>
+      </c>
+      <c r="H847" s="1">
+        <v>2714251.4239892028</v>
+      </c>
+    </row>
+    <row r="848" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G848">
+        <v>835</v>
+      </c>
+      <c r="H848" s="1">
+        <v>4434612.5671600783</v>
+      </c>
+    </row>
+    <row r="849" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G849">
+        <v>836</v>
+      </c>
+      <c r="H849" s="1">
+        <v>3304452.0684916098</v>
+      </c>
+    </row>
+    <row r="850" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G850">
+        <v>837</v>
+      </c>
+      <c r="H850" s="1">
+        <v>10898825.155459968</v>
+      </c>
+    </row>
+    <row r="851" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G851">
+        <v>838</v>
+      </c>
+      <c r="H851" s="1">
+        <v>4845367.0651265141</v>
+      </c>
+    </row>
+    <row r="852" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G852">
+        <v>839</v>
+      </c>
+      <c r="H852" s="1">
+        <v>3428299.0644264221</v>
+      </c>
+    </row>
+    <row r="853" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G853">
+        <v>840</v>
+      </c>
+      <c r="H853" s="1">
+        <v>4451209.523311317</v>
+      </c>
+    </row>
+    <row r="854" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G854">
+        <v>841</v>
+      </c>
+      <c r="H854" s="1">
+        <v>6055727.75523178</v>
+      </c>
+    </row>
+    <row r="855" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G855">
+        <v>842</v>
+      </c>
+      <c r="H855" s="1">
+        <v>7493888.3021601364</v>
+      </c>
+    </row>
+    <row r="856" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G856">
+        <v>843</v>
+      </c>
+      <c r="H856" s="1">
+        <v>6064498.164042105</v>
+      </c>
+    </row>
+    <row r="857" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G857">
+        <v>844</v>
+      </c>
+      <c r="H857" s="1">
+        <v>3892894.2178496788</v>
+      </c>
+    </row>
+    <row r="858" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G858">
+        <v>845</v>
+      </c>
+      <c r="H858" s="1">
+        <v>2768200.2027800158</v>
+      </c>
+    </row>
+    <row r="859" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G859">
+        <v>846</v>
+      </c>
+      <c r="H859" s="1">
+        <v>2577273.2350046895</v>
+      </c>
+    </row>
+    <row r="860" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G860">
+        <v>847</v>
+      </c>
+      <c r="H860" s="1">
+        <v>2338919.9432224617</v>
+      </c>
+    </row>
+    <row r="861" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G861">
+        <v>848</v>
+      </c>
+      <c r="H861" s="1">
+        <v>3884621.3653949965</v>
+      </c>
+    </row>
+    <row r="862" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G862">
+        <v>849</v>
+      </c>
+      <c r="H862" s="1">
+        <v>6009668.1029450838</v>
+      </c>
+    </row>
+    <row r="863" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G863">
+        <v>850</v>
+      </c>
+      <c r="H863" s="1">
+        <v>3447854.3338427977</v>
+      </c>
+    </row>
+    <row r="864" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G864">
+        <v>851</v>
+      </c>
+      <c r="H864" s="1">
+        <v>3490095.7077353257</v>
+      </c>
+    </row>
+    <row r="865" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G865">
+        <v>852</v>
+      </c>
+      <c r="H865" s="1">
+        <v>4245996.6142646288</v>
+      </c>
+    </row>
+    <row r="866" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G866">
+        <v>853</v>
+      </c>
+      <c r="H866" s="1">
+        <v>3834922.5046240659</v>
+      </c>
+    </row>
+    <row r="867" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G867">
+        <v>854</v>
+      </c>
+      <c r="H867" s="1">
+        <v>4776751.4871275378</v>
+      </c>
+    </row>
+    <row r="868" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G868">
+        <v>855</v>
+      </c>
+      <c r="H868" s="1">
+        <v>3591602.2257387144</v>
+      </c>
+    </row>
+    <row r="869" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G869">
+        <v>856</v>
+      </c>
+      <c r="H869" s="1">
+        <v>9592363.2957176194</v>
+      </c>
+    </row>
+    <row r="870" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G870">
+        <v>857</v>
+      </c>
+      <c r="H870" s="1">
+        <v>10231894.844438776</v>
+      </c>
+    </row>
+    <row r="871" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G871">
+        <v>858</v>
+      </c>
+      <c r="H871" s="1">
+        <v>3571486.1276696422</v>
+      </c>
+    </row>
+    <row r="872" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G872">
+        <v>859</v>
+      </c>
+      <c r="H872" s="1">
+        <v>2499922.5941517446</v>
+      </c>
+    </row>
+    <row r="873" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G873">
+        <v>860</v>
+      </c>
+      <c r="H873" s="1">
+        <v>1401836.1979787706</v>
+      </c>
+    </row>
+    <row r="874" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G874">
+        <v>861</v>
+      </c>
+      <c r="H874" s="1">
+        <v>4208256.6410983047</v>
+      </c>
+    </row>
+    <row r="875" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G875">
+        <v>862</v>
+      </c>
+      <c r="H875" s="1">
+        <v>3377393.2788463379</v>
+      </c>
+    </row>
+    <row r="876" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G876">
+        <v>863</v>
+      </c>
+      <c r="H876" s="1">
+        <v>12241067.615343047</v>
+      </c>
+    </row>
+    <row r="877" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G877">
+        <v>864</v>
+      </c>
+      <c r="H877" s="1">
+        <v>4111803.3142712363</v>
+      </c>
+    </row>
+    <row r="878" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G878">
+        <v>865</v>
+      </c>
+      <c r="H878" s="1">
+        <v>5933444.4526444832</v>
+      </c>
+    </row>
+    <row r="879" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G879">
+        <v>866</v>
+      </c>
+      <c r="H879" s="1">
+        <v>979056.18721231446</v>
+      </c>
+    </row>
+    <row r="880" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G880">
+        <v>867</v>
+      </c>
+      <c r="H880" s="1">
+        <v>1722848.8557031883</v>
+      </c>
+    </row>
+    <row r="881" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G881">
+        <v>868</v>
+      </c>
+      <c r="H881" s="1">
+        <v>3802254.5445953677</v>
+      </c>
+    </row>
+    <row r="882" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G882">
+        <v>869</v>
+      </c>
+      <c r="H882" s="1">
+        <v>6136876.4079000959</v>
+      </c>
+    </row>
+    <row r="883" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G883">
+        <v>870</v>
+      </c>
+      <c r="H883" s="1">
+        <v>10906768.514242088</v>
+      </c>
+    </row>
+    <row r="884" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G884">
+        <v>871</v>
+      </c>
+      <c r="H884" s="1">
+        <v>3370299.0855087028</v>
+      </c>
+    </row>
+    <row r="885" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G885">
+        <v>872</v>
+      </c>
+      <c r="H885" s="1">
+        <v>11843348.867060561</v>
+      </c>
+    </row>
+    <row r="886" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G886">
+        <v>873</v>
+      </c>
+      <c r="H886" s="1">
+        <v>3070417.827702872</v>
+      </c>
+    </row>
+    <row r="887" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G887">
+        <v>874</v>
+      </c>
+      <c r="H887" s="1">
+        <v>6946296.5281774253</v>
+      </c>
+    </row>
+    <row r="888" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G888">
+        <v>875</v>
+      </c>
+      <c r="H888" s="1">
+        <v>3632537.1184743973</v>
+      </c>
+    </row>
+    <row r="889" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G889">
+        <v>876</v>
+      </c>
+      <c r="H889" s="1">
+        <v>6587922.3051147964</v>
+      </c>
+    </row>
+    <row r="890" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G890">
+        <v>877</v>
+      </c>
+      <c r="H890" s="1">
+        <v>3727911.1692633</v>
+      </c>
+    </row>
+    <row r="891" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G891">
+        <v>878</v>
+      </c>
+      <c r="H891" s="1">
+        <v>3475081.6725922697</v>
+      </c>
+    </row>
+    <row r="892" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G892">
+        <v>879</v>
+      </c>
+      <c r="H892" s="1">
+        <v>2858955.757386615</v>
+      </c>
+    </row>
+    <row r="893" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G893">
+        <v>880</v>
+      </c>
+      <c r="H893" s="1">
+        <v>3291485.1148553072</v>
+      </c>
+    </row>
+    <row r="894" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G894">
+        <v>881</v>
+      </c>
+      <c r="H894" s="1">
+        <v>3419223.7019126504</v>
+      </c>
+    </row>
+    <row r="895" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G895">
+        <v>882</v>
+      </c>
+      <c r="H895" s="1">
+        <v>2684721.4996343623</v>
+      </c>
+    </row>
+    <row r="896" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G896">
+        <v>883</v>
+      </c>
+      <c r="H896" s="1">
+        <v>21295054.478293225</v>
+      </c>
+    </row>
+    <row r="897" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G897">
+        <v>884</v>
+      </c>
+      <c r="H897" s="1">
+        <v>4997132.9319381947</v>
+      </c>
+    </row>
+    <row r="898" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G898">
+        <v>885</v>
+      </c>
+      <c r="H898" s="1">
+        <v>5396609.774317923</v>
+      </c>
+    </row>
+    <row r="899" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G899">
+        <v>886</v>
+      </c>
+      <c r="H899" s="1">
+        <v>5988292.3085630424</v>
+      </c>
+    </row>
+    <row r="900" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G900">
+        <v>887</v>
+      </c>
+      <c r="H900" s="1">
+        <v>4253927.6990837259</v>
+      </c>
+    </row>
+    <row r="901" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G901">
+        <v>888</v>
+      </c>
+      <c r="H901" s="1">
+        <v>4597692.6544340616</v>
+      </c>
+    </row>
+    <row r="902" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G902">
+        <v>889</v>
+      </c>
+      <c r="H902" s="1">
+        <v>2512548.2629821147</v>
+      </c>
+    </row>
+    <row r="903" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G903">
+        <v>890</v>
+      </c>
+      <c r="H903" s="1">
+        <v>5032483.6629103543</v>
+      </c>
+    </row>
+    <row r="904" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G904">
+        <v>891</v>
+      </c>
+      <c r="H904" s="1">
+        <v>3345158.7341674222</v>
+      </c>
+    </row>
+    <row r="905" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G905">
+        <v>892</v>
+      </c>
+      <c r="H905" s="1">
+        <v>2848533.714613792</v>
+      </c>
+    </row>
+    <row r="906" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G906">
+        <v>893</v>
+      </c>
+      <c r="H906" s="1">
+        <v>7791278.059942686</v>
+      </c>
+    </row>
+    <row r="907" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G907">
+        <v>894</v>
+      </c>
+      <c r="H907" s="1">
+        <v>3748503.8797924528</v>
+      </c>
+    </row>
+    <row r="908" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G908">
+        <v>895</v>
+      </c>
+      <c r="H908" s="1">
+        <v>9414339.4814583696</v>
+      </c>
+    </row>
+    <row r="909" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G909">
+        <v>896</v>
+      </c>
+      <c r="H909" s="1">
+        <v>11993119.245981781</v>
+      </c>
+    </row>
+    <row r="910" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G910">
+        <v>897</v>
+      </c>
+      <c r="H910" s="1">
+        <v>4344143.2943474939</v>
+      </c>
+    </row>
+    <row r="911" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G911">
+        <v>898</v>
+      </c>
+      <c r="H911" s="1">
+        <v>6554676.0260621849</v>
+      </c>
+    </row>
+    <row r="912" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G912">
+        <v>899</v>
+      </c>
+      <c r="H912" s="1">
+        <v>7036100.6478903936</v>
+      </c>
+    </row>
+    <row r="913" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G913">
+        <v>900</v>
+      </c>
+      <c r="H913" s="1">
+        <v>5237162.9193585049</v>
+      </c>
+    </row>
+    <row r="914" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G914">
+        <v>901</v>
+      </c>
+      <c r="H914" s="1">
+        <v>3560089.6467875596</v>
+      </c>
+    </row>
+    <row r="915" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G915">
+        <v>902</v>
+      </c>
+      <c r="H915" s="1">
+        <v>4255570.8964444892</v>
+      </c>
+    </row>
+    <row r="916" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G916">
+        <v>903</v>
+      </c>
+      <c r="H916" s="1">
+        <v>2995937.9290485634</v>
+      </c>
+    </row>
+    <row r="917" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G917">
+        <v>904</v>
+      </c>
+      <c r="H917" s="1">
+        <v>4358900.4006577935</v>
+      </c>
+    </row>
+    <row r="918" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G918">
+        <v>905</v>
+      </c>
+      <c r="H918" s="1">
+        <v>8517358.1182829626</v>
+      </c>
+    </row>
+    <row r="919" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G919">
+        <v>906</v>
+      </c>
+      <c r="H919" s="1">
+        <v>3924873.8377215439</v>
+      </c>
+    </row>
+    <row r="920" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G920">
+        <v>907</v>
+      </c>
+      <c r="H920" s="1">
+        <v>2413553.1606260245</v>
+      </c>
+    </row>
+    <row r="921" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G921">
+        <v>908</v>
+      </c>
+      <c r="H921" s="1">
+        <v>3923396.0401622257</v>
+      </c>
+    </row>
+    <row r="922" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G922">
+        <v>909</v>
+      </c>
+      <c r="H922" s="1">
+        <v>11317320.170886453</v>
+      </c>
+    </row>
+    <row r="923" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G923">
+        <v>910</v>
+      </c>
+      <c r="H923" s="1">
+        <v>7826214.1045597773</v>
+      </c>
+    </row>
+    <row r="924" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G924">
+        <v>911</v>
+      </c>
+      <c r="H924" s="1">
+        <v>3230330.0794962863</v>
+      </c>
+    </row>
+    <row r="925" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G925">
+        <v>912</v>
+      </c>
+      <c r="H925" s="1">
+        <v>12496642.542211946</v>
+      </c>
+    </row>
+    <row r="926" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G926">
+        <v>913</v>
+      </c>
+      <c r="H926" s="1">
+        <v>2037923.6896897766</v>
+      </c>
+    </row>
+    <row r="927" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G927">
+        <v>914</v>
+      </c>
+      <c r="H927" s="1">
+        <v>2049283.3802722625</v>
+      </c>
+    </row>
+    <row r="928" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G928">
+        <v>915</v>
+      </c>
+      <c r="H928" s="1">
+        <v>10585037.31786331</v>
+      </c>
+    </row>
+    <row r="929" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G929">
+        <v>916</v>
+      </c>
+      <c r="H929" s="1">
+        <v>2682717.7463233513</v>
+      </c>
+    </row>
+    <row r="930" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G930">
+        <v>917</v>
+      </c>
+      <c r="H930" s="1">
+        <v>8559714.9747228473</v>
+      </c>
+    </row>
+    <row r="931" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G931">
+        <v>918</v>
+      </c>
+      <c r="H931" s="1">
+        <v>9748915.1261641048</v>
+      </c>
+    </row>
+    <row r="932" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G932">
+        <v>919</v>
+      </c>
+      <c r="H932" s="1">
+        <v>9823934.6335173678</v>
+      </c>
+    </row>
+    <row r="933" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G933">
+        <v>920</v>
+      </c>
+      <c r="H933" s="1">
+        <v>3590489.8168286919</v>
+      </c>
+    </row>
+    <row r="934" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G934">
+        <v>921</v>
+      </c>
+      <c r="H934" s="1">
+        <v>2161474.407664841</v>
+      </c>
+    </row>
+    <row r="935" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G935">
+        <v>922</v>
+      </c>
+      <c r="H935" s="1">
+        <v>15722671.970732061</v>
+      </c>
+    </row>
+    <row r="936" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G936">
+        <v>923</v>
+      </c>
+      <c r="H936" s="1">
+        <v>4983217.7148051839</v>
+      </c>
+    </row>
+    <row r="937" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G937">
+        <v>924</v>
+      </c>
+      <c r="H937" s="1">
+        <v>4914879.8518685838</v>
+      </c>
+    </row>
+    <row r="938" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G938">
+        <v>925</v>
+      </c>
+      <c r="H938" s="1">
+        <v>6087006.2467766888</v>
+      </c>
+    </row>
+    <row r="939" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G939">
+        <v>926</v>
+      </c>
+      <c r="H939" s="1">
+        <v>10187310.163790636</v>
+      </c>
+    </row>
+    <row r="940" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G940">
+        <v>927</v>
+      </c>
+      <c r="H940" s="1">
+        <v>9614670.3701056559</v>
+      </c>
+    </row>
+    <row r="941" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G941">
+        <v>928</v>
+      </c>
+      <c r="H941" s="1">
+        <v>6158678.5264618127</v>
+      </c>
+    </row>
+    <row r="942" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G942">
+        <v>929</v>
+      </c>
+      <c r="H942" s="1">
+        <v>7743303.4182366347</v>
+      </c>
+    </row>
+    <row r="943" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G943">
+        <v>930</v>
+      </c>
+      <c r="H943" s="1">
+        <v>5170312.7754975995</v>
+      </c>
+    </row>
+    <row r="944" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G944">
+        <v>931</v>
+      </c>
+      <c r="H944" s="1">
+        <v>2014929.0424113977</v>
+      </c>
+    </row>
+    <row r="945" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G945">
+        <v>932</v>
+      </c>
+      <c r="H945" s="1">
+        <v>2804347.5301021957</v>
+      </c>
+    </row>
+    <row r="946" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G946">
+        <v>933</v>
+      </c>
+      <c r="H946" s="1">
+        <v>6097637.8998936228</v>
+      </c>
+    </row>
+    <row r="947" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G947">
+        <v>934</v>
+      </c>
+      <c r="H947" s="1">
+        <v>3434755.7659426969</v>
+      </c>
+    </row>
+    <row r="948" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G948">
+        <v>935</v>
+      </c>
+      <c r="H948" s="1">
+        <v>5782622.698475834</v>
+      </c>
+    </row>
+    <row r="949" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G949">
+        <v>936</v>
+      </c>
+      <c r="H949" s="1">
+        <v>4811090.0635028239</v>
+      </c>
+    </row>
+    <row r="950" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G950">
+        <v>937</v>
+      </c>
+      <c r="H950" s="1">
+        <v>3691548.1021947348</v>
+      </c>
+    </row>
+    <row r="951" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G951">
+        <v>938</v>
+      </c>
+      <c r="H951" s="1">
+        <v>6731740.8955423087</v>
+      </c>
+    </row>
+    <row r="952" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G952">
+        <v>939</v>
+      </c>
+      <c r="H952" s="1">
+        <v>2140822.1986287315</v>
+      </c>
+    </row>
+    <row r="953" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G953">
+        <v>940</v>
+      </c>
+      <c r="H953" s="1">
+        <v>7801727.7359644929</v>
+      </c>
+    </row>
+    <row r="954" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G954">
+        <v>941</v>
+      </c>
+      <c r="H954" s="1">
+        <v>4301628.4052179512</v>
+      </c>
+    </row>
+    <row r="955" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G955">
+        <v>942</v>
+      </c>
+      <c r="H955" s="1">
+        <v>5126135.8137638606</v>
+      </c>
+    </row>
+    <row r="956" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G956">
+        <v>943</v>
+      </c>
+      <c r="H956" s="1">
+        <v>4410369.6756303245</v>
+      </c>
+    </row>
+    <row r="957" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G957">
+        <v>944</v>
+      </c>
+      <c r="H957" s="1">
+        <v>10464133.409592217</v>
+      </c>
+    </row>
+    <row r="958" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G958">
+        <v>945</v>
+      </c>
+      <c r="H958" s="1">
+        <v>3363618.6406161883</v>
+      </c>
+    </row>
+    <row r="959" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G959">
+        <v>946</v>
+      </c>
+      <c r="H959" s="1">
+        <v>4220337.7709562378</v>
+      </c>
+    </row>
+    <row r="960" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G960">
+        <v>947</v>
+      </c>
+      <c r="H960" s="1">
+        <v>4642185.5383146023</v>
+      </c>
+    </row>
+    <row r="961" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G961">
+        <v>948</v>
+      </c>
+      <c r="H961" s="1">
+        <v>12135636.366253806</v>
+      </c>
+    </row>
+    <row r="962" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G962">
+        <v>949</v>
+      </c>
+      <c r="H962" s="1">
+        <v>6644054.9992807005</v>
+      </c>
+    </row>
+    <row r="963" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G963">
+        <v>950</v>
+      </c>
+      <c r="H963" s="1">
+        <v>8690920.6385080442</v>
+      </c>
+    </row>
+    <row r="964" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G964">
+        <v>951</v>
+      </c>
+      <c r="H964" s="1">
+        <v>17545811.261291288</v>
+      </c>
+    </row>
+    <row r="965" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G965">
+        <v>952</v>
+      </c>
+      <c r="H965" s="1">
+        <v>4149670.4769107173</v>
+      </c>
+    </row>
+    <row r="966" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G966">
+        <v>953</v>
+      </c>
+      <c r="H966" s="1">
+        <v>6028146.4713718081</v>
+      </c>
+    </row>
+    <row r="967" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G967">
+        <v>954</v>
+      </c>
+      <c r="H967" s="1">
+        <v>5693091.3940051487</v>
+      </c>
+    </row>
+    <row r="968" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G968">
+        <v>955</v>
+      </c>
+      <c r="H968" s="1">
+        <v>3380930.120544828</v>
+      </c>
+    </row>
+    <row r="969" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G969">
+        <v>956</v>
+      </c>
+      <c r="H969" s="1">
+        <v>4013621.0384682235</v>
+      </c>
+    </row>
+    <row r="970" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G970">
+        <v>957</v>
+      </c>
+      <c r="H970" s="1">
+        <v>3299726.5072834152</v>
+      </c>
+    </row>
+    <row r="971" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G971">
+        <v>958</v>
+      </c>
+      <c r="H971" s="1">
+        <v>5221205.1293571182</v>
+      </c>
+    </row>
+    <row r="972" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G972">
+        <v>959</v>
+      </c>
+      <c r="H972" s="1">
+        <v>6874033.7515862593</v>
+      </c>
+    </row>
+    <row r="973" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G973">
+        <v>960</v>
+      </c>
+      <c r="H973" s="1">
+        <v>4311073.4518612865</v>
+      </c>
+    </row>
+    <row r="974" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G974">
+        <v>961</v>
+      </c>
+      <c r="H974" s="1">
+        <v>2854984.2571449541</v>
+      </c>
+    </row>
+    <row r="975" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G975">
+        <v>962</v>
+      </c>
+      <c r="H975" s="1">
+        <v>4265797.0637658918</v>
+      </c>
+    </row>
+    <row r="976" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G976">
+        <v>963</v>
+      </c>
+      <c r="H976" s="1">
+        <v>5648824.5819901526</v>
+      </c>
+    </row>
+    <row r="977" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G977">
+        <v>964</v>
+      </c>
+      <c r="H977" s="1">
+        <v>2733947.5110661248</v>
+      </c>
+    </row>
+    <row r="978" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G978">
+        <v>965</v>
+      </c>
+      <c r="H978" s="1">
+        <v>8817670.3982950691</v>
+      </c>
+    </row>
+    <row r="979" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G979">
+        <v>966</v>
+      </c>
+      <c r="H979" s="1">
+        <v>2680464.8541520885</v>
+      </c>
+    </row>
+    <row r="980" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G980">
+        <v>967</v>
+      </c>
+      <c r="H980" s="1">
+        <v>10659405.979532501</v>
+      </c>
+    </row>
+    <row r="981" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G981">
+        <v>968</v>
+      </c>
+      <c r="H981" s="1">
+        <v>10823557.73880991</v>
+      </c>
+    </row>
+    <row r="982" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G982">
+        <v>969</v>
+      </c>
+      <c r="H982" s="1">
+        <v>1937738.7535183933</v>
+      </c>
+    </row>
+    <row r="983" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G983">
+        <v>970</v>
+      </c>
+      <c r="H983" s="1">
+        <v>5450911.6666978337</v>
+      </c>
+    </row>
+    <row r="984" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G984">
+        <v>971</v>
+      </c>
+      <c r="H984" s="1">
+        <v>4947877.0535566853</v>
+      </c>
+    </row>
+    <row r="985" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G985">
+        <v>972</v>
+      </c>
+      <c r="H985" s="1">
+        <v>7964391.3843618603</v>
+      </c>
+    </row>
+    <row r="986" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G986">
+        <v>973</v>
+      </c>
+      <c r="H986" s="1">
+        <v>5733925.6330890888</v>
+      </c>
+    </row>
+    <row r="987" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G987">
+        <v>974</v>
+      </c>
+      <c r="H987" s="1">
+        <v>8791000.8759011738</v>
+      </c>
+    </row>
+    <row r="988" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G988">
+        <v>975</v>
+      </c>
+      <c r="H988" s="1">
+        <v>7237293.763769255</v>
+      </c>
+    </row>
+    <row r="989" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G989">
+        <v>976</v>
+      </c>
+      <c r="H989" s="1">
+        <v>3053358.6448013377</v>
+      </c>
+    </row>
+    <row r="990" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G990">
+        <v>977</v>
+      </c>
+      <c r="H990" s="1">
+        <v>1286791.6238843284</v>
+      </c>
+    </row>
+    <row r="991" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G991">
+        <v>978</v>
+      </c>
+      <c r="H991" s="1">
+        <v>13010430.923659416</v>
+      </c>
+    </row>
+    <row r="992" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G992">
+        <v>979</v>
+      </c>
+      <c r="H992" s="1">
+        <v>2417015.6544640744</v>
+      </c>
+    </row>
+    <row r="993" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G993">
+        <v>980</v>
+      </c>
+      <c r="H993" s="1">
+        <v>5019222.2265377007</v>
+      </c>
+    </row>
+    <row r="994" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G994">
+        <v>981</v>
+      </c>
+      <c r="H994" s="1">
+        <v>2991993.2854303634</v>
+      </c>
+    </row>
+    <row r="995" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G995">
+        <v>982</v>
+      </c>
+      <c r="H995" s="1">
+        <v>6510175.6541736219</v>
+      </c>
+    </row>
+    <row r="996" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G996">
+        <v>983</v>
+      </c>
+      <c r="H996" s="1">
+        <v>4508784.7361227507</v>
+      </c>
+    </row>
+    <row r="997" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G997">
+        <v>984</v>
+      </c>
+      <c r="H997" s="1">
+        <v>6535592.840928209</v>
+      </c>
+    </row>
+    <row r="998" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G998">
+        <v>985</v>
+      </c>
+      <c r="H998" s="1">
+        <v>3259865.6511626248</v>
+      </c>
+    </row>
+    <row r="999" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G999">
+        <v>986</v>
+      </c>
+      <c r="H999" s="1">
+        <v>4146106.0234083943</v>
+      </c>
+    </row>
+    <row r="1000" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G1000">
+        <v>987</v>
+      </c>
+      <c r="H1000" s="1">
+        <v>5952931.271639619</v>
+      </c>
+    </row>
+    <row r="1001" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G1001">
+        <v>988</v>
+      </c>
+      <c r="H1001" s="1">
+        <v>14127549.318983736</v>
+      </c>
+    </row>
+    <row r="1002" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G1002">
+        <v>989</v>
+      </c>
+      <c r="H1002" s="1">
+        <v>2753375.4388048537</v>
+      </c>
+    </row>
+    <row r="1003" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G1003">
+        <v>990</v>
+      </c>
+      <c r="H1003" s="1">
+        <v>2678762.8402607488</v>
+      </c>
+    </row>
+    <row r="1004" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G1004">
+        <v>991</v>
+      </c>
+      <c r="H1004" s="1">
+        <v>7359207.8450978836</v>
+      </c>
+    </row>
+    <row r="1005" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G1005">
+        <v>992</v>
+      </c>
+      <c r="H1005" s="1">
+        <v>1389953.9972872331</v>
+      </c>
+    </row>
+    <row r="1006" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G1006">
+        <v>993</v>
+      </c>
+      <c r="H1006" s="1">
+        <v>4222688.5554994</v>
+      </c>
+    </row>
+    <row r="1007" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G1007">
+        <v>994</v>
+      </c>
+      <c r="H1007" s="1">
+        <v>2946784.0227526226</v>
+      </c>
+    </row>
+    <row r="1008" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G1008">
+        <v>995</v>
+      </c>
+      <c r="H1008" s="1">
+        <v>4326159.3567641983</v>
+      </c>
+    </row>
+    <row r="1009" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G1009">
+        <v>996</v>
+      </c>
+      <c r="H1009" s="1">
+        <v>3122834.7251448566</v>
+      </c>
+    </row>
+    <row r="1010" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G1010">
+        <v>997</v>
+      </c>
+      <c r="H1010" s="1">
+        <v>3981969.249910811</v>
+      </c>
+    </row>
+    <row r="1011" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G1011">
+        <v>998</v>
+      </c>
+      <c r="H1011" s="1">
+        <v>2396843.2849073801</v>
+      </c>
+    </row>
+    <row r="1012" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G1012">
+        <v>999</v>
+      </c>
+      <c r="H1012" s="1">
+        <v>2576336.4785008398</v>
+      </c>
+    </row>
+    <row r="1013" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G1013">
+        <v>1000</v>
+      </c>
+      <c r="H1013" s="1">
+        <v>2667166.484184124</v>
       </c>
     </row>
   </sheetData>

--- a/Stats/Monte_Carlo.xlsx
+++ b/Stats/Monte_Carlo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -159,10 +159,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,7 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BA00F8-A183-4D0F-9126-F2E9ACBCEB27}">
   <dimension ref="B2:H1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -587,7 +583,7 @@
       </c>
       <c r="F2" s="1">
         <f ca="1">AVERAGE(H13:H1013)</f>
-        <v>5470051.2162935305</v>
+        <v>5617775.8883165698</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -602,7 +598,7 @@
       </c>
       <c r="F3" s="1">
         <f ca="1">MEDIAN(H13:H1013)</f>
-        <v>4642185.5383146023</v>
+        <v>4808988.2164727747</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -628,7 +624,7 @@
       </c>
       <c r="F5" s="1">
         <f ca="1">_xlfn.PERCENTILE.INC(H13:H1013,E5)</f>
-        <v>2346741.6547303507</v>
+        <v>2398019.9547202699</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -637,14 +633,14 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">D53</f>
-        <v>4225406.5565429023</v>
+        <v>1012433.931344364</v>
       </c>
       <c r="E6">
         <v>0.25</v>
       </c>
       <c r="F6" s="1">
         <f ca="1">_xlfn.PERCENTILE.INC(H13:H1013,E6)</f>
-        <v>3205304.2739896919</v>
+        <v>3221901.0700448197</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -654,7 +650,7 @@
       </c>
       <c r="F7" s="1">
         <f ca="1">MIN(H13:H1013)</f>
-        <v>801127.89643769455</v>
+        <v>833972.04770800483</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -664,7 +660,7 @@
       </c>
       <c r="F8" s="1">
         <f ca="1">MAX(H13:H1013)</f>
-        <v>29972440.208785515</v>
+        <v>25949389.953809965</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -690,7 +686,7 @@
       </c>
       <c r="H13" s="1">
         <f ca="1">C6</f>
-        <v>4225406.5565429023</v>
+        <v>1012433.931344364</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -699,18 +695,18 @@
       </c>
       <c r="C14">
         <f ca="1">NORMINV(RAND(),$C$3,$C$4)</f>
-        <v>7.9278761329375155E-2</v>
+        <v>-9.6992052112415406E-2</v>
       </c>
       <c r="D14">
         <f ca="1">C2*(1+C14)+C5</f>
-        <v>36981.969033234374</v>
+        <v>32575.198697189615</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" s="1">
         <f t="dataTable" ref="H14:H1013" dt2D="0" dtr="0" r1="G11" ca="1"/>
-        <v>5418981.5825324487</v>
+        <v>3230251.0483889035</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -719,17 +715,17 @@
       </c>
       <c r="C15">
         <f t="shared" ref="C15:C53" ca="1" si="0">NORMINV(RAND(),$C$3,$C$4)</f>
-        <v>5.8216741040069464E-2</v>
+        <v>0.20421877453806059</v>
       </c>
       <c r="D15">
         <f ca="1">D14*(1+C15)+C$5</f>
-        <v>49134.938747594053</v>
+        <v>49227.665855463507</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" s="1">
-        <v>5831075.2608330268</v>
+        <v>6173027.434772253</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -738,17 +734,17 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5220830108130807E-2</v>
+        <v>0.1712261671735727</v>
       </c>
       <c r="D16">
         <f t="shared" ref="D16:D53" ca="1" si="1">D15*(1+C16)+C$5</f>
-        <v>63322.259014976175</v>
+        <v>67656.730398795873</v>
       </c>
       <c r="G16">
         <v>3</v>
       </c>
       <c r="H16" s="1">
-        <v>3523327.6123237903</v>
+        <v>4013953.0294533395</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -757,17 +753,17 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19440359547778915</v>
+        <v>-0.1555031777583866</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>85632.333841263389</v>
+        <v>67135.893825040679</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
       <c r="H17" s="1">
-        <v>6103363.6949311029</v>
+        <v>6117168.5327384751</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -776,17 +772,17 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2867161558364989E-2</v>
+        <v>0.21201624551695064</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>100159.4722690693</v>
+        <v>91369.793973250431</v>
       </c>
       <c r="G18">
         <v>5</v>
       </c>
       <c r="H18" s="1">
-        <v>4896225.142326436</v>
+        <v>6911532.9166316725</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -795,17 +791,17 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13425284824753189</v>
+        <v>6.7585284423591727E-2</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>123606.16670016153</v>
+        <v>107545.04748665754</v>
       </c>
       <c r="G19">
         <v>6</v>
       </c>
       <c r="H19" s="1">
-        <v>5230691.4263270833</v>
+        <v>10842866.816237949</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -814,17 +810,17 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30429323953207366</v>
+        <v>0.22080281555383502</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>171218.6875914952</v>
+        <v>141291.29677058241</v>
       </c>
       <c r="G20">
         <v>7</v>
       </c>
       <c r="H20" s="1">
-        <v>10666961.293964382</v>
+        <v>3608061.1402077624</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -833,17 +829,17 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17652693845903195</v>
+        <v>0.29226855630398557</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>211443.39831899529</v>
+        <v>192586.3000960385</v>
       </c>
       <c r="G21">
         <v>8</v>
       </c>
       <c r="H21" s="1">
-        <v>3888527.060357572</v>
+        <v>4971183.2491816832</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -852,17 +848,17 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11879659960916704</v>
+        <v>7.6799580955143415E-2</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>246562.1550490986</v>
+        <v>217376.84724111576</v>
       </c>
       <c r="G22">
         <v>9</v>
       </c>
       <c r="H22" s="1">
-        <v>1590587.1502769187</v>
+        <v>5153245.5586548578</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -871,17 +867,17 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.9437154816274169E-2</v>
+        <v>-4.937707241810721E-2</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>236975.95896662914</v>
+        <v>216643.41491287135</v>
       </c>
       <c r="G23">
         <v>10</v>
       </c>
       <c r="H23" s="1">
-        <v>3665893.1402846044</v>
+        <v>2979313.5960561228</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -890,17 +886,17 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.11026209042618965</v>
+        <v>1.3439711398156348E-2</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>220846.49435021769</v>
+        <v>229555.03988561139</v>
       </c>
       <c r="G24">
         <v>11</v>
       </c>
       <c r="H24" s="1">
-        <v>10201690.916981414</v>
+        <v>6441700.6566609656</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -909,17 +905,17 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20607004093787346</v>
+        <v>7.1481812427617614E-2</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>276356.34048195288</v>
+        <v>255964.05018852893</v>
       </c>
       <c r="G25">
         <v>12</v>
       </c>
       <c r="H25" s="1">
-        <v>4127750.7041245229</v>
+        <v>2299697.4777158834</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -928,17 +924,17 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26439746532624275</v>
+        <v>4.4488219800040078E-2</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>359424.25643221731</v>
+        <v>277351.43511422467</v>
       </c>
       <c r="G26">
         <v>13</v>
       </c>
       <c r="H26" s="1">
-        <v>3104720.4157108278</v>
+        <v>7711346.0441250624</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -947,17 +943,17 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3693266724920244E-2</v>
+        <v>0.12316039614570858</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>364502.56422148482</v>
+        <v>321510.1477344734</v>
       </c>
       <c r="G27">
         <v>14</v>
       </c>
       <c r="H27" s="1">
-        <v>2745803.8449752317</v>
+        <v>6932636.3386508105</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -966,17 +962,17 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24521066720260101</v>
+        <v>-3.6996100077781313E-2</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>463882.48119129409</v>
+        <v>319615.52613286657</v>
       </c>
       <c r="G28">
         <v>15</v>
       </c>
       <c r="H28" s="1">
-        <v>5316241.1530502047</v>
+        <v>4996286.2247914607</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -985,17 +981,17 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.4929421346383196E-2</v>
+        <v>-2.7239152474630018E-2</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>439124.03530290595</v>
+        <v>320909.4700832743</v>
       </c>
       <c r="G29">
         <v>16</v>
       </c>
       <c r="H29" s="1">
-        <v>4069698.3559967945</v>
+        <v>4275079.3381804293</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -1004,17 +1000,17 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.11714460446003946</v>
+        <v>-0.19267164282343044</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>397683.02387845062</v>
+        <v>269079.31528473331</v>
       </c>
       <c r="G30">
         <v>17</v>
       </c>
       <c r="H30" s="1">
-        <v>3752089.8255756763</v>
+        <v>5204644.4542225422</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -1023,17 +1019,17 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15640031191238593</v>
+        <v>-3.5940911330493125E-2</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>469880.77285530115</v>
+        <v>269408.35947321489</v>
       </c>
       <c r="G31">
         <v>18</v>
       </c>
       <c r="H31" s="1">
-        <v>3540580.6393011883</v>
+        <v>7960530.9080009516</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -1042,17 +1038,17 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6950884681780066E-2</v>
+        <v>0.15802775100018002</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>462518.26260333922</v>
+        <v>321982.35662141506</v>
       </c>
       <c r="G32">
         <v>19</v>
       </c>
       <c r="H32" s="1">
-        <v>1823927.3595613232</v>
+        <v>2910278.7313768775</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -1061,17 +1057,17 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0757825600029428E-2</v>
+        <v>-0.17089175060152248</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>467542.57179742388</v>
+        <v>276958.22803557775</v>
       </c>
       <c r="G33">
         <v>20</v>
       </c>
       <c r="H33" s="1">
-        <v>4338525.42535289</v>
+        <v>3852066.290765319</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -1080,17 +1076,17 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.108853869025344</v>
+        <v>-2.6105084670705825E-2</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>528436.38967163314</v>
+        <v>279728.21004246036</v>
       </c>
       <c r="G34">
         <v>21</v>
       </c>
       <c r="H34" s="1">
-        <v>2024805.8281325793</v>
+        <v>2757230.3443306326</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -1099,17 +1095,17 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14307092939310162</v>
+        <v>7.1007113884211881E-2</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>462832.50427617738</v>
+        <v>309590.90290957206</v>
       </c>
       <c r="G35">
         <v>22</v>
       </c>
       <c r="H35" s="1">
-        <v>6117110.2172644967</v>
+        <v>2526061.5917324084</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -1118,17 +1114,17 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7789983093123035E-2</v>
+        <v>0.30946671249322305</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>504207.91191600723</v>
+        <v>415398.98185080593</v>
       </c>
       <c r="G36">
         <v>23</v>
       </c>
       <c r="H36" s="1">
-        <v>2546331.4245125614</v>
+        <v>4641029.2669288563</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -1137,17 +1133,17 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7778870343557405E-2</v>
+        <v>0.24691395161476637</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>553424.63372311811</v>
+        <v>527966.78595633898</v>
       </c>
       <c r="G37">
         <v>24</v>
       </c>
       <c r="H37" s="1">
-        <v>9643034.9833879862</v>
+        <v>4347644.2311828258</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -1156,17 +1152,17 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24029006330071614</v>
+        <v>-0.18804768291864668</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>696407.07399262174</v>
+        <v>438683.85519924434</v>
       </c>
       <c r="G38">
         <v>25</v>
       </c>
       <c r="H38" s="1">
-        <v>7569653.7066494562</v>
+        <v>4726918.1575192949</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -1175,17 +1171,17 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19897527059711489</v>
+        <v>0.28567246847670635</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>844974.85998604866</v>
+        <v>574003.75499489042</v>
       </c>
       <c r="G39">
         <v>26</v>
       </c>
       <c r="H39" s="1">
-        <v>2813099.1015599426</v>
+        <v>3538095.0642562918</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -1194,17 +1190,17 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7756367321862358E-2</v>
+        <v>4.0003550225968305E-2</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>929126.78417672357</v>
+        <v>606965.94303772296</v>
       </c>
       <c r="G40">
         <v>27</v>
       </c>
       <c r="H40" s="1">
-        <v>8363756.2411572775</v>
+        <v>2413743.0742065748</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -1213,17 +1209,17 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.5058894029522391E-2</v>
+        <v>0.1095770669131016</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>878678.82318497926</v>
+        <v>683475.49079194129</v>
       </c>
       <c r="G41">
         <v>28</v>
       </c>
       <c r="H41" s="1">
-        <v>13342811.781611191</v>
+        <v>6134898.8622725727</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -1232,17 +1228,17 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14770037048654883</v>
+        <v>4.0008626740711421E-2</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>1018460.0109080855</v>
+        <v>720820.40658946056</v>
       </c>
       <c r="G42">
         <v>29</v>
       </c>
       <c r="H42" s="1">
-        <v>7090411.8311126884</v>
+        <v>1975897.7687053452</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -1251,17 +1247,17 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6698682512362022E-2</v>
+        <v>0.18527469964395177</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>1126943.7521544234</v>
+        <v>864370.19091755408</v>
       </c>
       <c r="G43">
         <v>30</v>
       </c>
       <c r="H43" s="1">
-        <v>6183951.7693425715</v>
+        <v>1435488.1563139253</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -1270,17 +1266,17 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1588228431671448E-2</v>
+        <v>-0.19476021444984418</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>1195080.7838702109</v>
+        <v>706025.2671703985</v>
       </c>
       <c r="G44">
         <v>31</v>
       </c>
       <c r="H44" s="1">
-        <v>5145499.3223713394</v>
+        <v>8942570.0272784941</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -1289,17 +1285,17 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3912996563524436E-2</v>
+        <v>7.7474376663539915E-2</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>1245609.5543867354</v>
+        <v>770724.13465313439</v>
       </c>
       <c r="G45">
         <v>32</v>
       </c>
       <c r="H45" s="1">
-        <v>7725168.283021709</v>
+        <v>8568743.5475271624</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -1308,17 +1304,17 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18022594823139623</v>
+        <v>-5.8614927149453627E-3</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>1480100.7174521717</v>
+        <v>776206.54075263243</v>
       </c>
       <c r="G46">
         <v>33</v>
       </c>
       <c r="H46" s="1">
-        <v>1714745.3053070654</v>
+        <v>1717376.608820817</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -1327,17 +1323,17 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18499708915835586</v>
+        <v>7.9574088950993258E-2</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>1763915.0418420176</v>
+        <v>847972.46907082514</v>
       </c>
       <c r="G47">
         <v>34</v>
       </c>
       <c r="H47" s="1">
-        <v>5888340.0223599523</v>
+        <v>4555518.2669117553</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -1346,17 +1342,17 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25534391119961297</v>
+        <v>-7.099112728869017E-2</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>2224320.0076497872</v>
+        <v>797773.94758171332</v>
       </c>
       <c r="G48">
         <v>35</v>
       </c>
       <c r="H48" s="1">
-        <v>8249980.4371770639</v>
+        <v>4748527.2621684745</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -1365,17 +1361,17 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3351754738345845E-2</v>
+        <v>-4.5444979074029002E-2</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>2286261.7829280207</v>
+        <v>771519.1272280569</v>
       </c>
       <c r="G49">
         <v>36</v>
       </c>
       <c r="H49" s="1">
-        <v>2346097.2969661891</v>
+        <v>6632658.8994801017</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -1384,17 +1380,17 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18777168333435823</v>
+        <v>7.8096775115138933E-2</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>2725557.0064514261</v>
+        <v>841772.28300421475</v>
       </c>
       <c r="G50">
         <v>37</v>
       </c>
       <c r="H50" s="1">
-        <v>3715580.3769381214</v>
+        <v>4455947.5297690937</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -1403,17 +1399,17 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15802031108765377</v>
+        <v>0.15584886145221771</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>3166250.3724980145</v>
+        <v>982961.53491245571</v>
       </c>
       <c r="G51">
         <v>38</v>
       </c>
       <c r="H51" s="1">
-        <v>4524105.9645378217</v>
+        <v>8727793.234038448</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -1422,17 +1418,17 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28752391432360946</v>
+        <v>-1.0988269712648879E-2</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>4086623.0733272303</v>
+        <v>982160.48844967829</v>
       </c>
       <c r="G52">
         <v>39</v>
       </c>
       <c r="H52" s="1">
-        <v>8135836.5270460909</v>
+        <v>2705471.6341605359</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -1441,17 +1437,17 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1513423407267968E-2</v>
+        <v>2.064168039042874E-2</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>4225406.5565429023</v>
+        <v>1012433.931344364</v>
       </c>
       <c r="G53">
         <v>40</v>
       </c>
       <c r="H53" s="1">
-        <v>8308159.9684494212</v>
+        <v>5260281.7818977349</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -1459,7 +1455,7 @@
         <v>41</v>
       </c>
       <c r="H54" s="1">
-        <v>12929121.471942406</v>
+        <v>4339119.541876303</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
@@ -1467,7 +1463,7 @@
         <v>42</v>
       </c>
       <c r="H55" s="1">
-        <v>1692654.2817856004</v>
+        <v>4169370.2616146561</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -1475,7 +1471,7 @@
         <v>43</v>
       </c>
       <c r="H56" s="1">
-        <v>2984786.4860916235</v>
+        <v>2850959.3922820273</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -1483,7 +1479,7 @@
         <v>44</v>
       </c>
       <c r="H57" s="1">
-        <v>9123838.48595188</v>
+        <v>3825203.6233988591</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -1491,7 +1487,7 @@
         <v>45</v>
       </c>
       <c r="H58" s="1">
-        <v>2920314.5800058711</v>
+        <v>3535484.6985773537</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -1499,7 +1495,7 @@
         <v>46</v>
       </c>
       <c r="H59" s="1">
-        <v>2785179.7518383628</v>
+        <v>13390913.846805342</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -1507,7 +1503,7 @@
         <v>47</v>
       </c>
       <c r="H60" s="1">
-        <v>4998656.6083711721</v>
+        <v>6489329.1793359434</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -1515,7 +1511,7 @@
         <v>48</v>
       </c>
       <c r="H61" s="1">
-        <v>5385258.1009854116</v>
+        <v>3078004.3372008577</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -1523,7 +1519,7 @@
         <v>49</v>
       </c>
       <c r="H62" s="1">
-        <v>2786766.8804731267</v>
+        <v>4808988.2164727747</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -1531,7 +1527,7 @@
         <v>50</v>
       </c>
       <c r="H63" s="1">
-        <v>1766935.2367475014</v>
+        <v>5202212.8563455045</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
@@ -1539,7 +1535,7 @@
         <v>51</v>
       </c>
       <c r="H64" s="1">
-        <v>5194549.5746140061</v>
+        <v>2715609.0629279339</v>
       </c>
     </row>
     <row r="65" spans="7:8" x14ac:dyDescent="0.25">
@@ -1547,7 +1543,7 @@
         <v>52</v>
       </c>
       <c r="H65" s="1">
-        <v>7670284.1704096403</v>
+        <v>7260164.4535986222</v>
       </c>
     </row>
     <row r="66" spans="7:8" x14ac:dyDescent="0.25">
@@ -1555,7 +1551,7 @@
         <v>53</v>
       </c>
       <c r="H66" s="1">
-        <v>2300202.639338796</v>
+        <v>18080463.887588598</v>
       </c>
     </row>
     <row r="67" spans="7:8" x14ac:dyDescent="0.25">
@@ -1563,7 +1559,7 @@
         <v>54</v>
       </c>
       <c r="H67" s="1">
-        <v>8702090.5989411119</v>
+        <v>14491135.349282889</v>
       </c>
     </row>
     <row r="68" spans="7:8" x14ac:dyDescent="0.25">
@@ -1571,7 +1567,7 @@
         <v>55</v>
       </c>
       <c r="H68" s="1">
-        <v>4787715.9370164946</v>
+        <v>5275066.4572037617</v>
       </c>
     </row>
     <row r="69" spans="7:8" x14ac:dyDescent="0.25">
@@ -1579,7 +1575,7 @@
         <v>56</v>
       </c>
       <c r="H69" s="1">
-        <v>6959451.3960028654</v>
+        <v>8870733.050807992</v>
       </c>
     </row>
     <row r="70" spans="7:8" x14ac:dyDescent="0.25">
@@ -1587,7 +1583,7 @@
         <v>57</v>
       </c>
       <c r="H70" s="1">
-        <v>12515845.44063109</v>
+        <v>2269076.412225028</v>
       </c>
     </row>
     <row r="71" spans="7:8" x14ac:dyDescent="0.25">
@@ -1595,7 +1591,7 @@
         <v>58</v>
       </c>
       <c r="H71" s="1">
-        <v>8325791.1301853256</v>
+        <v>4589592.4480860196</v>
       </c>
     </row>
     <row r="72" spans="7:8" x14ac:dyDescent="0.25">
@@ -1603,7 +1599,7 @@
         <v>59</v>
       </c>
       <c r="H72" s="1">
-        <v>5527408.4450546391</v>
+        <v>4928189.2749904525</v>
       </c>
     </row>
     <row r="73" spans="7:8" x14ac:dyDescent="0.25">
@@ -1611,7 +1607,7 @@
         <v>60</v>
       </c>
       <c r="H73" s="1">
-        <v>4907891.5317710936</v>
+        <v>7870578.6802156977</v>
       </c>
     </row>
     <row r="74" spans="7:8" x14ac:dyDescent="0.25">
@@ -1619,7 +1615,7 @@
         <v>61</v>
       </c>
       <c r="H74" s="1">
-        <v>12638037.566576447</v>
+        <v>7184242.5997849023</v>
       </c>
     </row>
     <row r="75" spans="7:8" x14ac:dyDescent="0.25">
@@ -1627,7 +1623,7 @@
         <v>62</v>
       </c>
       <c r="H75" s="1">
-        <v>1006315.1847979622</v>
+        <v>5693475.5290471241</v>
       </c>
     </row>
     <row r="76" spans="7:8" x14ac:dyDescent="0.25">
@@ -1635,7 +1631,7 @@
         <v>63</v>
       </c>
       <c r="H76" s="1">
-        <v>7076750.9078975329</v>
+        <v>8504920.9013521485</v>
       </c>
     </row>
     <row r="77" spans="7:8" x14ac:dyDescent="0.25">
@@ -1643,7 +1639,7 @@
         <v>64</v>
       </c>
       <c r="H77" s="1">
-        <v>5773422.9321499551</v>
+        <v>4494660.1650678851</v>
       </c>
     </row>
     <row r="78" spans="7:8" x14ac:dyDescent="0.25">
@@ -1651,7 +1647,7 @@
         <v>65</v>
       </c>
       <c r="H78" s="1">
-        <v>4156874.4953455757</v>
+        <v>9736743.2527673189</v>
       </c>
     </row>
     <row r="79" spans="7:8" x14ac:dyDescent="0.25">
@@ -1659,7 +1655,7 @@
         <v>66</v>
       </c>
       <c r="H79" s="1">
-        <v>1715326.7705655093</v>
+        <v>2610127.4613028709</v>
       </c>
     </row>
     <row r="80" spans="7:8" x14ac:dyDescent="0.25">
@@ -1667,7 +1663,7 @@
         <v>67</v>
       </c>
       <c r="H80" s="1">
-        <v>8295650.1371479658</v>
+        <v>8352548.8549896628</v>
       </c>
     </row>
     <row r="81" spans="7:8" x14ac:dyDescent="0.25">
@@ -1675,7 +1671,7 @@
         <v>68</v>
       </c>
       <c r="H81" s="1">
-        <v>3065837.7930585174</v>
+        <v>5394421.8184762364</v>
       </c>
     </row>
     <row r="82" spans="7:8" x14ac:dyDescent="0.25">
@@ -1683,7 +1679,7 @@
         <v>69</v>
       </c>
       <c r="H82" s="1">
-        <v>2769242.6917284336</v>
+        <v>1869634.4447697145</v>
       </c>
     </row>
     <row r="83" spans="7:8" x14ac:dyDescent="0.25">
@@ -1691,7 +1687,7 @@
         <v>70</v>
       </c>
       <c r="H83" s="1">
-        <v>5604695.3371072486</v>
+        <v>3036783.6543163769</v>
       </c>
     </row>
     <row r="84" spans="7:8" x14ac:dyDescent="0.25">
@@ -1699,7 +1695,7 @@
         <v>71</v>
       </c>
       <c r="H84" s="1">
-        <v>1489664.2124481709</v>
+        <v>5511997.0947765801</v>
       </c>
     </row>
     <row r="85" spans="7:8" x14ac:dyDescent="0.25">
@@ -1707,7 +1703,7 @@
         <v>72</v>
       </c>
       <c r="H85" s="1">
-        <v>15036105.986414509</v>
+        <v>4162452.757378622</v>
       </c>
     </row>
     <row r="86" spans="7:8" x14ac:dyDescent="0.25">
@@ -1715,7 +1711,7 @@
         <v>73</v>
       </c>
       <c r="H86" s="1">
-        <v>13929705.016968491</v>
+        <v>2889748.5520165428</v>
       </c>
     </row>
     <row r="87" spans="7:8" x14ac:dyDescent="0.25">
@@ -1723,7 +1719,7 @@
         <v>74</v>
       </c>
       <c r="H87" s="1">
-        <v>1945348.164569848</v>
+        <v>2819946.517015018</v>
       </c>
     </row>
     <row r="88" spans="7:8" x14ac:dyDescent="0.25">
@@ -1731,7 +1727,7 @@
         <v>75</v>
       </c>
       <c r="H88" s="1">
-        <v>8380928.8081003018</v>
+        <v>1563615.8007642755</v>
       </c>
     </row>
     <row r="89" spans="7:8" x14ac:dyDescent="0.25">
@@ -1739,7 +1735,7 @@
         <v>76</v>
       </c>
       <c r="H89" s="1">
-        <v>4912961.2278009634</v>
+        <v>2014372.4442768241</v>
       </c>
     </row>
     <row r="90" spans="7:8" x14ac:dyDescent="0.25">
@@ -1747,7 +1743,7 @@
         <v>77</v>
       </c>
       <c r="H90" s="1">
-        <v>6374108.2213804377</v>
+        <v>2486820.441034493</v>
       </c>
     </row>
     <row r="91" spans="7:8" x14ac:dyDescent="0.25">
@@ -1755,7 +1751,7 @@
         <v>78</v>
       </c>
       <c r="H91" s="1">
-        <v>8158889.730592601</v>
+        <v>2398019.9547202699</v>
       </c>
     </row>
     <row r="92" spans="7:8" x14ac:dyDescent="0.25">
@@ -1763,7 +1759,7 @@
         <v>79</v>
       </c>
       <c r="H92" s="1">
-        <v>869527.35594037524</v>
+        <v>13037895.713818194</v>
       </c>
     </row>
     <row r="93" spans="7:8" x14ac:dyDescent="0.25">
@@ -1771,7 +1767,7 @@
         <v>80</v>
       </c>
       <c r="H93" s="1">
-        <v>6109885.6658607749</v>
+        <v>2029918.9125524266</v>
       </c>
     </row>
     <row r="94" spans="7:8" x14ac:dyDescent="0.25">
@@ -1779,7 +1775,7 @@
         <v>81</v>
       </c>
       <c r="H94" s="1">
-        <v>2834779.616084523</v>
+        <v>4177868.2194831297</v>
       </c>
     </row>
     <row r="95" spans="7:8" x14ac:dyDescent="0.25">
@@ -1787,7 +1783,7 @@
         <v>82</v>
       </c>
       <c r="H95" s="1">
-        <v>5030070.9376715831</v>
+        <v>6625671.8056487413</v>
       </c>
     </row>
     <row r="96" spans="7:8" x14ac:dyDescent="0.25">
@@ -1795,7 +1791,7 @@
         <v>83</v>
       </c>
       <c r="H96" s="1">
-        <v>8970516.1442742273</v>
+        <v>1780601.149066715</v>
       </c>
     </row>
     <row r="97" spans="7:8" x14ac:dyDescent="0.25">
@@ -1803,7 +1799,7 @@
         <v>84</v>
       </c>
       <c r="H97" s="1">
-        <v>1764389.3214517804</v>
+        <v>7011733.9223219808</v>
       </c>
     </row>
     <row r="98" spans="7:8" x14ac:dyDescent="0.25">
@@ -1811,7 +1807,7 @@
         <v>85</v>
       </c>
       <c r="H98" s="1">
-        <v>8581456.4187235273</v>
+        <v>3067762.9257797208</v>
       </c>
     </row>
     <row r="99" spans="7:8" x14ac:dyDescent="0.25">
@@ -1819,7 +1815,7 @@
         <v>86</v>
       </c>
       <c r="H99" s="1">
-        <v>3998803.3242578185</v>
+        <v>5828709.1199487383</v>
       </c>
     </row>
     <row r="100" spans="7:8" x14ac:dyDescent="0.25">
@@ -1827,7 +1823,7 @@
         <v>87</v>
       </c>
       <c r="H100" s="1">
-        <v>7332432.3438883042</v>
+        <v>13550389.373081062</v>
       </c>
     </row>
     <row r="101" spans="7:8" x14ac:dyDescent="0.25">
@@ -1835,7 +1831,7 @@
         <v>88</v>
       </c>
       <c r="H101" s="1">
-        <v>10599709.329698507</v>
+        <v>4977912.4399066074</v>
       </c>
     </row>
     <row r="102" spans="7:8" x14ac:dyDescent="0.25">
@@ -1843,7 +1839,7 @@
         <v>89</v>
       </c>
       <c r="H102" s="1">
-        <v>2857329.5554093816</v>
+        <v>3343065.9120360627</v>
       </c>
     </row>
     <row r="103" spans="7:8" x14ac:dyDescent="0.25">
@@ -1851,7 +1847,7 @@
         <v>90</v>
       </c>
       <c r="H103" s="1">
-        <v>2861371.4379215427</v>
+        <v>2470778.7911154646</v>
       </c>
     </row>
     <row r="104" spans="7:8" x14ac:dyDescent="0.25">
@@ -1859,7 +1855,7 @@
         <v>91</v>
       </c>
       <c r="H104" s="1">
-        <v>3398433.4428459224</v>
+        <v>3766174.433985773</v>
       </c>
     </row>
     <row r="105" spans="7:8" x14ac:dyDescent="0.25">
@@ -1867,7 +1863,7 @@
         <v>92</v>
       </c>
       <c r="H105" s="1">
-        <v>2291579.7333787717</v>
+        <v>7346174.5788342804</v>
       </c>
     </row>
     <row r="106" spans="7:8" x14ac:dyDescent="0.25">
@@ -1875,7 +1871,7 @@
         <v>93</v>
       </c>
       <c r="H106" s="1">
-        <v>1905493.2559896375</v>
+        <v>2363115.1682956223</v>
       </c>
     </row>
     <row r="107" spans="7:8" x14ac:dyDescent="0.25">
@@ -1883,7 +1879,7 @@
         <v>94</v>
       </c>
       <c r="H107" s="1">
-        <v>3385958.4275630121</v>
+        <v>4134694.0926658446</v>
       </c>
     </row>
     <row r="108" spans="7:8" x14ac:dyDescent="0.25">
@@ -1891,7 +1887,7 @@
         <v>95</v>
       </c>
       <c r="H108" s="1">
-        <v>14708294.298798569</v>
+        <v>6334709.8568641413</v>
       </c>
     </row>
     <row r="109" spans="7:8" x14ac:dyDescent="0.25">
@@ -1899,7 +1895,7 @@
         <v>96</v>
       </c>
       <c r="H109" s="1">
-        <v>7675777.2575687403</v>
+        <v>1401242.8584434476</v>
       </c>
     </row>
     <row r="110" spans="7:8" x14ac:dyDescent="0.25">
@@ -1907,7 +1903,7 @@
         <v>97</v>
       </c>
       <c r="H110" s="1">
-        <v>4008501.9377006679</v>
+        <v>2972438.9184209686</v>
       </c>
     </row>
     <row r="111" spans="7:8" x14ac:dyDescent="0.25">
@@ -1915,7 +1911,7 @@
         <v>98</v>
       </c>
       <c r="H111" s="1">
-        <v>7107482.6909523439</v>
+        <v>2492942.5635652835</v>
       </c>
     </row>
     <row r="112" spans="7:8" x14ac:dyDescent="0.25">
@@ -1923,7 +1919,7 @@
         <v>99</v>
       </c>
       <c r="H112" s="1">
-        <v>1898828.8943266594</v>
+        <v>14088912.716051491</v>
       </c>
     </row>
     <row r="113" spans="7:8" x14ac:dyDescent="0.25">
@@ -1931,7 +1927,7 @@
         <v>100</v>
       </c>
       <c r="H113" s="1">
-        <v>3425591.4841364473</v>
+        <v>25949389.953809965</v>
       </c>
     </row>
     <row r="114" spans="7:8" x14ac:dyDescent="0.25">
@@ -1939,7 +1935,7 @@
         <v>101</v>
       </c>
       <c r="H114" s="1">
-        <v>10178243.684543964</v>
+        <v>1465822.9412715037</v>
       </c>
     </row>
     <row r="115" spans="7:8" x14ac:dyDescent="0.25">
@@ -1947,7 +1943,7 @@
         <v>102</v>
       </c>
       <c r="H115" s="1">
-        <v>4083848.339708982</v>
+        <v>13091033.596889248</v>
       </c>
     </row>
     <row r="116" spans="7:8" x14ac:dyDescent="0.25">
@@ -1955,7 +1951,7 @@
         <v>103</v>
       </c>
       <c r="H116" s="1">
-        <v>1862955.2273323147</v>
+        <v>6651087.1370993555</v>
       </c>
     </row>
     <row r="117" spans="7:8" x14ac:dyDescent="0.25">
@@ -1963,7 +1959,7 @@
         <v>104</v>
       </c>
       <c r="H117" s="1">
-        <v>2457529.2193857231</v>
+        <v>4560856.0789902229</v>
       </c>
     </row>
     <row r="118" spans="7:8" x14ac:dyDescent="0.25">
@@ -1971,7 +1967,7 @@
         <v>105</v>
       </c>
       <c r="H118" s="1">
-        <v>5041337.0658103079</v>
+        <v>9391332.1444575172</v>
       </c>
     </row>
     <row r="119" spans="7:8" x14ac:dyDescent="0.25">
@@ -1979,7 +1975,7 @@
         <v>106</v>
       </c>
       <c r="H119" s="1">
-        <v>4063356.3243752886</v>
+        <v>5687292.0436405838</v>
       </c>
     </row>
     <row r="120" spans="7:8" x14ac:dyDescent="0.25">
@@ -1987,7 +1983,7 @@
         <v>107</v>
       </c>
       <c r="H120" s="1">
-        <v>5042144.342059616</v>
+        <v>1939531.9421873647</v>
       </c>
     </row>
     <row r="121" spans="7:8" x14ac:dyDescent="0.25">
@@ -1995,7 +1991,7 @@
         <v>108</v>
       </c>
       <c r="H121" s="1">
-        <v>3707145.4251386332</v>
+        <v>2979703.3922091709</v>
       </c>
     </row>
     <row r="122" spans="7:8" x14ac:dyDescent="0.25">
@@ -2003,7 +1999,7 @@
         <v>109</v>
       </c>
       <c r="H122" s="1">
-        <v>2786291.5074073528</v>
+        <v>2390548.9742350238</v>
       </c>
     </row>
     <row r="123" spans="7:8" x14ac:dyDescent="0.25">
@@ -2011,7 +2007,7 @@
         <v>110</v>
       </c>
       <c r="H123" s="1">
-        <v>4236208.9175719824</v>
+        <v>2814745.5669304384</v>
       </c>
     </row>
     <row r="124" spans="7:8" x14ac:dyDescent="0.25">
@@ -2019,7 +2015,7 @@
         <v>111</v>
       </c>
       <c r="H124" s="1">
-        <v>3238848.9059839365</v>
+        <v>2959585.4480262036</v>
       </c>
     </row>
     <row r="125" spans="7:8" x14ac:dyDescent="0.25">
@@ -2027,7 +2023,7 @@
         <v>112</v>
       </c>
       <c r="H125" s="1">
-        <v>3789244.7932313867</v>
+        <v>11063140.853171516</v>
       </c>
     </row>
     <row r="126" spans="7:8" x14ac:dyDescent="0.25">
@@ -2035,7 +2031,7 @@
         <v>113</v>
       </c>
       <c r="H126" s="1">
-        <v>10304512.819080867</v>
+        <v>7755810.1916683316</v>
       </c>
     </row>
     <row r="127" spans="7:8" x14ac:dyDescent="0.25">
@@ -2043,7 +2039,7 @@
         <v>114</v>
       </c>
       <c r="H127" s="1">
-        <v>5715998.351204481</v>
+        <v>3300309.9101064433</v>
       </c>
     </row>
     <row r="128" spans="7:8" x14ac:dyDescent="0.25">
@@ -2051,7 +2047,7 @@
         <v>115</v>
       </c>
       <c r="H128" s="1">
-        <v>4454917.1124223219</v>
+        <v>4263840.2188722575</v>
       </c>
     </row>
     <row r="129" spans="7:8" x14ac:dyDescent="0.25">
@@ -2059,7 +2055,7 @@
         <v>116</v>
       </c>
       <c r="H129" s="1">
-        <v>2940547.1183257224</v>
+        <v>1360916.1344011268</v>
       </c>
     </row>
     <row r="130" spans="7:8" x14ac:dyDescent="0.25">
@@ -2067,7 +2063,7 @@
         <v>117</v>
       </c>
       <c r="H130" s="1">
-        <v>5696582.6107640043</v>
+        <v>4209958.3716625115</v>
       </c>
     </row>
     <row r="131" spans="7:8" x14ac:dyDescent="0.25">
@@ -2075,7 +2071,7 @@
         <v>118</v>
       </c>
       <c r="H131" s="1">
-        <v>5576381.1944174208</v>
+        <v>5065501.8797828862</v>
       </c>
     </row>
     <row r="132" spans="7:8" x14ac:dyDescent="0.25">
@@ -2083,7 +2079,7 @@
         <v>119</v>
       </c>
       <c r="H132" s="1">
-        <v>8998601.8647029139</v>
+        <v>3334289.2938643331</v>
       </c>
     </row>
     <row r="133" spans="7:8" x14ac:dyDescent="0.25">
@@ -2091,7 +2087,7 @@
         <v>120</v>
       </c>
       <c r="H133" s="1">
-        <v>23790961.246289603</v>
+        <v>4741646.6223303527</v>
       </c>
     </row>
     <row r="134" spans="7:8" x14ac:dyDescent="0.25">
@@ -2099,7 +2095,7 @@
         <v>121</v>
       </c>
       <c r="H134" s="1">
-        <v>2879605.7297083633</v>
+        <v>2330233.8563291249</v>
       </c>
     </row>
     <row r="135" spans="7:8" x14ac:dyDescent="0.25">
@@ -2107,7 +2103,7 @@
         <v>122</v>
       </c>
       <c r="H135" s="1">
-        <v>4888018.0881627565</v>
+        <v>1792845.2782265537</v>
       </c>
     </row>
     <row r="136" spans="7:8" x14ac:dyDescent="0.25">
@@ -2115,7 +2111,7 @@
         <v>123</v>
       </c>
       <c r="H136" s="1">
-        <v>3637123.2220075526</v>
+        <v>8646821.1112861782</v>
       </c>
     </row>
     <row r="137" spans="7:8" x14ac:dyDescent="0.25">
@@ -2123,7 +2119,7 @@
         <v>124</v>
       </c>
       <c r="H137" s="1">
-        <v>4116418.479948693</v>
+        <v>4173729.2769389218</v>
       </c>
     </row>
     <row r="138" spans="7:8" x14ac:dyDescent="0.25">
@@ -2131,7 +2127,7 @@
         <v>125</v>
       </c>
       <c r="H138" s="1">
-        <v>3273317.6680689971</v>
+        <v>7759686.8248065794</v>
       </c>
     </row>
     <row r="139" spans="7:8" x14ac:dyDescent="0.25">
@@ -2139,7 +2135,7 @@
         <v>126</v>
       </c>
       <c r="H139" s="1">
-        <v>3927951.1213128576</v>
+        <v>4454602.1868917756</v>
       </c>
     </row>
     <row r="140" spans="7:8" x14ac:dyDescent="0.25">
@@ -2147,7 +2143,7 @@
         <v>127</v>
       </c>
       <c r="H140" s="1">
-        <v>9588354.8445084356</v>
+        <v>7276380.9474793579</v>
       </c>
     </row>
     <row r="141" spans="7:8" x14ac:dyDescent="0.25">
@@ -2155,7 +2151,7 @@
         <v>128</v>
       </c>
       <c r="H141" s="1">
-        <v>4790877.4556049751</v>
+        <v>3848103.181685579</v>
       </c>
     </row>
     <row r="142" spans="7:8" x14ac:dyDescent="0.25">
@@ -2163,7 +2159,7 @@
         <v>129</v>
       </c>
       <c r="H142" s="1">
-        <v>3350504.3188129812</v>
+        <v>1848122.1814460412</v>
       </c>
     </row>
     <row r="143" spans="7:8" x14ac:dyDescent="0.25">
@@ -2171,7 +2167,7 @@
         <v>130</v>
       </c>
       <c r="H143" s="1">
-        <v>2397376.476086759</v>
+        <v>5093172.0873193508</v>
       </c>
     </row>
     <row r="144" spans="7:8" x14ac:dyDescent="0.25">
@@ -2179,7 +2175,7 @@
         <v>131</v>
       </c>
       <c r="H144" s="1">
-        <v>14033758.09330361</v>
+        <v>5287513.5691883732</v>
       </c>
     </row>
     <row r="145" spans="7:8" x14ac:dyDescent="0.25">
@@ -2187,7 +2183,7 @@
         <v>132</v>
       </c>
       <c r="H145" s="1">
-        <v>5051881.1413299683</v>
+        <v>19162035.128370456</v>
       </c>
     </row>
     <row r="146" spans="7:8" x14ac:dyDescent="0.25">
@@ -2195,7 +2191,7 @@
         <v>133</v>
       </c>
       <c r="H146" s="1">
-        <v>2698778.0507536135</v>
+        <v>8264043.0253740512</v>
       </c>
     </row>
     <row r="147" spans="7:8" x14ac:dyDescent="0.25">
@@ -2203,7 +2199,7 @@
         <v>134</v>
       </c>
       <c r="H147" s="1">
-        <v>1917863.6573619188</v>
+        <v>5273368.4616998164</v>
       </c>
     </row>
     <row r="148" spans="7:8" x14ac:dyDescent="0.25">
@@ -2211,7 +2207,7 @@
         <v>135</v>
       </c>
       <c r="H148" s="1">
-        <v>5494963.9945990583</v>
+        <v>1706637.4849385433</v>
       </c>
     </row>
     <row r="149" spans="7:8" x14ac:dyDescent="0.25">
@@ -2219,7 +2215,7 @@
         <v>136</v>
       </c>
       <c r="H149" s="1">
-        <v>7082855.1893114178</v>
+        <v>20272199.502467155</v>
       </c>
     </row>
     <row r="150" spans="7:8" x14ac:dyDescent="0.25">
@@ -2227,7 +2223,7 @@
         <v>137</v>
       </c>
       <c r="H150" s="1">
-        <v>7156821.8346124748</v>
+        <v>6764437.801269033</v>
       </c>
     </row>
     <row r="151" spans="7:8" x14ac:dyDescent="0.25">
@@ -2235,7 +2231,7 @@
         <v>138</v>
       </c>
       <c r="H151" s="1">
-        <v>7538404.1445250856</v>
+        <v>4785818.6788604669</v>
       </c>
     </row>
     <row r="152" spans="7:8" x14ac:dyDescent="0.25">
@@ -2243,7 +2239,7 @@
         <v>139</v>
       </c>
       <c r="H152" s="1">
-        <v>4609114.0954829957</v>
+        <v>6019452.0405703923</v>
       </c>
     </row>
     <row r="153" spans="7:8" x14ac:dyDescent="0.25">
@@ -2251,7 +2247,7 @@
         <v>140</v>
       </c>
       <c r="H153" s="1">
-        <v>6053903.3513719831</v>
+        <v>2130738.5621452043</v>
       </c>
     </row>
     <row r="154" spans="7:8" x14ac:dyDescent="0.25">
@@ -2259,7 +2255,7 @@
         <v>141</v>
       </c>
       <c r="H154" s="1">
-        <v>11779189.571991215</v>
+        <v>5283891.4861437827</v>
       </c>
     </row>
     <row r="155" spans="7:8" x14ac:dyDescent="0.25">
@@ -2267,7 +2263,7 @@
         <v>142</v>
       </c>
       <c r="H155" s="1">
-        <v>9743384.0496226344</v>
+        <v>5181801.3451156123</v>
       </c>
     </row>
     <row r="156" spans="7:8" x14ac:dyDescent="0.25">
@@ -2275,7 +2271,7 @@
         <v>143</v>
       </c>
       <c r="H156" s="1">
-        <v>1792735.6534120981</v>
+        <v>10307309.47882361</v>
       </c>
     </row>
     <row r="157" spans="7:8" x14ac:dyDescent="0.25">
@@ -2283,7 +2279,7 @@
         <v>144</v>
       </c>
       <c r="H157" s="1">
-        <v>4342497.3162088357</v>
+        <v>5516420.9176117536</v>
       </c>
     </row>
     <row r="158" spans="7:8" x14ac:dyDescent="0.25">
@@ -2291,7 +2287,7 @@
         <v>145</v>
       </c>
       <c r="H158" s="1">
-        <v>3147517.1899316134</v>
+        <v>5485721.1812259825</v>
       </c>
     </row>
     <row r="159" spans="7:8" x14ac:dyDescent="0.25">
@@ -2299,7 +2295,7 @@
         <v>146</v>
       </c>
       <c r="H159" s="1">
-        <v>3205304.2739896919</v>
+        <v>3887522.6922968971</v>
       </c>
     </row>
     <row r="160" spans="7:8" x14ac:dyDescent="0.25">
@@ -2307,7 +2303,7 @@
         <v>147</v>
       </c>
       <c r="H160" s="1">
-        <v>3823998.0823169434</v>
+        <v>8646583.9524497967</v>
       </c>
     </row>
     <row r="161" spans="7:8" x14ac:dyDescent="0.25">
@@ -2315,7 +2311,7 @@
         <v>148</v>
       </c>
       <c r="H161" s="1">
-        <v>2316318.113168661</v>
+        <v>3588569.6930537717</v>
       </c>
     </row>
     <row r="162" spans="7:8" x14ac:dyDescent="0.25">
@@ -2323,7 +2319,7 @@
         <v>149</v>
       </c>
       <c r="H162" s="1">
-        <v>8669709.8678795509</v>
+        <v>3491425.2970788023</v>
       </c>
     </row>
     <row r="163" spans="7:8" x14ac:dyDescent="0.25">
@@ -2331,7 +2327,7 @@
         <v>150</v>
       </c>
       <c r="H163" s="1">
-        <v>8757020.5474385489</v>
+        <v>5552626.3450968573</v>
       </c>
     </row>
     <row r="164" spans="7:8" x14ac:dyDescent="0.25">
@@ -2339,7 +2335,7 @@
         <v>151</v>
       </c>
       <c r="H164" s="1">
-        <v>4757487.2759543052</v>
+        <v>7407548.546814952</v>
       </c>
     </row>
     <row r="165" spans="7:8" x14ac:dyDescent="0.25">
@@ -2347,7 +2343,7 @@
         <v>152</v>
       </c>
       <c r="H165" s="1">
-        <v>5735075.5771477129</v>
+        <v>9210098.0431526266</v>
       </c>
     </row>
     <row r="166" spans="7:8" x14ac:dyDescent="0.25">
@@ -2355,7 +2351,7 @@
         <v>153</v>
       </c>
       <c r="H166" s="1">
-        <v>4055573.700938317</v>
+        <v>7307904.6591047999</v>
       </c>
     </row>
     <row r="167" spans="7:8" x14ac:dyDescent="0.25">
@@ -2363,7 +2359,7 @@
         <v>154</v>
       </c>
       <c r="H167" s="1">
-        <v>4354842.765309453</v>
+        <v>3954064.9950809106</v>
       </c>
     </row>
     <row r="168" spans="7:8" x14ac:dyDescent="0.25">
@@ -2371,7 +2367,7 @@
         <v>155</v>
       </c>
       <c r="H168" s="1">
-        <v>9125348.825160319</v>
+        <v>5563503.1207638942</v>
       </c>
     </row>
     <row r="169" spans="7:8" x14ac:dyDescent="0.25">
@@ -2379,7 +2375,7 @@
         <v>156</v>
       </c>
       <c r="H169" s="1">
-        <v>6263257.1648348616</v>
+        <v>5710031.0729539143</v>
       </c>
     </row>
     <row r="170" spans="7:8" x14ac:dyDescent="0.25">
@@ -2387,7 +2383,7 @@
         <v>157</v>
       </c>
       <c r="H170" s="1">
-        <v>3267480.6950021731</v>
+        <v>2019090.0151162134</v>
       </c>
     </row>
     <row r="171" spans="7:8" x14ac:dyDescent="0.25">
@@ -2395,7 +2391,7 @@
         <v>158</v>
       </c>
       <c r="H171" s="1">
-        <v>6819493.4879371859</v>
+        <v>2368326.633527237</v>
       </c>
     </row>
     <row r="172" spans="7:8" x14ac:dyDescent="0.25">
@@ -2403,7 +2399,7 @@
         <v>159</v>
       </c>
       <c r="H172" s="1">
-        <v>2965527.0515130511</v>
+        <v>10582518.283002069</v>
       </c>
     </row>
     <row r="173" spans="7:8" x14ac:dyDescent="0.25">
@@ -2411,7 +2407,7 @@
         <v>160</v>
       </c>
       <c r="H173" s="1">
-        <v>2651843.4673015829</v>
+        <v>8401297.7762286887</v>
       </c>
     </row>
     <row r="174" spans="7:8" x14ac:dyDescent="0.25">
@@ -2419,7 +2415,7 @@
         <v>161</v>
       </c>
       <c r="H174" s="1">
-        <v>4404077.2047967343</v>
+        <v>8637212.7832428012</v>
       </c>
     </row>
     <row r="175" spans="7:8" x14ac:dyDescent="0.25">
@@ -2427,7 +2423,7 @@
         <v>162</v>
       </c>
       <c r="H175" s="1">
-        <v>3641299.6265579467</v>
+        <v>4251354.6053616824</v>
       </c>
     </row>
     <row r="176" spans="7:8" x14ac:dyDescent="0.25">
@@ -2435,7 +2431,7 @@
         <v>163</v>
       </c>
       <c r="H176" s="1">
-        <v>8529796.1150488369</v>
+        <v>7886860.4165888578</v>
       </c>
     </row>
     <row r="177" spans="7:8" x14ac:dyDescent="0.25">
@@ -2443,7 +2439,7 @@
         <v>164</v>
       </c>
       <c r="H177" s="1">
-        <v>12502041.720749933</v>
+        <v>1511351.9583176326</v>
       </c>
     </row>
     <row r="178" spans="7:8" x14ac:dyDescent="0.25">
@@ -2451,7 +2447,7 @@
         <v>165</v>
       </c>
       <c r="H178" s="1">
-        <v>8677773.865542639</v>
+        <v>4728712.3833139157</v>
       </c>
     </row>
     <row r="179" spans="7:8" x14ac:dyDescent="0.25">
@@ -2459,7 +2455,7 @@
         <v>166</v>
       </c>
       <c r="H179" s="1">
-        <v>8298106.1537810173</v>
+        <v>3381994.0974668814</v>
       </c>
     </row>
     <row r="180" spans="7:8" x14ac:dyDescent="0.25">
@@ -2467,7 +2463,7 @@
         <v>167</v>
       </c>
       <c r="H180" s="1">
-        <v>5247396.2618583553</v>
+        <v>4540464.7882229798</v>
       </c>
     </row>
     <row r="181" spans="7:8" x14ac:dyDescent="0.25">
@@ -2475,7 +2471,7 @@
         <v>168</v>
       </c>
       <c r="H181" s="1">
-        <v>2626204.8997006682</v>
+        <v>7664872.0608595004</v>
       </c>
     </row>
     <row r="182" spans="7:8" x14ac:dyDescent="0.25">
@@ -2483,7 +2479,7 @@
         <v>169</v>
       </c>
       <c r="H182" s="1">
-        <v>6205811.3362079002</v>
+        <v>3013641.5861335369</v>
       </c>
     </row>
     <row r="183" spans="7:8" x14ac:dyDescent="0.25">
@@ -2491,7 +2487,7 @@
         <v>170</v>
       </c>
       <c r="H183" s="1">
-        <v>2439357.8552740398</v>
+        <v>2544738.3500394588</v>
       </c>
     </row>
     <row r="184" spans="7:8" x14ac:dyDescent="0.25">
@@ -2499,7 +2495,7 @@
         <v>171</v>
       </c>
       <c r="H184" s="1">
-        <v>3641397.5074681616</v>
+        <v>4507485.7101275148</v>
       </c>
     </row>
     <row r="185" spans="7:8" x14ac:dyDescent="0.25">
@@ -2507,7 +2503,7 @@
         <v>172</v>
       </c>
       <c r="H185" s="1">
-        <v>3471941.5716220741</v>
+        <v>9091226.0727418046</v>
       </c>
     </row>
     <row r="186" spans="7:8" x14ac:dyDescent="0.25">
@@ -2515,7 +2511,7 @@
         <v>173</v>
       </c>
       <c r="H186" s="1">
-        <v>2340320.110057639</v>
+        <v>3315072.5998755479</v>
       </c>
     </row>
     <row r="187" spans="7:8" x14ac:dyDescent="0.25">
@@ -2523,7 +2519,7 @@
         <v>174</v>
       </c>
       <c r="H187" s="1">
-        <v>2990598.9036018029</v>
+        <v>14369518.165423185</v>
       </c>
     </row>
     <row r="188" spans="7:8" x14ac:dyDescent="0.25">
@@ -2531,7 +2527,7 @@
         <v>175</v>
       </c>
       <c r="H188" s="1">
-        <v>1847049.3147774169</v>
+        <v>6968420.8418228356</v>
       </c>
     </row>
     <row r="189" spans="7:8" x14ac:dyDescent="0.25">
@@ -2539,7 +2535,7 @@
         <v>176</v>
       </c>
       <c r="H189" s="1">
-        <v>2769803.5110533326</v>
+        <v>2373710.0161443455</v>
       </c>
     </row>
     <row r="190" spans="7:8" x14ac:dyDescent="0.25">
@@ -2547,7 +2543,7 @@
         <v>177</v>
       </c>
       <c r="H190" s="1">
-        <v>10228370.791823318</v>
+        <v>2329341.9887022031</v>
       </c>
     </row>
     <row r="191" spans="7:8" x14ac:dyDescent="0.25">
@@ -2555,7 +2551,7 @@
         <v>178</v>
       </c>
       <c r="H191" s="1">
-        <v>6212225.6328671575</v>
+        <v>5462147.0055713654</v>
       </c>
     </row>
     <row r="192" spans="7:8" x14ac:dyDescent="0.25">
@@ -2563,7 +2559,7 @@
         <v>179</v>
       </c>
       <c r="H192" s="1">
-        <v>4890212.9077120526</v>
+        <v>5775310.5587772662</v>
       </c>
     </row>
     <row r="193" spans="7:8" x14ac:dyDescent="0.25">
@@ -2571,7 +2567,7 @@
         <v>180</v>
       </c>
       <c r="H193" s="1">
-        <v>7046487.2970584258</v>
+        <v>1573201.2001690359</v>
       </c>
     </row>
     <row r="194" spans="7:8" x14ac:dyDescent="0.25">
@@ -2579,7 +2575,7 @@
         <v>181</v>
       </c>
       <c r="H194" s="1">
-        <v>4038168.7416669428</v>
+        <v>6039238.040060455</v>
       </c>
     </row>
     <row r="195" spans="7:8" x14ac:dyDescent="0.25">
@@ -2587,7 +2583,7 @@
         <v>182</v>
       </c>
       <c r="H195" s="1">
-        <v>8241702.7409287421</v>
+        <v>3194184.2833908121</v>
       </c>
     </row>
     <row r="196" spans="7:8" x14ac:dyDescent="0.25">
@@ -2595,7 +2591,7 @@
         <v>183</v>
       </c>
       <c r="H196" s="1">
-        <v>4313889.3210499203</v>
+        <v>5097708.5158197936</v>
       </c>
     </row>
     <row r="197" spans="7:8" x14ac:dyDescent="0.25">
@@ -2603,7 +2599,7 @@
         <v>184</v>
       </c>
       <c r="H197" s="1">
-        <v>3008480.5648579122</v>
+        <v>6152682.2299362011</v>
       </c>
     </row>
     <row r="198" spans="7:8" x14ac:dyDescent="0.25">
@@ -2611,7 +2607,7 @@
         <v>185</v>
       </c>
       <c r="H198" s="1">
-        <v>2163361.4862320814</v>
+        <v>8969719.3242806103</v>
       </c>
     </row>
     <row r="199" spans="7:8" x14ac:dyDescent="0.25">
@@ -2619,7 +2615,7 @@
         <v>186</v>
       </c>
       <c r="H199" s="1">
-        <v>3984935.5235802447</v>
+        <v>2005845.3306128851</v>
       </c>
     </row>
     <row r="200" spans="7:8" x14ac:dyDescent="0.25">
@@ -2627,7 +2623,7 @@
         <v>187</v>
       </c>
       <c r="H200" s="1">
-        <v>4615047.1906953324</v>
+        <v>4863984.0607521124</v>
       </c>
     </row>
     <row r="201" spans="7:8" x14ac:dyDescent="0.25">
@@ -2635,7 +2631,7 @@
         <v>188</v>
       </c>
       <c r="H201" s="1">
-        <v>4629304.2947662259</v>
+        <v>3140333.2656811695</v>
       </c>
     </row>
     <row r="202" spans="7:8" x14ac:dyDescent="0.25">
@@ -2643,7 +2639,7 @@
         <v>189</v>
       </c>
       <c r="H202" s="1">
-        <v>6631799.7235006951</v>
+        <v>3141614.7699326333</v>
       </c>
     </row>
     <row r="203" spans="7:8" x14ac:dyDescent="0.25">
@@ -2651,7 +2647,7 @@
         <v>190</v>
       </c>
       <c r="H203" s="1">
-        <v>6398383.2368267355</v>
+        <v>3608183.4770812131</v>
       </c>
     </row>
     <row r="204" spans="7:8" x14ac:dyDescent="0.25">
@@ -2659,7 +2655,7 @@
         <v>191</v>
       </c>
       <c r="H204" s="1">
-        <v>5329547.13939304</v>
+        <v>4430358.4592602169</v>
       </c>
     </row>
     <row r="205" spans="7:8" x14ac:dyDescent="0.25">
@@ -2667,7 +2663,7 @@
         <v>192</v>
       </c>
       <c r="H205" s="1">
-        <v>7430103.4898118069</v>
+        <v>1900297.1705258996</v>
       </c>
     </row>
     <row r="206" spans="7:8" x14ac:dyDescent="0.25">
@@ -2675,7 +2671,7 @@
         <v>193</v>
       </c>
       <c r="H206" s="1">
-        <v>7589867.0776081849</v>
+        <v>1743741.3703154891</v>
       </c>
     </row>
     <row r="207" spans="7:8" x14ac:dyDescent="0.25">
@@ -2683,7 +2679,7 @@
         <v>194</v>
       </c>
       <c r="H207" s="1">
-        <v>2286791.7542617256</v>
+        <v>10149533.213856161</v>
       </c>
     </row>
     <row r="208" spans="7:8" x14ac:dyDescent="0.25">
@@ -2691,7 +2687,7 @@
         <v>195</v>
       </c>
       <c r="H208" s="1">
-        <v>4522845.1780959405</v>
+        <v>7665904.868045711</v>
       </c>
     </row>
     <row r="209" spans="7:8" x14ac:dyDescent="0.25">
@@ -2699,7 +2695,7 @@
         <v>196</v>
       </c>
       <c r="H209" s="1">
-        <v>7929350.5178533215</v>
+        <v>13238990.687217664</v>
       </c>
     </row>
     <row r="210" spans="7:8" x14ac:dyDescent="0.25">
@@ -2707,7 +2703,7 @@
         <v>197</v>
       </c>
       <c r="H210" s="1">
-        <v>2346741.6547303507</v>
+        <v>4035565.4034466767</v>
       </c>
     </row>
     <row r="211" spans="7:8" x14ac:dyDescent="0.25">
@@ -2715,7 +2711,7 @@
         <v>198</v>
       </c>
       <c r="H211" s="1">
-        <v>7779584.5044818064</v>
+        <v>1849832.7736440725</v>
       </c>
     </row>
     <row r="212" spans="7:8" x14ac:dyDescent="0.25">
@@ -2723,7 +2719,7 @@
         <v>199</v>
       </c>
       <c r="H212" s="1">
-        <v>2786764.2602933939</v>
+        <v>3412368.545018068</v>
       </c>
     </row>
     <row r="213" spans="7:8" x14ac:dyDescent="0.25">
@@ -2731,7 +2727,7 @@
         <v>200</v>
       </c>
       <c r="H213" s="1">
-        <v>1696313.2652381184</v>
+        <v>7358682.6111289896</v>
       </c>
     </row>
     <row r="214" spans="7:8" x14ac:dyDescent="0.25">
@@ -2739,7 +2735,7 @@
         <v>201</v>
       </c>
       <c r="H214" s="1">
-        <v>2565614.6928101568</v>
+        <v>3253157.5737250121</v>
       </c>
     </row>
     <row r="215" spans="7:8" x14ac:dyDescent="0.25">
@@ -2747,7 +2743,7 @@
         <v>202</v>
       </c>
       <c r="H215" s="1">
-        <v>9862610.038127806</v>
+        <v>3299930.9268401009</v>
       </c>
     </row>
     <row r="216" spans="7:8" x14ac:dyDescent="0.25">
@@ -2755,7 +2751,7 @@
         <v>203</v>
       </c>
       <c r="H216" s="1">
-        <v>2991423.2160511003</v>
+        <v>2736253.0378197068</v>
       </c>
     </row>
     <row r="217" spans="7:8" x14ac:dyDescent="0.25">
@@ -2763,7 +2759,7 @@
         <v>204</v>
       </c>
       <c r="H217" s="1">
-        <v>2849642.5291585042</v>
+        <v>11589144.902195612</v>
       </c>
     </row>
     <row r="218" spans="7:8" x14ac:dyDescent="0.25">
@@ -2771,7 +2767,7 @@
         <v>205</v>
       </c>
       <c r="H218" s="1">
-        <v>3667255.4169297032</v>
+        <v>8779391.9786775652</v>
       </c>
     </row>
     <row r="219" spans="7:8" x14ac:dyDescent="0.25">
@@ -2779,7 +2775,7 @@
         <v>206</v>
       </c>
       <c r="H219" s="1">
-        <v>7550468.1115769725</v>
+        <v>10445427.675829012</v>
       </c>
     </row>
     <row r="220" spans="7:8" x14ac:dyDescent="0.25">
@@ -2787,7 +2783,7 @@
         <v>207</v>
       </c>
       <c r="H220" s="1">
-        <v>12335245.136243781</v>
+        <v>3541868.1116233701</v>
       </c>
     </row>
     <row r="221" spans="7:8" x14ac:dyDescent="0.25">
@@ -2795,7 +2791,7 @@
         <v>208</v>
       </c>
       <c r="H221" s="1">
-        <v>3442958.4735349282</v>
+        <v>6722381.3985750554</v>
       </c>
     </row>
     <row r="222" spans="7:8" x14ac:dyDescent="0.25">
@@ -2803,7 +2799,7 @@
         <v>209</v>
       </c>
       <c r="H222" s="1">
-        <v>4601403.4142703274</v>
+        <v>2437694.6431738036</v>
       </c>
     </row>
     <row r="223" spans="7:8" x14ac:dyDescent="0.25">
@@ -2811,7 +2807,7 @@
         <v>210</v>
       </c>
       <c r="H223" s="1">
-        <v>5989528.8984188214</v>
+        <v>12036442.783312324</v>
       </c>
     </row>
     <row r="224" spans="7:8" x14ac:dyDescent="0.25">
@@ -2819,7 +2815,7 @@
         <v>211</v>
       </c>
       <c r="H224" s="1">
-        <v>7602802.7547811931</v>
+        <v>5801552.2045896454</v>
       </c>
     </row>
     <row r="225" spans="7:8" x14ac:dyDescent="0.25">
@@ -2827,7 +2823,7 @@
         <v>212</v>
       </c>
       <c r="H225" s="1">
-        <v>12380243.463231148</v>
+        <v>1342582.2969917769</v>
       </c>
     </row>
     <row r="226" spans="7:8" x14ac:dyDescent="0.25">
@@ -2835,7 +2831,7 @@
         <v>213</v>
       </c>
       <c r="H226" s="1">
-        <v>5146550.5570635917</v>
+        <v>3410908.0689632818</v>
       </c>
     </row>
     <row r="227" spans="7:8" x14ac:dyDescent="0.25">
@@ -2843,7 +2839,7 @@
         <v>214</v>
       </c>
       <c r="H227" s="1">
-        <v>3370433.8458300759</v>
+        <v>4776948.8967306232</v>
       </c>
     </row>
     <row r="228" spans="7:8" x14ac:dyDescent="0.25">
@@ -2851,7 +2847,7 @@
         <v>215</v>
       </c>
       <c r="H228" s="1">
-        <v>6259065.8380421074</v>
+        <v>4074839.4091034685</v>
       </c>
     </row>
     <row r="229" spans="7:8" x14ac:dyDescent="0.25">
@@ -2859,7 +2855,7 @@
         <v>216</v>
       </c>
       <c r="H229" s="1">
-        <v>3860632.347467389</v>
+        <v>4349426.293876647</v>
       </c>
     </row>
     <row r="230" spans="7:8" x14ac:dyDescent="0.25">
@@ -2867,7 +2863,7 @@
         <v>217</v>
       </c>
       <c r="H230" s="1">
-        <v>7381891.6513524186</v>
+        <v>8968499.0767521411</v>
       </c>
     </row>
     <row r="231" spans="7:8" x14ac:dyDescent="0.25">
@@ -2875,7 +2871,7 @@
         <v>218</v>
       </c>
       <c r="H231" s="1">
-        <v>11741967.689392939</v>
+        <v>6767029.8913067458</v>
       </c>
     </row>
     <row r="232" spans="7:8" x14ac:dyDescent="0.25">
@@ -2883,7 +2879,7 @@
         <v>219</v>
       </c>
       <c r="H232" s="1">
-        <v>6097189.6345854383</v>
+        <v>4138070.7604922233</v>
       </c>
     </row>
     <row r="233" spans="7:8" x14ac:dyDescent="0.25">
@@ -2891,7 +2887,7 @@
         <v>220</v>
       </c>
       <c r="H233" s="1">
-        <v>2739384.5545957042</v>
+        <v>2775951.0195824238</v>
       </c>
     </row>
     <row r="234" spans="7:8" x14ac:dyDescent="0.25">
@@ -2899,7 +2895,7 @@
         <v>221</v>
       </c>
       <c r="H234" s="1">
-        <v>20133295.503790561</v>
+        <v>2518260.6639784463</v>
       </c>
     </row>
     <row r="235" spans="7:8" x14ac:dyDescent="0.25">
@@ -2907,7 +2903,7 @@
         <v>222</v>
       </c>
       <c r="H235" s="1">
-        <v>3962444.2122522271</v>
+        <v>7448789.8692723429</v>
       </c>
     </row>
     <row r="236" spans="7:8" x14ac:dyDescent="0.25">
@@ -2915,7 +2911,7 @@
         <v>223</v>
       </c>
       <c r="H236" s="1">
-        <v>2559847.6083927173</v>
+        <v>3875994.4060860374</v>
       </c>
     </row>
     <row r="237" spans="7:8" x14ac:dyDescent="0.25">
@@ -2923,7 +2919,7 @@
         <v>224</v>
       </c>
       <c r="H237" s="1">
-        <v>4826071.3540222207</v>
+        <v>3543363.8960199058</v>
       </c>
     </row>
     <row r="238" spans="7:8" x14ac:dyDescent="0.25">
@@ -2931,7 +2927,7 @@
         <v>225</v>
       </c>
       <c r="H238" s="1">
-        <v>10704159.587255323</v>
+        <v>5355963.2803134313</v>
       </c>
     </row>
     <row r="239" spans="7:8" x14ac:dyDescent="0.25">
@@ -2939,7 +2935,7 @@
         <v>226</v>
       </c>
       <c r="H239" s="1">
-        <v>3765012.9671025467</v>
+        <v>6828391.422618893</v>
       </c>
     </row>
     <row r="240" spans="7:8" x14ac:dyDescent="0.25">
@@ -2947,7 +2943,7 @@
         <v>227</v>
       </c>
       <c r="H240" s="1">
-        <v>3419308.6615947089</v>
+        <v>12215735.948607622</v>
       </c>
     </row>
     <row r="241" spans="7:8" x14ac:dyDescent="0.25">
@@ -2955,7 +2951,7 @@
         <v>228</v>
       </c>
       <c r="H241" s="1">
-        <v>6351746.9587288694</v>
+        <v>3215962.7607311872</v>
       </c>
     </row>
     <row r="242" spans="7:8" x14ac:dyDescent="0.25">
@@ -2963,7 +2959,7 @@
         <v>229</v>
       </c>
       <c r="H242" s="1">
-        <v>2775943.7620769776</v>
+        <v>4708492.7747567911</v>
       </c>
     </row>
     <row r="243" spans="7:8" x14ac:dyDescent="0.25">
@@ -2971,7 +2967,7 @@
         <v>230</v>
       </c>
       <c r="H243" s="1">
-        <v>6548487.8762540296</v>
+        <v>5727742.1972642271</v>
       </c>
     </row>
     <row r="244" spans="7:8" x14ac:dyDescent="0.25">
@@ -2979,7 +2975,7 @@
         <v>231</v>
       </c>
       <c r="H244" s="1">
-        <v>6585298.4127547191</v>
+        <v>6538494.9702849649</v>
       </c>
     </row>
     <row r="245" spans="7:8" x14ac:dyDescent="0.25">
@@ -2987,7 +2983,7 @@
         <v>232</v>
       </c>
       <c r="H245" s="1">
-        <v>4524710.6800165987</v>
+        <v>13020491.310305642</v>
       </c>
     </row>
     <row r="246" spans="7:8" x14ac:dyDescent="0.25">
@@ -2995,7 +2991,7 @@
         <v>233</v>
       </c>
       <c r="H246" s="1">
-        <v>4925278.9045849368</v>
+        <v>4357612.1777012125</v>
       </c>
     </row>
     <row r="247" spans="7:8" x14ac:dyDescent="0.25">
@@ -3003,7 +2999,7 @@
         <v>234</v>
       </c>
       <c r="H247" s="1">
-        <v>15695925.734828906</v>
+        <v>6455458.0832868544</v>
       </c>
     </row>
     <row r="248" spans="7:8" x14ac:dyDescent="0.25">
@@ -3011,7 +3007,7 @@
         <v>235</v>
       </c>
       <c r="H248" s="1">
-        <v>18885750.824320424</v>
+        <v>7883175.8095264081</v>
       </c>
     </row>
     <row r="249" spans="7:8" x14ac:dyDescent="0.25">
@@ -3019,7 +3015,7 @@
         <v>236</v>
       </c>
       <c r="H249" s="1">
-        <v>1236047.3840501497</v>
+        <v>2510286.7594190026</v>
       </c>
     </row>
     <row r="250" spans="7:8" x14ac:dyDescent="0.25">
@@ -3027,7 +3023,7 @@
         <v>237</v>
       </c>
       <c r="H250" s="1">
-        <v>3751712.1924859527</v>
+        <v>7022732.0070045507</v>
       </c>
     </row>
     <row r="251" spans="7:8" x14ac:dyDescent="0.25">
@@ -3035,7 +3031,7 @@
         <v>238</v>
       </c>
       <c r="H251" s="1">
-        <v>10156959.937454045</v>
+        <v>5210790.6579976482</v>
       </c>
     </row>
     <row r="252" spans="7:8" x14ac:dyDescent="0.25">
@@ -3043,7 +3039,7 @@
         <v>239</v>
       </c>
       <c r="H252" s="1">
-        <v>4408449.9307691073</v>
+        <v>8538496.0037435144</v>
       </c>
     </row>
     <row r="253" spans="7:8" x14ac:dyDescent="0.25">
@@ -3051,7 +3047,7 @@
         <v>240</v>
       </c>
       <c r="H253" s="1">
-        <v>4836462.903704307</v>
+        <v>4545263.5861113202</v>
       </c>
     </row>
     <row r="254" spans="7:8" x14ac:dyDescent="0.25">
@@ -3059,7 +3055,7 @@
         <v>241</v>
       </c>
       <c r="H254" s="1">
-        <v>5619913.3560730238</v>
+        <v>5456801.4080810426</v>
       </c>
     </row>
     <row r="255" spans="7:8" x14ac:dyDescent="0.25">
@@ -3067,7 +3063,7 @@
         <v>242</v>
       </c>
       <c r="H255" s="1">
-        <v>2832046.2043355242</v>
+        <v>11161039.152601944</v>
       </c>
     </row>
     <row r="256" spans="7:8" x14ac:dyDescent="0.25">
@@ -3075,7 +3071,7 @@
         <v>243</v>
       </c>
       <c r="H256" s="1">
-        <v>14041110.447855711</v>
+        <v>3419618.0886789034</v>
       </c>
     </row>
     <row r="257" spans="7:8" x14ac:dyDescent="0.25">
@@ -3083,7 +3079,7 @@
         <v>244</v>
       </c>
       <c r="H257" s="1">
-        <v>3394216.5138832871</v>
+        <v>5832506.8126272522</v>
       </c>
     </row>
     <row r="258" spans="7:8" x14ac:dyDescent="0.25">
@@ -3091,7 +3087,7 @@
         <v>245</v>
       </c>
       <c r="H258" s="1">
-        <v>4650169.6129402602</v>
+        <v>6753423.5353581086</v>
       </c>
     </row>
     <row r="259" spans="7:8" x14ac:dyDescent="0.25">
@@ -3099,7 +3095,7 @@
         <v>246</v>
       </c>
       <c r="H259" s="1">
-        <v>8273753.6759573864</v>
+        <v>6485638.223072242</v>
       </c>
     </row>
     <row r="260" spans="7:8" x14ac:dyDescent="0.25">
@@ -3107,7 +3103,7 @@
         <v>247</v>
       </c>
       <c r="H260" s="1">
-        <v>3877996.7789195613</v>
+        <v>9480543.8992018476</v>
       </c>
     </row>
     <row r="261" spans="7:8" x14ac:dyDescent="0.25">
@@ -3115,7 +3111,7 @@
         <v>248</v>
       </c>
       <c r="H261" s="1">
-        <v>4901581.78271282</v>
+        <v>3882581.7445532</v>
       </c>
     </row>
     <row r="262" spans="7:8" x14ac:dyDescent="0.25">
@@ -3123,7 +3119,7 @@
         <v>249</v>
       </c>
       <c r="H262" s="1">
-        <v>15317427.783627756</v>
+        <v>4185532.8829763518</v>
       </c>
     </row>
     <row r="263" spans="7:8" x14ac:dyDescent="0.25">
@@ -3131,7 +3127,7 @@
         <v>250</v>
       </c>
       <c r="H263" s="1">
-        <v>2647369.060433323</v>
+        <v>4946543.9109200146</v>
       </c>
     </row>
     <row r="264" spans="7:8" x14ac:dyDescent="0.25">
@@ -3139,7 +3135,7 @@
         <v>251</v>
       </c>
       <c r="H264" s="1">
-        <v>7315958.1774621885</v>
+        <v>3582833.0998716066</v>
       </c>
     </row>
     <row r="265" spans="7:8" x14ac:dyDescent="0.25">
@@ -3147,7 +3143,7 @@
         <v>252</v>
       </c>
       <c r="H265" s="1">
-        <v>4522958.703091789</v>
+        <v>3949680.1917657657</v>
       </c>
     </row>
     <row r="266" spans="7:8" x14ac:dyDescent="0.25">
@@ -3155,7 +3151,7 @@
         <v>253</v>
       </c>
       <c r="H266" s="1">
-        <v>5402769.1069618538</v>
+        <v>2463989.4697027882</v>
       </c>
     </row>
     <row r="267" spans="7:8" x14ac:dyDescent="0.25">
@@ -3163,7 +3159,7 @@
         <v>254</v>
       </c>
       <c r="H267" s="1">
-        <v>4000008.8441192843</v>
+        <v>4702350.7282720562</v>
       </c>
     </row>
     <row r="268" spans="7:8" x14ac:dyDescent="0.25">
@@ -3171,7 +3167,7 @@
         <v>255</v>
       </c>
       <c r="H268" s="1">
-        <v>2197061.2336361036</v>
+        <v>3324272.0020448421</v>
       </c>
     </row>
     <row r="269" spans="7:8" x14ac:dyDescent="0.25">
@@ -3179,7 +3175,7 @@
         <v>256</v>
       </c>
       <c r="H269" s="1">
-        <v>6216181.1982604712</v>
+        <v>3209747.1021193387</v>
       </c>
     </row>
     <row r="270" spans="7:8" x14ac:dyDescent="0.25">
@@ -3187,7 +3183,7 @@
         <v>257</v>
       </c>
       <c r="H270" s="1">
-        <v>3396068.3213078561</v>
+        <v>3269789.073163819</v>
       </c>
     </row>
     <row r="271" spans="7:8" x14ac:dyDescent="0.25">
@@ -3195,7 +3191,7 @@
         <v>258</v>
       </c>
       <c r="H271" s="1">
-        <v>5578782.7704712786</v>
+        <v>1703362.4544623804</v>
       </c>
     </row>
     <row r="272" spans="7:8" x14ac:dyDescent="0.25">
@@ -3203,7 +3199,7 @@
         <v>259</v>
       </c>
       <c r="H272" s="1">
-        <v>2501868.53564151</v>
+        <v>8694760.6654646099</v>
       </c>
     </row>
     <row r="273" spans="7:8" x14ac:dyDescent="0.25">
@@ -3211,7 +3207,7 @@
         <v>260</v>
       </c>
       <c r="H273" s="1">
-        <v>9012022.5089272279</v>
+        <v>5554078.5514220903</v>
       </c>
     </row>
     <row r="274" spans="7:8" x14ac:dyDescent="0.25">
@@ -3219,7 +3215,7 @@
         <v>261</v>
       </c>
       <c r="H274" s="1">
-        <v>4776367.2617469085</v>
+        <v>12903457.956166675</v>
       </c>
     </row>
     <row r="275" spans="7:8" x14ac:dyDescent="0.25">
@@ -3227,7 +3223,7 @@
         <v>262</v>
       </c>
       <c r="H275" s="1">
-        <v>7352390.273903585</v>
+        <v>5885668.3439580984</v>
       </c>
     </row>
     <row r="276" spans="7:8" x14ac:dyDescent="0.25">
@@ -3235,7 +3231,7 @@
         <v>263</v>
       </c>
       <c r="H276" s="1">
-        <v>7601457.721907815</v>
+        <v>1909379.4719436343</v>
       </c>
     </row>
     <row r="277" spans="7:8" x14ac:dyDescent="0.25">
@@ -3243,7 +3239,7 @@
         <v>264</v>
       </c>
       <c r="H277" s="1">
-        <v>5654443.6672634194</v>
+        <v>4466732.4406274594</v>
       </c>
     </row>
     <row r="278" spans="7:8" x14ac:dyDescent="0.25">
@@ -3251,7 +3247,7 @@
         <v>265</v>
       </c>
       <c r="H278" s="1">
-        <v>9696566.2837588266</v>
+        <v>11883734.362906385</v>
       </c>
     </row>
     <row r="279" spans="7:8" x14ac:dyDescent="0.25">
@@ -3259,7 +3255,7 @@
         <v>266</v>
       </c>
       <c r="H279" s="1">
-        <v>3937285.9165846989</v>
+        <v>2858747.1014005272</v>
       </c>
     </row>
     <row r="280" spans="7:8" x14ac:dyDescent="0.25">
@@ -3267,7 +3263,7 @@
         <v>267</v>
       </c>
       <c r="H280" s="1">
-        <v>5617128.4069382548</v>
+        <v>7999568.4933614759</v>
       </c>
     </row>
     <row r="281" spans="7:8" x14ac:dyDescent="0.25">
@@ -3275,7 +3271,7 @@
         <v>268</v>
       </c>
       <c r="H281" s="1">
-        <v>10916568.918062348</v>
+        <v>5989038.9946644418</v>
       </c>
     </row>
     <row r="282" spans="7:8" x14ac:dyDescent="0.25">
@@ -3283,7 +3279,7 @@
         <v>269</v>
       </c>
       <c r="H282" s="1">
-        <v>7067180.6353329401</v>
+        <v>4378339.4396875761</v>
       </c>
     </row>
     <row r="283" spans="7:8" x14ac:dyDescent="0.25">
@@ -3291,7 +3287,7 @@
         <v>270</v>
       </c>
       <c r="H283" s="1">
-        <v>5357027.8226791853</v>
+        <v>2600375.570814068</v>
       </c>
     </row>
     <row r="284" spans="7:8" x14ac:dyDescent="0.25">
@@ -3299,7 +3295,7 @@
         <v>271</v>
       </c>
       <c r="H284" s="1">
-        <v>5447351.320869864</v>
+        <v>9284977.2711498495</v>
       </c>
     </row>
     <row r="285" spans="7:8" x14ac:dyDescent="0.25">
@@ -3307,7 +3303,7 @@
         <v>272</v>
       </c>
       <c r="H285" s="1">
-        <v>2494707.0917664263</v>
+        <v>8092215.0278364848</v>
       </c>
     </row>
     <row r="286" spans="7:8" x14ac:dyDescent="0.25">
@@ -3315,7 +3311,7 @@
         <v>273</v>
       </c>
       <c r="H286" s="1">
-        <v>1965850.2332056987</v>
+        <v>1683947.6565782228</v>
       </c>
     </row>
     <row r="287" spans="7:8" x14ac:dyDescent="0.25">
@@ -3323,7 +3319,7 @@
         <v>274</v>
       </c>
       <c r="H287" s="1">
-        <v>3299302.7396809617</v>
+        <v>4349482.2275496591</v>
       </c>
     </row>
     <row r="288" spans="7:8" x14ac:dyDescent="0.25">
@@ -3331,7 +3327,7 @@
         <v>275</v>
       </c>
       <c r="H288" s="1">
-        <v>2094428.5011384604</v>
+        <v>1966623.588699887</v>
       </c>
     </row>
     <row r="289" spans="7:8" x14ac:dyDescent="0.25">
@@ -3339,7 +3335,7 @@
         <v>276</v>
       </c>
       <c r="H289" s="1">
-        <v>11252065.681990873</v>
+        <v>4135717.0194029738</v>
       </c>
     </row>
     <row r="290" spans="7:8" x14ac:dyDescent="0.25">
@@ -3347,7 +3343,7 @@
         <v>277</v>
       </c>
       <c r="H290" s="1">
-        <v>2284592.571486772</v>
+        <v>12003933.977340465</v>
       </c>
     </row>
     <row r="291" spans="7:8" x14ac:dyDescent="0.25">
@@ -3355,7 +3351,7 @@
         <v>278</v>
       </c>
       <c r="H291" s="1">
-        <v>7618204.2551185722</v>
+        <v>1949427.5360138817</v>
       </c>
     </row>
     <row r="292" spans="7:8" x14ac:dyDescent="0.25">
@@ -3363,7 +3359,7 @@
         <v>279</v>
       </c>
       <c r="H292" s="1">
-        <v>4650523.3406193377</v>
+        <v>4865366.8642301532</v>
       </c>
     </row>
     <row r="293" spans="7:8" x14ac:dyDescent="0.25">
@@ -3371,7 +3367,7 @@
         <v>280</v>
       </c>
       <c r="H293" s="1">
-        <v>2458363.7509568506</v>
+        <v>4421498.5943582021</v>
       </c>
     </row>
     <row r="294" spans="7:8" x14ac:dyDescent="0.25">
@@ -3379,7 +3375,7 @@
         <v>281</v>
       </c>
       <c r="H294" s="1">
-        <v>2854202.1625792426</v>
+        <v>6229441.2007964831</v>
       </c>
     </row>
     <row r="295" spans="7:8" x14ac:dyDescent="0.25">
@@ -3387,7 +3383,7 @@
         <v>282</v>
       </c>
       <c r="H295" s="1">
-        <v>2593035.2611115412</v>
+        <v>3464997.4088833067</v>
       </c>
     </row>
     <row r="296" spans="7:8" x14ac:dyDescent="0.25">
@@ -3395,7 +3391,7 @@
         <v>283</v>
       </c>
       <c r="H296" s="1">
-        <v>5943864.7839857731</v>
+        <v>4173755.3621305935</v>
       </c>
     </row>
     <row r="297" spans="7:8" x14ac:dyDescent="0.25">
@@ -3403,7 +3399,7 @@
         <v>284</v>
       </c>
       <c r="H297" s="1">
-        <v>1272645.6111525234</v>
+        <v>6974564.1204005284</v>
       </c>
     </row>
     <row r="298" spans="7:8" x14ac:dyDescent="0.25">
@@ -3411,7 +3407,7 @@
         <v>285</v>
       </c>
       <c r="H298" s="1">
-        <v>7546726.9198013218</v>
+        <v>4942964.2512473352</v>
       </c>
     </row>
     <row r="299" spans="7:8" x14ac:dyDescent="0.25">
@@ -3419,7 +3415,7 @@
         <v>286</v>
       </c>
       <c r="H299" s="1">
-        <v>4202116.8800395299</v>
+        <v>4559403.630977436</v>
       </c>
     </row>
     <row r="300" spans="7:8" x14ac:dyDescent="0.25">
@@ -3427,7 +3423,7 @@
         <v>287</v>
       </c>
       <c r="H300" s="1">
-        <v>3940912.1533505437</v>
+        <v>3710375.8108079815</v>
       </c>
     </row>
     <row r="301" spans="7:8" x14ac:dyDescent="0.25">
@@ -3435,7 +3431,7 @@
         <v>288</v>
       </c>
       <c r="H301" s="1">
-        <v>5469203.7173256576</v>
+        <v>1846576.7501803013</v>
       </c>
     </row>
     <row r="302" spans="7:8" x14ac:dyDescent="0.25">
@@ -3443,7 +3439,7 @@
         <v>289</v>
       </c>
       <c r="H302" s="1">
-        <v>2640353.7793747936</v>
+        <v>4809050.0293942168</v>
       </c>
     </row>
     <row r="303" spans="7:8" x14ac:dyDescent="0.25">
@@ -3451,7 +3447,7 @@
         <v>290</v>
       </c>
       <c r="H303" s="1">
-        <v>3413327.7543691434</v>
+        <v>6322624.6253067208</v>
       </c>
     </row>
     <row r="304" spans="7:8" x14ac:dyDescent="0.25">
@@ -3459,7 +3455,7 @@
         <v>291</v>
       </c>
       <c r="H304" s="1">
-        <v>5190426.2387214238</v>
+        <v>13640114.247832965</v>
       </c>
     </row>
     <row r="305" spans="7:8" x14ac:dyDescent="0.25">
@@ -3467,7 +3463,7 @@
         <v>292</v>
       </c>
       <c r="H305" s="1">
-        <v>2490177.6816838528</v>
+        <v>7829988.4626340512</v>
       </c>
     </row>
     <row r="306" spans="7:8" x14ac:dyDescent="0.25">
@@ -3475,7 +3471,7 @@
         <v>293</v>
       </c>
       <c r="H306" s="1">
-        <v>3857014.8638036111</v>
+        <v>4530918.8980981661</v>
       </c>
     </row>
     <row r="307" spans="7:8" x14ac:dyDescent="0.25">
@@ -3483,7 +3479,7 @@
         <v>294</v>
       </c>
       <c r="H307" s="1">
-        <v>3676230.3129170607</v>
+        <v>4851892.2911357358</v>
       </c>
     </row>
     <row r="308" spans="7:8" x14ac:dyDescent="0.25">
@@ -3491,7 +3487,7 @@
         <v>295</v>
       </c>
       <c r="H308" s="1">
-        <v>8003103.1402953174</v>
+        <v>8444688.3065402005</v>
       </c>
     </row>
     <row r="309" spans="7:8" x14ac:dyDescent="0.25">
@@ -3499,7 +3495,7 @@
         <v>296</v>
       </c>
       <c r="H309" s="1">
-        <v>4193318.1449390016</v>
+        <v>5372645.5844681142</v>
       </c>
     </row>
     <row r="310" spans="7:8" x14ac:dyDescent="0.25">
@@ -3507,7 +3503,7 @@
         <v>297</v>
       </c>
       <c r="H310" s="1">
-        <v>5961699.5927549182</v>
+        <v>7599031.0923927529</v>
       </c>
     </row>
     <row r="311" spans="7:8" x14ac:dyDescent="0.25">
@@ -3515,7 +3511,7 @@
         <v>298</v>
       </c>
       <c r="H311" s="1">
-        <v>3602066.0655531567</v>
+        <v>4393053.0467471266</v>
       </c>
     </row>
     <row r="312" spans="7:8" x14ac:dyDescent="0.25">
@@ -3523,7 +3519,7 @@
         <v>299</v>
       </c>
       <c r="H312" s="1">
-        <v>6711164.7703413814</v>
+        <v>3583581.1279594949</v>
       </c>
     </row>
     <row r="313" spans="7:8" x14ac:dyDescent="0.25">
@@ -3531,7 +3527,7 @@
         <v>300</v>
       </c>
       <c r="H313" s="1">
-        <v>4225274.4619011972</v>
+        <v>3930734.1734598582</v>
       </c>
     </row>
     <row r="314" spans="7:8" x14ac:dyDescent="0.25">
@@ -3539,7 +3535,7 @@
         <v>301</v>
       </c>
       <c r="H314" s="1">
-        <v>3388055.2328796778</v>
+        <v>6296432.4547140757</v>
       </c>
     </row>
     <row r="315" spans="7:8" x14ac:dyDescent="0.25">
@@ -3547,7 +3543,7 @@
         <v>302</v>
       </c>
       <c r="H315" s="1">
-        <v>2145342.7907757377</v>
+        <v>7133215.6805571001</v>
       </c>
     </row>
     <row r="316" spans="7:8" x14ac:dyDescent="0.25">
@@ -3555,7 +3551,7 @@
         <v>303</v>
       </c>
       <c r="H316" s="1">
-        <v>3055809.6466988362</v>
+        <v>7452804.1513614049</v>
       </c>
     </row>
     <row r="317" spans="7:8" x14ac:dyDescent="0.25">
@@ -3563,7 +3559,7 @@
         <v>304</v>
       </c>
       <c r="H317" s="1">
-        <v>5213953.6365858549</v>
+        <v>6214240.1555321515</v>
       </c>
     </row>
     <row r="318" spans="7:8" x14ac:dyDescent="0.25">
@@ -3571,7 +3567,7 @@
         <v>305</v>
       </c>
       <c r="H318" s="1">
-        <v>6704215.6797072096</v>
+        <v>1443555.0616979934</v>
       </c>
     </row>
     <row r="319" spans="7:8" x14ac:dyDescent="0.25">
@@ -3579,7 +3575,7 @@
         <v>306</v>
       </c>
       <c r="H319" s="1">
-        <v>4009318.1286822832</v>
+        <v>5863093.2026159558</v>
       </c>
     </row>
     <row r="320" spans="7:8" x14ac:dyDescent="0.25">
@@ -3587,7 +3583,7 @@
         <v>307</v>
       </c>
       <c r="H320" s="1">
-        <v>5026119.2694638204</v>
+        <v>6102775.4564186959</v>
       </c>
     </row>
     <row r="321" spans="7:8" x14ac:dyDescent="0.25">
@@ -3595,7 +3591,7 @@
         <v>308</v>
       </c>
       <c r="H321" s="1">
-        <v>7293078.6856107423</v>
+        <v>6307015.8502439819</v>
       </c>
     </row>
     <row r="322" spans="7:8" x14ac:dyDescent="0.25">
@@ -3603,7 +3599,7 @@
         <v>309</v>
       </c>
       <c r="H322" s="1">
-        <v>7782240.3490053723</v>
+        <v>6965166.0993345305</v>
       </c>
     </row>
     <row r="323" spans="7:8" x14ac:dyDescent="0.25">
@@ -3611,7 +3607,7 @@
         <v>310</v>
       </c>
       <c r="H323" s="1">
-        <v>10007889.143126346</v>
+        <v>2557563.5947148921</v>
       </c>
     </row>
     <row r="324" spans="7:8" x14ac:dyDescent="0.25">
@@ -3619,7 +3615,7 @@
         <v>311</v>
       </c>
       <c r="H324" s="1">
-        <v>12230256.958497858</v>
+        <v>5276965.1669599973</v>
       </c>
     </row>
     <row r="325" spans="7:8" x14ac:dyDescent="0.25">
@@ -3627,7 +3623,7 @@
         <v>312</v>
       </c>
       <c r="H325" s="1">
-        <v>5186878.4040035093</v>
+        <v>12996477.075158617</v>
       </c>
     </row>
     <row r="326" spans="7:8" x14ac:dyDescent="0.25">
@@ -3635,7 +3631,7 @@
         <v>313</v>
       </c>
       <c r="H326" s="1">
-        <v>10061640.630255502</v>
+        <v>9014574.6213099379</v>
       </c>
     </row>
     <row r="327" spans="7:8" x14ac:dyDescent="0.25">
@@ -3643,7 +3639,7 @@
         <v>314</v>
       </c>
       <c r="H327" s="1">
-        <v>2097130.1161305152</v>
+        <v>4108124.4682889539</v>
       </c>
     </row>
     <row r="328" spans="7:8" x14ac:dyDescent="0.25">
@@ -3651,7 +3647,7 @@
         <v>315</v>
       </c>
       <c r="H328" s="1">
-        <v>4653277.0797182862</v>
+        <v>11978211.953942956</v>
       </c>
     </row>
     <row r="329" spans="7:8" x14ac:dyDescent="0.25">
@@ -3659,7 +3655,7 @@
         <v>316</v>
       </c>
       <c r="H329" s="1">
-        <v>16688433.671857694</v>
+        <v>9746639.7370731086</v>
       </c>
     </row>
     <row r="330" spans="7:8" x14ac:dyDescent="0.25">
@@ -3667,7 +3663,7 @@
         <v>317</v>
       </c>
       <c r="H330" s="1">
-        <v>4309174.5780693172</v>
+        <v>5213192.4128972087</v>
       </c>
     </row>
     <row r="331" spans="7:8" x14ac:dyDescent="0.25">
@@ -3675,7 +3671,7 @@
         <v>318</v>
       </c>
       <c r="H331" s="1">
-        <v>6839867.7772787046</v>
+        <v>4466566.9555443367</v>
       </c>
     </row>
     <row r="332" spans="7:8" x14ac:dyDescent="0.25">
@@ -3683,7 +3679,7 @@
         <v>319</v>
       </c>
       <c r="H332" s="1">
-        <v>9977709.8761630673</v>
+        <v>7717467.0279240692</v>
       </c>
     </row>
     <row r="333" spans="7:8" x14ac:dyDescent="0.25">
@@ -3691,7 +3687,7 @@
         <v>320</v>
       </c>
       <c r="H333" s="1">
-        <v>4789950.7829897236</v>
+        <v>9983938.0434457604</v>
       </c>
     </row>
     <row r="334" spans="7:8" x14ac:dyDescent="0.25">
@@ -3699,7 +3695,7 @@
         <v>321</v>
       </c>
       <c r="H334" s="1">
-        <v>5239267.8837563396</v>
+        <v>2664267.3100135177</v>
       </c>
     </row>
     <row r="335" spans="7:8" x14ac:dyDescent="0.25">
@@ -3707,7 +3703,7 @@
         <v>322</v>
       </c>
       <c r="H335" s="1">
-        <v>3805108.0015689288</v>
+        <v>3147229.8185446579</v>
       </c>
     </row>
     <row r="336" spans="7:8" x14ac:dyDescent="0.25">
@@ -3715,7 +3711,7 @@
         <v>323</v>
       </c>
       <c r="H336" s="1">
-        <v>9542636.63684237</v>
+        <v>7321475.9933589753</v>
       </c>
     </row>
     <row r="337" spans="7:8" x14ac:dyDescent="0.25">
@@ -3723,7 +3719,7 @@
         <v>324</v>
       </c>
       <c r="H337" s="1">
-        <v>1643934.1119972458</v>
+        <v>8059558.412710405</v>
       </c>
     </row>
     <row r="338" spans="7:8" x14ac:dyDescent="0.25">
@@ -3731,7 +3727,7 @@
         <v>325</v>
       </c>
       <c r="H338" s="1">
-        <v>14541734.257020263</v>
+        <v>10465662.94101879</v>
       </c>
     </row>
     <row r="339" spans="7:8" x14ac:dyDescent="0.25">
@@ -3739,7 +3735,7 @@
         <v>326</v>
       </c>
       <c r="H339" s="1">
-        <v>5022331.8721888084</v>
+        <v>11223361.413527576</v>
       </c>
     </row>
     <row r="340" spans="7:8" x14ac:dyDescent="0.25">
@@ -3747,7 +3743,7 @@
         <v>327</v>
       </c>
       <c r="H340" s="1">
-        <v>2386970.4853056897</v>
+        <v>3292296.8979245387</v>
       </c>
     </row>
     <row r="341" spans="7:8" x14ac:dyDescent="0.25">
@@ -3755,7 +3751,7 @@
         <v>328</v>
       </c>
       <c r="H341" s="1">
-        <v>11046575.734009076</v>
+        <v>10744056.603959443</v>
       </c>
     </row>
     <row r="342" spans="7:8" x14ac:dyDescent="0.25">
@@ -3763,7 +3759,7 @@
         <v>329</v>
       </c>
       <c r="H342" s="1">
-        <v>2693492.3612712286</v>
+        <v>3497597.1365640522</v>
       </c>
     </row>
     <row r="343" spans="7:8" x14ac:dyDescent="0.25">
@@ -3771,7 +3767,7 @@
         <v>330</v>
       </c>
       <c r="H343" s="1">
-        <v>3175112.3118058173</v>
+        <v>3610804.2765683876</v>
       </c>
     </row>
     <row r="344" spans="7:8" x14ac:dyDescent="0.25">
@@ -3779,7 +3775,7 @@
         <v>331</v>
       </c>
       <c r="H344" s="1">
-        <v>6533043.8046621764</v>
+        <v>6843346.1417525895</v>
       </c>
     </row>
     <row r="345" spans="7:8" x14ac:dyDescent="0.25">
@@ -3787,7 +3783,7 @@
         <v>332</v>
       </c>
       <c r="H345" s="1">
-        <v>6363632.9733018251</v>
+        <v>4364518.8979930952</v>
       </c>
     </row>
     <row r="346" spans="7:8" x14ac:dyDescent="0.25">
@@ -3795,7 +3791,7 @@
         <v>333</v>
       </c>
       <c r="H346" s="1">
-        <v>7143663.6164632086</v>
+        <v>4201022.136907205</v>
       </c>
     </row>
     <row r="347" spans="7:8" x14ac:dyDescent="0.25">
@@ -3803,7 +3799,7 @@
         <v>334</v>
       </c>
       <c r="H347" s="1">
-        <v>1483844.9586252719</v>
+        <v>10159294.070841355</v>
       </c>
     </row>
     <row r="348" spans="7:8" x14ac:dyDescent="0.25">
@@ -3811,7 +3807,7 @@
         <v>335</v>
       </c>
       <c r="H348" s="1">
-        <v>1752570.4352569769</v>
+        <v>5470864.8054649169</v>
       </c>
     </row>
     <row r="349" spans="7:8" x14ac:dyDescent="0.25">
@@ -3819,7 +3815,7 @@
         <v>336</v>
       </c>
       <c r="H349" s="1">
-        <v>2338819.504653804</v>
+        <v>4923854.8411128893</v>
       </c>
     </row>
     <row r="350" spans="7:8" x14ac:dyDescent="0.25">
@@ -3827,7 +3823,7 @@
         <v>337</v>
       </c>
       <c r="H350" s="1">
-        <v>5866053.5937807979</v>
+        <v>5057313.8310768241</v>
       </c>
     </row>
     <row r="351" spans="7:8" x14ac:dyDescent="0.25">
@@ -3835,7 +3831,7 @@
         <v>338</v>
       </c>
       <c r="H351" s="1">
-        <v>4106942.0470428029</v>
+        <v>2527958.9332169853</v>
       </c>
     </row>
     <row r="352" spans="7:8" x14ac:dyDescent="0.25">
@@ -3843,7 +3839,7 @@
         <v>339</v>
       </c>
       <c r="H352" s="1">
-        <v>5925045.8290151544</v>
+        <v>11737529.577174852</v>
       </c>
     </row>
     <row r="353" spans="7:8" x14ac:dyDescent="0.25">
@@ -3851,7 +3847,7 @@
         <v>340</v>
       </c>
       <c r="H353" s="1">
-        <v>5042802.7878239192</v>
+        <v>2765549.5552555998</v>
       </c>
     </row>
     <row r="354" spans="7:8" x14ac:dyDescent="0.25">
@@ -3859,7 +3855,7 @@
         <v>341</v>
       </c>
       <c r="H354" s="1">
-        <v>3516337.5193993282</v>
+        <v>4982722.0846236749</v>
       </c>
     </row>
     <row r="355" spans="7:8" x14ac:dyDescent="0.25">
@@ -3867,7 +3863,7 @@
         <v>342</v>
       </c>
       <c r="H355" s="1">
-        <v>6187804.7059825258</v>
+        <v>11158738.090387708</v>
       </c>
     </row>
     <row r="356" spans="7:8" x14ac:dyDescent="0.25">
@@ -3875,7 +3871,7 @@
         <v>343</v>
       </c>
       <c r="H356" s="1">
-        <v>2235059.55852145</v>
+        <v>3755838.0561951809</v>
       </c>
     </row>
     <row r="357" spans="7:8" x14ac:dyDescent="0.25">
@@ -3883,7 +3879,7 @@
         <v>344</v>
       </c>
       <c r="H357" s="1">
-        <v>3152376.4702021074</v>
+        <v>4018453.0961983311</v>
       </c>
     </row>
     <row r="358" spans="7:8" x14ac:dyDescent="0.25">
@@ -3891,7 +3887,7 @@
         <v>345</v>
       </c>
       <c r="H358" s="1">
-        <v>4217407.0455075651</v>
+        <v>1625430.8904521491</v>
       </c>
     </row>
     <row r="359" spans="7:8" x14ac:dyDescent="0.25">
@@ -3899,7 +3895,7 @@
         <v>346</v>
       </c>
       <c r="H359" s="1">
-        <v>11017484.748656096</v>
+        <v>9425337.2732433323</v>
       </c>
     </row>
     <row r="360" spans="7:8" x14ac:dyDescent="0.25">
@@ -3907,7 +3903,7 @@
         <v>347</v>
       </c>
       <c r="H360" s="1">
-        <v>11779637.520093076</v>
+        <v>3605200.316133827</v>
       </c>
     </row>
     <row r="361" spans="7:8" x14ac:dyDescent="0.25">
@@ -3915,7 +3911,7 @@
         <v>348</v>
       </c>
       <c r="H361" s="1">
-        <v>6961466.6148658823</v>
+        <v>6635107.9078567633</v>
       </c>
     </row>
     <row r="362" spans="7:8" x14ac:dyDescent="0.25">
@@ -3923,7 +3919,7 @@
         <v>349</v>
       </c>
       <c r="H362" s="1">
-        <v>3273827.4521248387</v>
+        <v>2185768.4711107551</v>
       </c>
     </row>
     <row r="363" spans="7:8" x14ac:dyDescent="0.25">
@@ -3931,7 +3927,7 @@
         <v>350</v>
       </c>
       <c r="H363" s="1">
-        <v>1115507.268641135</v>
+        <v>7709802.5444252091</v>
       </c>
     </row>
     <row r="364" spans="7:8" x14ac:dyDescent="0.25">
@@ -3939,7 +3935,7 @@
         <v>351</v>
       </c>
       <c r="H364" s="1">
-        <v>4846265.7927626874</v>
+        <v>5890489.6499847854</v>
       </c>
     </row>
     <row r="365" spans="7:8" x14ac:dyDescent="0.25">
@@ -3947,7 +3943,7 @@
         <v>352</v>
       </c>
       <c r="H365" s="1">
-        <v>816910.61163476028</v>
+        <v>9150287.9619399738</v>
       </c>
     </row>
     <row r="366" spans="7:8" x14ac:dyDescent="0.25">
@@ -3955,7 +3951,7 @@
         <v>353</v>
       </c>
       <c r="H366" s="1">
-        <v>2180582.4629684091</v>
+        <v>5688237.2157073542</v>
       </c>
     </row>
     <row r="367" spans="7:8" x14ac:dyDescent="0.25">
@@ -3963,7 +3959,7 @@
         <v>354</v>
       </c>
       <c r="H367" s="1">
-        <v>7039666.9647964891</v>
+        <v>6281989.0642404435</v>
       </c>
     </row>
     <row r="368" spans="7:8" x14ac:dyDescent="0.25">
@@ -3971,7 +3967,7 @@
         <v>355</v>
       </c>
       <c r="H368" s="1">
-        <v>9916261.6728020217</v>
+        <v>7132043.4363772552</v>
       </c>
     </row>
     <row r="369" spans="7:8" x14ac:dyDescent="0.25">
@@ -3979,7 +3975,7 @@
         <v>356</v>
       </c>
       <c r="H369" s="1">
-        <v>3896376.7240109388</v>
+        <v>4028907.3303834209</v>
       </c>
     </row>
     <row r="370" spans="7:8" x14ac:dyDescent="0.25">
@@ -3987,7 +3983,7 @@
         <v>357</v>
       </c>
       <c r="H370" s="1">
-        <v>4748123.3427808136</v>
+        <v>5522901.6625084542</v>
       </c>
     </row>
     <row r="371" spans="7:8" x14ac:dyDescent="0.25">
@@ -3995,7 +3991,7 @@
         <v>358</v>
       </c>
       <c r="H371" s="1">
-        <v>8226431.8813313311</v>
+        <v>2004230.7010524829</v>
       </c>
     </row>
     <row r="372" spans="7:8" x14ac:dyDescent="0.25">
@@ -4003,7 +3999,7 @@
         <v>359</v>
       </c>
       <c r="H372" s="1">
-        <v>3603890.9493802269</v>
+        <v>2425750.3671832681</v>
       </c>
     </row>
     <row r="373" spans="7:8" x14ac:dyDescent="0.25">
@@ -4011,7 +4007,7 @@
         <v>360</v>
       </c>
       <c r="H373" s="1">
-        <v>3924073.3668227922</v>
+        <v>2035552.9159798138</v>
       </c>
     </row>
     <row r="374" spans="7:8" x14ac:dyDescent="0.25">
@@ -4019,7 +4015,7 @@
         <v>361</v>
       </c>
       <c r="H374" s="1">
-        <v>13714340.643856632</v>
+        <v>4055172.129942874</v>
       </c>
     </row>
     <row r="375" spans="7:8" x14ac:dyDescent="0.25">
@@ -4027,7 +4023,7 @@
         <v>362</v>
       </c>
       <c r="H375" s="1">
-        <v>6444790.2530221678</v>
+        <v>5293774.5719168447</v>
       </c>
     </row>
     <row r="376" spans="7:8" x14ac:dyDescent="0.25">
@@ -4035,7 +4031,7 @@
         <v>363</v>
       </c>
       <c r="H376" s="1">
-        <v>8993275.9162650816</v>
+        <v>3221901.0700448197</v>
       </c>
     </row>
     <row r="377" spans="7:8" x14ac:dyDescent="0.25">
@@ -4043,7 +4039,7 @@
         <v>364</v>
       </c>
       <c r="H377" s="1">
-        <v>2876545.6304190587</v>
+        <v>3878319.8197753527</v>
       </c>
     </row>
     <row r="378" spans="7:8" x14ac:dyDescent="0.25">
@@ -4051,7 +4047,7 @@
         <v>365</v>
       </c>
       <c r="H378" s="1">
-        <v>4530832.8821387514</v>
+        <v>5751152.0109362807</v>
       </c>
     </row>
     <row r="379" spans="7:8" x14ac:dyDescent="0.25">
@@ -4059,7 +4055,7 @@
         <v>366</v>
       </c>
       <c r="H379" s="1">
-        <v>4996481.7229639413</v>
+        <v>12832389.123090988</v>
       </c>
     </row>
     <row r="380" spans="7:8" x14ac:dyDescent="0.25">
@@ -4067,7 +4063,7 @@
         <v>367</v>
       </c>
       <c r="H380" s="1">
-        <v>2352712.559917652</v>
+        <v>4024772.2208221364</v>
       </c>
     </row>
     <row r="381" spans="7:8" x14ac:dyDescent="0.25">
@@ -4075,7 +4071,7 @@
         <v>368</v>
       </c>
       <c r="H381" s="1">
-        <v>3334065.9433857603</v>
+        <v>3775241.967810031</v>
       </c>
     </row>
     <row r="382" spans="7:8" x14ac:dyDescent="0.25">
@@ -4083,7 +4079,7 @@
         <v>369</v>
       </c>
       <c r="H382" s="1">
-        <v>4777000.9435778372</v>
+        <v>6072449.2830780735</v>
       </c>
     </row>
     <row r="383" spans="7:8" x14ac:dyDescent="0.25">
@@ -4091,7 +4087,7 @@
         <v>370</v>
       </c>
       <c r="H383" s="1">
-        <v>5851027.4179102117</v>
+        <v>2663813.001172299</v>
       </c>
     </row>
     <row r="384" spans="7:8" x14ac:dyDescent="0.25">
@@ -4099,7 +4095,7 @@
         <v>371</v>
       </c>
       <c r="H384" s="1">
-        <v>6653319.5691301627</v>
+        <v>7366003.2305484321</v>
       </c>
     </row>
     <row r="385" spans="7:8" x14ac:dyDescent="0.25">
@@ -4107,7 +4103,7 @@
         <v>372</v>
       </c>
       <c r="H385" s="1">
-        <v>6085303.2514968254</v>
+        <v>2640688.7441117195</v>
       </c>
     </row>
     <row r="386" spans="7:8" x14ac:dyDescent="0.25">
@@ -4115,7 +4111,7 @@
         <v>373</v>
       </c>
       <c r="H386" s="1">
-        <v>2863965.9579940396</v>
+        <v>5504970.5226870179</v>
       </c>
     </row>
     <row r="387" spans="7:8" x14ac:dyDescent="0.25">
@@ -4123,7 +4119,7 @@
         <v>374</v>
       </c>
       <c r="H387" s="1">
-        <v>6232435.2809991259</v>
+        <v>5850408.4858864648</v>
       </c>
     </row>
     <row r="388" spans="7:8" x14ac:dyDescent="0.25">
@@ -4131,7 +4127,7 @@
         <v>375</v>
       </c>
       <c r="H388" s="1">
-        <v>3613449.052597431</v>
+        <v>4901905.6721300948</v>
       </c>
     </row>
     <row r="389" spans="7:8" x14ac:dyDescent="0.25">
@@ -4139,7 +4135,7 @@
         <v>376</v>
       </c>
       <c r="H389" s="1">
-        <v>1947460.1744720563</v>
+        <v>2935418.9245225694</v>
       </c>
     </row>
     <row r="390" spans="7:8" x14ac:dyDescent="0.25">
@@ -4147,7 +4143,7 @@
         <v>377</v>
       </c>
       <c r="H390" s="1">
-        <v>4968232.2811196698</v>
+        <v>4896555.4444702873</v>
       </c>
     </row>
     <row r="391" spans="7:8" x14ac:dyDescent="0.25">
@@ -4155,7 +4151,7 @@
         <v>378</v>
       </c>
       <c r="H391" s="1">
-        <v>6810010.2585117584</v>
+        <v>7010622.4578517331</v>
       </c>
     </row>
     <row r="392" spans="7:8" x14ac:dyDescent="0.25">
@@ -4163,7 +4159,7 @@
         <v>379</v>
       </c>
       <c r="H392" s="1">
-        <v>5370537.9883954758</v>
+        <v>6375512.7878304729</v>
       </c>
     </row>
     <row r="393" spans="7:8" x14ac:dyDescent="0.25">
@@ -4171,7 +4167,7 @@
         <v>380</v>
       </c>
       <c r="H393" s="1">
-        <v>1546514.3380224085</v>
+        <v>3084085.6820700169</v>
       </c>
     </row>
     <row r="394" spans="7:8" x14ac:dyDescent="0.25">
@@ -4179,7 +4175,7 @@
         <v>381</v>
       </c>
       <c r="H394" s="1">
-        <v>11710504.793957779</v>
+        <v>2777788.2080099182</v>
       </c>
     </row>
     <row r="395" spans="7:8" x14ac:dyDescent="0.25">
@@ -4187,7 +4183,7 @@
         <v>382</v>
       </c>
       <c r="H395" s="1">
-        <v>2131336.5415561805</v>
+        <v>3954832.3306217198</v>
       </c>
     </row>
     <row r="396" spans="7:8" x14ac:dyDescent="0.25">
@@ -4195,7 +4191,7 @@
         <v>383</v>
       </c>
       <c r="H396" s="1">
-        <v>4045576.8628055141</v>
+        <v>2100282.1076137708</v>
       </c>
     </row>
     <row r="397" spans="7:8" x14ac:dyDescent="0.25">
@@ -4203,7 +4199,7 @@
         <v>384</v>
       </c>
       <c r="H397" s="1">
-        <v>2921563.9997208854</v>
+        <v>6896812.3648018055</v>
       </c>
     </row>
     <row r="398" spans="7:8" x14ac:dyDescent="0.25">
@@ -4211,7 +4207,7 @@
         <v>385</v>
       </c>
       <c r="H398" s="1">
-        <v>6772412.1923812041</v>
+        <v>2967536.025310664</v>
       </c>
     </row>
     <row r="399" spans="7:8" x14ac:dyDescent="0.25">
@@ -4219,7 +4215,7 @@
         <v>386</v>
       </c>
       <c r="H399" s="1">
-        <v>3817411.3371555689</v>
+        <v>9841001.1286402419</v>
       </c>
     </row>
     <row r="400" spans="7:8" x14ac:dyDescent="0.25">
@@ -4227,7 +4223,7 @@
         <v>387</v>
       </c>
       <c r="H400" s="1">
-        <v>5159007.6665629558</v>
+        <v>10544833.679098742</v>
       </c>
     </row>
     <row r="401" spans="7:8" x14ac:dyDescent="0.25">
@@ -4235,7 +4231,7 @@
         <v>388</v>
       </c>
       <c r="H401" s="1">
-        <v>8514260.4155521393</v>
+        <v>8743412.1957919933</v>
       </c>
     </row>
     <row r="402" spans="7:8" x14ac:dyDescent="0.25">
@@ -4243,7 +4239,7 @@
         <v>389</v>
       </c>
       <c r="H402" s="1">
-        <v>3405842.8503286177</v>
+        <v>8298750.8962940639</v>
       </c>
     </row>
     <row r="403" spans="7:8" x14ac:dyDescent="0.25">
@@ -4251,7 +4247,7 @@
         <v>390</v>
       </c>
       <c r="H403" s="1">
-        <v>5090291.3770154705</v>
+        <v>13056899.974604515</v>
       </c>
     </row>
     <row r="404" spans="7:8" x14ac:dyDescent="0.25">
@@ -4259,7 +4255,7 @@
         <v>391</v>
       </c>
       <c r="H404" s="1">
-        <v>2604334.0114408508</v>
+        <v>3262583.197937055</v>
       </c>
     </row>
     <row r="405" spans="7:8" x14ac:dyDescent="0.25">
@@ -4267,7 +4263,7 @@
         <v>392</v>
       </c>
       <c r="H405" s="1">
-        <v>5789592.1979623958</v>
+        <v>5404024.2091699326</v>
       </c>
     </row>
     <row r="406" spans="7:8" x14ac:dyDescent="0.25">
@@ -4275,7 +4271,7 @@
         <v>393</v>
       </c>
       <c r="H406" s="1">
-        <v>4512186.5534682199</v>
+        <v>24832870.210402898</v>
       </c>
     </row>
     <row r="407" spans="7:8" x14ac:dyDescent="0.25">
@@ -4283,7 +4279,7 @@
         <v>394</v>
       </c>
       <c r="H407" s="1">
-        <v>6573698.6356912954</v>
+        <v>2148435.8592594424</v>
       </c>
     </row>
     <row r="408" spans="7:8" x14ac:dyDescent="0.25">
@@ -4291,7 +4287,7 @@
         <v>395</v>
       </c>
       <c r="H408" s="1">
-        <v>8972892.6779523287</v>
+        <v>7761474.5576330163</v>
       </c>
     </row>
     <row r="409" spans="7:8" x14ac:dyDescent="0.25">
@@ -4299,7 +4295,7 @@
         <v>396</v>
       </c>
       <c r="H409" s="1">
-        <v>7796684.7827532962</v>
+        <v>2696428.412810572</v>
       </c>
     </row>
     <row r="410" spans="7:8" x14ac:dyDescent="0.25">
@@ -4307,7 +4303,7 @@
         <v>397</v>
       </c>
       <c r="H410" s="1">
-        <v>3796679.4672389594</v>
+        <v>14652792.054427968</v>
       </c>
     </row>
     <row r="411" spans="7:8" x14ac:dyDescent="0.25">
@@ -4315,7 +4311,7 @@
         <v>398</v>
       </c>
       <c r="H411" s="1">
-        <v>6611328.0776861077</v>
+        <v>3955404.2272423585</v>
       </c>
     </row>
     <row r="412" spans="7:8" x14ac:dyDescent="0.25">
@@ -4323,7 +4319,7 @@
         <v>399</v>
       </c>
       <c r="H412" s="1">
-        <v>2731630.1172282123</v>
+        <v>1771977.1547929475</v>
       </c>
     </row>
     <row r="413" spans="7:8" x14ac:dyDescent="0.25">
@@ -4331,7 +4327,7 @@
         <v>400</v>
       </c>
       <c r="H413" s="1">
-        <v>2097312.2453577588</v>
+        <v>10945442.043447766</v>
       </c>
     </row>
     <row r="414" spans="7:8" x14ac:dyDescent="0.25">
@@ -4339,7 +4335,7 @@
         <v>401</v>
       </c>
       <c r="H414" s="1">
-        <v>12973690.472643638</v>
+        <v>4885589.3635183396</v>
       </c>
     </row>
     <row r="415" spans="7:8" x14ac:dyDescent="0.25">
@@ -4347,7 +4343,7 @@
         <v>402</v>
       </c>
       <c r="H415" s="1">
-        <v>3767170.9965680074</v>
+        <v>5127289.0740166204</v>
       </c>
     </row>
     <row r="416" spans="7:8" x14ac:dyDescent="0.25">
@@ -4355,7 +4351,7 @@
         <v>403</v>
       </c>
       <c r="H416" s="1">
-        <v>1058621.7583428433</v>
+        <v>4327557.0733521301</v>
       </c>
     </row>
     <row r="417" spans="7:8" x14ac:dyDescent="0.25">
@@ -4363,7 +4359,7 @@
         <v>404</v>
       </c>
       <c r="H417" s="1">
-        <v>4176565.1569124111</v>
+        <v>2945757.3031690978</v>
       </c>
     </row>
     <row r="418" spans="7:8" x14ac:dyDescent="0.25">
@@ -4371,7 +4367,7 @@
         <v>405</v>
       </c>
       <c r="H418" s="1">
-        <v>3268881.9746384118</v>
+        <v>4421552.3121239552</v>
       </c>
     </row>
     <row r="419" spans="7:8" x14ac:dyDescent="0.25">
@@ -4379,7 +4375,7 @@
         <v>406</v>
       </c>
       <c r="H419" s="1">
-        <v>2066531.8648929643</v>
+        <v>9523899.5344490632</v>
       </c>
     </row>
     <row r="420" spans="7:8" x14ac:dyDescent="0.25">
@@ -4387,7 +4383,7 @@
         <v>407</v>
       </c>
       <c r="H420" s="1">
-        <v>6089440.0035371855</v>
+        <v>3704862.7344315173</v>
       </c>
     </row>
     <row r="421" spans="7:8" x14ac:dyDescent="0.25">
@@ -4395,7 +4391,7 @@
         <v>408</v>
       </c>
       <c r="H421" s="1">
-        <v>5546621.6432598121</v>
+        <v>5424701.6166527895</v>
       </c>
     </row>
     <row r="422" spans="7:8" x14ac:dyDescent="0.25">
@@ -4403,7 +4399,7 @@
         <v>409</v>
       </c>
       <c r="H422" s="1">
-        <v>3400386.7508156528</v>
+        <v>3985190.6289642006</v>
       </c>
     </row>
     <row r="423" spans="7:8" x14ac:dyDescent="0.25">
@@ -4411,7 +4407,7 @@
         <v>410</v>
       </c>
       <c r="H423" s="1">
-        <v>2700070.4624814149</v>
+        <v>5063678.8660416724</v>
       </c>
     </row>
     <row r="424" spans="7:8" x14ac:dyDescent="0.25">
@@ -4419,7 +4415,7 @@
         <v>411</v>
       </c>
       <c r="H424" s="1">
-        <v>7268069.4220506949</v>
+        <v>5505684.6061094953</v>
       </c>
     </row>
     <row r="425" spans="7:8" x14ac:dyDescent="0.25">
@@ -4427,7 +4423,7 @@
         <v>412</v>
       </c>
       <c r="H425" s="1">
-        <v>6344084.2935075872</v>
+        <v>2639870.5477489722</v>
       </c>
     </row>
     <row r="426" spans="7:8" x14ac:dyDescent="0.25">
@@ -4435,7 +4431,7 @@
         <v>413</v>
       </c>
       <c r="H426" s="1">
-        <v>3830959.1288784291</v>
+        <v>7869533.9516021665</v>
       </c>
     </row>
     <row r="427" spans="7:8" x14ac:dyDescent="0.25">
@@ -4443,7 +4439,7 @@
         <v>414</v>
       </c>
       <c r="H427" s="1">
-        <v>6385021.3412303906</v>
+        <v>1783310.787160926</v>
       </c>
     </row>
     <row r="428" spans="7:8" x14ac:dyDescent="0.25">
@@ -4451,7 +4447,7 @@
         <v>415</v>
       </c>
       <c r="H428" s="1">
-        <v>4378131.8605302814</v>
+        <v>6327447.6830456844</v>
       </c>
     </row>
     <row r="429" spans="7:8" x14ac:dyDescent="0.25">
@@ -4459,7 +4455,7 @@
         <v>416</v>
       </c>
       <c r="H429" s="1">
-        <v>2588978.094982455</v>
+        <v>8816586.0991899483</v>
       </c>
     </row>
     <row r="430" spans="7:8" x14ac:dyDescent="0.25">
@@ -4467,7 +4463,7 @@
         <v>417</v>
       </c>
       <c r="H430" s="1">
-        <v>1771183.3985367098</v>
+        <v>8788653.0685724877</v>
       </c>
     </row>
     <row r="431" spans="7:8" x14ac:dyDescent="0.25">
@@ -4475,7 +4471,7 @@
         <v>418</v>
       </c>
       <c r="H431" s="1">
-        <v>4947427.444224474</v>
+        <v>2803622.4271775624</v>
       </c>
     </row>
     <row r="432" spans="7:8" x14ac:dyDescent="0.25">
@@ -4483,7 +4479,7 @@
         <v>419</v>
       </c>
       <c r="H432" s="1">
-        <v>8675854.2992956452</v>
+        <v>4296037.2651139721</v>
       </c>
     </row>
     <row r="433" spans="7:8" x14ac:dyDescent="0.25">
@@ -4491,7 +4487,7 @@
         <v>420</v>
       </c>
       <c r="H433" s="1">
-        <v>5429337.1313473517</v>
+        <v>3640352.0006881114</v>
       </c>
     </row>
     <row r="434" spans="7:8" x14ac:dyDescent="0.25">
@@ -4499,7 +4495,7 @@
         <v>421</v>
       </c>
       <c r="H434" s="1">
-        <v>3096008.9476781329</v>
+        <v>3444628.7355979234</v>
       </c>
     </row>
     <row r="435" spans="7:8" x14ac:dyDescent="0.25">
@@ -4507,7 +4503,7 @@
         <v>422</v>
       </c>
       <c r="H435" s="1">
-        <v>6880010.5880921092</v>
+        <v>6938032.8026858019</v>
       </c>
     </row>
     <row r="436" spans="7:8" x14ac:dyDescent="0.25">
@@ -4515,7 +4511,7 @@
         <v>423</v>
       </c>
       <c r="H436" s="1">
-        <v>5290192.9239448886</v>
+        <v>3654658.1331752161</v>
       </c>
     </row>
     <row r="437" spans="7:8" x14ac:dyDescent="0.25">
@@ -4523,7 +4519,7 @@
         <v>424</v>
       </c>
       <c r="H437" s="1">
-        <v>4754717.7008871697</v>
+        <v>2131342.6144755944</v>
       </c>
     </row>
     <row r="438" spans="7:8" x14ac:dyDescent="0.25">
@@ -4531,7 +4527,7 @@
         <v>425</v>
       </c>
       <c r="H438" s="1">
-        <v>5512647.7545324014</v>
+        <v>2569859.3812496085</v>
       </c>
     </row>
     <row r="439" spans="7:8" x14ac:dyDescent="0.25">
@@ -4539,7 +4535,7 @@
         <v>426</v>
       </c>
       <c r="H439" s="1">
-        <v>16676774.328191044</v>
+        <v>9745509.4496292397</v>
       </c>
     </row>
     <row r="440" spans="7:8" x14ac:dyDescent="0.25">
@@ -4547,7 +4543,7 @@
         <v>427</v>
       </c>
       <c r="H440" s="1">
-        <v>2593321.5681411908</v>
+        <v>3690388.0410093823</v>
       </c>
     </row>
     <row r="441" spans="7:8" x14ac:dyDescent="0.25">
@@ -4555,7 +4551,7 @@
         <v>428</v>
       </c>
       <c r="H441" s="1">
-        <v>1894350.4204053206</v>
+        <v>2728269.3747233925</v>
       </c>
     </row>
     <row r="442" spans="7:8" x14ac:dyDescent="0.25">
@@ -4563,7 +4559,7 @@
         <v>429</v>
       </c>
       <c r="H442" s="1">
-        <v>10581528.819625536</v>
+        <v>4914714.0320442831</v>
       </c>
     </row>
     <row r="443" spans="7:8" x14ac:dyDescent="0.25">
@@ -4571,7 +4567,7 @@
         <v>430</v>
       </c>
       <c r="H443" s="1">
-        <v>5501137.4375907443</v>
+        <v>5022430.561322229</v>
       </c>
     </row>
     <row r="444" spans="7:8" x14ac:dyDescent="0.25">
@@ -4579,7 +4575,7 @@
         <v>431</v>
       </c>
       <c r="H444" s="1">
-        <v>5206804.7844699724</v>
+        <v>3135201.9587827935</v>
       </c>
     </row>
     <row r="445" spans="7:8" x14ac:dyDescent="0.25">
@@ -4587,7 +4583,7 @@
         <v>432</v>
       </c>
       <c r="H445" s="1">
-        <v>8783762.2118766941</v>
+        <v>6387959.1280189911</v>
       </c>
     </row>
     <row r="446" spans="7:8" x14ac:dyDescent="0.25">
@@ -4595,7 +4591,7 @@
         <v>433</v>
       </c>
       <c r="H446" s="1">
-        <v>4119911.2643124484</v>
+        <v>5782868.4839986134</v>
       </c>
     </row>
     <row r="447" spans="7:8" x14ac:dyDescent="0.25">
@@ -4603,7 +4599,7 @@
         <v>434</v>
       </c>
       <c r="H447" s="1">
-        <v>3689469.5898151621</v>
+        <v>6407581.4565811744</v>
       </c>
     </row>
     <row r="448" spans="7:8" x14ac:dyDescent="0.25">
@@ -4611,7 +4607,7 @@
         <v>435</v>
       </c>
       <c r="H448" s="1">
-        <v>24085280.188715771</v>
+        <v>2803449.0029524527</v>
       </c>
     </row>
     <row r="449" spans="7:8" x14ac:dyDescent="0.25">
@@ -4619,7 +4615,7 @@
         <v>436</v>
       </c>
       <c r="H449" s="1">
-        <v>4834724.3813057709</v>
+        <v>5335426.0541696819</v>
       </c>
     </row>
     <row r="450" spans="7:8" x14ac:dyDescent="0.25">
@@ -4627,7 +4623,7 @@
         <v>437</v>
       </c>
       <c r="H450" s="1">
-        <v>7346545.4626852525</v>
+        <v>4529342.4057460539</v>
       </c>
     </row>
     <row r="451" spans="7:8" x14ac:dyDescent="0.25">
@@ -4635,7 +4631,7 @@
         <v>438</v>
       </c>
       <c r="H451" s="1">
-        <v>4298244.7113117315</v>
+        <v>10251274.15852214</v>
       </c>
     </row>
     <row r="452" spans="7:8" x14ac:dyDescent="0.25">
@@ -4643,7 +4639,7 @@
         <v>439</v>
       </c>
       <c r="H452" s="1">
-        <v>8941688.1698628198</v>
+        <v>2722409.6991095091</v>
       </c>
     </row>
     <row r="453" spans="7:8" x14ac:dyDescent="0.25">
@@ -4651,7 +4647,7 @@
         <v>440</v>
       </c>
       <c r="H453" s="1">
-        <v>1548247.777153865</v>
+        <v>2888466.7506699231</v>
       </c>
     </row>
     <row r="454" spans="7:8" x14ac:dyDescent="0.25">
@@ -4659,7 +4655,7 @@
         <v>441</v>
       </c>
       <c r="H454" s="1">
-        <v>7734913.8919093497</v>
+        <v>4257847.3270008182</v>
       </c>
     </row>
     <row r="455" spans="7:8" x14ac:dyDescent="0.25">
@@ -4667,7 +4663,7 @@
         <v>442</v>
       </c>
       <c r="H455" s="1">
-        <v>6861933.6135599809</v>
+        <v>4815599.0089211622</v>
       </c>
     </row>
     <row r="456" spans="7:8" x14ac:dyDescent="0.25">
@@ -4675,7 +4671,7 @@
         <v>443</v>
       </c>
       <c r="H456" s="1">
-        <v>1268006.8363172098</v>
+        <v>10348283.322262075</v>
       </c>
     </row>
     <row r="457" spans="7:8" x14ac:dyDescent="0.25">
@@ -4683,7 +4679,7 @@
         <v>444</v>
       </c>
       <c r="H457" s="1">
-        <v>2862088.2662131218</v>
+        <v>5198736.92898292</v>
       </c>
     </row>
     <row r="458" spans="7:8" x14ac:dyDescent="0.25">
@@ -4691,7 +4687,7 @@
         <v>445</v>
       </c>
       <c r="H458" s="1">
-        <v>8668666.5864650998</v>
+        <v>4344577.9037538115</v>
       </c>
     </row>
     <row r="459" spans="7:8" x14ac:dyDescent="0.25">
@@ -4699,7 +4695,7 @@
         <v>446</v>
       </c>
       <c r="H459" s="1">
-        <v>5764046.2805867558</v>
+        <v>4185908.5849600374</v>
       </c>
     </row>
     <row r="460" spans="7:8" x14ac:dyDescent="0.25">
@@ -4707,7 +4703,7 @@
         <v>447</v>
       </c>
       <c r="H460" s="1">
-        <v>3593720.5811814214</v>
+        <v>8757701.7662402894</v>
       </c>
     </row>
     <row r="461" spans="7:8" x14ac:dyDescent="0.25">
@@ -4715,7 +4711,7 @@
         <v>448</v>
       </c>
       <c r="H461" s="1">
-        <v>3952962.0088824243</v>
+        <v>7849920.5671706237</v>
       </c>
     </row>
     <row r="462" spans="7:8" x14ac:dyDescent="0.25">
@@ -4723,7 +4719,7 @@
         <v>449</v>
       </c>
       <c r="H462" s="1">
-        <v>4508023.2485332675</v>
+        <v>3970137.2200791668</v>
       </c>
     </row>
     <row r="463" spans="7:8" x14ac:dyDescent="0.25">
@@ -4731,7 +4727,7 @@
         <v>450</v>
       </c>
       <c r="H463" s="1">
-        <v>3217311.1099901707</v>
+        <v>7303884.0430172887</v>
       </c>
     </row>
     <row r="464" spans="7:8" x14ac:dyDescent="0.25">
@@ -4739,7 +4735,7 @@
         <v>451</v>
       </c>
       <c r="H464" s="1">
-        <v>12099171.870166255</v>
+        <v>3148546.0087672393</v>
       </c>
     </row>
     <row r="465" spans="7:8" x14ac:dyDescent="0.25">
@@ -4747,7 +4743,7 @@
         <v>452</v>
       </c>
       <c r="H465" s="1">
-        <v>4801113.2586460244</v>
+        <v>12454163.538266359</v>
       </c>
     </row>
     <row r="466" spans="7:8" x14ac:dyDescent="0.25">
@@ -4755,7 +4751,7 @@
         <v>453</v>
       </c>
       <c r="H466" s="1">
-        <v>8999146.4497352839</v>
+        <v>3112766.7326103696</v>
       </c>
     </row>
     <row r="467" spans="7:8" x14ac:dyDescent="0.25">
@@ -4763,7 +4759,7 @@
         <v>454</v>
       </c>
       <c r="H467" s="1">
-        <v>1432222.9881481822</v>
+        <v>4708366.5710277138</v>
       </c>
     </row>
     <row r="468" spans="7:8" x14ac:dyDescent="0.25">
@@ -4771,7 +4767,7 @@
         <v>455</v>
       </c>
       <c r="H468" s="1">
-        <v>8732202.9741323404</v>
+        <v>6051187.729781366</v>
       </c>
     </row>
     <row r="469" spans="7:8" x14ac:dyDescent="0.25">
@@ -4779,7 +4775,7 @@
         <v>456</v>
       </c>
       <c r="H469" s="1">
-        <v>1540078.8157488252</v>
+        <v>5326844.4174122494</v>
       </c>
     </row>
     <row r="470" spans="7:8" x14ac:dyDescent="0.25">
@@ -4787,7 +4783,7 @@
         <v>457</v>
       </c>
       <c r="H470" s="1">
-        <v>4810109.4680324094</v>
+        <v>6136364.9262959585</v>
       </c>
     </row>
     <row r="471" spans="7:8" x14ac:dyDescent="0.25">
@@ -4795,7 +4791,7 @@
         <v>458</v>
       </c>
       <c r="H471" s="1">
-        <v>5076800.341361112</v>
+        <v>2798291.9594547283</v>
       </c>
     </row>
     <row r="472" spans="7:8" x14ac:dyDescent="0.25">
@@ -4803,7 +4799,7 @@
         <v>459</v>
       </c>
       <c r="H472" s="1">
-        <v>2756082.3883126094</v>
+        <v>8218586.0559741603</v>
       </c>
     </row>
     <row r="473" spans="7:8" x14ac:dyDescent="0.25">
@@ -4811,7 +4807,7 @@
         <v>460</v>
       </c>
       <c r="H473" s="1">
-        <v>3805233.6707115951</v>
+        <v>5809809.899551196</v>
       </c>
     </row>
     <row r="474" spans="7:8" x14ac:dyDescent="0.25">
@@ -4819,7 +4815,7 @@
         <v>461</v>
       </c>
       <c r="H474" s="1">
-        <v>7059505.3100933433</v>
+        <v>6254533.3270913232</v>
       </c>
     </row>
     <row r="475" spans="7:8" x14ac:dyDescent="0.25">
@@ -4827,7 +4823,7 @@
         <v>462</v>
       </c>
       <c r="H475" s="1">
-        <v>4440959.150025758</v>
+        <v>6160603.1220251387</v>
       </c>
     </row>
     <row r="476" spans="7:8" x14ac:dyDescent="0.25">
@@ -4835,7 +4831,7 @@
         <v>463</v>
       </c>
       <c r="H476" s="1">
-        <v>1065564.0227902622</v>
+        <v>2587401.433222082</v>
       </c>
     </row>
     <row r="477" spans="7:8" x14ac:dyDescent="0.25">
@@ -4843,7 +4839,7 @@
         <v>464</v>
       </c>
       <c r="H477" s="1">
-        <v>3465491.6946901968</v>
+        <v>3738556.9836708251</v>
       </c>
     </row>
     <row r="478" spans="7:8" x14ac:dyDescent="0.25">
@@ -4851,7 +4847,7 @@
         <v>465</v>
       </c>
       <c r="H478" s="1">
-        <v>2884144.5646296139</v>
+        <v>4798740.0065944856</v>
       </c>
     </row>
     <row r="479" spans="7:8" x14ac:dyDescent="0.25">
@@ -4859,7 +4855,7 @@
         <v>466</v>
       </c>
       <c r="H479" s="1">
-        <v>4955007.7418760611</v>
+        <v>3306840.558778157</v>
       </c>
     </row>
     <row r="480" spans="7:8" x14ac:dyDescent="0.25">
@@ -4867,7 +4863,7 @@
         <v>467</v>
       </c>
       <c r="H480" s="1">
-        <v>2590776.3251944673</v>
+        <v>5876533.7312233681</v>
       </c>
     </row>
     <row r="481" spans="7:8" x14ac:dyDescent="0.25">
@@ -4875,7 +4871,7 @@
         <v>468</v>
       </c>
       <c r="H481" s="1">
-        <v>4731705.0399341257</v>
+        <v>3180665.5638455334</v>
       </c>
     </row>
     <row r="482" spans="7:8" x14ac:dyDescent="0.25">
@@ -4883,7 +4879,7 @@
         <v>469</v>
       </c>
       <c r="H482" s="1">
-        <v>4560893.8838505177</v>
+        <v>5047916.7493542871</v>
       </c>
     </row>
     <row r="483" spans="7:8" x14ac:dyDescent="0.25">
@@ -4891,7 +4887,7 @@
         <v>470</v>
       </c>
       <c r="H483" s="1">
-        <v>2075464.8443451573</v>
+        <v>9860681.6142557282</v>
       </c>
     </row>
     <row r="484" spans="7:8" x14ac:dyDescent="0.25">
@@ -4899,7 +4895,7 @@
         <v>471</v>
       </c>
       <c r="H484" s="1">
-        <v>3655036.6694196607</v>
+        <v>4020994.2364268238</v>
       </c>
     </row>
     <row r="485" spans="7:8" x14ac:dyDescent="0.25">
@@ -4907,7 +4903,7 @@
         <v>472</v>
       </c>
       <c r="H485" s="1">
-        <v>3707793.1035054922</v>
+        <v>13743944.027313754</v>
       </c>
     </row>
     <row r="486" spans="7:8" x14ac:dyDescent="0.25">
@@ -4915,7 +4911,7 @@
         <v>473</v>
       </c>
       <c r="H486" s="1">
-        <v>9094668.3253607135</v>
+        <v>6085767.8384098383</v>
       </c>
     </row>
     <row r="487" spans="7:8" x14ac:dyDescent="0.25">
@@ -4923,7 +4919,7 @@
         <v>474</v>
       </c>
       <c r="H487" s="1">
-        <v>6749937.0234798035</v>
+        <v>2943375.5308000669</v>
       </c>
     </row>
     <row r="488" spans="7:8" x14ac:dyDescent="0.25">
@@ -4931,7 +4927,7 @@
         <v>475</v>
       </c>
       <c r="H488" s="1">
-        <v>5483609.2333261184</v>
+        <v>12155112.301044684</v>
       </c>
     </row>
     <row r="489" spans="7:8" x14ac:dyDescent="0.25">
@@ -4939,7 +4935,7 @@
         <v>476</v>
       </c>
       <c r="H489" s="1">
-        <v>2472893.7036338439</v>
+        <v>6596043.4518205514</v>
       </c>
     </row>
     <row r="490" spans="7:8" x14ac:dyDescent="0.25">
@@ -4947,7 +4943,7 @@
         <v>477</v>
       </c>
       <c r="H490" s="1">
-        <v>7803937.3474644786</v>
+        <v>2287524.5097931447</v>
       </c>
     </row>
     <row r="491" spans="7:8" x14ac:dyDescent="0.25">
@@ -4955,7 +4951,7 @@
         <v>478</v>
       </c>
       <c r="H491" s="1">
-        <v>2429886.8979708077</v>
+        <v>8844740.8505707718</v>
       </c>
     </row>
     <row r="492" spans="7:8" x14ac:dyDescent="0.25">
@@ -4963,7 +4959,7 @@
         <v>479</v>
       </c>
       <c r="H492" s="1">
-        <v>8457930.8458558563</v>
+        <v>4407853.5926464824</v>
       </c>
     </row>
     <row r="493" spans="7:8" x14ac:dyDescent="0.25">
@@ -4971,7 +4967,7 @@
         <v>480</v>
       </c>
       <c r="H493" s="1">
-        <v>5847945.6038284404</v>
+        <v>3236330.8819801561</v>
       </c>
     </row>
     <row r="494" spans="7:8" x14ac:dyDescent="0.25">
@@ -4979,7 +4975,7 @@
         <v>481</v>
       </c>
       <c r="H494" s="1">
-        <v>9950112.4987520389</v>
+        <v>2283231.7636040533</v>
       </c>
     </row>
     <row r="495" spans="7:8" x14ac:dyDescent="0.25">
@@ -4987,7 +4983,7 @@
         <v>482</v>
       </c>
       <c r="H495" s="1">
-        <v>5313129.3992068591</v>
+        <v>4992374.4960163897</v>
       </c>
     </row>
     <row r="496" spans="7:8" x14ac:dyDescent="0.25">
@@ -4995,7 +4991,7 @@
         <v>483</v>
       </c>
       <c r="H496" s="1">
-        <v>4509448.0424408391</v>
+        <v>7227949.7645724276</v>
       </c>
     </row>
     <row r="497" spans="7:8" x14ac:dyDescent="0.25">
@@ -5003,7 +4999,7 @@
         <v>484</v>
       </c>
       <c r="H497" s="1">
-        <v>8532086.7775341067</v>
+        <v>7610577.0814240389</v>
       </c>
     </row>
     <row r="498" spans="7:8" x14ac:dyDescent="0.25">
@@ -5011,7 +5007,7 @@
         <v>485</v>
       </c>
       <c r="H498" s="1">
-        <v>2875305.5509844404</v>
+        <v>1838808.8190788298</v>
       </c>
     </row>
     <row r="499" spans="7:8" x14ac:dyDescent="0.25">
@@ -5019,7 +5015,7 @@
         <v>486</v>
       </c>
       <c r="H499" s="1">
-        <v>4065832.4913226608</v>
+        <v>2992337.470073258</v>
       </c>
     </row>
     <row r="500" spans="7:8" x14ac:dyDescent="0.25">
@@ -5027,7 +5023,7 @@
         <v>487</v>
       </c>
       <c r="H500" s="1">
-        <v>4219351.1606788281</v>
+        <v>5775372.1893438417</v>
       </c>
     </row>
     <row r="501" spans="7:8" x14ac:dyDescent="0.25">
@@ -5035,7 +5031,7 @@
         <v>488</v>
       </c>
       <c r="H501" s="1">
-        <v>2457771.836358876</v>
+        <v>11865711.96009277</v>
       </c>
     </row>
     <row r="502" spans="7:8" x14ac:dyDescent="0.25">
@@ -5043,7 +5039,7 @@
         <v>489</v>
       </c>
       <c r="H502" s="1">
-        <v>7341886.1462949524</v>
+        <v>5555985.2546939682</v>
       </c>
     </row>
     <row r="503" spans="7:8" x14ac:dyDescent="0.25">
@@ -5051,7 +5047,7 @@
         <v>490</v>
       </c>
       <c r="H503" s="1">
-        <v>1170546.4397392527</v>
+        <v>6800202.2408641633</v>
       </c>
     </row>
     <row r="504" spans="7:8" x14ac:dyDescent="0.25">
@@ -5059,7 +5055,7 @@
         <v>491</v>
       </c>
       <c r="H504" s="1">
-        <v>2498488.6590156197</v>
+        <v>5689073.1592845246</v>
       </c>
     </row>
     <row r="505" spans="7:8" x14ac:dyDescent="0.25">
@@ -5067,7 +5063,7 @@
         <v>492</v>
       </c>
       <c r="H505" s="1">
-        <v>8246688.838887901</v>
+        <v>10017581.552680053</v>
       </c>
     </row>
     <row r="506" spans="7:8" x14ac:dyDescent="0.25">
@@ -5075,7 +5071,7 @@
         <v>493</v>
       </c>
       <c r="H506" s="1">
-        <v>3234989.7475845949</v>
+        <v>21202704.594526831</v>
       </c>
     </row>
     <row r="507" spans="7:8" x14ac:dyDescent="0.25">
@@ -5083,7 +5079,7 @@
         <v>494</v>
       </c>
       <c r="H507" s="1">
-        <v>3175847.2600493152</v>
+        <v>6364509.6307105273</v>
       </c>
     </row>
     <row r="508" spans="7:8" x14ac:dyDescent="0.25">
@@ -5091,7 +5087,7 @@
         <v>495</v>
       </c>
       <c r="H508" s="1">
-        <v>9677429.1623665038</v>
+        <v>1926236.3801255799</v>
       </c>
     </row>
     <row r="509" spans="7:8" x14ac:dyDescent="0.25">
@@ -5099,7 +5095,7 @@
         <v>496</v>
       </c>
       <c r="H509" s="1">
-        <v>5980328.3169126734</v>
+        <v>2585424.8649477134</v>
       </c>
     </row>
     <row r="510" spans="7:8" x14ac:dyDescent="0.25">
@@ -5107,7 +5103,7 @@
         <v>497</v>
       </c>
       <c r="H510" s="1">
-        <v>2937513.1371576893</v>
+        <v>4352792.4763298649</v>
       </c>
     </row>
     <row r="511" spans="7:8" x14ac:dyDescent="0.25">
@@ -5115,7 +5111,7 @@
         <v>498</v>
       </c>
       <c r="H511" s="1">
-        <v>6530146.3097021617</v>
+        <v>4387769.2861558432</v>
       </c>
     </row>
     <row r="512" spans="7:8" x14ac:dyDescent="0.25">
@@ -5123,7 +5119,7 @@
         <v>499</v>
       </c>
       <c r="H512" s="1">
-        <v>5993721.988789483</v>
+        <v>7032909.6426041145</v>
       </c>
     </row>
     <row r="513" spans="7:8" x14ac:dyDescent="0.25">
@@ -5131,7 +5127,7 @@
         <v>500</v>
       </c>
       <c r="H513" s="1">
-        <v>5328063.6846330054</v>
+        <v>2925074.0938065019</v>
       </c>
     </row>
     <row r="514" spans="7:8" x14ac:dyDescent="0.25">
@@ -5139,7 +5135,7 @@
         <v>501</v>
       </c>
       <c r="H514" s="1">
-        <v>7022156.880067138</v>
+        <v>3204495.6460302966</v>
       </c>
     </row>
     <row r="515" spans="7:8" x14ac:dyDescent="0.25">
@@ -5147,7 +5143,7 @@
         <v>502</v>
       </c>
       <c r="H515" s="1">
-        <v>3769914.107277473</v>
+        <v>4834236.1468279716</v>
       </c>
     </row>
     <row r="516" spans="7:8" x14ac:dyDescent="0.25">
@@ -5155,7 +5151,7 @@
         <v>503</v>
       </c>
       <c r="H516" s="1">
-        <v>7791561.5431691203</v>
+        <v>1470584.9638485711</v>
       </c>
     </row>
     <row r="517" spans="7:8" x14ac:dyDescent="0.25">
@@ -5163,7 +5159,7 @@
         <v>504</v>
       </c>
       <c r="H517" s="1">
-        <v>3871845.646579457</v>
+        <v>6067969.0163124762</v>
       </c>
     </row>
     <row r="518" spans="7:8" x14ac:dyDescent="0.25">
@@ -5171,7 +5167,7 @@
         <v>505</v>
       </c>
       <c r="H518" s="1">
-        <v>13180865.332818285</v>
+        <v>2417870.8030348015</v>
       </c>
     </row>
     <row r="519" spans="7:8" x14ac:dyDescent="0.25">
@@ -5179,7 +5175,7 @@
         <v>506</v>
       </c>
       <c r="H519" s="1">
-        <v>3751336.8683431451</v>
+        <v>2644595.3036565972</v>
       </c>
     </row>
     <row r="520" spans="7:8" x14ac:dyDescent="0.25">
@@ -5187,7 +5183,7 @@
         <v>507</v>
       </c>
       <c r="H520" s="1">
-        <v>6580480.974649176</v>
+        <v>6071139.8322614999</v>
       </c>
     </row>
     <row r="521" spans="7:8" x14ac:dyDescent="0.25">
@@ -5195,7 +5191,7 @@
         <v>508</v>
       </c>
       <c r="H521" s="1">
-        <v>3571725.7145859404</v>
+        <v>12602557.386767492</v>
       </c>
     </row>
     <row r="522" spans="7:8" x14ac:dyDescent="0.25">
@@ -5203,7 +5199,7 @@
         <v>509</v>
       </c>
       <c r="H522" s="1">
-        <v>2249918.6588598741</v>
+        <v>6374640.8733314946</v>
       </c>
     </row>
     <row r="523" spans="7:8" x14ac:dyDescent="0.25">
@@ -5211,7 +5207,7 @@
         <v>510</v>
       </c>
       <c r="H523" s="1">
-        <v>8137534.8002153067</v>
+        <v>2469837.3137090476</v>
       </c>
     </row>
     <row r="524" spans="7:8" x14ac:dyDescent="0.25">
@@ -5219,7 +5215,7 @@
         <v>511</v>
       </c>
       <c r="H524" s="1">
-        <v>5770802.2282376001</v>
+        <v>1188376.415444795</v>
       </c>
     </row>
     <row r="525" spans="7:8" x14ac:dyDescent="0.25">
@@ -5227,7 +5223,7 @@
         <v>512</v>
       </c>
       <c r="H525" s="1">
-        <v>3726826.6200665347</v>
+        <v>6528987.4016653262</v>
       </c>
     </row>
     <row r="526" spans="7:8" x14ac:dyDescent="0.25">
@@ -5235,7 +5231,7 @@
         <v>513</v>
       </c>
       <c r="H526" s="1">
-        <v>2889008.5586291743</v>
+        <v>5970387.7441832609</v>
       </c>
     </row>
     <row r="527" spans="7:8" x14ac:dyDescent="0.25">
@@ -5243,7 +5239,7 @@
         <v>514</v>
       </c>
       <c r="H527" s="1">
-        <v>2963939.9221614241</v>
+        <v>5111724.5923298933</v>
       </c>
     </row>
     <row r="528" spans="7:8" x14ac:dyDescent="0.25">
@@ -5251,7 +5247,7 @@
         <v>515</v>
       </c>
       <c r="H528" s="1">
-        <v>2405809.5317889545</v>
+        <v>11710700.931862995</v>
       </c>
     </row>
     <row r="529" spans="7:8" x14ac:dyDescent="0.25">
@@ -5259,7 +5255,7 @@
         <v>516</v>
       </c>
       <c r="H529" s="1">
-        <v>3448560.0390424435</v>
+        <v>7603172.105067038</v>
       </c>
     </row>
     <row r="530" spans="7:8" x14ac:dyDescent="0.25">
@@ -5267,7 +5263,7 @@
         <v>517</v>
       </c>
       <c r="H530" s="1">
-        <v>4085406.218760117</v>
+        <v>7111475.2398737371</v>
       </c>
     </row>
     <row r="531" spans="7:8" x14ac:dyDescent="0.25">
@@ -5275,7 +5271,7 @@
         <v>518</v>
       </c>
       <c r="H531" s="1">
-        <v>4822252.3022503154</v>
+        <v>7372879.3954479834</v>
       </c>
     </row>
     <row r="532" spans="7:8" x14ac:dyDescent="0.25">
@@ -5283,7 +5279,7 @@
         <v>519</v>
       </c>
       <c r="H532" s="1">
-        <v>5517140.046375799</v>
+        <v>7087560.3777694041</v>
       </c>
     </row>
     <row r="533" spans="7:8" x14ac:dyDescent="0.25">
@@ -5291,7 +5287,7 @@
         <v>520</v>
       </c>
       <c r="H533" s="1">
-        <v>3558763.05631191</v>
+        <v>5328517.0861712918</v>
       </c>
     </row>
     <row r="534" spans="7:8" x14ac:dyDescent="0.25">
@@ -5299,7 +5295,7 @@
         <v>521</v>
       </c>
       <c r="H534" s="1">
-        <v>2847646.9360352545</v>
+        <v>3537442.619995465</v>
       </c>
     </row>
     <row r="535" spans="7:8" x14ac:dyDescent="0.25">
@@ -5307,7 +5303,7 @@
         <v>522</v>
       </c>
       <c r="H535" s="1">
-        <v>6599201.80682356</v>
+        <v>5373187.5634880019</v>
       </c>
     </row>
     <row r="536" spans="7:8" x14ac:dyDescent="0.25">
@@ -5315,7 +5311,7 @@
         <v>523</v>
       </c>
       <c r="H536" s="1">
-        <v>13829555.70596271</v>
+        <v>6335859.1151229609</v>
       </c>
     </row>
     <row r="537" spans="7:8" x14ac:dyDescent="0.25">
@@ -5323,7 +5319,7 @@
         <v>524</v>
       </c>
       <c r="H537" s="1">
-        <v>5215963.4654373294</v>
+        <v>10742109.697882252</v>
       </c>
     </row>
     <row r="538" spans="7:8" x14ac:dyDescent="0.25">
@@ -5331,7 +5327,7 @@
         <v>525</v>
       </c>
       <c r="H538" s="1">
-        <v>3383645.6946615628</v>
+        <v>7686458.5964240385</v>
       </c>
     </row>
     <row r="539" spans="7:8" x14ac:dyDescent="0.25">
@@ -5339,7 +5335,7 @@
         <v>526</v>
       </c>
       <c r="H539" s="1">
-        <v>5642332.1524938801</v>
+        <v>8695370.314768469</v>
       </c>
     </row>
     <row r="540" spans="7:8" x14ac:dyDescent="0.25">
@@ -5347,7 +5343,7 @@
         <v>527</v>
       </c>
       <c r="H540" s="1">
-        <v>3765479.480305247</v>
+        <v>5716228.5974291563</v>
       </c>
     </row>
     <row r="541" spans="7:8" x14ac:dyDescent="0.25">
@@ -5355,7 +5351,7 @@
         <v>528</v>
       </c>
       <c r="H541" s="1">
-        <v>4707619.9255395867</v>
+        <v>5606891.1264553126</v>
       </c>
     </row>
     <row r="542" spans="7:8" x14ac:dyDescent="0.25">
@@ -5363,7 +5359,7 @@
         <v>529</v>
       </c>
       <c r="H542" s="1">
-        <v>2568711.5485950001</v>
+        <v>3454546.9983241535</v>
       </c>
     </row>
     <row r="543" spans="7:8" x14ac:dyDescent="0.25">
@@ -5371,7 +5367,7 @@
         <v>530</v>
       </c>
       <c r="H543" s="1">
-        <v>8988327.5748122372</v>
+        <v>4790991.3091904707</v>
       </c>
     </row>
     <row r="544" spans="7:8" x14ac:dyDescent="0.25">
@@ -5379,7 +5375,7 @@
         <v>531</v>
       </c>
       <c r="H544" s="1">
-        <v>12472536.641391853</v>
+        <v>8617499.8609131761</v>
       </c>
     </row>
     <row r="545" spans="7:8" x14ac:dyDescent="0.25">
@@ -5387,7 +5383,7 @@
         <v>532</v>
       </c>
       <c r="H545" s="1">
-        <v>2905644.1644366547</v>
+        <v>5345585.5474162158</v>
       </c>
     </row>
     <row r="546" spans="7:8" x14ac:dyDescent="0.25">
@@ -5395,7 +5391,7 @@
         <v>533</v>
       </c>
       <c r="H546" s="1">
-        <v>3084761.2193646352</v>
+        <v>5968074.0555598829</v>
       </c>
     </row>
     <row r="547" spans="7:8" x14ac:dyDescent="0.25">
@@ -5403,7 +5399,7 @@
         <v>534</v>
       </c>
       <c r="H547" s="1">
-        <v>5607145.6385183865</v>
+        <v>4181914.5058665317</v>
       </c>
     </row>
     <row r="548" spans="7:8" x14ac:dyDescent="0.25">
@@ -5411,7 +5407,7 @@
         <v>535</v>
       </c>
       <c r="H548" s="1">
-        <v>8620849.0890421215</v>
+        <v>4523316.865516847</v>
       </c>
     </row>
     <row r="549" spans="7:8" x14ac:dyDescent="0.25">
@@ -5419,7 +5415,7 @@
         <v>536</v>
       </c>
       <c r="H549" s="1">
-        <v>7646780.6904754508</v>
+        <v>2106630.1973437741</v>
       </c>
     </row>
     <row r="550" spans="7:8" x14ac:dyDescent="0.25">
@@ -5427,7 +5423,7 @@
         <v>537</v>
       </c>
       <c r="H550" s="1">
-        <v>4951841.9884358104</v>
+        <v>3271029.6718191113</v>
       </c>
     </row>
     <row r="551" spans="7:8" x14ac:dyDescent="0.25">
@@ -5435,7 +5431,7 @@
         <v>538</v>
       </c>
       <c r="H551" s="1">
-        <v>15840902.215113712</v>
+        <v>2417978.533008269</v>
       </c>
     </row>
     <row r="552" spans="7:8" x14ac:dyDescent="0.25">
@@ -5443,7 +5439,7 @@
         <v>539</v>
       </c>
       <c r="H552" s="1">
-        <v>5244341.5346233025</v>
+        <v>3279349.1408427446</v>
       </c>
     </row>
     <row r="553" spans="7:8" x14ac:dyDescent="0.25">
@@ -5451,7 +5447,7 @@
         <v>540</v>
       </c>
       <c r="H553" s="1">
-        <v>5568175.2429771805</v>
+        <v>8369227.1305857953</v>
       </c>
     </row>
     <row r="554" spans="7:8" x14ac:dyDescent="0.25">
@@ -5459,7 +5455,7 @@
         <v>541</v>
       </c>
       <c r="H554" s="1">
-        <v>5688838.6872067805</v>
+        <v>5449683.402314838</v>
       </c>
     </row>
     <row r="555" spans="7:8" x14ac:dyDescent="0.25">
@@ -5467,7 +5463,7 @@
         <v>542</v>
       </c>
       <c r="H555" s="1">
-        <v>3860281.2778053908</v>
+        <v>5877132.2576409895</v>
       </c>
     </row>
     <row r="556" spans="7:8" x14ac:dyDescent="0.25">
@@ -5475,7 +5471,7 @@
         <v>543</v>
       </c>
       <c r="H556" s="1">
-        <v>5985590.0090728952</v>
+        <v>4162957.1712195915</v>
       </c>
     </row>
     <row r="557" spans="7:8" x14ac:dyDescent="0.25">
@@ -5483,7 +5479,7 @@
         <v>544</v>
       </c>
       <c r="H557" s="1">
-        <v>6404617.098177271</v>
+        <v>4327919.655148427</v>
       </c>
     </row>
     <row r="558" spans="7:8" x14ac:dyDescent="0.25">
@@ -5491,7 +5487,7 @@
         <v>545</v>
       </c>
       <c r="H558" s="1">
-        <v>3647689.3324998291</v>
+        <v>2819579.2936406126</v>
       </c>
     </row>
     <row r="559" spans="7:8" x14ac:dyDescent="0.25">
@@ -5499,7 +5495,7 @@
         <v>546</v>
       </c>
       <c r="H559" s="1">
-        <v>3013329.1995885046</v>
+        <v>5147365.5730249472</v>
       </c>
     </row>
     <row r="560" spans="7:8" x14ac:dyDescent="0.25">
@@ -5507,7 +5503,7 @@
         <v>547</v>
       </c>
       <c r="H560" s="1">
-        <v>7544782.735923592</v>
+        <v>3628820.7425302058</v>
       </c>
     </row>
     <row r="561" spans="7:8" x14ac:dyDescent="0.25">
@@ -5515,7 +5511,7 @@
         <v>548</v>
       </c>
       <c r="H561" s="1">
-        <v>5756478.297458888</v>
+        <v>2892989.9612167794</v>
       </c>
     </row>
     <row r="562" spans="7:8" x14ac:dyDescent="0.25">
@@ -5523,7 +5519,7 @@
         <v>549</v>
       </c>
       <c r="H562" s="1">
-        <v>13662681.898613557</v>
+        <v>3343997.3987349235</v>
       </c>
     </row>
     <row r="563" spans="7:8" x14ac:dyDescent="0.25">
@@ -5531,7 +5527,7 @@
         <v>550</v>
       </c>
       <c r="H563" s="1">
-        <v>5649872.7325234702</v>
+        <v>8045918.8799826931</v>
       </c>
     </row>
     <row r="564" spans="7:8" x14ac:dyDescent="0.25">
@@ -5539,7 +5535,7 @@
         <v>551</v>
       </c>
       <c r="H564" s="1">
-        <v>3832693.2247037501</v>
+        <v>2694555.4811443803</v>
       </c>
     </row>
     <row r="565" spans="7:8" x14ac:dyDescent="0.25">
@@ -5547,7 +5543,7 @@
         <v>552</v>
       </c>
       <c r="H565" s="1">
-        <v>4449764.6339241341</v>
+        <v>6207775.7699050652</v>
       </c>
     </row>
     <row r="566" spans="7:8" x14ac:dyDescent="0.25">
@@ -5555,7 +5551,7 @@
         <v>553</v>
       </c>
       <c r="H566" s="1">
-        <v>2975805.7370444979</v>
+        <v>4154109.59322521</v>
       </c>
     </row>
     <row r="567" spans="7:8" x14ac:dyDescent="0.25">
@@ -5563,7 +5559,7 @@
         <v>554</v>
       </c>
       <c r="H567" s="1">
-        <v>4005291.2744764122</v>
+        <v>7019553.0078365989</v>
       </c>
     </row>
     <row r="568" spans="7:8" x14ac:dyDescent="0.25">
@@ -5571,7 +5567,7 @@
         <v>555</v>
       </c>
       <c r="H568" s="1">
-        <v>2558168.7683420894</v>
+        <v>3753796.4894749909</v>
       </c>
     </row>
     <row r="569" spans="7:8" x14ac:dyDescent="0.25">
@@ -5579,7 +5575,7 @@
         <v>556</v>
       </c>
       <c r="H569" s="1">
-        <v>3242832.1717706574</v>
+        <v>5914948.3273523767</v>
       </c>
     </row>
     <row r="570" spans="7:8" x14ac:dyDescent="0.25">
@@ -5587,7 +5583,7 @@
         <v>557</v>
       </c>
       <c r="H570" s="1">
-        <v>10221815.026202599</v>
+        <v>2179299.0455259141</v>
       </c>
     </row>
     <row r="571" spans="7:8" x14ac:dyDescent="0.25">
@@ -5595,7 +5591,7 @@
         <v>558</v>
       </c>
       <c r="H571" s="1">
-        <v>2532307.1361110257</v>
+        <v>2237674.8912432888</v>
       </c>
     </row>
     <row r="572" spans="7:8" x14ac:dyDescent="0.25">
@@ -5603,7 +5599,7 @@
         <v>559</v>
       </c>
       <c r="H572" s="1">
-        <v>7773568.3707694439</v>
+        <v>5445797.6628610035</v>
       </c>
     </row>
     <row r="573" spans="7:8" x14ac:dyDescent="0.25">
@@ -5611,7 +5607,7 @@
         <v>560</v>
       </c>
       <c r="H573" s="1">
-        <v>5380387.7235299386</v>
+        <v>5571795.4267452871</v>
       </c>
     </row>
     <row r="574" spans="7:8" x14ac:dyDescent="0.25">
@@ -5619,7 +5615,7 @@
         <v>561</v>
       </c>
       <c r="H574" s="1">
-        <v>12268646.564972093</v>
+        <v>8072120.5326258438</v>
       </c>
     </row>
     <row r="575" spans="7:8" x14ac:dyDescent="0.25">
@@ -5627,7 +5623,7 @@
         <v>562</v>
       </c>
       <c r="H575" s="1">
-        <v>6529868.1610696232</v>
+        <v>4111635.554495859</v>
       </c>
     </row>
     <row r="576" spans="7:8" x14ac:dyDescent="0.25">
@@ -5635,7 +5631,7 @@
         <v>563</v>
       </c>
       <c r="H576" s="1">
-        <v>5524331.9565955466</v>
+        <v>3548157.9289635001</v>
       </c>
     </row>
     <row r="577" spans="7:8" x14ac:dyDescent="0.25">
@@ -5643,7 +5639,7 @@
         <v>564</v>
       </c>
       <c r="H577" s="1">
-        <v>5805425.7658365369</v>
+        <v>15032367.885011261</v>
       </c>
     </row>
     <row r="578" spans="7:8" x14ac:dyDescent="0.25">
@@ -5651,7 +5647,7 @@
         <v>565</v>
       </c>
       <c r="H578" s="1">
-        <v>11913088.471508045</v>
+        <v>10591781.488955161</v>
       </c>
     </row>
     <row r="579" spans="7:8" x14ac:dyDescent="0.25">
@@ -5659,7 +5655,7 @@
         <v>566</v>
       </c>
       <c r="H579" s="1">
-        <v>3636079.6863859212</v>
+        <v>5871949.3606880046</v>
       </c>
     </row>
     <row r="580" spans="7:8" x14ac:dyDescent="0.25">
@@ -5667,7 +5663,7 @@
         <v>567</v>
       </c>
       <c r="H580" s="1">
-        <v>2212735.0718511455</v>
+        <v>3210635.8402931606</v>
       </c>
     </row>
     <row r="581" spans="7:8" x14ac:dyDescent="0.25">
@@ -5675,7 +5671,7 @@
         <v>568</v>
       </c>
       <c r="H581" s="1">
-        <v>4576451.1066346876</v>
+        <v>2684132.3840629631</v>
       </c>
     </row>
     <row r="582" spans="7:8" x14ac:dyDescent="0.25">
@@ -5683,7 +5679,7 @@
         <v>569</v>
       </c>
       <c r="H582" s="1">
-        <v>3618076.7013582755</v>
+        <v>3083576.5063116546</v>
       </c>
     </row>
     <row r="583" spans="7:8" x14ac:dyDescent="0.25">
@@ -5691,7 +5687,7 @@
         <v>570</v>
       </c>
       <c r="H583" s="1">
-        <v>9584994.9751813896</v>
+        <v>6696386.2457183078</v>
       </c>
     </row>
     <row r="584" spans="7:8" x14ac:dyDescent="0.25">
@@ -5699,7 +5695,7 @@
         <v>571</v>
       </c>
       <c r="H584" s="1">
-        <v>5539960.6354679465</v>
+        <v>7901058.6034503356</v>
       </c>
     </row>
     <row r="585" spans="7:8" x14ac:dyDescent="0.25">
@@ -5707,7 +5703,7 @@
         <v>572</v>
       </c>
       <c r="H585" s="1">
-        <v>2630793.1693805442</v>
+        <v>2796240.9982585777</v>
       </c>
     </row>
     <row r="586" spans="7:8" x14ac:dyDescent="0.25">
@@ -5715,7 +5711,7 @@
         <v>573</v>
       </c>
       <c r="H586" s="1">
-        <v>4817742.325145171</v>
+        <v>4044346.4976169695</v>
       </c>
     </row>
     <row r="587" spans="7:8" x14ac:dyDescent="0.25">
@@ -5723,7 +5719,7 @@
         <v>574</v>
       </c>
       <c r="H587" s="1">
-        <v>2773262.9370936542</v>
+        <v>2815309.8332028743</v>
       </c>
     </row>
     <row r="588" spans="7:8" x14ac:dyDescent="0.25">
@@ -5731,7 +5727,7 @@
         <v>575</v>
       </c>
       <c r="H588" s="1">
-        <v>3769795.6290779472</v>
+        <v>5171181.5806031376</v>
       </c>
     </row>
     <row r="589" spans="7:8" x14ac:dyDescent="0.25">
@@ -5739,7 +5735,7 @@
         <v>576</v>
       </c>
       <c r="H589" s="1">
-        <v>4485981.7210934479</v>
+        <v>4462625.5427868254</v>
       </c>
     </row>
     <row r="590" spans="7:8" x14ac:dyDescent="0.25">
@@ -5747,7 +5743,7 @@
         <v>577</v>
       </c>
       <c r="H590" s="1">
-        <v>5634352.3498824183</v>
+        <v>3152350.1128034075</v>
       </c>
     </row>
     <row r="591" spans="7:8" x14ac:dyDescent="0.25">
@@ -5755,7 +5751,7 @@
         <v>578</v>
       </c>
       <c r="H591" s="1">
-        <v>1993636.7984034466</v>
+        <v>4902000.6217922512</v>
       </c>
     </row>
     <row r="592" spans="7:8" x14ac:dyDescent="0.25">
@@ -5763,7 +5759,7 @@
         <v>579</v>
       </c>
       <c r="H592" s="1">
-        <v>10579111.973124478</v>
+        <v>4648914.7083504666</v>
       </c>
     </row>
     <row r="593" spans="7:8" x14ac:dyDescent="0.25">
@@ -5771,7 +5767,7 @@
         <v>580</v>
       </c>
       <c r="H593" s="1">
-        <v>7110985.1740168687</v>
+        <v>4380070.5210778974</v>
       </c>
     </row>
     <row r="594" spans="7:8" x14ac:dyDescent="0.25">
@@ -5779,7 +5775,7 @@
         <v>581</v>
       </c>
       <c r="H594" s="1">
-        <v>5282347.4229859496</v>
+        <v>2385663.419119677</v>
       </c>
     </row>
     <row r="595" spans="7:8" x14ac:dyDescent="0.25">
@@ -5787,7 +5783,7 @@
         <v>582</v>
       </c>
       <c r="H595" s="1">
-        <v>4502205.0434203492</v>
+        <v>8705784.0896611121</v>
       </c>
     </row>
     <row r="596" spans="7:8" x14ac:dyDescent="0.25">
@@ -5795,7 +5791,7 @@
         <v>583</v>
       </c>
       <c r="H596" s="1">
-        <v>4510487.6675896877</v>
+        <v>3759409.5278553832</v>
       </c>
     </row>
     <row r="597" spans="7:8" x14ac:dyDescent="0.25">
@@ -5803,7 +5799,7 @@
         <v>584</v>
       </c>
       <c r="H597" s="1">
-        <v>3946347.6178890127</v>
+        <v>4183421.9398770942</v>
       </c>
     </row>
     <row r="598" spans="7:8" x14ac:dyDescent="0.25">
@@ -5811,7 +5807,7 @@
         <v>585</v>
       </c>
       <c r="H598" s="1">
-        <v>1769396.5407031658</v>
+        <v>1515517.9331059356</v>
       </c>
     </row>
     <row r="599" spans="7:8" x14ac:dyDescent="0.25">
@@ -5819,7 +5815,7 @@
         <v>586</v>
       </c>
       <c r="H599" s="1">
-        <v>6382691.7300338624</v>
+        <v>5563037.6955107739</v>
       </c>
     </row>
     <row r="600" spans="7:8" x14ac:dyDescent="0.25">
@@ -5827,7 +5823,7 @@
         <v>587</v>
       </c>
       <c r="H600" s="1">
-        <v>7981095.1947265193</v>
+        <v>5130369.0934211928</v>
       </c>
     </row>
     <row r="601" spans="7:8" x14ac:dyDescent="0.25">
@@ -5835,7 +5831,7 @@
         <v>588</v>
       </c>
       <c r="H601" s="1">
-        <v>3754547.3330218405</v>
+        <v>2947809.9857121767</v>
       </c>
     </row>
     <row r="602" spans="7:8" x14ac:dyDescent="0.25">
@@ -5843,7 +5839,7 @@
         <v>589</v>
       </c>
       <c r="H602" s="1">
-        <v>10608478.55921939</v>
+        <v>2257902.1702128761</v>
       </c>
     </row>
     <row r="603" spans="7:8" x14ac:dyDescent="0.25">
@@ -5851,7 +5847,7 @@
         <v>590</v>
       </c>
       <c r="H603" s="1">
-        <v>2751593.7332569021</v>
+        <v>9909145.7449766714</v>
       </c>
     </row>
     <row r="604" spans="7:8" x14ac:dyDescent="0.25">
@@ -5859,7 +5855,7 @@
         <v>591</v>
       </c>
       <c r="H604" s="1">
-        <v>2186465.5942834923</v>
+        <v>2177836.8548658825</v>
       </c>
     </row>
     <row r="605" spans="7:8" x14ac:dyDescent="0.25">
@@ -5867,7 +5863,7 @@
         <v>592</v>
       </c>
       <c r="H605" s="1">
-        <v>5074116.6852816707</v>
+        <v>3570411.3499752758</v>
       </c>
     </row>
     <row r="606" spans="7:8" x14ac:dyDescent="0.25">
@@ -5875,7 +5871,7 @@
         <v>593</v>
       </c>
       <c r="H606" s="1">
-        <v>3433789.5428338903</v>
+        <v>9130247.2331963722</v>
       </c>
     </row>
     <row r="607" spans="7:8" x14ac:dyDescent="0.25">
@@ -5883,7 +5879,7 @@
         <v>594</v>
       </c>
       <c r="H607" s="1">
-        <v>7636171.1267347829</v>
+        <v>2962061.7799963113</v>
       </c>
     </row>
     <row r="608" spans="7:8" x14ac:dyDescent="0.25">
@@ -5891,7 +5887,7 @@
         <v>595</v>
       </c>
       <c r="H608" s="1">
-        <v>3680243.1735522542</v>
+        <v>6213697.2820034083</v>
       </c>
     </row>
     <row r="609" spans="7:8" x14ac:dyDescent="0.25">
@@ -5899,7 +5895,7 @@
         <v>596</v>
       </c>
       <c r="H609" s="1">
-        <v>5184740.9079864547</v>
+        <v>8750869.7678562608</v>
       </c>
     </row>
     <row r="610" spans="7:8" x14ac:dyDescent="0.25">
@@ -5907,7 +5903,7 @@
         <v>597</v>
       </c>
       <c r="H610" s="1">
-        <v>3738945.8691130113</v>
+        <v>6608260.4063516175</v>
       </c>
     </row>
     <row r="611" spans="7:8" x14ac:dyDescent="0.25">
@@ -5915,7 +5911,7 @@
         <v>598</v>
       </c>
       <c r="H611" s="1">
-        <v>6125134.6477381792</v>
+        <v>1989536.0395271899</v>
       </c>
     </row>
     <row r="612" spans="7:8" x14ac:dyDescent="0.25">
@@ -5923,7 +5919,7 @@
         <v>599</v>
       </c>
       <c r="H612" s="1">
-        <v>2787900.0305071343</v>
+        <v>7268157.2669602279</v>
       </c>
     </row>
     <row r="613" spans="7:8" x14ac:dyDescent="0.25">
@@ -5931,7 +5927,7 @@
         <v>600</v>
       </c>
       <c r="H613" s="1">
-        <v>2240670.4438753617</v>
+        <v>7560282.5664599612</v>
       </c>
     </row>
     <row r="614" spans="7:8" x14ac:dyDescent="0.25">
@@ -5939,7 +5935,7 @@
         <v>601</v>
       </c>
       <c r="H614" s="1">
-        <v>6601051.7287766878</v>
+        <v>6619677.8071783939</v>
       </c>
     </row>
     <row r="615" spans="7:8" x14ac:dyDescent="0.25">
@@ -5947,7 +5943,7 @@
         <v>602</v>
       </c>
       <c r="H615" s="1">
-        <v>4014401.8370233611</v>
+        <v>9231137.9583869427</v>
       </c>
     </row>
     <row r="616" spans="7:8" x14ac:dyDescent="0.25">
@@ -5955,7 +5951,7 @@
         <v>603</v>
       </c>
       <c r="H616" s="1">
-        <v>6160875.8084687702</v>
+        <v>5798098.4722971944</v>
       </c>
     </row>
     <row r="617" spans="7:8" x14ac:dyDescent="0.25">
@@ -5963,7 +5959,7 @@
         <v>604</v>
       </c>
       <c r="H617" s="1">
-        <v>3257960.5145738064</v>
+        <v>3658322.0701714461</v>
       </c>
     </row>
     <row r="618" spans="7:8" x14ac:dyDescent="0.25">
@@ -5971,7 +5967,7 @@
         <v>605</v>
       </c>
       <c r="H618" s="1">
-        <v>9253458.0232163314</v>
+        <v>11360724.946619671</v>
       </c>
     </row>
     <row r="619" spans="7:8" x14ac:dyDescent="0.25">
@@ -5979,7 +5975,7 @@
         <v>606</v>
       </c>
       <c r="H619" s="1">
-        <v>4054995.5205819146</v>
+        <v>5230289.5173808895</v>
       </c>
     </row>
     <row r="620" spans="7:8" x14ac:dyDescent="0.25">
@@ -5987,7 +5983,7 @@
         <v>607</v>
       </c>
       <c r="H620" s="1">
-        <v>3475975.2723564859</v>
+        <v>3547290.3771462403</v>
       </c>
     </row>
     <row r="621" spans="7:8" x14ac:dyDescent="0.25">
@@ -5995,7 +5991,7 @@
         <v>608</v>
       </c>
       <c r="H621" s="1">
-        <v>3567756.0376866702</v>
+        <v>6963371.2765525579</v>
       </c>
     </row>
     <row r="622" spans="7:8" x14ac:dyDescent="0.25">
@@ -6003,7 +5999,7 @@
         <v>609</v>
       </c>
       <c r="H622" s="1">
-        <v>3580328.2109847558</v>
+        <v>4958217.2955742627</v>
       </c>
     </row>
     <row r="623" spans="7:8" x14ac:dyDescent="0.25">
@@ -6011,7 +6007,7 @@
         <v>610</v>
       </c>
       <c r="H623" s="1">
-        <v>1658834.8467871302</v>
+        <v>6276744.5123669533</v>
       </c>
     </row>
     <row r="624" spans="7:8" x14ac:dyDescent="0.25">
@@ -6019,7 +6015,7 @@
         <v>611</v>
       </c>
       <c r="H624" s="1">
-        <v>3656783.2120891502</v>
+        <v>2972051.6328580943</v>
       </c>
     </row>
     <row r="625" spans="7:8" x14ac:dyDescent="0.25">
@@ -6027,7 +6023,7 @@
         <v>612</v>
       </c>
       <c r="H625" s="1">
-        <v>3139949.356799731</v>
+        <v>1854141.2921373753</v>
       </c>
     </row>
     <row r="626" spans="7:8" x14ac:dyDescent="0.25">
@@ -6035,7 +6031,7 @@
         <v>613</v>
       </c>
       <c r="H626" s="1">
-        <v>3945834.1344355503</v>
+        <v>8730640.5667358972</v>
       </c>
     </row>
     <row r="627" spans="7:8" x14ac:dyDescent="0.25">
@@ -6043,7 +6039,7 @@
         <v>614</v>
       </c>
       <c r="H627" s="1">
-        <v>4765332.0269881543</v>
+        <v>4338369.7596220747</v>
       </c>
     </row>
     <row r="628" spans="7:8" x14ac:dyDescent="0.25">
@@ -6051,7 +6047,7 @@
         <v>615</v>
       </c>
       <c r="H628" s="1">
-        <v>11938955.343016732</v>
+        <v>4637662.2859528447</v>
       </c>
     </row>
     <row r="629" spans="7:8" x14ac:dyDescent="0.25">
@@ -6059,7 +6055,7 @@
         <v>616</v>
       </c>
       <c r="H629" s="1">
-        <v>3923650.1486235093</v>
+        <v>8040887.1351410877</v>
       </c>
     </row>
     <row r="630" spans="7:8" x14ac:dyDescent="0.25">
@@ -6067,7 +6063,7 @@
         <v>617</v>
       </c>
       <c r="H630" s="1">
-        <v>5092766.9230118608</v>
+        <v>5003277.9878684115</v>
       </c>
     </row>
     <row r="631" spans="7:8" x14ac:dyDescent="0.25">
@@ -6075,7 +6071,7 @@
         <v>618</v>
       </c>
       <c r="H631" s="1">
-        <v>5624182.1584992092</v>
+        <v>4102587.4543496235</v>
       </c>
     </row>
     <row r="632" spans="7:8" x14ac:dyDescent="0.25">
@@ -6083,7 +6079,7 @@
         <v>619</v>
       </c>
       <c r="H632" s="1">
-        <v>1778692.6127197316</v>
+        <v>3412938.9779619053</v>
       </c>
     </row>
     <row r="633" spans="7:8" x14ac:dyDescent="0.25">
@@ -6091,7 +6087,7 @@
         <v>620</v>
       </c>
       <c r="H633" s="1">
-        <v>3196824.8054875233</v>
+        <v>2498353.3823844832</v>
       </c>
     </row>
     <row r="634" spans="7:8" x14ac:dyDescent="0.25">
@@ -6099,7 +6095,7 @@
         <v>621</v>
       </c>
       <c r="H634" s="1">
-        <v>2362846.3388999547</v>
+        <v>5194822.5726018231</v>
       </c>
     </row>
     <row r="635" spans="7:8" x14ac:dyDescent="0.25">
@@ -6107,7 +6103,7 @@
         <v>622</v>
       </c>
       <c r="H635" s="1">
-        <v>8375037.9269048944</v>
+        <v>6681180.9346357575</v>
       </c>
     </row>
     <row r="636" spans="7:8" x14ac:dyDescent="0.25">
@@ -6115,7 +6111,7 @@
         <v>623</v>
       </c>
       <c r="H636" s="1">
-        <v>10309431.988507455</v>
+        <v>14464443.288070824</v>
       </c>
     </row>
     <row r="637" spans="7:8" x14ac:dyDescent="0.25">
@@ -6123,7 +6119,7 @@
         <v>624</v>
       </c>
       <c r="H637" s="1">
-        <v>4860314.3895290373</v>
+        <v>2194714.741852148</v>
       </c>
     </row>
     <row r="638" spans="7:8" x14ac:dyDescent="0.25">
@@ -6131,7 +6127,7 @@
         <v>625</v>
       </c>
       <c r="H638" s="1">
-        <v>5815225.9749422427</v>
+        <v>2893137.4230349362</v>
       </c>
     </row>
     <row r="639" spans="7:8" x14ac:dyDescent="0.25">
@@ -6139,7 +6135,7 @@
         <v>626</v>
       </c>
       <c r="H639" s="1">
-        <v>7105215.2587471036</v>
+        <v>3587779.1535969726</v>
       </c>
     </row>
     <row r="640" spans="7:8" x14ac:dyDescent="0.25">
@@ -6147,7 +6143,7 @@
         <v>627</v>
       </c>
       <c r="H640" s="1">
-        <v>7748545.5646347301</v>
+        <v>5159004.7715345426</v>
       </c>
     </row>
     <row r="641" spans="7:8" x14ac:dyDescent="0.25">
@@ -6155,7 +6151,7 @@
         <v>628</v>
       </c>
       <c r="H641" s="1">
-        <v>1859255.2186770057</v>
+        <v>11781875.49521949</v>
       </c>
     </row>
     <row r="642" spans="7:8" x14ac:dyDescent="0.25">
@@ -6163,7 +6159,7 @@
         <v>629</v>
       </c>
       <c r="H642" s="1">
-        <v>2440592.6113304649</v>
+        <v>5507171.9740729928</v>
       </c>
     </row>
     <row r="643" spans="7:8" x14ac:dyDescent="0.25">
@@ -6171,7 +6167,7 @@
         <v>630</v>
       </c>
       <c r="H643" s="1">
-        <v>5003113.5556188775</v>
+        <v>3436890.1599960872</v>
       </c>
     </row>
     <row r="644" spans="7:8" x14ac:dyDescent="0.25">
@@ -6179,7 +6175,7 @@
         <v>631</v>
       </c>
       <c r="H644" s="1">
-        <v>5951246.5748641705</v>
+        <v>5407021.9234387362</v>
       </c>
     </row>
     <row r="645" spans="7:8" x14ac:dyDescent="0.25">
@@ -6187,7 +6183,7 @@
         <v>632</v>
       </c>
       <c r="H645" s="1">
-        <v>3795520.4118971764</v>
+        <v>8424470.3922669031</v>
       </c>
     </row>
     <row r="646" spans="7:8" x14ac:dyDescent="0.25">
@@ -6195,7 +6191,7 @@
         <v>633</v>
       </c>
       <c r="H646" s="1">
-        <v>5388974.2557640895</v>
+        <v>2244216.0128245987</v>
       </c>
     </row>
     <row r="647" spans="7:8" x14ac:dyDescent="0.25">
@@ -6203,7 +6199,7 @@
         <v>634</v>
       </c>
       <c r="H647" s="1">
-        <v>4714775.6476213681</v>
+        <v>3149665.1028886363</v>
       </c>
     </row>
     <row r="648" spans="7:8" x14ac:dyDescent="0.25">
@@ -6211,7 +6207,7 @@
         <v>635</v>
       </c>
       <c r="H648" s="1">
-        <v>2009223.6845094056</v>
+        <v>4255075.8393700263</v>
       </c>
     </row>
     <row r="649" spans="7:8" x14ac:dyDescent="0.25">
@@ -6219,7 +6215,7 @@
         <v>636</v>
       </c>
       <c r="H649" s="1">
-        <v>5342881.5603590729</v>
+        <v>5600327.4948475277</v>
       </c>
     </row>
     <row r="650" spans="7:8" x14ac:dyDescent="0.25">
@@ -6227,7 +6223,7 @@
         <v>637</v>
       </c>
       <c r="H650" s="1">
-        <v>4154057.1202736893</v>
+        <v>8646481.141973095</v>
       </c>
     </row>
     <row r="651" spans="7:8" x14ac:dyDescent="0.25">
@@ -6235,7 +6231,7 @@
         <v>638</v>
       </c>
       <c r="H651" s="1">
-        <v>8863087.841520166</v>
+        <v>2806963.0204416863</v>
       </c>
     </row>
     <row r="652" spans="7:8" x14ac:dyDescent="0.25">
@@ -6243,7 +6239,7 @@
         <v>639</v>
       </c>
       <c r="H652" s="1">
-        <v>7341007.8811785625</v>
+        <v>7781574.765187216</v>
       </c>
     </row>
     <row r="653" spans="7:8" x14ac:dyDescent="0.25">
@@ -6251,7 +6247,7 @@
         <v>640</v>
       </c>
       <c r="H653" s="1">
-        <v>13952110.317185454</v>
+        <v>2687994.9413842042</v>
       </c>
     </row>
     <row r="654" spans="7:8" x14ac:dyDescent="0.25">
@@ -6259,7 +6255,7 @@
         <v>641</v>
       </c>
       <c r="H654" s="1">
-        <v>2691465.6334750145</v>
+        <v>3462842.7679713676</v>
       </c>
     </row>
     <row r="655" spans="7:8" x14ac:dyDescent="0.25">
@@ -6267,7 +6263,7 @@
         <v>642</v>
       </c>
       <c r="H655" s="1">
-        <v>12328881.849901969</v>
+        <v>3407818.7853537616</v>
       </c>
     </row>
     <row r="656" spans="7:8" x14ac:dyDescent="0.25">
@@ -6275,7 +6271,7 @@
         <v>643</v>
       </c>
       <c r="H656" s="1">
-        <v>5286648.3185308333</v>
+        <v>6276415.6532449722</v>
       </c>
     </row>
     <row r="657" spans="7:8" x14ac:dyDescent="0.25">
@@ -6283,7 +6279,7 @@
         <v>644</v>
       </c>
       <c r="H657" s="1">
-        <v>2639340.6370555833</v>
+        <v>5808905.0561725507</v>
       </c>
     </row>
     <row r="658" spans="7:8" x14ac:dyDescent="0.25">
@@ -6291,7 +6287,7 @@
         <v>645</v>
       </c>
       <c r="H658" s="1">
-        <v>13168996.36595637</v>
+        <v>2620824.4689312652</v>
       </c>
     </row>
     <row r="659" spans="7:8" x14ac:dyDescent="0.25">
@@ -6299,7 +6295,7 @@
         <v>646</v>
       </c>
       <c r="H659" s="1">
-        <v>3112144.3891665326</v>
+        <v>3591824.4157032855</v>
       </c>
     </row>
     <row r="660" spans="7:8" x14ac:dyDescent="0.25">
@@ -6307,7 +6303,7 @@
         <v>647</v>
       </c>
       <c r="H660" s="1">
-        <v>2797900.7121601044</v>
+        <v>6384057.4354956262</v>
       </c>
     </row>
     <row r="661" spans="7:8" x14ac:dyDescent="0.25">
@@ -6315,7 +6311,7 @@
         <v>648</v>
       </c>
       <c r="H661" s="1">
-        <v>2924567.4597320189</v>
+        <v>8693253.5189472046</v>
       </c>
     </row>
     <row r="662" spans="7:8" x14ac:dyDescent="0.25">
@@ -6323,7 +6319,7 @@
         <v>649</v>
       </c>
       <c r="H662" s="1">
-        <v>5775203.0609567193</v>
+        <v>4642249.1270228149</v>
       </c>
     </row>
     <row r="663" spans="7:8" x14ac:dyDescent="0.25">
@@ -6331,7 +6327,7 @@
         <v>650</v>
       </c>
       <c r="H663" s="1">
-        <v>1687227.8393751308</v>
+        <v>7531423.8013900025</v>
       </c>
     </row>
     <row r="664" spans="7:8" x14ac:dyDescent="0.25">
@@ -6339,7 +6335,7 @@
         <v>651</v>
       </c>
       <c r="H664" s="1">
-        <v>3775325.2285849992</v>
+        <v>7339781.1461808439</v>
       </c>
     </row>
     <row r="665" spans="7:8" x14ac:dyDescent="0.25">
@@ -6347,7 +6343,7 @@
         <v>652</v>
       </c>
       <c r="H665" s="1">
-        <v>801127.89643769455</v>
+        <v>3786298.3572532749</v>
       </c>
     </row>
     <row r="666" spans="7:8" x14ac:dyDescent="0.25">
@@ -6355,7 +6351,7 @@
         <v>653</v>
       </c>
       <c r="H666" s="1">
-        <v>6850208.2227160027</v>
+        <v>4312307.2828091541</v>
       </c>
     </row>
     <row r="667" spans="7:8" x14ac:dyDescent="0.25">
@@ -6363,7 +6359,7 @@
         <v>654</v>
       </c>
       <c r="H667" s="1">
-        <v>1750064.4696088585</v>
+        <v>14045893.230232798</v>
       </c>
     </row>
     <row r="668" spans="7:8" x14ac:dyDescent="0.25">
@@ -6371,7 +6367,7 @@
         <v>655</v>
       </c>
       <c r="H668" s="1">
-        <v>9158861.5884099137</v>
+        <v>8091180.0687615657</v>
       </c>
     </row>
     <row r="669" spans="7:8" x14ac:dyDescent="0.25">
@@ -6379,7 +6375,7 @@
         <v>656</v>
       </c>
       <c r="H669" s="1">
-        <v>3560132.381155639</v>
+        <v>9791077.9344441779</v>
       </c>
     </row>
     <row r="670" spans="7:8" x14ac:dyDescent="0.25">
@@ -6387,7 +6383,7 @@
         <v>657</v>
       </c>
       <c r="H670" s="1">
-        <v>2641754.5713399574</v>
+        <v>6342955.7918705093</v>
       </c>
     </row>
     <row r="671" spans="7:8" x14ac:dyDescent="0.25">
@@ -6395,7 +6391,7 @@
         <v>658</v>
       </c>
       <c r="H671" s="1">
-        <v>7802115.3445959147</v>
+        <v>9206528.47792737</v>
       </c>
     </row>
     <row r="672" spans="7:8" x14ac:dyDescent="0.25">
@@ -6403,7 +6399,7 @@
         <v>659</v>
       </c>
       <c r="H672" s="1">
-        <v>8809763.2638596036</v>
+        <v>1953989.1714982258</v>
       </c>
     </row>
     <row r="673" spans="7:8" x14ac:dyDescent="0.25">
@@ -6411,7 +6407,7 @@
         <v>660</v>
       </c>
       <c r="H673" s="1">
-        <v>5083850.0913358452</v>
+        <v>1974822.5508987533</v>
       </c>
     </row>
     <row r="674" spans="7:8" x14ac:dyDescent="0.25">
@@ -6419,7 +6415,7 @@
         <v>661</v>
       </c>
       <c r="H674" s="1">
-        <v>2901612.7255049585</v>
+        <v>4627974.7072298685</v>
       </c>
     </row>
     <row r="675" spans="7:8" x14ac:dyDescent="0.25">
@@ -6427,7 +6423,7 @@
         <v>662</v>
       </c>
       <c r="H675" s="1">
-        <v>3448715.4237497407</v>
+        <v>8817469.3709625583</v>
       </c>
     </row>
     <row r="676" spans="7:8" x14ac:dyDescent="0.25">
@@ -6435,7 +6431,7 @@
         <v>663</v>
       </c>
       <c r="H676" s="1">
-        <v>19235257.317898791</v>
+        <v>4569213.5098543847</v>
       </c>
     </row>
     <row r="677" spans="7:8" x14ac:dyDescent="0.25">
@@ -6443,7 +6439,7 @@
         <v>664</v>
       </c>
       <c r="H677" s="1">
-        <v>3625669.5089014024</v>
+        <v>9308444.9671939369</v>
       </c>
     </row>
     <row r="678" spans="7:8" x14ac:dyDescent="0.25">
@@ -6451,7 +6447,7 @@
         <v>665</v>
       </c>
       <c r="H678" s="1">
-        <v>2651175.662779429</v>
+        <v>9094394.5231284015</v>
       </c>
     </row>
     <row r="679" spans="7:8" x14ac:dyDescent="0.25">
@@ -6459,7 +6455,7 @@
         <v>666</v>
       </c>
       <c r="H679" s="1">
-        <v>5966360.726719196</v>
+        <v>4311373.3289043484</v>
       </c>
     </row>
     <row r="680" spans="7:8" x14ac:dyDescent="0.25">
@@ -6467,7 +6463,7 @@
         <v>667</v>
       </c>
       <c r="H680" s="1">
-        <v>6486614.7383177374</v>
+        <v>2625706.5434738863</v>
       </c>
     </row>
     <row r="681" spans="7:8" x14ac:dyDescent="0.25">
@@ -6475,7 +6471,7 @@
         <v>668</v>
       </c>
       <c r="H681" s="1">
-        <v>2414615.8677714621</v>
+        <v>3574825.4259940432</v>
       </c>
     </row>
     <row r="682" spans="7:8" x14ac:dyDescent="0.25">
@@ -6483,7 +6479,7 @@
         <v>669</v>
       </c>
       <c r="H682" s="1">
-        <v>12198561.397934208</v>
+        <v>7576549.2581366384</v>
       </c>
     </row>
     <row r="683" spans="7:8" x14ac:dyDescent="0.25">
@@ -6491,7 +6487,7 @@
         <v>670</v>
       </c>
       <c r="H683" s="1">
-        <v>9105767.2867312208</v>
+        <v>2503174.8918528957</v>
       </c>
     </row>
     <row r="684" spans="7:8" x14ac:dyDescent="0.25">
@@ -6499,7 +6495,7 @@
         <v>671</v>
       </c>
       <c r="H684" s="1">
-        <v>6755374.9091628492</v>
+        <v>1688594.8830921908</v>
       </c>
     </row>
     <row r="685" spans="7:8" x14ac:dyDescent="0.25">
@@ -6507,7 +6503,7 @@
         <v>672</v>
       </c>
       <c r="H685" s="1">
-        <v>13864210.686807115</v>
+        <v>3833568.0105363578</v>
       </c>
     </row>
     <row r="686" spans="7:8" x14ac:dyDescent="0.25">
@@ -6515,7 +6511,7 @@
         <v>673</v>
       </c>
       <c r="H686" s="1">
-        <v>4756320.3981077</v>
+        <v>4242290.0307999495</v>
       </c>
     </row>
     <row r="687" spans="7:8" x14ac:dyDescent="0.25">
@@ -6523,7 +6519,7 @@
         <v>674</v>
       </c>
       <c r="H687" s="1">
-        <v>9842816.8304686844</v>
+        <v>3283898.9424499469</v>
       </c>
     </row>
     <row r="688" spans="7:8" x14ac:dyDescent="0.25">
@@ -6531,7 +6527,7 @@
         <v>675</v>
       </c>
       <c r="H688" s="1">
-        <v>5369007.5193735659</v>
+        <v>2604686.3999895216</v>
       </c>
     </row>
     <row r="689" spans="7:8" x14ac:dyDescent="0.25">
@@ -6539,7 +6535,7 @@
         <v>676</v>
       </c>
       <c r="H689" s="1">
-        <v>5256695.2462559678</v>
+        <v>3411507.0454127975</v>
       </c>
     </row>
     <row r="690" spans="7:8" x14ac:dyDescent="0.25">
@@ -6547,7 +6543,7 @@
         <v>677</v>
       </c>
       <c r="H690" s="1">
-        <v>4609231.3941153437</v>
+        <v>3352070.5813113293</v>
       </c>
     </row>
     <row r="691" spans="7:8" x14ac:dyDescent="0.25">
@@ -6555,7 +6551,7 @@
         <v>678</v>
       </c>
       <c r="H691" s="1">
-        <v>1918503.5037431628</v>
+        <v>4438474.519668512</v>
       </c>
     </row>
     <row r="692" spans="7:8" x14ac:dyDescent="0.25">
@@ -6563,7 +6559,7 @@
         <v>679</v>
       </c>
       <c r="H692" s="1">
-        <v>1100780.9243504633</v>
+        <v>4290146.6238067662</v>
       </c>
     </row>
     <row r="693" spans="7:8" x14ac:dyDescent="0.25">
@@ -6571,7 +6567,7 @@
         <v>680</v>
       </c>
       <c r="H693" s="1">
-        <v>3078502.5530093089</v>
+        <v>4054547.0623195847</v>
       </c>
     </row>
     <row r="694" spans="7:8" x14ac:dyDescent="0.25">
@@ -6579,7 +6575,7 @@
         <v>681</v>
       </c>
       <c r="H694" s="1">
-        <v>4749976.7714504246</v>
+        <v>9242130.1166267172</v>
       </c>
     </row>
     <row r="695" spans="7:8" x14ac:dyDescent="0.25">
@@ -6587,7 +6583,7 @@
         <v>682</v>
       </c>
       <c r="H695" s="1">
-        <v>5686493.4100397546</v>
+        <v>3885311.9547476796</v>
       </c>
     </row>
     <row r="696" spans="7:8" x14ac:dyDescent="0.25">
@@ -6595,7 +6591,7 @@
         <v>683</v>
       </c>
       <c r="H696" s="1">
-        <v>2792532.7293901672</v>
+        <v>9076770.3616299331</v>
       </c>
     </row>
     <row r="697" spans="7:8" x14ac:dyDescent="0.25">
@@ -6603,7 +6599,7 @@
         <v>684</v>
       </c>
       <c r="H697" s="1">
-        <v>4657776.4381694291</v>
+        <v>2050912.8644769078</v>
       </c>
     </row>
     <row r="698" spans="7:8" x14ac:dyDescent="0.25">
@@ -6611,7 +6607,7 @@
         <v>685</v>
       </c>
       <c r="H698" s="1">
-        <v>4570649.0569091067</v>
+        <v>2072642.4086438559</v>
       </c>
     </row>
     <row r="699" spans="7:8" x14ac:dyDescent="0.25">
@@ -6619,7 +6615,7 @@
         <v>686</v>
       </c>
       <c r="H699" s="1">
-        <v>5542137.4536279254</v>
+        <v>6521606.0602127174</v>
       </c>
     </row>
     <row r="700" spans="7:8" x14ac:dyDescent="0.25">
@@ -6627,7 +6623,7 @@
         <v>687</v>
       </c>
       <c r="H700" s="1">
-        <v>6494320.6364885112</v>
+        <v>2877783.2061592364</v>
       </c>
     </row>
     <row r="701" spans="7:8" x14ac:dyDescent="0.25">
@@ -6635,7 +6631,7 @@
         <v>688</v>
       </c>
       <c r="H701" s="1">
-        <v>4090516.3254633499</v>
+        <v>5291044.3776193121</v>
       </c>
     </row>
     <row r="702" spans="7:8" x14ac:dyDescent="0.25">
@@ -6643,7 +6639,7 @@
         <v>689</v>
       </c>
       <c r="H702" s="1">
-        <v>4680069.9486182304</v>
+        <v>2879868.9667334482</v>
       </c>
     </row>
     <row r="703" spans="7:8" x14ac:dyDescent="0.25">
@@ -6651,7 +6647,7 @@
         <v>690</v>
       </c>
       <c r="H703" s="1">
-        <v>6204109.2602620525</v>
+        <v>1506161.4765252171</v>
       </c>
     </row>
     <row r="704" spans="7:8" x14ac:dyDescent="0.25">
@@ -6659,7 +6655,7 @@
         <v>691</v>
       </c>
       <c r="H704" s="1">
-        <v>11764149.163121443</v>
+        <v>3197271.3604578627</v>
       </c>
     </row>
     <row r="705" spans="7:8" x14ac:dyDescent="0.25">
@@ -6667,7 +6663,7 @@
         <v>692</v>
       </c>
       <c r="H705" s="1">
-        <v>2961392.2149701864</v>
+        <v>5345208.1702078534</v>
       </c>
     </row>
     <row r="706" spans="7:8" x14ac:dyDescent="0.25">
@@ -6675,7 +6671,7 @@
         <v>693</v>
       </c>
       <c r="H706" s="1">
-        <v>3828351.3655129429</v>
+        <v>1623622.1319175647</v>
       </c>
     </row>
     <row r="707" spans="7:8" x14ac:dyDescent="0.25">
@@ -6683,7 +6679,7 @@
         <v>694</v>
       </c>
       <c r="H707" s="1">
-        <v>9663047.7954693865</v>
+        <v>6563416.0819712859</v>
       </c>
     </row>
     <row r="708" spans="7:8" x14ac:dyDescent="0.25">
@@ -6691,7 +6687,7 @@
         <v>695</v>
       </c>
       <c r="H708" s="1">
-        <v>4503440.9799953103</v>
+        <v>7027266.3327291561</v>
       </c>
     </row>
     <row r="709" spans="7:8" x14ac:dyDescent="0.25">
@@ -6699,7 +6695,7 @@
         <v>696</v>
       </c>
       <c r="H709" s="1">
-        <v>3005610.6748037841</v>
+        <v>3463129.5120625868</v>
       </c>
     </row>
     <row r="710" spans="7:8" x14ac:dyDescent="0.25">
@@ -6707,7 +6703,7 @@
         <v>697</v>
       </c>
       <c r="H710" s="1">
-        <v>4652702.7541147051</v>
+        <v>3622172.9193947199</v>
       </c>
     </row>
     <row r="711" spans="7:8" x14ac:dyDescent="0.25">
@@ -6715,7 +6711,7 @@
         <v>698</v>
       </c>
       <c r="H711" s="1">
-        <v>2988094.5940710893</v>
+        <v>3444341.9858857808</v>
       </c>
     </row>
     <row r="712" spans="7:8" x14ac:dyDescent="0.25">
@@ -6723,7 +6719,7 @@
         <v>699</v>
       </c>
       <c r="H712" s="1">
-        <v>5171154.0303158555</v>
+        <v>3448849.6914865184</v>
       </c>
     </row>
     <row r="713" spans="7:8" x14ac:dyDescent="0.25">
@@ -6731,7 +6727,7 @@
         <v>700</v>
       </c>
       <c r="H713" s="1">
-        <v>5465019.7943263697</v>
+        <v>4266842.2243602881</v>
       </c>
     </row>
     <row r="714" spans="7:8" x14ac:dyDescent="0.25">
@@ -6739,7 +6735,7 @@
         <v>701</v>
       </c>
       <c r="H714" s="1">
-        <v>2635615.7376456168</v>
+        <v>3449803.4550522356</v>
       </c>
     </row>
     <row r="715" spans="7:8" x14ac:dyDescent="0.25">
@@ -6747,7 +6743,7 @@
         <v>702</v>
       </c>
       <c r="H715" s="1">
-        <v>2151989.990099092</v>
+        <v>7554918.6157466127</v>
       </c>
     </row>
     <row r="716" spans="7:8" x14ac:dyDescent="0.25">
@@ -6755,7 +6751,7 @@
         <v>703</v>
       </c>
       <c r="H716" s="1">
-        <v>4929066.6784915794</v>
+        <v>1296596.619852731</v>
       </c>
     </row>
     <row r="717" spans="7:8" x14ac:dyDescent="0.25">
@@ -6763,7 +6759,7 @@
         <v>704</v>
       </c>
       <c r="H717" s="1">
-        <v>4066503.7865507095</v>
+        <v>13721103.214148171</v>
       </c>
     </row>
     <row r="718" spans="7:8" x14ac:dyDescent="0.25">
@@ -6771,7 +6767,7 @@
         <v>705</v>
       </c>
       <c r="H718" s="1">
-        <v>11602412.678253097</v>
+        <v>8301280.5212335652</v>
       </c>
     </row>
     <row r="719" spans="7:8" x14ac:dyDescent="0.25">
@@ -6779,7 +6775,7 @@
         <v>706</v>
       </c>
       <c r="H719" s="1">
-        <v>2714024.2254011999</v>
+        <v>4150429.6459874557</v>
       </c>
     </row>
     <row r="720" spans="7:8" x14ac:dyDescent="0.25">
@@ -6787,7 +6783,7 @@
         <v>707</v>
       </c>
       <c r="H720" s="1">
-        <v>4949132.8724914575</v>
+        <v>2456443.9355122652</v>
       </c>
     </row>
     <row r="721" spans="7:8" x14ac:dyDescent="0.25">
@@ -6795,7 +6791,7 @@
         <v>708</v>
       </c>
       <c r="H721" s="1">
-        <v>1972764.1158776947</v>
+        <v>5978391.6537285475</v>
       </c>
     </row>
     <row r="722" spans="7:8" x14ac:dyDescent="0.25">
@@ -6803,7 +6799,7 @@
         <v>709</v>
       </c>
       <c r="H722" s="1">
-        <v>5814027.8502475498</v>
+        <v>7314667.9375651209</v>
       </c>
     </row>
     <row r="723" spans="7:8" x14ac:dyDescent="0.25">
@@ -6811,7 +6807,7 @@
         <v>710</v>
       </c>
       <c r="H723" s="1">
-        <v>7245011.0848201988</v>
+        <v>4123640.2692024116</v>
       </c>
     </row>
     <row r="724" spans="7:8" x14ac:dyDescent="0.25">
@@ -6819,7 +6815,7 @@
         <v>711</v>
       </c>
       <c r="H724" s="1">
-        <v>2542618.1670863358</v>
+        <v>4806738.7259019893</v>
       </c>
     </row>
     <row r="725" spans="7:8" x14ac:dyDescent="0.25">
@@ -6827,7 +6823,7 @@
         <v>712</v>
       </c>
       <c r="H725" s="1">
-        <v>8104560.6000064621</v>
+        <v>11305155.269474288</v>
       </c>
     </row>
     <row r="726" spans="7:8" x14ac:dyDescent="0.25">
@@ -6835,7 +6831,7 @@
         <v>713</v>
       </c>
       <c r="H726" s="1">
-        <v>3233440.1238723602</v>
+        <v>8338122.5628157845</v>
       </c>
     </row>
     <row r="727" spans="7:8" x14ac:dyDescent="0.25">
@@ -6843,7 +6839,7 @@
         <v>714</v>
       </c>
       <c r="H727" s="1">
-        <v>4098969.4017819217</v>
+        <v>2096186.559740273</v>
       </c>
     </row>
     <row r="728" spans="7:8" x14ac:dyDescent="0.25">
@@ -6851,7 +6847,7 @@
         <v>715</v>
       </c>
       <c r="H728" s="1">
-        <v>6007659.0896436945</v>
+        <v>4598320.812272653</v>
       </c>
     </row>
     <row r="729" spans="7:8" x14ac:dyDescent="0.25">
@@ -6859,7 +6855,7 @@
         <v>716</v>
       </c>
       <c r="H729" s="1">
-        <v>3813589.998516724</v>
+        <v>7303417.7358252779</v>
       </c>
     </row>
     <row r="730" spans="7:8" x14ac:dyDescent="0.25">
@@ -6867,7 +6863,7 @@
         <v>717</v>
       </c>
       <c r="H730" s="1">
-        <v>6295656.9618461542</v>
+        <v>2103994.7930539688</v>
       </c>
     </row>
     <row r="731" spans="7:8" x14ac:dyDescent="0.25">
@@ -6875,7 +6871,7 @@
         <v>718</v>
       </c>
       <c r="H731" s="1">
-        <v>3641140.5191718154</v>
+        <v>7182603.9446917539</v>
       </c>
     </row>
     <row r="732" spans="7:8" x14ac:dyDescent="0.25">
@@ -6883,7 +6879,7 @@
         <v>719</v>
       </c>
       <c r="H732" s="1">
-        <v>3039336.4489360284</v>
+        <v>4206039.8557902407</v>
       </c>
     </row>
     <row r="733" spans="7:8" x14ac:dyDescent="0.25">
@@ -6891,7 +6887,7 @@
         <v>720</v>
       </c>
       <c r="H733" s="1">
-        <v>8596639.8821530975</v>
+        <v>8032687.9773649229</v>
       </c>
     </row>
     <row r="734" spans="7:8" x14ac:dyDescent="0.25">
@@ -6899,7 +6895,7 @@
         <v>721</v>
       </c>
       <c r="H734" s="1">
-        <v>7778847.2123302249</v>
+        <v>3127020.3276371006</v>
       </c>
     </row>
     <row r="735" spans="7:8" x14ac:dyDescent="0.25">
@@ -6907,7 +6903,7 @@
         <v>722</v>
       </c>
       <c r="H735" s="1">
-        <v>6251514.7778036715</v>
+        <v>3080427.879243941</v>
       </c>
     </row>
     <row r="736" spans="7:8" x14ac:dyDescent="0.25">
@@ -6915,7 +6911,7 @@
         <v>723</v>
       </c>
       <c r="H736" s="1">
-        <v>4928626.2945422502</v>
+        <v>1826009.4476107089</v>
       </c>
     </row>
     <row r="737" spans="7:8" x14ac:dyDescent="0.25">
@@ -6923,7 +6919,7 @@
         <v>724</v>
       </c>
       <c r="H737" s="1">
-        <v>1481129.4341699709</v>
+        <v>8520622.7016310021</v>
       </c>
     </row>
     <row r="738" spans="7:8" x14ac:dyDescent="0.25">
@@ -6931,7 +6927,7 @@
         <v>725</v>
       </c>
       <c r="H738" s="1">
-        <v>14416571.522489598</v>
+        <v>3470320.1470470419</v>
       </c>
     </row>
     <row r="739" spans="7:8" x14ac:dyDescent="0.25">
@@ -6939,7 +6935,7 @@
         <v>726</v>
       </c>
       <c r="H739" s="1">
-        <v>3478421.7585846963</v>
+        <v>2324913.4781751102</v>
       </c>
     </row>
     <row r="740" spans="7:8" x14ac:dyDescent="0.25">
@@ -6947,7 +6943,7 @@
         <v>727</v>
       </c>
       <c r="H740" s="1">
-        <v>990044.12507581979</v>
+        <v>8054884.3143372573</v>
       </c>
     </row>
     <row r="741" spans="7:8" x14ac:dyDescent="0.25">
@@ -6955,7 +6951,7 @@
         <v>728</v>
       </c>
       <c r="H741" s="1">
-        <v>4505273.6285437811</v>
+        <v>20681707.398430809</v>
       </c>
     </row>
     <row r="742" spans="7:8" x14ac:dyDescent="0.25">
@@ -6963,7 +6959,7 @@
         <v>729</v>
       </c>
       <c r="H742" s="1">
-        <v>10157351.915812617</v>
+        <v>7673959.9171895273</v>
       </c>
     </row>
     <row r="743" spans="7:8" x14ac:dyDescent="0.25">
@@ -6971,7 +6967,7 @@
         <v>730</v>
       </c>
       <c r="H743" s="1">
-        <v>2829964.1642368296</v>
+        <v>3288497.9050865062</v>
       </c>
     </row>
     <row r="744" spans="7:8" x14ac:dyDescent="0.25">
@@ -6979,7 +6975,7 @@
         <v>731</v>
       </c>
       <c r="H744" s="1">
-        <v>3318579.627668879</v>
+        <v>3401716.5559841972</v>
       </c>
     </row>
     <row r="745" spans="7:8" x14ac:dyDescent="0.25">
@@ -6987,7 +6983,7 @@
         <v>732</v>
       </c>
       <c r="H745" s="1">
-        <v>3180703.5504295323</v>
+        <v>8154952.94342044</v>
       </c>
     </row>
     <row r="746" spans="7:8" x14ac:dyDescent="0.25">
@@ -6995,7 +6991,7 @@
         <v>733</v>
       </c>
       <c r="H746" s="1">
-        <v>4497489.645363451</v>
+        <v>5463879.0020614499</v>
       </c>
     </row>
     <row r="747" spans="7:8" x14ac:dyDescent="0.25">
@@ -7003,7 +6999,7 @@
         <v>734</v>
       </c>
       <c r="H747" s="1">
-        <v>2303538.0224861102</v>
+        <v>2236763.3429026962</v>
       </c>
     </row>
     <row r="748" spans="7:8" x14ac:dyDescent="0.25">
@@ -7011,7 +7007,7 @@
         <v>735</v>
       </c>
       <c r="H748" s="1">
-        <v>7270245.3263009218</v>
+        <v>3170812.503336871</v>
       </c>
     </row>
     <row r="749" spans="7:8" x14ac:dyDescent="0.25">
@@ -7019,7 +7015,7 @@
         <v>736</v>
       </c>
       <c r="H749" s="1">
-        <v>6982653.3130634204</v>
+        <v>7164054.5384718608</v>
       </c>
     </row>
     <row r="750" spans="7:8" x14ac:dyDescent="0.25">
@@ -7027,7 +7023,7 @@
         <v>737</v>
       </c>
       <c r="H750" s="1">
-        <v>1951032.4716577304</v>
+        <v>6314630.7796420874</v>
       </c>
     </row>
     <row r="751" spans="7:8" x14ac:dyDescent="0.25">
@@ -7035,7 +7031,7 @@
         <v>738</v>
       </c>
       <c r="H751" s="1">
-        <v>5088885.2062091427</v>
+        <v>4549253.332167441</v>
       </c>
     </row>
     <row r="752" spans="7:8" x14ac:dyDescent="0.25">
@@ -7043,7 +7039,7 @@
         <v>739</v>
       </c>
       <c r="H752" s="1">
-        <v>1235852.9325552536</v>
+        <v>3896927.2616708754</v>
       </c>
     </row>
     <row r="753" spans="7:8" x14ac:dyDescent="0.25">
@@ -7051,7 +7047,7 @@
         <v>740</v>
       </c>
       <c r="H753" s="1">
-        <v>8279931.5885101808</v>
+        <v>6358468.5042500133</v>
       </c>
     </row>
     <row r="754" spans="7:8" x14ac:dyDescent="0.25">
@@ -7059,7 +7055,7 @@
         <v>741</v>
       </c>
       <c r="H754" s="1">
-        <v>2564032.8224010472</v>
+        <v>3806668.036293936</v>
       </c>
     </row>
     <row r="755" spans="7:8" x14ac:dyDescent="0.25">
@@ -7067,7 +7063,7 @@
         <v>742</v>
       </c>
       <c r="H755" s="1">
-        <v>2709158.4396805381</v>
+        <v>3479765.4387860387</v>
       </c>
     </row>
     <row r="756" spans="7:8" x14ac:dyDescent="0.25">
@@ -7075,7 +7071,7 @@
         <v>743</v>
       </c>
       <c r="H756" s="1">
-        <v>5879915.3755224766</v>
+        <v>5057092.4486993374</v>
       </c>
     </row>
     <row r="757" spans="7:8" x14ac:dyDescent="0.25">
@@ -7083,7 +7079,7 @@
         <v>744</v>
       </c>
       <c r="H757" s="1">
-        <v>10013980.365117284</v>
+        <v>9436696.4434048738</v>
       </c>
     </row>
     <row r="758" spans="7:8" x14ac:dyDescent="0.25">
@@ -7091,7 +7087,7 @@
         <v>745</v>
       </c>
       <c r="H758" s="1">
-        <v>5060449.9510519858</v>
+        <v>3856488.0683318805</v>
       </c>
     </row>
     <row r="759" spans="7:8" x14ac:dyDescent="0.25">
@@ -7099,7 +7095,7 @@
         <v>746</v>
       </c>
       <c r="H759" s="1">
-        <v>4062516.0268178047</v>
+        <v>7875943.6581600448</v>
       </c>
     </row>
     <row r="760" spans="7:8" x14ac:dyDescent="0.25">
@@ -7107,7 +7103,7 @@
         <v>747</v>
       </c>
       <c r="H760" s="1">
-        <v>7260323.4858890017</v>
+        <v>4736143.4409818854</v>
       </c>
     </row>
     <row r="761" spans="7:8" x14ac:dyDescent="0.25">
@@ -7115,7 +7111,7 @@
         <v>748</v>
       </c>
       <c r="H761" s="1">
-        <v>2640858.4301940459</v>
+        <v>2957878.1602701875</v>
       </c>
     </row>
     <row r="762" spans="7:8" x14ac:dyDescent="0.25">
@@ -7123,7 +7119,7 @@
         <v>749</v>
       </c>
       <c r="H762" s="1">
-        <v>4509461.0072102891</v>
+        <v>4793949.2836585771</v>
       </c>
     </row>
     <row r="763" spans="7:8" x14ac:dyDescent="0.25">
@@ -7131,7 +7127,7 @@
         <v>750</v>
       </c>
       <c r="H763" s="1">
-        <v>8089825.4795748582</v>
+        <v>3819158.9382184078</v>
       </c>
     </row>
     <row r="764" spans="7:8" x14ac:dyDescent="0.25">
@@ -7139,7 +7135,7 @@
         <v>751</v>
       </c>
       <c r="H764" s="1">
-        <v>4404480.3634114303</v>
+        <v>6909893.6699828273</v>
       </c>
     </row>
     <row r="765" spans="7:8" x14ac:dyDescent="0.25">
@@ -7147,7 +7143,7 @@
         <v>752</v>
       </c>
       <c r="H765" s="1">
-        <v>3904848.9683558908</v>
+        <v>7050903.4233257342</v>
       </c>
     </row>
     <row r="766" spans="7:8" x14ac:dyDescent="0.25">
@@ -7155,7 +7151,7 @@
         <v>753</v>
       </c>
       <c r="H766" s="1">
-        <v>8176057.9559208825</v>
+        <v>5572590.0163187897</v>
       </c>
     </row>
     <row r="767" spans="7:8" x14ac:dyDescent="0.25">
@@ -7163,7 +7159,7 @@
         <v>754</v>
       </c>
       <c r="H767" s="1">
-        <v>3012183.2798699653</v>
+        <v>5142298.5020582555</v>
       </c>
     </row>
     <row r="768" spans="7:8" x14ac:dyDescent="0.25">
@@ -7171,7 +7167,7 @@
         <v>755</v>
       </c>
       <c r="H768" s="1">
-        <v>5545989.4838161208</v>
+        <v>2825635.8705349849</v>
       </c>
     </row>
     <row r="769" spans="7:8" x14ac:dyDescent="0.25">
@@ -7179,7 +7175,7 @@
         <v>756</v>
       </c>
       <c r="H769" s="1">
-        <v>3687750.5579911158</v>
+        <v>7721072.9377702503</v>
       </c>
     </row>
     <row r="770" spans="7:8" x14ac:dyDescent="0.25">
@@ -7187,7 +7183,7 @@
         <v>757</v>
       </c>
       <c r="H770" s="1">
-        <v>1302842.0530135371</v>
+        <v>4259477.4345678706</v>
       </c>
     </row>
     <row r="771" spans="7:8" x14ac:dyDescent="0.25">
@@ -7195,7 +7191,7 @@
         <v>758</v>
       </c>
       <c r="H771" s="1">
-        <v>4666903.9850087846</v>
+        <v>4320990.7767970376</v>
       </c>
     </row>
     <row r="772" spans="7:8" x14ac:dyDescent="0.25">
@@ -7203,7 +7199,7 @@
         <v>759</v>
       </c>
       <c r="H772" s="1">
-        <v>2548874.3779334347</v>
+        <v>4999480.1917882282</v>
       </c>
     </row>
     <row r="773" spans="7:8" x14ac:dyDescent="0.25">
@@ -7211,7 +7207,7 @@
         <v>760</v>
       </c>
       <c r="H773" s="1">
-        <v>5150392.5464929705</v>
+        <v>4866905.8844812959</v>
       </c>
     </row>
     <row r="774" spans="7:8" x14ac:dyDescent="0.25">
@@ -7219,7 +7215,7 @@
         <v>761</v>
       </c>
       <c r="H774" s="1">
-        <v>5322522.6703219227</v>
+        <v>3908909.5887944922</v>
       </c>
     </row>
     <row r="775" spans="7:8" x14ac:dyDescent="0.25">
@@ -7227,7 +7223,7 @@
         <v>762</v>
       </c>
       <c r="H775" s="1">
-        <v>5930509.4332687417</v>
+        <v>4516526.7400658606</v>
       </c>
     </row>
     <row r="776" spans="7:8" x14ac:dyDescent="0.25">
@@ -7235,7 +7231,7 @@
         <v>763</v>
       </c>
       <c r="H776" s="1">
-        <v>7859654.4956086036</v>
+        <v>4777905.7247162042</v>
       </c>
     </row>
     <row r="777" spans="7:8" x14ac:dyDescent="0.25">
@@ -7243,7 +7239,7 @@
         <v>764</v>
       </c>
       <c r="H777" s="1">
-        <v>16574092.76985139</v>
+        <v>7748132.0988415666</v>
       </c>
     </row>
     <row r="778" spans="7:8" x14ac:dyDescent="0.25">
@@ -7251,7 +7247,7 @@
         <v>765</v>
       </c>
       <c r="H778" s="1">
-        <v>1384807.1738468092</v>
+        <v>18587862.749144342</v>
       </c>
     </row>
     <row r="779" spans="7:8" x14ac:dyDescent="0.25">
@@ -7259,7 +7255,7 @@
         <v>766</v>
       </c>
       <c r="H779" s="1">
-        <v>5676672.9148284383</v>
+        <v>6069001.0423640134</v>
       </c>
     </row>
     <row r="780" spans="7:8" x14ac:dyDescent="0.25">
@@ -7267,7 +7263,7 @@
         <v>767</v>
       </c>
       <c r="H780" s="1">
-        <v>1793051.2507798909</v>
+        <v>6843689.8063064013</v>
       </c>
     </row>
     <row r="781" spans="7:8" x14ac:dyDescent="0.25">
@@ -7275,7 +7271,7 @@
         <v>768</v>
       </c>
       <c r="H781" s="1">
-        <v>2462518.4073106949</v>
+        <v>3352014.3341688425</v>
       </c>
     </row>
     <row r="782" spans="7:8" x14ac:dyDescent="0.25">
@@ -7283,7 +7279,7 @@
         <v>769</v>
       </c>
       <c r="H782" s="1">
-        <v>3235916.280860886</v>
+        <v>22106297.223178953</v>
       </c>
     </row>
     <row r="783" spans="7:8" x14ac:dyDescent="0.25">
@@ -7291,7 +7287,7 @@
         <v>770</v>
       </c>
       <c r="H783" s="1">
-        <v>13359277.74991346</v>
+        <v>2854804.4531133315</v>
       </c>
     </row>
     <row r="784" spans="7:8" x14ac:dyDescent="0.25">
@@ -7299,7 +7295,7 @@
         <v>771</v>
       </c>
       <c r="H784" s="1">
-        <v>2541158.7616758286</v>
+        <v>6990849.4699426843</v>
       </c>
     </row>
     <row r="785" spans="7:8" x14ac:dyDescent="0.25">
@@ -7307,7 +7303,7 @@
         <v>772</v>
       </c>
       <c r="H785" s="1">
-        <v>4400133.4803983299</v>
+        <v>2830079.7208406017</v>
       </c>
     </row>
     <row r="786" spans="7:8" x14ac:dyDescent="0.25">
@@ -7315,7 +7311,7 @@
         <v>773</v>
       </c>
       <c r="H786" s="1">
-        <v>2859074.7247132817</v>
+        <v>4729295.8388847681</v>
       </c>
     </row>
     <row r="787" spans="7:8" x14ac:dyDescent="0.25">
@@ -7323,7 +7319,7 @@
         <v>774</v>
       </c>
       <c r="H787" s="1">
-        <v>2193733.1847406602</v>
+        <v>3719087.1291237436</v>
       </c>
     </row>
     <row r="788" spans="7:8" x14ac:dyDescent="0.25">
@@ -7331,7 +7327,7 @@
         <v>775</v>
       </c>
       <c r="H788" s="1">
-        <v>10776058.409581179</v>
+        <v>9963260.5923735369</v>
       </c>
     </row>
     <row r="789" spans="7:8" x14ac:dyDescent="0.25">
@@ -7339,7 +7335,7 @@
         <v>776</v>
       </c>
       <c r="H789" s="1">
-        <v>2982956.3597542564</v>
+        <v>6468500.949780765</v>
       </c>
     </row>
     <row r="790" spans="7:8" x14ac:dyDescent="0.25">
@@ -7347,7 +7343,7 @@
         <v>777</v>
       </c>
       <c r="H790" s="1">
-        <v>3722761.6542912461</v>
+        <v>7120263.3894158611</v>
       </c>
     </row>
     <row r="791" spans="7:8" x14ac:dyDescent="0.25">
@@ -7355,7 +7351,7 @@
         <v>778</v>
       </c>
       <c r="H791" s="1">
-        <v>4346756.5549092377</v>
+        <v>5575467.609348434</v>
       </c>
     </row>
     <row r="792" spans="7:8" x14ac:dyDescent="0.25">
@@ -7363,7 +7359,7 @@
         <v>779</v>
       </c>
       <c r="H792" s="1">
-        <v>5758123.3874459015</v>
+        <v>5134554.662473212</v>
       </c>
     </row>
     <row r="793" spans="7:8" x14ac:dyDescent="0.25">
@@ -7371,7 +7367,7 @@
         <v>780</v>
       </c>
       <c r="H793" s="1">
-        <v>4258633.3746307278</v>
+        <v>1605056.4673285214</v>
       </c>
     </row>
     <row r="794" spans="7:8" x14ac:dyDescent="0.25">
@@ -7379,7 +7375,7 @@
         <v>781</v>
       </c>
       <c r="H794" s="1">
-        <v>14076759.291851817</v>
+        <v>6727439.8059652718</v>
       </c>
     </row>
     <row r="795" spans="7:8" x14ac:dyDescent="0.25">
@@ -7387,7 +7383,7 @@
         <v>782</v>
       </c>
       <c r="H795" s="1">
-        <v>4086792.9937366736</v>
+        <v>1708160.4115736699</v>
       </c>
     </row>
     <row r="796" spans="7:8" x14ac:dyDescent="0.25">
@@ -7395,7 +7391,7 @@
         <v>783</v>
       </c>
       <c r="H796" s="1">
-        <v>4039413.6305627185</v>
+        <v>9893313.8321030941</v>
       </c>
     </row>
     <row r="797" spans="7:8" x14ac:dyDescent="0.25">
@@ -7403,7 +7399,7 @@
         <v>784</v>
       </c>
       <c r="H797" s="1">
-        <v>2165835.4208217203</v>
+        <v>9061418.2705465779</v>
       </c>
     </row>
     <row r="798" spans="7:8" x14ac:dyDescent="0.25">
@@ -7411,7 +7407,7 @@
         <v>785</v>
       </c>
       <c r="H798" s="1">
-        <v>3885870.1819579569</v>
+        <v>8592107.6289046761</v>
       </c>
     </row>
     <row r="799" spans="7:8" x14ac:dyDescent="0.25">
@@ -7419,7 +7415,7 @@
         <v>786</v>
       </c>
       <c r="H799" s="1">
-        <v>1882321.0123563269</v>
+        <v>7427184.5193771888</v>
       </c>
     </row>
     <row r="800" spans="7:8" x14ac:dyDescent="0.25">
@@ -7427,7 +7423,7 @@
         <v>787</v>
       </c>
       <c r="H800" s="1">
-        <v>4090274.5790557936</v>
+        <v>5276854.5342114111</v>
       </c>
     </row>
     <row r="801" spans="7:8" x14ac:dyDescent="0.25">
@@ -7435,7 +7431,7 @@
         <v>788</v>
       </c>
       <c r="H801" s="1">
-        <v>5434854.2949625589</v>
+        <v>4568591.7976114806</v>
       </c>
     </row>
     <row r="802" spans="7:8" x14ac:dyDescent="0.25">
@@ -7443,7 +7439,7 @@
         <v>789</v>
       </c>
       <c r="H802" s="1">
-        <v>17956703.923501316</v>
+        <v>2302863.3649850111</v>
       </c>
     </row>
     <row r="803" spans="7:8" x14ac:dyDescent="0.25">
@@ -7451,7 +7447,7 @@
         <v>790</v>
       </c>
       <c r="H803" s="1">
-        <v>3539409.8029735559</v>
+        <v>5417343.8534560762</v>
       </c>
     </row>
     <row r="804" spans="7:8" x14ac:dyDescent="0.25">
@@ -7459,7 +7455,7 @@
         <v>791</v>
       </c>
       <c r="H804" s="1">
-        <v>3511336.4640459744</v>
+        <v>5520761.1643924294</v>
       </c>
     </row>
     <row r="805" spans="7:8" x14ac:dyDescent="0.25">
@@ -7467,7 +7463,7 @@
         <v>792</v>
       </c>
       <c r="H805" s="1">
-        <v>8814820.2370992061</v>
+        <v>1558327.900429551</v>
       </c>
     </row>
     <row r="806" spans="7:8" x14ac:dyDescent="0.25">
@@ -7475,7 +7471,7 @@
         <v>793</v>
       </c>
       <c r="H806" s="1">
-        <v>4890269.3197401576</v>
+        <v>3032676.72482843</v>
       </c>
     </row>
     <row r="807" spans="7:8" x14ac:dyDescent="0.25">
@@ -7483,7 +7479,7 @@
         <v>794</v>
       </c>
       <c r="H807" s="1">
-        <v>8430961.2395529505</v>
+        <v>9519099.1744294651</v>
       </c>
     </row>
     <row r="808" spans="7:8" x14ac:dyDescent="0.25">
@@ -7491,7 +7487,7 @@
         <v>795</v>
       </c>
       <c r="H808" s="1">
-        <v>3652214.2370495889</v>
+        <v>10888627.205352053</v>
       </c>
     </row>
     <row r="809" spans="7:8" x14ac:dyDescent="0.25">
@@ -7499,7 +7495,7 @@
         <v>796</v>
       </c>
       <c r="H809" s="1">
-        <v>4442818.2126419563</v>
+        <v>5958873.9686523778</v>
       </c>
     </row>
     <row r="810" spans="7:8" x14ac:dyDescent="0.25">
@@ -7507,7 +7503,7 @@
         <v>797</v>
       </c>
       <c r="H810" s="1">
-        <v>5805478.1500195432</v>
+        <v>2943659.6080813943</v>
       </c>
     </row>
     <row r="811" spans="7:8" x14ac:dyDescent="0.25">
@@ -7515,7 +7511,7 @@
         <v>798</v>
       </c>
       <c r="H811" s="1">
-        <v>4663672.7683650805</v>
+        <v>8646343.3147052824</v>
       </c>
     </row>
     <row r="812" spans="7:8" x14ac:dyDescent="0.25">
@@ -7523,7 +7519,7 @@
         <v>799</v>
       </c>
       <c r="H812" s="1">
-        <v>6874408.1517145773</v>
+        <v>3429017.7709963624</v>
       </c>
     </row>
     <row r="813" spans="7:8" x14ac:dyDescent="0.25">
@@ -7531,7 +7527,7 @@
         <v>800</v>
       </c>
       <c r="H813" s="1">
-        <v>2454753.8980899584</v>
+        <v>3535315.666314065</v>
       </c>
     </row>
     <row r="814" spans="7:8" x14ac:dyDescent="0.25">
@@ -7539,7 +7535,7 @@
         <v>801</v>
       </c>
       <c r="H814" s="1">
-        <v>2556334.0268098963</v>
+        <v>8399475.1734116655</v>
       </c>
     </row>
     <row r="815" spans="7:8" x14ac:dyDescent="0.25">
@@ -7547,7 +7543,7 @@
         <v>802</v>
       </c>
       <c r="H815" s="1">
-        <v>3677264.9214560366</v>
+        <v>17940556.388558</v>
       </c>
     </row>
     <row r="816" spans="7:8" x14ac:dyDescent="0.25">
@@ -7555,7 +7551,7 @@
         <v>803</v>
       </c>
       <c r="H816" s="1">
-        <v>7960288.2268784791</v>
+        <v>2488492.3140744609</v>
       </c>
     </row>
     <row r="817" spans="7:8" x14ac:dyDescent="0.25">
@@ -7563,7 +7559,7 @@
         <v>804</v>
       </c>
       <c r="H817" s="1">
-        <v>4565569.9813460475</v>
+        <v>4423178.6257088613</v>
       </c>
     </row>
     <row r="818" spans="7:8" x14ac:dyDescent="0.25">
@@ -7571,7 +7567,7 @@
         <v>805</v>
       </c>
       <c r="H818" s="1">
-        <v>1869315.1243332485</v>
+        <v>2953838.1330221253</v>
       </c>
     </row>
     <row r="819" spans="7:8" x14ac:dyDescent="0.25">
@@ -7579,7 +7575,7 @@
         <v>806</v>
       </c>
       <c r="H819" s="1">
-        <v>3017571.5107368035</v>
+        <v>6989622.7283239951</v>
       </c>
     </row>
     <row r="820" spans="7:8" x14ac:dyDescent="0.25">
@@ -7587,7 +7583,7 @@
         <v>807</v>
       </c>
       <c r="H820" s="1">
-        <v>7030811.0763062062</v>
+        <v>3342303.492247615</v>
       </c>
     </row>
     <row r="821" spans="7:8" x14ac:dyDescent="0.25">
@@ -7595,7 +7591,7 @@
         <v>808</v>
       </c>
       <c r="H821" s="1">
-        <v>29972440.208785515</v>
+        <v>5097884.2133603077</v>
       </c>
     </row>
     <row r="822" spans="7:8" x14ac:dyDescent="0.25">
@@ -7603,7 +7599,7 @@
         <v>809</v>
       </c>
       <c r="H822" s="1">
-        <v>4073857.0923011047</v>
+        <v>12616717.644726224</v>
       </c>
     </row>
     <row r="823" spans="7:8" x14ac:dyDescent="0.25">
@@ -7611,7 +7607,7 @@
         <v>810</v>
       </c>
       <c r="H823" s="1">
-        <v>6690940.3390718494</v>
+        <v>8697058.995037796</v>
       </c>
     </row>
     <row r="824" spans="7:8" x14ac:dyDescent="0.25">
@@ -7619,7 +7615,7 @@
         <v>811</v>
       </c>
       <c r="H824" s="1">
-        <v>3528597.4950250476</v>
+        <v>5357209.0906879669</v>
       </c>
     </row>
     <row r="825" spans="7:8" x14ac:dyDescent="0.25">
@@ -7627,7 +7623,7 @@
         <v>812</v>
       </c>
       <c r="H825" s="1">
-        <v>3028625.688596033</v>
+        <v>2974986.2051886944</v>
       </c>
     </row>
     <row r="826" spans="7:8" x14ac:dyDescent="0.25">
@@ -7635,7 +7631,7 @@
         <v>813</v>
       </c>
       <c r="H826" s="1">
-        <v>2542372.9796434026</v>
+        <v>2510879.604998596</v>
       </c>
     </row>
     <row r="827" spans="7:8" x14ac:dyDescent="0.25">
@@ -7643,7 +7639,7 @@
         <v>814</v>
       </c>
       <c r="H827" s="1">
-        <v>16383320.437145</v>
+        <v>1599939.1582490748</v>
       </c>
     </row>
     <row r="828" spans="7:8" x14ac:dyDescent="0.25">
@@ -7651,7 +7647,7 @@
         <v>815</v>
       </c>
       <c r="H828" s="1">
-        <v>3840561.5613831668</v>
+        <v>3082368.1766773826</v>
       </c>
     </row>
     <row r="829" spans="7:8" x14ac:dyDescent="0.25">
@@ -7659,7 +7655,7 @@
         <v>816</v>
       </c>
       <c r="H829" s="1">
-        <v>8793541.8318686541</v>
+        <v>4869866.7659461955</v>
       </c>
     </row>
     <row r="830" spans="7:8" x14ac:dyDescent="0.25">
@@ -7667,7 +7663,7 @@
         <v>817</v>
       </c>
       <c r="H830" s="1">
-        <v>5743381.0403287066</v>
+        <v>7066134.6029876471</v>
       </c>
     </row>
     <row r="831" spans="7:8" x14ac:dyDescent="0.25">
@@ -7675,7 +7671,7 @@
         <v>818</v>
       </c>
       <c r="H831" s="1">
-        <v>7013029.3292378252</v>
+        <v>6246695.3737123711</v>
       </c>
     </row>
     <row r="832" spans="7:8" x14ac:dyDescent="0.25">
@@ -7683,7 +7679,7 @@
         <v>819</v>
       </c>
       <c r="H832" s="1">
-        <v>4135443.2034203163</v>
+        <v>2809593.0268260455</v>
       </c>
     </row>
     <row r="833" spans="7:8" x14ac:dyDescent="0.25">
@@ -7691,7 +7687,7 @@
         <v>820</v>
       </c>
       <c r="H833" s="1">
-        <v>4611475.9163434124</v>
+        <v>2311472.019194182</v>
       </c>
     </row>
     <row r="834" spans="7:8" x14ac:dyDescent="0.25">
@@ -7699,7 +7695,7 @@
         <v>821</v>
       </c>
       <c r="H834" s="1">
-        <v>2254336.309470674</v>
+        <v>2486126.8512580055</v>
       </c>
     </row>
     <row r="835" spans="7:8" x14ac:dyDescent="0.25">
@@ -7707,7 +7703,7 @@
         <v>822</v>
       </c>
       <c r="H835" s="1">
-        <v>5436385.414382684</v>
+        <v>8211777.267333461</v>
       </c>
     </row>
     <row r="836" spans="7:8" x14ac:dyDescent="0.25">
@@ -7715,7 +7711,7 @@
         <v>823</v>
       </c>
       <c r="H836" s="1">
-        <v>9637403.7778577302</v>
+        <v>10139243.489147168</v>
       </c>
     </row>
     <row r="837" spans="7:8" x14ac:dyDescent="0.25">
@@ -7723,7 +7719,7 @@
         <v>824</v>
       </c>
       <c r="H837" s="1">
-        <v>3664456.507293561</v>
+        <v>8999634.1446153726</v>
       </c>
     </row>
     <row r="838" spans="7:8" x14ac:dyDescent="0.25">
@@ -7731,7 +7727,7 @@
         <v>825</v>
       </c>
       <c r="H838" s="1">
-        <v>11434860.418409759</v>
+        <v>5274926.0988751948</v>
       </c>
     </row>
     <row r="839" spans="7:8" x14ac:dyDescent="0.25">
@@ -7739,7 +7735,7 @@
         <v>826</v>
       </c>
       <c r="H839" s="1">
-        <v>9685051.3130066693</v>
+        <v>2238752.6077008178</v>
       </c>
     </row>
     <row r="840" spans="7:8" x14ac:dyDescent="0.25">
@@ -7747,7 +7743,7 @@
         <v>827</v>
       </c>
       <c r="H840" s="1">
-        <v>2067604.8257859931</v>
+        <v>2627709.1161761768</v>
       </c>
     </row>
     <row r="841" spans="7:8" x14ac:dyDescent="0.25">
@@ -7755,7 +7751,7 @@
         <v>828</v>
       </c>
       <c r="H841" s="1">
-        <v>2938273.9035493778</v>
+        <v>3033662.1532147522</v>
       </c>
     </row>
     <row r="842" spans="7:8" x14ac:dyDescent="0.25">
@@ -7763,7 +7759,7 @@
         <v>829</v>
       </c>
       <c r="H842" s="1">
-        <v>5146574.4117963519</v>
+        <v>1728806.4683759366</v>
       </c>
     </row>
     <row r="843" spans="7:8" x14ac:dyDescent="0.25">
@@ -7771,7 +7767,7 @@
         <v>830</v>
       </c>
       <c r="H843" s="1">
-        <v>6275722.7909568828</v>
+        <v>3148848.359271775</v>
       </c>
     </row>
     <row r="844" spans="7:8" x14ac:dyDescent="0.25">
@@ -7779,7 +7775,7 @@
         <v>831</v>
       </c>
       <c r="H844" s="1">
-        <v>5430576.9312461093</v>
+        <v>6267271.2120719198</v>
       </c>
     </row>
     <row r="845" spans="7:8" x14ac:dyDescent="0.25">
@@ -7787,7 +7783,7 @@
         <v>832</v>
       </c>
       <c r="H845" s="1">
-        <v>4456809.0474863565</v>
+        <v>4043523.6591614848</v>
       </c>
     </row>
     <row r="846" spans="7:8" x14ac:dyDescent="0.25">
@@ -7795,7 +7791,7 @@
         <v>833</v>
       </c>
       <c r="H846" s="1">
-        <v>7224226.5505301086</v>
+        <v>7938276.2283792524</v>
       </c>
     </row>
     <row r="847" spans="7:8" x14ac:dyDescent="0.25">
@@ -7803,7 +7799,7 @@
         <v>834</v>
       </c>
       <c r="H847" s="1">
-        <v>2714251.4239892028</v>
+        <v>3654256.8038603473</v>
       </c>
     </row>
     <row r="848" spans="7:8" x14ac:dyDescent="0.25">
@@ -7811,7 +7807,7 @@
         <v>835</v>
       </c>
       <c r="H848" s="1">
-        <v>4434612.5671600783</v>
+        <v>9977383.7346902005</v>
       </c>
     </row>
     <row r="849" spans="7:8" x14ac:dyDescent="0.25">
@@ -7819,7 +7815,7 @@
         <v>836</v>
       </c>
       <c r="H849" s="1">
-        <v>3304452.0684916098</v>
+        <v>4553689.0122911418</v>
       </c>
     </row>
     <row r="850" spans="7:8" x14ac:dyDescent="0.25">
@@ -7827,7 +7823,7 @@
         <v>837</v>
       </c>
       <c r="H850" s="1">
-        <v>10898825.155459968</v>
+        <v>22540372.667258549</v>
       </c>
     </row>
     <row r="851" spans="7:8" x14ac:dyDescent="0.25">
@@ -7835,7 +7831,7 @@
         <v>838</v>
       </c>
       <c r="H851" s="1">
-        <v>4845367.0651265141</v>
+        <v>4055770.1571479132</v>
       </c>
     </row>
     <row r="852" spans="7:8" x14ac:dyDescent="0.25">
@@ -7843,7 +7839,7 @@
         <v>839</v>
       </c>
       <c r="H852" s="1">
-        <v>3428299.0644264221</v>
+        <v>2512560.6814432121</v>
       </c>
     </row>
     <row r="853" spans="7:8" x14ac:dyDescent="0.25">
@@ -7851,7 +7847,7 @@
         <v>840</v>
       </c>
       <c r="H853" s="1">
-        <v>4451209.523311317</v>
+        <v>3250168.5106488084</v>
       </c>
     </row>
     <row r="854" spans="7:8" x14ac:dyDescent="0.25">
@@ -7859,7 +7855,7 @@
         <v>841</v>
       </c>
       <c r="H854" s="1">
-        <v>6055727.75523178</v>
+        <v>10681807.187793681</v>
       </c>
     </row>
     <row r="855" spans="7:8" x14ac:dyDescent="0.25">
@@ -7867,7 +7863,7 @@
         <v>842</v>
       </c>
       <c r="H855" s="1">
-        <v>7493888.3021601364</v>
+        <v>7126511.3983612619</v>
       </c>
     </row>
     <row r="856" spans="7:8" x14ac:dyDescent="0.25">
@@ -7875,7 +7871,7 @@
         <v>843</v>
       </c>
       <c r="H856" s="1">
-        <v>6064498.164042105</v>
+        <v>10169518.57497387</v>
       </c>
     </row>
     <row r="857" spans="7:8" x14ac:dyDescent="0.25">
@@ -7883,7 +7879,7 @@
         <v>844</v>
       </c>
       <c r="H857" s="1">
-        <v>3892894.2178496788</v>
+        <v>5366751.7052605543</v>
       </c>
     </row>
     <row r="858" spans="7:8" x14ac:dyDescent="0.25">
@@ -7891,7 +7887,7 @@
         <v>845</v>
       </c>
       <c r="H858" s="1">
-        <v>2768200.2027800158</v>
+        <v>1207886.0211585916</v>
       </c>
     </row>
     <row r="859" spans="7:8" x14ac:dyDescent="0.25">
@@ -7899,7 +7895,7 @@
         <v>846</v>
       </c>
       <c r="H859" s="1">
-        <v>2577273.2350046895</v>
+        <v>4002176.9999904023</v>
       </c>
     </row>
     <row r="860" spans="7:8" x14ac:dyDescent="0.25">
@@ -7907,7 +7903,7 @@
         <v>847</v>
       </c>
       <c r="H860" s="1">
-        <v>2338919.9432224617</v>
+        <v>18501018.344931122</v>
       </c>
     </row>
     <row r="861" spans="7:8" x14ac:dyDescent="0.25">
@@ -7915,7 +7911,7 @@
         <v>848</v>
       </c>
       <c r="H861" s="1">
-        <v>3884621.3653949965</v>
+        <v>4285035.7968440941</v>
       </c>
     </row>
     <row r="862" spans="7:8" x14ac:dyDescent="0.25">
@@ -7923,7 +7919,7 @@
         <v>849</v>
       </c>
       <c r="H862" s="1">
-        <v>6009668.1029450838</v>
+        <v>7363183.3619056148</v>
       </c>
     </row>
     <row r="863" spans="7:8" x14ac:dyDescent="0.25">
@@ -7931,7 +7927,7 @@
         <v>850</v>
       </c>
       <c r="H863" s="1">
-        <v>3447854.3338427977</v>
+        <v>3214499.5207420751</v>
       </c>
     </row>
     <row r="864" spans="7:8" x14ac:dyDescent="0.25">
@@ -7939,7 +7935,7 @@
         <v>851</v>
       </c>
       <c r="H864" s="1">
-        <v>3490095.7077353257</v>
+        <v>3854894.9611321646</v>
       </c>
     </row>
     <row r="865" spans="7:8" x14ac:dyDescent="0.25">
@@ -7947,7 +7943,7 @@
         <v>852</v>
       </c>
       <c r="H865" s="1">
-        <v>4245996.6142646288</v>
+        <v>3761386.912829366</v>
       </c>
     </row>
     <row r="866" spans="7:8" x14ac:dyDescent="0.25">
@@ -7955,7 +7951,7 @@
         <v>853</v>
       </c>
       <c r="H866" s="1">
-        <v>3834922.5046240659</v>
+        <v>7729622.3247952266</v>
       </c>
     </row>
     <row r="867" spans="7:8" x14ac:dyDescent="0.25">
@@ -7963,7 +7959,7 @@
         <v>854</v>
       </c>
       <c r="H867" s="1">
-        <v>4776751.4871275378</v>
+        <v>11605337.781415442</v>
       </c>
     </row>
     <row r="868" spans="7:8" x14ac:dyDescent="0.25">
@@ -7971,7 +7967,7 @@
         <v>855</v>
       </c>
       <c r="H868" s="1">
-        <v>3591602.2257387144</v>
+        <v>3920910.1791909072</v>
       </c>
     </row>
     <row r="869" spans="7:8" x14ac:dyDescent="0.25">
@@ -7979,7 +7975,7 @@
         <v>856</v>
       </c>
       <c r="H869" s="1">
-        <v>9592363.2957176194</v>
+        <v>6301874.3630819991</v>
       </c>
     </row>
     <row r="870" spans="7:8" x14ac:dyDescent="0.25">
@@ -7987,7 +7983,7 @@
         <v>857</v>
       </c>
       <c r="H870" s="1">
-        <v>10231894.844438776</v>
+        <v>5378744.2855156371</v>
       </c>
     </row>
     <row r="871" spans="7:8" x14ac:dyDescent="0.25">
@@ -7995,7 +7991,7 @@
         <v>858</v>
       </c>
       <c r="H871" s="1">
-        <v>3571486.1276696422</v>
+        <v>17633382.734659288</v>
       </c>
     </row>
     <row r="872" spans="7:8" x14ac:dyDescent="0.25">
@@ -8003,7 +7999,7 @@
         <v>859</v>
       </c>
       <c r="H872" s="1">
-        <v>2499922.5941517446</v>
+        <v>3127380.7279192307</v>
       </c>
     </row>
     <row r="873" spans="7:8" x14ac:dyDescent="0.25">
@@ -8011,7 +8007,7 @@
         <v>860</v>
       </c>
       <c r="H873" s="1">
-        <v>1401836.1979787706</v>
+        <v>10426273.049066784</v>
       </c>
     </row>
     <row r="874" spans="7:8" x14ac:dyDescent="0.25">
@@ -8019,7 +8015,7 @@
         <v>861</v>
       </c>
       <c r="H874" s="1">
-        <v>4208256.6410983047</v>
+        <v>2566237.6890224493</v>
       </c>
     </row>
     <row r="875" spans="7:8" x14ac:dyDescent="0.25">
@@ -8027,7 +8023,7 @@
         <v>862</v>
       </c>
       <c r="H875" s="1">
-        <v>3377393.2788463379</v>
+        <v>4915480.6703826608</v>
       </c>
     </row>
     <row r="876" spans="7:8" x14ac:dyDescent="0.25">
@@ -8035,7 +8031,7 @@
         <v>863</v>
       </c>
       <c r="H876" s="1">
-        <v>12241067.615343047</v>
+        <v>5814797.1419316446</v>
       </c>
     </row>
     <row r="877" spans="7:8" x14ac:dyDescent="0.25">
@@ -8043,7 +8039,7 @@
         <v>864</v>
       </c>
       <c r="H877" s="1">
-        <v>4111803.3142712363</v>
+        <v>14198803.362608023</v>
       </c>
     </row>
     <row r="878" spans="7:8" x14ac:dyDescent="0.25">
@@ -8051,7 +8047,7 @@
         <v>865</v>
       </c>
       <c r="H878" s="1">
-        <v>5933444.4526444832</v>
+        <v>4136412.7983751721</v>
       </c>
     </row>
     <row r="879" spans="7:8" x14ac:dyDescent="0.25">
@@ -8059,7 +8055,7 @@
         <v>866</v>
       </c>
       <c r="H879" s="1">
-        <v>979056.18721231446</v>
+        <v>6025396.6000484945</v>
       </c>
     </row>
     <row r="880" spans="7:8" x14ac:dyDescent="0.25">
@@ -8067,7 +8063,7 @@
         <v>867</v>
       </c>
       <c r="H880" s="1">
-        <v>1722848.8557031883</v>
+        <v>3426734.3406334976</v>
       </c>
     </row>
     <row r="881" spans="7:8" x14ac:dyDescent="0.25">
@@ -8075,7 +8071,7 @@
         <v>868</v>
       </c>
       <c r="H881" s="1">
-        <v>3802254.5445953677</v>
+        <v>2440529.5952172591</v>
       </c>
     </row>
     <row r="882" spans="7:8" x14ac:dyDescent="0.25">
@@ -8083,7 +8079,7 @@
         <v>869</v>
       </c>
       <c r="H882" s="1">
-        <v>6136876.4079000959</v>
+        <v>3531078.5993466522</v>
       </c>
     </row>
     <row r="883" spans="7:8" x14ac:dyDescent="0.25">
@@ -8091,7 +8087,7 @@
         <v>870</v>
       </c>
       <c r="H883" s="1">
-        <v>10906768.514242088</v>
+        <v>11033412.442867506</v>
       </c>
     </row>
     <row r="884" spans="7:8" x14ac:dyDescent="0.25">
@@ -8099,7 +8095,7 @@
         <v>871</v>
       </c>
       <c r="H884" s="1">
-        <v>3370299.0855087028</v>
+        <v>11921652.551571796</v>
       </c>
     </row>
     <row r="885" spans="7:8" x14ac:dyDescent="0.25">
@@ -8107,7 +8103,7 @@
         <v>872</v>
       </c>
       <c r="H885" s="1">
-        <v>11843348.867060561</v>
+        <v>6024821.1429574247</v>
       </c>
     </row>
     <row r="886" spans="7:8" x14ac:dyDescent="0.25">
@@ -8115,7 +8111,7 @@
         <v>873</v>
       </c>
       <c r="H886" s="1">
-        <v>3070417.827702872</v>
+        <v>3056147.3783972184</v>
       </c>
     </row>
     <row r="887" spans="7:8" x14ac:dyDescent="0.25">
@@ -8123,7 +8119,7 @@
         <v>874</v>
       </c>
       <c r="H887" s="1">
-        <v>6946296.5281774253</v>
+        <v>2937546.6038498636</v>
       </c>
     </row>
     <row r="888" spans="7:8" x14ac:dyDescent="0.25">
@@ -8131,7 +8127,7 @@
         <v>875</v>
       </c>
       <c r="H888" s="1">
-        <v>3632537.1184743973</v>
+        <v>16162860.956872504</v>
       </c>
     </row>
     <row r="889" spans="7:8" x14ac:dyDescent="0.25">
@@ -8139,7 +8135,7 @@
         <v>876</v>
       </c>
       <c r="H889" s="1">
-        <v>6587922.3051147964</v>
+        <v>3129383.1649930333</v>
       </c>
     </row>
     <row r="890" spans="7:8" x14ac:dyDescent="0.25">
@@ -8147,7 +8143,7 @@
         <v>877</v>
       </c>
       <c r="H890" s="1">
-        <v>3727911.1692633</v>
+        <v>7769331.1289077904</v>
       </c>
     </row>
     <row r="891" spans="7:8" x14ac:dyDescent="0.25">
@@ -8155,7 +8151,7 @@
         <v>878</v>
       </c>
       <c r="H891" s="1">
-        <v>3475081.6725922697</v>
+        <v>10942187.740083033</v>
       </c>
     </row>
     <row r="892" spans="7:8" x14ac:dyDescent="0.25">
@@ -8163,7 +8159,7 @@
         <v>879</v>
       </c>
       <c r="H892" s="1">
-        <v>2858955.757386615</v>
+        <v>12099729.200625155</v>
       </c>
     </row>
     <row r="893" spans="7:8" x14ac:dyDescent="0.25">
@@ -8171,7 +8167,7 @@
         <v>880</v>
       </c>
       <c r="H893" s="1">
-        <v>3291485.1148553072</v>
+        <v>1987909.2588730527</v>
       </c>
     </row>
     <row r="894" spans="7:8" x14ac:dyDescent="0.25">
@@ -8179,7 +8175,7 @@
         <v>881</v>
       </c>
       <c r="H894" s="1">
-        <v>3419223.7019126504</v>
+        <v>10463082.725400774</v>
       </c>
     </row>
     <row r="895" spans="7:8" x14ac:dyDescent="0.25">
@@ -8187,7 +8183,7 @@
         <v>882</v>
       </c>
       <c r="H895" s="1">
-        <v>2684721.4996343623</v>
+        <v>12515695.528622746</v>
       </c>
     </row>
     <row r="896" spans="7:8" x14ac:dyDescent="0.25">
@@ -8195,7 +8191,7 @@
         <v>883</v>
       </c>
       <c r="H896" s="1">
-        <v>21295054.478293225</v>
+        <v>4948622.6779101295</v>
       </c>
     </row>
     <row r="897" spans="7:8" x14ac:dyDescent="0.25">
@@ -8203,7 +8199,7 @@
         <v>884</v>
       </c>
       <c r="H897" s="1">
-        <v>4997132.9319381947</v>
+        <v>4877696.0363891507</v>
       </c>
     </row>
     <row r="898" spans="7:8" x14ac:dyDescent="0.25">
@@ -8211,7 +8207,7 @@
         <v>885</v>
       </c>
       <c r="H898" s="1">
-        <v>5396609.774317923</v>
+        <v>4665659.0735552711</v>
       </c>
     </row>
     <row r="899" spans="7:8" x14ac:dyDescent="0.25">
@@ -8219,7 +8215,7 @@
         <v>886</v>
       </c>
       <c r="H899" s="1">
-        <v>5988292.3085630424</v>
+        <v>7599006.5041623367</v>
       </c>
     </row>
     <row r="900" spans="7:8" x14ac:dyDescent="0.25">
@@ -8227,7 +8223,7 @@
         <v>887</v>
       </c>
       <c r="H900" s="1">
-        <v>4253927.6990837259</v>
+        <v>13753869.344228026</v>
       </c>
     </row>
     <row r="901" spans="7:8" x14ac:dyDescent="0.25">
@@ -8235,7 +8231,7 @@
         <v>888</v>
       </c>
       <c r="H901" s="1">
-        <v>4597692.6544340616</v>
+        <v>4053167.7558896719</v>
       </c>
     </row>
     <row r="902" spans="7:8" x14ac:dyDescent="0.25">
@@ -8243,7 +8239,7 @@
         <v>889</v>
       </c>
       <c r="H902" s="1">
-        <v>2512548.2629821147</v>
+        <v>1747252.6399248235</v>
       </c>
     </row>
     <row r="903" spans="7:8" x14ac:dyDescent="0.25">
@@ -8251,7 +8247,7 @@
         <v>890</v>
       </c>
       <c r="H903" s="1">
-        <v>5032483.6629103543</v>
+        <v>1100387.5571943966</v>
       </c>
     </row>
     <row r="904" spans="7:8" x14ac:dyDescent="0.25">
@@ -8259,7 +8255,7 @@
         <v>891</v>
       </c>
       <c r="H904" s="1">
-        <v>3345158.7341674222</v>
+        <v>5960272.9544713832</v>
       </c>
     </row>
     <row r="905" spans="7:8" x14ac:dyDescent="0.25">
@@ -8267,7 +8263,7 @@
         <v>892</v>
       </c>
       <c r="H905" s="1">
-        <v>2848533.714613792</v>
+        <v>14150432.256033802</v>
       </c>
     </row>
     <row r="906" spans="7:8" x14ac:dyDescent="0.25">
@@ -8275,7 +8271,7 @@
         <v>893</v>
       </c>
       <c r="H906" s="1">
-        <v>7791278.059942686</v>
+        <v>8280453.0319878459</v>
       </c>
     </row>
     <row r="907" spans="7:8" x14ac:dyDescent="0.25">
@@ -8283,7 +8279,7 @@
         <v>894</v>
       </c>
       <c r="H907" s="1">
-        <v>3748503.8797924528</v>
+        <v>5774913.7488259031</v>
       </c>
     </row>
     <row r="908" spans="7:8" x14ac:dyDescent="0.25">
@@ -8291,7 +8287,7 @@
         <v>895</v>
       </c>
       <c r="H908" s="1">
-        <v>9414339.4814583696</v>
+        <v>6341813.09746511</v>
       </c>
     </row>
     <row r="909" spans="7:8" x14ac:dyDescent="0.25">
@@ -8299,7 +8295,7 @@
         <v>896</v>
       </c>
       <c r="H909" s="1">
-        <v>11993119.245981781</v>
+        <v>2768870.9489035131</v>
       </c>
     </row>
     <row r="910" spans="7:8" x14ac:dyDescent="0.25">
@@ -8307,7 +8303,7 @@
         <v>897</v>
       </c>
       <c r="H910" s="1">
-        <v>4344143.2943474939</v>
+        <v>1612764.1072656312</v>
       </c>
     </row>
     <row r="911" spans="7:8" x14ac:dyDescent="0.25">
@@ -8315,7 +8311,7 @@
         <v>898</v>
       </c>
       <c r="H911" s="1">
-        <v>6554676.0260621849</v>
+        <v>8519067.7785675861</v>
       </c>
     </row>
     <row r="912" spans="7:8" x14ac:dyDescent="0.25">
@@ -8323,7 +8319,7 @@
         <v>899</v>
       </c>
       <c r="H912" s="1">
-        <v>7036100.6478903936</v>
+        <v>14377262.89852274</v>
       </c>
     </row>
     <row r="913" spans="7:8" x14ac:dyDescent="0.25">
@@ -8331,7 +8327,7 @@
         <v>900</v>
       </c>
       <c r="H913" s="1">
-        <v>5237162.9193585049</v>
+        <v>2218354.2885251348</v>
       </c>
     </row>
     <row r="914" spans="7:8" x14ac:dyDescent="0.25">
@@ -8339,7 +8335,7 @@
         <v>901</v>
       </c>
       <c r="H914" s="1">
-        <v>3560089.6467875596</v>
+        <v>4768908.9021388786</v>
       </c>
     </row>
     <row r="915" spans="7:8" x14ac:dyDescent="0.25">
@@ -8347,7 +8343,7 @@
         <v>902</v>
       </c>
       <c r="H915" s="1">
-        <v>4255570.8964444892</v>
+        <v>8378106.7587343296</v>
       </c>
     </row>
     <row r="916" spans="7:8" x14ac:dyDescent="0.25">
@@ -8355,7 +8351,7 @@
         <v>903</v>
       </c>
       <c r="H916" s="1">
-        <v>2995937.9290485634</v>
+        <v>14060524.428351402</v>
       </c>
     </row>
     <row r="917" spans="7:8" x14ac:dyDescent="0.25">
@@ -8363,7 +8359,7 @@
         <v>904</v>
       </c>
       <c r="H917" s="1">
-        <v>4358900.4006577935</v>
+        <v>3209877.5646390757</v>
       </c>
     </row>
     <row r="918" spans="7:8" x14ac:dyDescent="0.25">
@@ -8371,7 +8367,7 @@
         <v>905</v>
       </c>
       <c r="H918" s="1">
-        <v>8517358.1182829626</v>
+        <v>5054682.1477467297</v>
       </c>
     </row>
     <row r="919" spans="7:8" x14ac:dyDescent="0.25">
@@ -8379,7 +8375,7 @@
         <v>906</v>
       </c>
       <c r="H919" s="1">
-        <v>3924873.8377215439</v>
+        <v>5084160.6236832421</v>
       </c>
     </row>
     <row r="920" spans="7:8" x14ac:dyDescent="0.25">
@@ -8387,7 +8383,7 @@
         <v>907</v>
       </c>
       <c r="H920" s="1">
-        <v>2413553.1606260245</v>
+        <v>3531248.1367340609</v>
       </c>
     </row>
     <row r="921" spans="7:8" x14ac:dyDescent="0.25">
@@ -8395,7 +8391,7 @@
         <v>908</v>
       </c>
       <c r="H921" s="1">
-        <v>3923396.0401622257</v>
+        <v>2425688.2397951889</v>
       </c>
     </row>
     <row r="922" spans="7:8" x14ac:dyDescent="0.25">
@@ -8403,7 +8399,7 @@
         <v>909</v>
       </c>
       <c r="H922" s="1">
-        <v>11317320.170886453</v>
+        <v>5230877.3366633384</v>
       </c>
     </row>
     <row r="923" spans="7:8" x14ac:dyDescent="0.25">
@@ -8411,7 +8407,7 @@
         <v>910</v>
       </c>
       <c r="H923" s="1">
-        <v>7826214.1045597773</v>
+        <v>3549681.2772641811</v>
       </c>
     </row>
     <row r="924" spans="7:8" x14ac:dyDescent="0.25">
@@ -8419,7 +8415,7 @@
         <v>911</v>
       </c>
       <c r="H924" s="1">
-        <v>3230330.0794962863</v>
+        <v>7906763.0695154043</v>
       </c>
     </row>
     <row r="925" spans="7:8" x14ac:dyDescent="0.25">
@@ -8427,7 +8423,7 @@
         <v>912</v>
       </c>
       <c r="H925" s="1">
-        <v>12496642.542211946</v>
+        <v>4194993.0304890648</v>
       </c>
     </row>
     <row r="926" spans="7:8" x14ac:dyDescent="0.25">
@@ -8435,7 +8431,7 @@
         <v>913</v>
       </c>
       <c r="H926" s="1">
-        <v>2037923.6896897766</v>
+        <v>7547232.8855082458</v>
       </c>
     </row>
     <row r="927" spans="7:8" x14ac:dyDescent="0.25">
@@ -8443,7 +8439,7 @@
         <v>914</v>
       </c>
       <c r="H927" s="1">
-        <v>2049283.3802722625</v>
+        <v>4847925.344585726</v>
       </c>
     </row>
     <row r="928" spans="7:8" x14ac:dyDescent="0.25">
@@ -8451,7 +8447,7 @@
         <v>915</v>
       </c>
       <c r="H928" s="1">
-        <v>10585037.31786331</v>
+        <v>2642702.8498613611</v>
       </c>
     </row>
     <row r="929" spans="7:8" x14ac:dyDescent="0.25">
@@ -8459,7 +8455,7 @@
         <v>916</v>
       </c>
       <c r="H929" s="1">
-        <v>2682717.7463233513</v>
+        <v>4481002.2489335835</v>
       </c>
     </row>
     <row r="930" spans="7:8" x14ac:dyDescent="0.25">
@@ -8467,7 +8463,7 @@
         <v>917</v>
       </c>
       <c r="H930" s="1">
-        <v>8559714.9747228473</v>
+        <v>19075991.688727327</v>
       </c>
     </row>
     <row r="931" spans="7:8" x14ac:dyDescent="0.25">
@@ -8475,7 +8471,7 @@
         <v>918</v>
       </c>
       <c r="H931" s="1">
-        <v>9748915.1261641048</v>
+        <v>3019830.417887934</v>
       </c>
     </row>
     <row r="932" spans="7:8" x14ac:dyDescent="0.25">
@@ -8483,7 +8479,7 @@
         <v>919</v>
       </c>
       <c r="H932" s="1">
-        <v>9823934.6335173678</v>
+        <v>11008975.899508776</v>
       </c>
     </row>
     <row r="933" spans="7:8" x14ac:dyDescent="0.25">
@@ -8491,7 +8487,7 @@
         <v>920</v>
       </c>
       <c r="H933" s="1">
-        <v>3590489.8168286919</v>
+        <v>9303404.8658596613</v>
       </c>
     </row>
     <row r="934" spans="7:8" x14ac:dyDescent="0.25">
@@ -8499,7 +8495,7 @@
         <v>921</v>
       </c>
       <c r="H934" s="1">
-        <v>2161474.407664841</v>
+        <v>2788957.2838884597</v>
       </c>
     </row>
     <row r="935" spans="7:8" x14ac:dyDescent="0.25">
@@ -8507,7 +8503,7 @@
         <v>922</v>
       </c>
       <c r="H935" s="1">
-        <v>15722671.970732061</v>
+        <v>5830967.0276137264</v>
       </c>
     </row>
     <row r="936" spans="7:8" x14ac:dyDescent="0.25">
@@ -8515,7 +8511,7 @@
         <v>923</v>
       </c>
       <c r="H936" s="1">
-        <v>4983217.7148051839</v>
+        <v>2953856.4970243433</v>
       </c>
     </row>
     <row r="937" spans="7:8" x14ac:dyDescent="0.25">
@@ -8523,7 +8519,7 @@
         <v>924</v>
       </c>
       <c r="H937" s="1">
-        <v>4914879.8518685838</v>
+        <v>833972.04770800483</v>
       </c>
     </row>
     <row r="938" spans="7:8" x14ac:dyDescent="0.25">
@@ -8531,7 +8527,7 @@
         <v>925</v>
       </c>
       <c r="H938" s="1">
-        <v>6087006.2467766888</v>
+        <v>12833791.993916256</v>
       </c>
     </row>
     <row r="939" spans="7:8" x14ac:dyDescent="0.25">
@@ -8539,7 +8535,7 @@
         <v>926</v>
       </c>
       <c r="H939" s="1">
-        <v>10187310.163790636</v>
+        <v>3332289.2785620005</v>
       </c>
     </row>
     <row r="940" spans="7:8" x14ac:dyDescent="0.25">
@@ -8547,7 +8543,7 @@
         <v>927</v>
       </c>
       <c r="H940" s="1">
-        <v>9614670.3701056559</v>
+        <v>6944511.4680574378</v>
       </c>
     </row>
     <row r="941" spans="7:8" x14ac:dyDescent="0.25">
@@ -8555,7 +8551,7 @@
         <v>928</v>
       </c>
       <c r="H941" s="1">
-        <v>6158678.5264618127</v>
+        <v>6587357.719528378</v>
       </c>
     </row>
     <row r="942" spans="7:8" x14ac:dyDescent="0.25">
@@ -8563,7 +8559,7 @@
         <v>929</v>
       </c>
       <c r="H942" s="1">
-        <v>7743303.4182366347</v>
+        <v>2315174.4465113641</v>
       </c>
     </row>
     <row r="943" spans="7:8" x14ac:dyDescent="0.25">
@@ -8571,7 +8567,7 @@
         <v>930</v>
       </c>
       <c r="H943" s="1">
-        <v>5170312.7754975995</v>
+        <v>3200016.3852501251</v>
       </c>
     </row>
     <row r="944" spans="7:8" x14ac:dyDescent="0.25">
@@ -8579,7 +8575,7 @@
         <v>931</v>
       </c>
       <c r="H944" s="1">
-        <v>2014929.0424113977</v>
+        <v>6516493.0597806778</v>
       </c>
     </row>
     <row r="945" spans="7:8" x14ac:dyDescent="0.25">
@@ -8587,7 +8583,7 @@
         <v>932</v>
       </c>
       <c r="H945" s="1">
-        <v>2804347.5301021957</v>
+        <v>9254540.6898223497</v>
       </c>
     </row>
     <row r="946" spans="7:8" x14ac:dyDescent="0.25">
@@ -8595,7 +8591,7 @@
         <v>933</v>
       </c>
       <c r="H946" s="1">
-        <v>6097637.8998936228</v>
+        <v>8997444.1700727176</v>
       </c>
     </row>
     <row r="947" spans="7:8" x14ac:dyDescent="0.25">
@@ -8603,7 +8599,7 @@
         <v>934</v>
       </c>
       <c r="H947" s="1">
-        <v>3434755.7659426969</v>
+        <v>7607219.7414401565</v>
       </c>
     </row>
     <row r="948" spans="7:8" x14ac:dyDescent="0.25">
@@ -8611,7 +8607,7 @@
         <v>935</v>
       </c>
       <c r="H948" s="1">
-        <v>5782622.698475834</v>
+        <v>3109543.2447989555</v>
       </c>
     </row>
     <row r="949" spans="7:8" x14ac:dyDescent="0.25">
@@ -8619,7 +8615,7 @@
         <v>936</v>
       </c>
       <c r="H949" s="1">
-        <v>4811090.0635028239</v>
+        <v>7336807.3697953746</v>
       </c>
     </row>
     <row r="950" spans="7:8" x14ac:dyDescent="0.25">
@@ -8627,7 +8623,7 @@
         <v>937</v>
       </c>
       <c r="H950" s="1">
-        <v>3691548.1021947348</v>
+        <v>7702320.318775665</v>
       </c>
     </row>
     <row r="951" spans="7:8" x14ac:dyDescent="0.25">
@@ -8635,7 +8631,7 @@
         <v>938</v>
       </c>
       <c r="H951" s="1">
-        <v>6731740.8955423087</v>
+        <v>4204704.1565151317</v>
       </c>
     </row>
     <row r="952" spans="7:8" x14ac:dyDescent="0.25">
@@ -8643,7 +8639,7 @@
         <v>939</v>
       </c>
       <c r="H952" s="1">
-        <v>2140822.1986287315</v>
+        <v>4284033.8235691944</v>
       </c>
     </row>
     <row r="953" spans="7:8" x14ac:dyDescent="0.25">
@@ -8651,7 +8647,7 @@
         <v>940</v>
       </c>
       <c r="H953" s="1">
-        <v>7801727.7359644929</v>
+        <v>3110901.2582720057</v>
       </c>
     </row>
     <row r="954" spans="7:8" x14ac:dyDescent="0.25">
@@ -8659,7 +8655,7 @@
         <v>941</v>
       </c>
       <c r="H954" s="1">
-        <v>4301628.4052179512</v>
+        <v>2716518.1910336502</v>
       </c>
     </row>
     <row r="955" spans="7:8" x14ac:dyDescent="0.25">
@@ -8667,7 +8663,7 @@
         <v>942</v>
       </c>
       <c r="H955" s="1">
-        <v>5126135.8137638606</v>
+        <v>4090495.4051105944</v>
       </c>
     </row>
     <row r="956" spans="7:8" x14ac:dyDescent="0.25">
@@ -8675,7 +8671,7 @@
         <v>943</v>
       </c>
       <c r="H956" s="1">
-        <v>4410369.6756303245</v>
+        <v>3553793.4950202662</v>
       </c>
     </row>
     <row r="957" spans="7:8" x14ac:dyDescent="0.25">
@@ -8683,7 +8679,7 @@
         <v>944</v>
       </c>
       <c r="H957" s="1">
-        <v>10464133.409592217</v>
+        <v>7919391.7718462292</v>
       </c>
     </row>
     <row r="958" spans="7:8" x14ac:dyDescent="0.25">
@@ -8691,7 +8687,7 @@
         <v>945</v>
       </c>
       <c r="H958" s="1">
-        <v>3363618.6406161883</v>
+        <v>10341507.636743588</v>
       </c>
     </row>
     <row r="959" spans="7:8" x14ac:dyDescent="0.25">
@@ -8699,7 +8695,7 @@
         <v>946</v>
       </c>
       <c r="H959" s="1">
-        <v>4220337.7709562378</v>
+        <v>2427326.5170110511</v>
       </c>
     </row>
     <row r="960" spans="7:8" x14ac:dyDescent="0.25">
@@ -8707,7 +8703,7 @@
         <v>947</v>
       </c>
       <c r="H960" s="1">
-        <v>4642185.5383146023</v>
+        <v>3004553.510393749</v>
       </c>
     </row>
     <row r="961" spans="7:8" x14ac:dyDescent="0.25">
@@ -8715,7 +8711,7 @@
         <v>948</v>
       </c>
       <c r="H961" s="1">
-        <v>12135636.366253806</v>
+        <v>3197141.071560781</v>
       </c>
     </row>
     <row r="962" spans="7:8" x14ac:dyDescent="0.25">
@@ -8723,7 +8719,7 @@
         <v>949</v>
       </c>
       <c r="H962" s="1">
-        <v>6644054.9992807005</v>
+        <v>3322484.118063733</v>
       </c>
     </row>
     <row r="963" spans="7:8" x14ac:dyDescent="0.25">
@@ -8731,7 +8727,7 @@
         <v>950</v>
       </c>
       <c r="H963" s="1">
-        <v>8690920.6385080442</v>
+        <v>2941668.6296867472</v>
       </c>
     </row>
     <row r="964" spans="7:8" x14ac:dyDescent="0.25">
@@ -8739,7 +8735,7 @@
         <v>951</v>
       </c>
       <c r="H964" s="1">
-        <v>17545811.261291288</v>
+        <v>3726362.9950733404</v>
       </c>
     </row>
     <row r="965" spans="7:8" x14ac:dyDescent="0.25">
@@ -8747,7 +8743,7 @@
         <v>952</v>
       </c>
       <c r="H965" s="1">
-        <v>4149670.4769107173</v>
+        <v>2202636.3359253975</v>
       </c>
     </row>
     <row r="966" spans="7:8" x14ac:dyDescent="0.25">
@@ -8755,7 +8751,7 @@
         <v>953</v>
       </c>
       <c r="H966" s="1">
-        <v>6028146.4713718081</v>
+        <v>6293558.0939214798</v>
       </c>
     </row>
     <row r="967" spans="7:8" x14ac:dyDescent="0.25">
@@ -8763,7 +8759,7 @@
         <v>954</v>
       </c>
       <c r="H967" s="1">
-        <v>5693091.3940051487</v>
+        <v>3205435.6391422432</v>
       </c>
     </row>
     <row r="968" spans="7:8" x14ac:dyDescent="0.25">
@@ -8771,7 +8767,7 @@
         <v>955</v>
       </c>
       <c r="H968" s="1">
-        <v>3380930.120544828</v>
+        <v>3512383.2668926516</v>
       </c>
     </row>
     <row r="969" spans="7:8" x14ac:dyDescent="0.25">
@@ -8779,7 +8775,7 @@
         <v>956</v>
       </c>
       <c r="H969" s="1">
-        <v>4013621.0384682235</v>
+        <v>4400762.9476489602</v>
       </c>
     </row>
     <row r="970" spans="7:8" x14ac:dyDescent="0.25">
@@ -8787,7 +8783,7 @@
         <v>957</v>
       </c>
       <c r="H970" s="1">
-        <v>3299726.5072834152</v>
+        <v>3598430.0114301099</v>
       </c>
     </row>
     <row r="971" spans="7:8" x14ac:dyDescent="0.25">
@@ -8795,7 +8791,7 @@
         <v>958</v>
       </c>
       <c r="H971" s="1">
-        <v>5221205.1293571182</v>
+        <v>2953455.9634772735</v>
       </c>
     </row>
     <row r="972" spans="7:8" x14ac:dyDescent="0.25">
@@ -8803,7 +8799,7 @@
         <v>959</v>
       </c>
       <c r="H972" s="1">
-        <v>6874033.7515862593</v>
+        <v>3520737.8433421804</v>
       </c>
     </row>
     <row r="973" spans="7:8" x14ac:dyDescent="0.25">
@@ -8811,7 +8807,7 @@
         <v>960</v>
       </c>
       <c r="H973" s="1">
-        <v>4311073.4518612865</v>
+        <v>5222676.1291538002</v>
       </c>
     </row>
     <row r="974" spans="7:8" x14ac:dyDescent="0.25">
@@ -8819,7 +8815,7 @@
         <v>961</v>
       </c>
       <c r="H974" s="1">
-        <v>2854984.2571449541</v>
+        <v>10076516.174511561</v>
       </c>
     </row>
     <row r="975" spans="7:8" x14ac:dyDescent="0.25">
@@ -8827,7 +8823,7 @@
         <v>962</v>
       </c>
       <c r="H975" s="1">
-        <v>4265797.0637658918</v>
+        <v>7649726.9916650373</v>
       </c>
     </row>
     <row r="976" spans="7:8" x14ac:dyDescent="0.25">
@@ -8835,7 +8831,7 @@
         <v>963</v>
       </c>
       <c r="H976" s="1">
-        <v>5648824.5819901526</v>
+        <v>5989204.1417998765</v>
       </c>
     </row>
     <row r="977" spans="7:8" x14ac:dyDescent="0.25">
@@ -8843,7 +8839,7 @@
         <v>964</v>
       </c>
       <c r="H977" s="1">
-        <v>2733947.5110661248</v>
+        <v>11402574.922009962</v>
       </c>
     </row>
     <row r="978" spans="7:8" x14ac:dyDescent="0.25">
@@ -8851,7 +8847,7 @@
         <v>965</v>
       </c>
       <c r="H978" s="1">
-        <v>8817670.3982950691</v>
+        <v>2021458.0694523645</v>
       </c>
     </row>
     <row r="979" spans="7:8" x14ac:dyDescent="0.25">
@@ -8859,7 +8855,7 @@
         <v>966</v>
       </c>
       <c r="H979" s="1">
-        <v>2680464.8541520885</v>
+        <v>3761793.5842628707</v>
       </c>
     </row>
     <row r="980" spans="7:8" x14ac:dyDescent="0.25">
@@ -8867,7 +8863,7 @@
         <v>967</v>
       </c>
       <c r="H980" s="1">
-        <v>10659405.979532501</v>
+        <v>6587977.5543423016</v>
       </c>
     </row>
     <row r="981" spans="7:8" x14ac:dyDescent="0.25">
@@ -8875,7 +8871,7 @@
         <v>968</v>
       </c>
       <c r="H981" s="1">
-        <v>10823557.73880991</v>
+        <v>7576983.6089321459</v>
       </c>
     </row>
     <row r="982" spans="7:8" x14ac:dyDescent="0.25">
@@ -8883,7 +8879,7 @@
         <v>969</v>
       </c>
       <c r="H982" s="1">
-        <v>1937738.7535183933</v>
+        <v>3236214.4918926843</v>
       </c>
     </row>
     <row r="983" spans="7:8" x14ac:dyDescent="0.25">
@@ -8891,7 +8887,7 @@
         <v>970</v>
       </c>
       <c r="H983" s="1">
-        <v>5450911.6666978337</v>
+        <v>3161980.7611442055</v>
       </c>
     </row>
     <row r="984" spans="7:8" x14ac:dyDescent="0.25">
@@ -8899,7 +8895,7 @@
         <v>971</v>
       </c>
       <c r="H984" s="1">
-        <v>4947877.0535566853</v>
+        <v>3096903.9323289515</v>
       </c>
     </row>
     <row r="985" spans="7:8" x14ac:dyDescent="0.25">
@@ -8907,7 +8903,7 @@
         <v>972</v>
       </c>
       <c r="H985" s="1">
-        <v>7964391.3843618603</v>
+        <v>1853885.303253887</v>
       </c>
     </row>
     <row r="986" spans="7:8" x14ac:dyDescent="0.25">
@@ -8915,7 +8911,7 @@
         <v>973</v>
       </c>
       <c r="H986" s="1">
-        <v>5733925.6330890888</v>
+        <v>3517755.0869933902</v>
       </c>
     </row>
     <row r="987" spans="7:8" x14ac:dyDescent="0.25">
@@ -8923,7 +8919,7 @@
         <v>974</v>
       </c>
       <c r="H987" s="1">
-        <v>8791000.8759011738</v>
+        <v>2842938.456417894</v>
       </c>
     </row>
     <row r="988" spans="7:8" x14ac:dyDescent="0.25">
@@ -8931,7 +8927,7 @@
         <v>975</v>
       </c>
       <c r="H988" s="1">
-        <v>7237293.763769255</v>
+        <v>5627475.7404071549</v>
       </c>
     </row>
     <row r="989" spans="7:8" x14ac:dyDescent="0.25">
@@ -8939,7 +8935,7 @@
         <v>976</v>
       </c>
       <c r="H989" s="1">
-        <v>3053358.6448013377</v>
+        <v>1691327.8028755786</v>
       </c>
     </row>
     <row r="990" spans="7:8" x14ac:dyDescent="0.25">
@@ -8947,7 +8943,7 @@
         <v>977</v>
       </c>
       <c r="H990" s="1">
-        <v>1286791.6238843284</v>
+        <v>2424752.8842902649</v>
       </c>
     </row>
     <row r="991" spans="7:8" x14ac:dyDescent="0.25">
@@ -8955,7 +8951,7 @@
         <v>978</v>
       </c>
       <c r="H991" s="1">
-        <v>13010430.923659416</v>
+        <v>4636059.1591382679</v>
       </c>
     </row>
     <row r="992" spans="7:8" x14ac:dyDescent="0.25">
@@ -8963,7 +8959,7 @@
         <v>979</v>
       </c>
       <c r="H992" s="1">
-        <v>2417015.6544640744</v>
+        <v>9095513.3074523062</v>
       </c>
     </row>
     <row r="993" spans="7:8" x14ac:dyDescent="0.25">
@@ -8971,7 +8967,7 @@
         <v>980</v>
       </c>
       <c r="H993" s="1">
-        <v>5019222.2265377007</v>
+        <v>6001558.8226750372</v>
       </c>
     </row>
     <row r="994" spans="7:8" x14ac:dyDescent="0.25">
@@ -8979,7 +8975,7 @@
         <v>981</v>
       </c>
       <c r="H994" s="1">
-        <v>2991993.2854303634</v>
+        <v>3048417.9929064265</v>
       </c>
     </row>
     <row r="995" spans="7:8" x14ac:dyDescent="0.25">
@@ -8987,7 +8983,7 @@
         <v>982</v>
       </c>
       <c r="H995" s="1">
-        <v>6510175.6541736219</v>
+        <v>4438182.5727727329</v>
       </c>
     </row>
     <row r="996" spans="7:8" x14ac:dyDescent="0.25">
@@ -8995,7 +8991,7 @@
         <v>983</v>
       </c>
       <c r="H996" s="1">
-        <v>4508784.7361227507</v>
+        <v>1874508.4049704433</v>
       </c>
     </row>
     <row r="997" spans="7:8" x14ac:dyDescent="0.25">
@@ -9003,7 +8999,7 @@
         <v>984</v>
       </c>
       <c r="H997" s="1">
-        <v>6535592.840928209</v>
+        <v>3111168.8347763144</v>
       </c>
     </row>
     <row r="998" spans="7:8" x14ac:dyDescent="0.25">
@@ -9011,7 +9007,7 @@
         <v>985</v>
       </c>
       <c r="H998" s="1">
-        <v>3259865.6511626248</v>
+        <v>9700077.2446037959</v>
       </c>
     </row>
     <row r="999" spans="7:8" x14ac:dyDescent="0.25">
@@ -9019,7 +9015,7 @@
         <v>986</v>
       </c>
       <c r="H999" s="1">
-        <v>4146106.0234083943</v>
+        <v>8556757.1117306501</v>
       </c>
     </row>
     <row r="1000" spans="7:8" x14ac:dyDescent="0.25">
@@ -9027,7 +9023,7 @@
         <v>987</v>
       </c>
       <c r="H1000" s="1">
-        <v>5952931.271639619</v>
+        <v>5625299.941051539</v>
       </c>
     </row>
     <row r="1001" spans="7:8" x14ac:dyDescent="0.25">
@@ -9035,7 +9031,7 @@
         <v>988</v>
       </c>
       <c r="H1001" s="1">
-        <v>14127549.318983736</v>
+        <v>5239486.4313934837</v>
       </c>
     </row>
     <row r="1002" spans="7:8" x14ac:dyDescent="0.25">
@@ -9043,7 +9039,7 @@
         <v>989</v>
       </c>
       <c r="H1002" s="1">
-        <v>2753375.4388048537</v>
+        <v>3940421.4957138444</v>
       </c>
     </row>
     <row r="1003" spans="7:8" x14ac:dyDescent="0.25">
@@ -9051,7 +9047,7 @@
         <v>990</v>
       </c>
       <c r="H1003" s="1">
-        <v>2678762.8402607488</v>
+        <v>3787494.175997593</v>
       </c>
     </row>
     <row r="1004" spans="7:8" x14ac:dyDescent="0.25">
@@ -9059,7 +9055,7 @@
         <v>991</v>
       </c>
       <c r="H1004" s="1">
-        <v>7359207.8450978836</v>
+        <v>4704581.071226134</v>
       </c>
     </row>
     <row r="1005" spans="7:8" x14ac:dyDescent="0.25">
@@ -9067,7 +9063,7 @@
         <v>992</v>
       </c>
       <c r="H1005" s="1">
-        <v>1389953.9972872331</v>
+        <v>4200189.009648053</v>
       </c>
     </row>
     <row r="1006" spans="7:8" x14ac:dyDescent="0.25">
@@ -9075,7 +9071,7 @@
         <v>993</v>
       </c>
       <c r="H1006" s="1">
-        <v>4222688.5554994</v>
+        <v>3356719.1473109093</v>
       </c>
     </row>
     <row r="1007" spans="7:8" x14ac:dyDescent="0.25">
@@ -9083,7 +9079,7 @@
         <v>994</v>
       </c>
       <c r="H1007" s="1">
-        <v>2946784.0227526226</v>
+        <v>4886146.1561664045</v>
       </c>
     </row>
     <row r="1008" spans="7:8" x14ac:dyDescent="0.25">
@@ -9091,7 +9087,7 @@
         <v>995</v>
       </c>
       <c r="H1008" s="1">
-        <v>4326159.3567641983</v>
+        <v>13332155.112586003</v>
       </c>
     </row>
     <row r="1009" spans="7:8" x14ac:dyDescent="0.25">
@@ -9099,7 +9095,7 @@
         <v>996</v>
       </c>
       <c r="H1009" s="1">
-        <v>3122834.7251448566</v>
+        <v>4334627.5802666694</v>
       </c>
     </row>
     <row r="1010" spans="7:8" x14ac:dyDescent="0.25">
@@ -9107,7 +9103,7 @@
         <v>997</v>
       </c>
       <c r="H1010" s="1">
-        <v>3981969.249910811</v>
+        <v>3070879.9171322053</v>
       </c>
     </row>
     <row r="1011" spans="7:8" x14ac:dyDescent="0.25">
@@ -9115,7 +9111,7 @@
         <v>998</v>
       </c>
       <c r="H1011" s="1">
-        <v>2396843.2849073801</v>
+        <v>2711248.635787684</v>
       </c>
     </row>
     <row r="1012" spans="7:8" x14ac:dyDescent="0.25">
@@ -9123,7 +9119,7 @@
         <v>999</v>
       </c>
       <c r="H1012" s="1">
-        <v>2576336.4785008398</v>
+        <v>7583739.3552898765</v>
       </c>
     </row>
     <row r="1013" spans="7:8" x14ac:dyDescent="0.25">
@@ -9131,7 +9127,7 @@
         <v>1000</v>
       </c>
       <c r="H1013" s="1">
-        <v>2667166.484184124</v>
+        <v>4968537.4714606553</v>
       </c>
     </row>
   </sheetData>
